--- a/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>TAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,244 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>446400</v>
+        <v>440400</v>
       </c>
       <c r="E8" s="3">
-        <v>374100</v>
+        <v>442600</v>
       </c>
       <c r="F8" s="3">
-        <v>487800</v>
+        <v>430900</v>
       </c>
       <c r="G8" s="3">
-        <v>468200</v>
+        <v>361200</v>
       </c>
       <c r="H8" s="3">
-        <v>446400</v>
+        <v>470900</v>
       </c>
       <c r="I8" s="3">
+        <v>452000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>430900</v>
+      </c>
+      <c r="K8" s="3">
         <v>335700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>442600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>474800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>437600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>374300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>444000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>550800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>476300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>279300</v>
+        <v>266000</v>
       </c>
       <c r="E9" s="3">
-        <v>231100</v>
+        <v>300100</v>
       </c>
       <c r="F9" s="3">
-        <v>353800</v>
+        <v>269600</v>
       </c>
       <c r="G9" s="3">
-        <v>357600</v>
+        <v>223100</v>
       </c>
       <c r="H9" s="3">
-        <v>322200</v>
+        <v>341500</v>
       </c>
       <c r="I9" s="3">
+        <v>345200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>311000</v>
+      </c>
+      <c r="K9" s="3">
         <v>227300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>308600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>326000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>307400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>228500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>288100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>311100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>322700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>167100</v>
+        <v>174400</v>
       </c>
       <c r="E10" s="3">
-        <v>143000</v>
+        <v>142400</v>
       </c>
       <c r="F10" s="3">
+        <v>161300</v>
+      </c>
+      <c r="G10" s="3">
+        <v>138100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>129400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>106800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>119900</v>
+      </c>
+      <c r="K10" s="3">
+        <v>108400</v>
+      </c>
+      <c r="L10" s="3">
         <v>134000</v>
       </c>
-      <c r="G10" s="3">
-        <v>110700</v>
-      </c>
-      <c r="H10" s="3">
-        <v>124200</v>
-      </c>
-      <c r="I10" s="3">
-        <v>108400</v>
-      </c>
-      <c r="J10" s="3">
-        <v>134000</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>148800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>130200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>145900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>156000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>239700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>153600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>150600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,102 +1022,120 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-16600</v>
+        <v>-29800</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>34200</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-16000</v>
       </c>
       <c r="G14" s="3">
-        <v>17300</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>42900</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>16700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K14" s="3">
         <v>9000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>3800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>4500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>14900</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>21500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>800</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>113400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>111900</v>
+      </c>
+      <c r="F15" s="3">
+        <v>107600</v>
+      </c>
+      <c r="G15" s="3">
+        <v>103900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>105400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>110500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>106100</v>
+      </c>
+      <c r="K15" s="3">
+        <v>109900</v>
+      </c>
+      <c r="L15" s="3">
+        <v>97900</v>
+      </c>
+      <c r="M15" s="3">
+        <v>134000</v>
+      </c>
+      <c r="N15" s="3">
+        <v>117600</v>
+      </c>
+      <c r="O15" s="3">
+        <v>114600</v>
+      </c>
+      <c r="P15" s="3">
+        <v>109900</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>143700</v>
+      </c>
+      <c r="R15" s="3">
         <v>111400</v>
       </c>
-      <c r="E15" s="3">
-        <v>107600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>109200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>114400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>109900</v>
-      </c>
-      <c r="I15" s="3">
-        <v>109900</v>
-      </c>
-      <c r="J15" s="3">
-        <v>97900</v>
-      </c>
-      <c r="K15" s="3">
-        <v>134000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>117600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>114600</v>
-      </c>
-      <c r="N15" s="3">
-        <v>109900</v>
-      </c>
-      <c r="O15" s="3">
-        <v>143700</v>
-      </c>
-      <c r="P15" s="3">
-        <v>111400</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>112900</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>329700</v>
+        <v>348800</v>
       </c>
       <c r="E17" s="3">
-        <v>335700</v>
+        <v>375000</v>
       </c>
       <c r="F17" s="3">
-        <v>460700</v>
+        <v>318300</v>
       </c>
       <c r="G17" s="3">
-        <v>487800</v>
+        <v>324100</v>
       </c>
       <c r="H17" s="3">
-        <v>468200</v>
+        <v>444700</v>
       </c>
       <c r="I17" s="3">
+        <v>470900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>452000</v>
+      </c>
+      <c r="K17" s="3">
         <v>344800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>289800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>451000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>427200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>356500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>396400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>333400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>440200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>116700</v>
+        <v>91600</v>
       </c>
       <c r="E18" s="3">
-        <v>38400</v>
+        <v>67600</v>
       </c>
       <c r="F18" s="3">
-        <v>27100</v>
+        <v>112600</v>
       </c>
       <c r="G18" s="3">
-        <v>-19600</v>
+        <v>37100</v>
       </c>
       <c r="H18" s="3">
-        <v>-21800</v>
+        <v>26200</v>
       </c>
       <c r="I18" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-9000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>152800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>23800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>10400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>17900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>47600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>217400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>36100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1277,275 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-14300</v>
+        <v>-20300</v>
       </c>
       <c r="E20" s="3">
-        <v>-19600</v>
+        <v>71200</v>
       </c>
       <c r="F20" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="L20" s="3">
         <v>-4500</v>
       </c>
-      <c r="G20" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>8200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-3700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>9700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>4600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>18400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>15400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>235600</v>
+        <v>204900</v>
       </c>
       <c r="E21" s="3">
-        <v>149100</v>
+        <v>273200</v>
       </c>
       <c r="F21" s="3">
-        <v>153600</v>
+        <v>227500</v>
       </c>
       <c r="G21" s="3">
-        <v>115900</v>
+        <v>143900</v>
       </c>
       <c r="H21" s="3">
-        <v>103900</v>
+        <v>148200</v>
       </c>
       <c r="I21" s="3">
+        <v>111900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>100300</v>
+      </c>
+      <c r="K21" s="3">
         <v>122000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>269500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>180100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>137700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>156300</v>
-      </c>
-      <c r="N21" s="3">
-        <v>175200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>394100</v>
       </c>
       <c r="P21" s="3">
         <v>175200</v>
       </c>
       <c r="Q21" s="3">
+        <v>394100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>175200</v>
+      </c>
+      <c r="S21" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>36900</v>
+        <v>37800</v>
       </c>
       <c r="E22" s="3">
-        <v>36900</v>
+        <v>34900</v>
       </c>
       <c r="F22" s="3">
-        <v>32400</v>
+        <v>35600</v>
       </c>
       <c r="G22" s="3">
-        <v>31600</v>
+        <v>35600</v>
       </c>
       <c r="H22" s="3">
-        <v>34600</v>
+        <v>31200</v>
       </c>
       <c r="I22" s="3">
+        <v>30500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>33400</v>
+      </c>
+      <c r="K22" s="3">
         <v>39900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>42900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>40200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>38700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>38700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>40700</v>
-      </c>
-      <c r="O22" s="3">
-        <v>41500</v>
-      </c>
-      <c r="P22" s="3">
-        <v>42300</v>
       </c>
       <c r="Q22" s="3">
         <v>41500</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>42300</v>
+      </c>
+      <c r="S22" s="3">
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>65500</v>
+        <v>33400</v>
       </c>
       <c r="E23" s="3">
-        <v>-18100</v>
+        <v>103900</v>
       </c>
       <c r="F23" s="3">
-        <v>-9800</v>
+        <v>63200</v>
       </c>
       <c r="G23" s="3">
-        <v>-56500</v>
+        <v>-17400</v>
       </c>
       <c r="H23" s="3">
-        <v>-66200</v>
+        <v>-9400</v>
       </c>
       <c r="I23" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-55000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>105400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-8200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-32000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-11200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>11500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>194400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>9200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="E24" s="3">
-        <v>-37600</v>
+        <v>29100</v>
       </c>
       <c r="F24" s="3">
-        <v>12800</v>
+        <v>7300</v>
       </c>
       <c r="G24" s="3">
-        <v>-12000</v>
+        <v>-36300</v>
       </c>
       <c r="H24" s="3">
-        <v>-15800</v>
+        <v>12400</v>
       </c>
       <c r="I24" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-4500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>27900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>78100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-3700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-14100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-13100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>63000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="E26" s="3">
-        <v>19600</v>
+        <v>74800</v>
       </c>
       <c r="F26" s="3">
-        <v>-22600</v>
+        <v>56000</v>
       </c>
       <c r="G26" s="3">
-        <v>-44400</v>
+        <v>18900</v>
       </c>
       <c r="H26" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-50400</v>
       </c>
-      <c r="I26" s="3">
-        <v>-50400</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>77500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-86300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-28300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>24600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>131400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>10800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>38400</v>
+        <v>19600</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="F27" s="3">
-        <v>-48900</v>
+        <v>37100</v>
       </c>
       <c r="G27" s="3">
-        <v>-91800</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>-64700</v>
+        <v>-47200</v>
       </c>
       <c r="I27" s="3">
+        <v>-88700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-79000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>48900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-107900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-20100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-13400</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>46900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>14300</v>
+        <v>20300</v>
       </c>
       <c r="E32" s="3">
-        <v>19600</v>
+        <v>-71200</v>
       </c>
       <c r="F32" s="3">
+        <v>13800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>18900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="L32" s="3">
         <v>4500</v>
       </c>
-      <c r="G32" s="3">
-        <v>5300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>9800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>4500</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-8200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>3700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-9700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-4600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-18400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>38400</v>
+        <v>19600</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="F33" s="3">
-        <v>-48900</v>
+        <v>37100</v>
       </c>
       <c r="G33" s="3">
-        <v>-91800</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>-64700</v>
+        <v>-47200</v>
       </c>
       <c r="I33" s="3">
+        <v>-88700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-79000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>48900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-107900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-20100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-13400</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>46900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>38400</v>
+        <v>19600</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="F35" s="3">
-        <v>-48900</v>
+        <v>37100</v>
       </c>
       <c r="G35" s="3">
-        <v>-91800</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>-64700</v>
+        <v>-47200</v>
       </c>
       <c r="I35" s="3">
+        <v>-88700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-79000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>48900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-107900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-20100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-13400</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>46900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>245400</v>
+        <v>245600</v>
       </c>
       <c r="E41" s="3">
-        <v>156600</v>
+        <v>298700</v>
       </c>
       <c r="F41" s="3">
-        <v>82100</v>
+        <v>236900</v>
       </c>
       <c r="G41" s="3">
-        <v>67000</v>
+        <v>151200</v>
       </c>
       <c r="H41" s="3">
-        <v>71500</v>
+        <v>79200</v>
       </c>
       <c r="I41" s="3">
+        <v>64700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>69000</v>
+      </c>
+      <c r="K41" s="3">
         <v>92600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>247700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>233700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>64700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>37200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>387200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>234300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>120600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,337 +2327,385 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>340300</v>
+        <v>313200</v>
       </c>
       <c r="E43" s="3">
-        <v>379400</v>
+        <v>335700</v>
       </c>
       <c r="F43" s="3">
-        <v>550300</v>
+        <v>328500</v>
       </c>
       <c r="G43" s="3">
-        <v>569100</v>
+        <v>366300</v>
       </c>
       <c r="H43" s="3">
-        <v>489300</v>
+        <v>531200</v>
       </c>
       <c r="I43" s="3">
+        <v>549400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>472300</v>
+      </c>
+      <c r="K43" s="3">
         <v>423100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>505100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>694300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>829000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>499400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>504700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>480900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>383300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>347200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>183700</v>
+        <v>191100</v>
       </c>
       <c r="E44" s="3">
-        <v>201700</v>
+        <v>182400</v>
       </c>
       <c r="F44" s="3">
-        <v>170100</v>
+        <v>177300</v>
       </c>
       <c r="G44" s="3">
-        <v>182200</v>
+        <v>194800</v>
       </c>
       <c r="H44" s="3">
-        <v>198700</v>
+        <v>164200</v>
       </c>
       <c r="I44" s="3">
+        <v>175900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>191800</v>
+      </c>
+      <c r="K44" s="3">
         <v>211500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>168600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>163000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>173400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>183800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>152100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>163600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>163600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>182800</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>350000</v>
+        <v>242700</v>
       </c>
       <c r="E45" s="3">
-        <v>176900</v>
+        <v>157700</v>
       </c>
       <c r="F45" s="3">
-        <v>146800</v>
+        <v>337900</v>
       </c>
       <c r="G45" s="3">
-        <v>169400</v>
+        <v>170800</v>
       </c>
       <c r="H45" s="3">
-        <v>206300</v>
+        <v>141700</v>
       </c>
       <c r="I45" s="3">
+        <v>163500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>199100</v>
+      </c>
+      <c r="K45" s="3">
         <v>173100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>170900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>180800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>173400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>206900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>255800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>315000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>227400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1119400</v>
+        <v>992700</v>
       </c>
       <c r="E46" s="3">
-        <v>914600</v>
+        <v>974500</v>
       </c>
       <c r="F46" s="3">
-        <v>949300</v>
+        <v>1080600</v>
       </c>
       <c r="G46" s="3">
-        <v>987700</v>
+        <v>882900</v>
       </c>
       <c r="H46" s="3">
-        <v>965800</v>
+        <v>916400</v>
       </c>
       <c r="I46" s="3">
+        <v>953400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>932300</v>
+      </c>
+      <c r="K46" s="3">
         <v>900300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1092300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1271900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1240600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>927300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1299800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1193800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>895000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>828200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>134700</v>
+        <v>125000</v>
       </c>
       <c r="E47" s="3">
-        <v>137800</v>
+        <v>127900</v>
       </c>
       <c r="F47" s="3">
-        <v>140800</v>
+        <v>130100</v>
       </c>
       <c r="G47" s="3">
-        <v>143800</v>
+        <v>133000</v>
       </c>
       <c r="H47" s="3">
-        <v>147500</v>
+        <v>135900</v>
       </c>
       <c r="I47" s="3">
+        <v>138800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>142400</v>
+      </c>
+      <c r="K47" s="3">
         <v>152100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>157300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>160000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>171200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>500100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>535500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>552400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>554700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4500900</v>
+        <v>4520000</v>
       </c>
       <c r="E48" s="3">
-        <v>4604800</v>
+        <v>4616700</v>
       </c>
       <c r="F48" s="3">
-        <v>4599500</v>
+        <v>4344900</v>
       </c>
       <c r="G48" s="3">
-        <v>4640200</v>
+        <v>4445200</v>
       </c>
       <c r="H48" s="3">
-        <v>4668100</v>
+        <v>4440100</v>
       </c>
       <c r="I48" s="3">
+        <v>4479300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4506200</v>
+      </c>
+      <c r="K48" s="3">
         <v>4787000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4869800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4895400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4952000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4989200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5232400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>5242400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>5354600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>5337700</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>594000</v>
+        <v>565400</v>
       </c>
       <c r="E49" s="3">
-        <v>621100</v>
+        <v>568300</v>
       </c>
       <c r="F49" s="3">
-        <v>629300</v>
+        <v>573400</v>
       </c>
       <c r="G49" s="3">
-        <v>630100</v>
+        <v>599500</v>
       </c>
       <c r="H49" s="3">
-        <v>606000</v>
+        <v>607500</v>
       </c>
       <c r="I49" s="3">
+        <v>608200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>585000</v>
+      </c>
+      <c r="K49" s="3">
         <v>612000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>618800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>615500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>617700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>600600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>623000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>629200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>630700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>622600</v>
+        <v>658400</v>
       </c>
       <c r="E52" s="3">
-        <v>646600</v>
+        <v>622000</v>
       </c>
       <c r="F52" s="3">
-        <v>703100</v>
+        <v>601000</v>
       </c>
       <c r="G52" s="3">
-        <v>695600</v>
+        <v>624200</v>
       </c>
       <c r="H52" s="3">
-        <v>704600</v>
+        <v>678700</v>
       </c>
       <c r="I52" s="3">
+        <v>671500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>680200</v>
+      </c>
+      <c r="K52" s="3">
         <v>770100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>761800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>725600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>729300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>736800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>797400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>829700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>745200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>739800</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6971600</v>
+        <v>6861400</v>
       </c>
       <c r="E54" s="3">
-        <v>6924900</v>
+        <v>6909400</v>
       </c>
       <c r="F54" s="3">
-        <v>7022000</v>
+        <v>6729900</v>
       </c>
       <c r="G54" s="3">
-        <v>7097300</v>
+        <v>6684800</v>
       </c>
       <c r="H54" s="3">
-        <v>7092000</v>
+        <v>6778600</v>
       </c>
       <c r="I54" s="3">
+        <v>6851200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>6846100</v>
+      </c>
+      <c r="K54" s="3">
         <v>7221500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7500000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7668300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7710800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7753900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>8488200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>8447500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8180100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>8100200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +3009,328 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>268700</v>
+        <v>300100</v>
       </c>
       <c r="E57" s="3">
-        <v>274000</v>
+        <v>300100</v>
       </c>
       <c r="F57" s="3">
-        <v>344800</v>
+        <v>259400</v>
       </c>
       <c r="G57" s="3">
-        <v>374100</v>
+        <v>264500</v>
       </c>
       <c r="H57" s="3">
-        <v>359100</v>
+        <v>332800</v>
       </c>
       <c r="I57" s="3">
+        <v>361200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>346600</v>
+      </c>
+      <c r="K57" s="3">
         <v>319900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>373400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>442800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>380300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>313300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>351100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>317300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>283500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>229700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>373500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>372800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>74800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>76300</v>
+      </c>
+      <c r="H58" s="3">
+        <v>76300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>107600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>95900</v>
+      </c>
+      <c r="K58" s="3">
         <v>77500</v>
       </c>
-      <c r="E58" s="3">
-        <v>79000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>79000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>111400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>99400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>77500</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>105400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>555900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>686900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>701800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>484000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>490900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>452500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>207000</v>
+        <v>154800</v>
       </c>
       <c r="E59" s="3">
-        <v>172400</v>
+        <v>138800</v>
       </c>
       <c r="F59" s="3">
-        <v>158800</v>
+        <v>199800</v>
       </c>
       <c r="G59" s="3">
-        <v>171600</v>
+        <v>166400</v>
       </c>
       <c r="H59" s="3">
-        <v>137800</v>
+        <v>153300</v>
       </c>
       <c r="I59" s="3">
+        <v>165700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>133000</v>
+      </c>
+      <c r="K59" s="3">
         <v>159600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>203300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>198000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>94500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>105700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>117500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>126800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>218900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>553100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>553300</v>
+        <v>828400</v>
       </c>
       <c r="E60" s="3">
-        <v>525400</v>
+        <v>811700</v>
       </c>
       <c r="F60" s="3">
-        <v>582700</v>
+        <v>534100</v>
       </c>
       <c r="G60" s="3">
-        <v>657200</v>
+        <v>507200</v>
       </c>
       <c r="H60" s="3">
-        <v>596200</v>
+        <v>562500</v>
       </c>
       <c r="I60" s="3">
+        <v>634400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>575500</v>
+      </c>
+      <c r="K60" s="3">
         <v>557100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>682000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1196700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1161700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1120800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>952600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>934900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>954900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>904200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2421700</v>
+        <v>2174300</v>
       </c>
       <c r="E61" s="3">
-        <v>2458600</v>
+        <v>2198200</v>
       </c>
       <c r="F61" s="3">
-        <v>2411200</v>
+        <v>2337800</v>
       </c>
       <c r="G61" s="3">
-        <v>2348000</v>
+        <v>2373400</v>
       </c>
       <c r="H61" s="3">
-        <v>2296800</v>
+        <v>2327600</v>
       </c>
       <c r="I61" s="3">
+        <v>2266500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2217100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2291500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2462400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2202900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2126200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2128400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2822500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2859400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2714200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2710300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>980900</v>
+        <v>881500</v>
       </c>
       <c r="E62" s="3">
-        <v>964300</v>
+        <v>947600</v>
       </c>
       <c r="F62" s="3">
-        <v>1004200</v>
+        <v>946900</v>
       </c>
       <c r="G62" s="3">
-        <v>980100</v>
+        <v>930900</v>
       </c>
       <c r="H62" s="3">
-        <v>974100</v>
+        <v>969400</v>
       </c>
       <c r="I62" s="3">
+        <v>946200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>940300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1021500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1029100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1005400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1091800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1081300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1118500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1070900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1025600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>990200</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4784700</v>
+        <v>4687200</v>
       </c>
       <c r="E66" s="3">
-        <v>4772700</v>
+        <v>4757600</v>
       </c>
       <c r="F66" s="3">
-        <v>4856200</v>
+        <v>4618800</v>
       </c>
       <c r="G66" s="3">
-        <v>4841200</v>
+        <v>4607200</v>
       </c>
       <c r="H66" s="3">
-        <v>4709500</v>
+        <v>4687900</v>
       </c>
       <c r="I66" s="3">
+        <v>4673300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4546200</v>
+      </c>
+      <c r="K66" s="3">
         <v>4740300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4962400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5193100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5185700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5167100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5770900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5750200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5562000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5469000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,46 +3662,52 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>684500</v>
+      </c>
+      <c r="E70" s="3">
+        <v>684500</v>
+      </c>
+      <c r="F70" s="3">
+        <v>684500</v>
+      </c>
+      <c r="G70" s="3">
+        <v>684500</v>
+      </c>
+      <c r="H70" s="3">
+        <v>684500</v>
+      </c>
+      <c r="I70" s="3">
+        <v>684500</v>
+      </c>
+      <c r="J70" s="3">
+        <v>684500</v>
+      </c>
+      <c r="K70" s="3">
         <v>709100</v>
       </c>
-      <c r="E70" s="3">
+      <c r="L70" s="3">
         <v>709100</v>
-      </c>
-      <c r="F70" s="3">
-        <v>709100</v>
-      </c>
-      <c r="G70" s="3">
-        <v>709100</v>
-      </c>
-      <c r="H70" s="3">
-        <v>709100</v>
-      </c>
-      <c r="I70" s="3">
-        <v>709100</v>
-      </c>
-      <c r="J70" s="3">
-        <v>709100</v>
-      </c>
-      <c r="K70" s="3">
-        <v>701000</v>
-      </c>
-      <c r="L70" s="3">
-        <v>701000</v>
       </c>
       <c r="M70" s="3">
         <v>701000</v>
       </c>
       <c r="N70" s="3">
-        <v>723700</v>
+        <v>701000</v>
       </c>
       <c r="O70" s="3">
-        <v>723700</v>
+        <v>701000</v>
       </c>
       <c r="P70" s="3">
         <v>723700</v>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>723700</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>723700</v>
+      </c>
+      <c r="S70" s="3">
+        <v>723700</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1144200</v>
+        <v>-1041300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1175900</v>
+        <v>-1057300</v>
       </c>
       <c r="F72" s="3">
-        <v>-1172800</v>
+        <v>-1104600</v>
       </c>
       <c r="G72" s="3">
-        <v>-1126200</v>
+        <v>-1135100</v>
       </c>
       <c r="H72" s="3">
-        <v>-1021500</v>
+        <v>-1132200</v>
       </c>
       <c r="I72" s="3">
+        <v>-1087100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-986100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-952300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-879300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-899700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-785900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-716700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-716800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-716800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-775100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-756700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1477700</v>
+        <v>1489700</v>
       </c>
       <c r="E76" s="3">
-        <v>1443100</v>
+        <v>1467200</v>
       </c>
       <c r="F76" s="3">
-        <v>1456600</v>
+        <v>1426500</v>
       </c>
       <c r="G76" s="3">
-        <v>1547000</v>
+        <v>1393100</v>
       </c>
       <c r="H76" s="3">
-        <v>1673500</v>
+        <v>1406100</v>
       </c>
       <c r="I76" s="3">
+        <v>1493300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1615400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1772100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1828500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1774200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1824100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1885800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1993600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1973600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1894500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1907500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>38400</v>
+        <v>19600</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="F81" s="3">
-        <v>-48900</v>
+        <v>37100</v>
       </c>
       <c r="G81" s="3">
-        <v>-91800</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>-64700</v>
+        <v>-47200</v>
       </c>
       <c r="I81" s="3">
+        <v>-88700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-79000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>48900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-107900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-20100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-13400</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>46900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>133200</v>
+        <v>133700</v>
       </c>
       <c r="E83" s="3">
-        <v>130200</v>
+        <v>134400</v>
       </c>
       <c r="F83" s="3">
+        <v>128600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>125700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>126400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>135900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>130800</v>
+      </c>
+      <c r="K83" s="3">
+        <v>137000</v>
+      </c>
+      <c r="L83" s="3">
+        <v>121200</v>
+      </c>
+      <c r="M83" s="3">
+        <v>148100</v>
+      </c>
+      <c r="N83" s="3">
         <v>131000</v>
       </c>
-      <c r="G83" s="3">
-        <v>140800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>135500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>137000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>121200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>148100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>131000</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>128700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>122900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>158300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>123700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>123700</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>246900</v>
+        <v>155500</v>
       </c>
       <c r="E89" s="3">
-        <v>194200</v>
+        <v>131500</v>
       </c>
       <c r="F89" s="3">
-        <v>61700</v>
+        <v>238400</v>
       </c>
       <c r="G89" s="3">
-        <v>99400</v>
+        <v>187500</v>
       </c>
       <c r="H89" s="3">
-        <v>119700</v>
+        <v>59600</v>
       </c>
       <c r="I89" s="3">
+        <v>95900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>115500</v>
+      </c>
+      <c r="K89" s="3">
         <v>78300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>319900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>60300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>149600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>46900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>215900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>93700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>175200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>91400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-72300</v>
+        <v>-52300</v>
       </c>
       <c r="E91" s="3">
-        <v>-82800</v>
+        <v>-128600</v>
       </c>
       <c r="F91" s="3">
-        <v>-25600</v>
+        <v>-69800</v>
       </c>
       <c r="G91" s="3">
-        <v>-76000</v>
+        <v>-79900</v>
       </c>
       <c r="H91" s="3">
-        <v>-70000</v>
+        <v>-24700</v>
       </c>
       <c r="I91" s="3">
+        <v>-73400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-67600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-45200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-17300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-53600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-81100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-72200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-49200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-83700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-76800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-62200</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-68500</v>
+        <v>-69000</v>
       </c>
       <c r="E94" s="3">
-        <v>-133200</v>
+        <v>-138800</v>
       </c>
       <c r="F94" s="3">
+        <v>-66100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-128600</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-98100</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-79800</v>
+      </c>
+      <c r="L94" s="3">
         <v>-39900</v>
       </c>
-      <c r="G94" s="3">
-        <v>-75300</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-101600</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-79800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-39900</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>224000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-107900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-55100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>3800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-65300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-76100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-58400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4847,63 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-8300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="L96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-8900</v>
       </c>
       <c r="M96" s="3">
         <v>-8200</v>
       </c>
       <c r="N96" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="P96" s="3">
         <v>-9200</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-8500</v>
       </c>
       <c r="Q96" s="3">
         <v>-9200</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-9200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +5055,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-89600</v>
+        <v>-142400</v>
       </c>
       <c r="E100" s="3">
-        <v>14300</v>
+        <v>69000</v>
       </c>
       <c r="F100" s="3">
-        <v>-6800</v>
+        <v>-86500</v>
       </c>
       <c r="G100" s="3">
-        <v>-28600</v>
+        <v>13800</v>
       </c>
       <c r="H100" s="3">
-        <v>-38400</v>
+        <v>-6500</v>
       </c>
       <c r="I100" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-154300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-268700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-115400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-13400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-328900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-67600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>86000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-49900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3" t="s">
+        <v>2900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K101" s="3">
+        <v>800</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P101" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
-        <v>800</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N101" s="3">
-        <v>800</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>88800</v>
+        <v>-53000</v>
       </c>
       <c r="E102" s="3">
-        <v>74500</v>
+        <v>61800</v>
       </c>
       <c r="F102" s="3">
-        <v>15100</v>
+        <v>85700</v>
       </c>
       <c r="G102" s="3">
-        <v>-4500</v>
+        <v>71900</v>
       </c>
       <c r="H102" s="3">
-        <v>-21100</v>
+        <v>14500</v>
       </c>
       <c r="I102" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-155100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>11300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>168900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>27500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-337900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>152900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>113700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>49200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>48400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>TAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>440400</v>
+        <v>332600</v>
       </c>
       <c r="E8" s="3">
+        <v>461200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>463500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>451300</v>
+      </c>
+      <c r="H8" s="3">
+        <v>378300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>493200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>473400</v>
+      </c>
+      <c r="K8" s="3">
+        <v>430900</v>
+      </c>
+      <c r="L8" s="3">
+        <v>335700</v>
+      </c>
+      <c r="M8" s="3">
         <v>442600</v>
       </c>
-      <c r="F8" s="3">
-        <v>430900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>361200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>470900</v>
-      </c>
-      <c r="I8" s="3">
-        <v>452000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>430900</v>
-      </c>
-      <c r="K8" s="3">
-        <v>335700</v>
-      </c>
-      <c r="L8" s="3">
-        <v>442600</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>474800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>437600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>374300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>444000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>550800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>476300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>266000</v>
+        <v>114900</v>
       </c>
       <c r="E9" s="3">
-        <v>300100</v>
+        <v>181100</v>
       </c>
       <c r="F9" s="3">
-        <v>269600</v>
+        <v>314300</v>
       </c>
       <c r="G9" s="3">
-        <v>223100</v>
+        <v>282400</v>
       </c>
       <c r="H9" s="3">
-        <v>341500</v>
+        <v>233700</v>
       </c>
       <c r="I9" s="3">
-        <v>345200</v>
+        <v>357700</v>
       </c>
       <c r="J9" s="3">
+        <v>361500</v>
+      </c>
+      <c r="K9" s="3">
         <v>311000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>227300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>308600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>326000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>307400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>228500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>288100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>311100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>322700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>174400</v>
+        <v>217700</v>
       </c>
       <c r="E10" s="3">
-        <v>142400</v>
+        <v>280100</v>
       </c>
       <c r="F10" s="3">
-        <v>161300</v>
+        <v>149200</v>
       </c>
       <c r="G10" s="3">
-        <v>138100</v>
+        <v>169000</v>
       </c>
       <c r="H10" s="3">
-        <v>129400</v>
+        <v>144600</v>
       </c>
       <c r="I10" s="3">
-        <v>106800</v>
+        <v>135500</v>
       </c>
       <c r="J10" s="3">
+        <v>111900</v>
+      </c>
+      <c r="K10" s="3">
         <v>119900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>108400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>134000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>148800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>130200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>145900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>156000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>239700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>153600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>150600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-29800</v>
+        <v>24400</v>
       </c>
       <c r="E14" s="3">
-        <v>34200</v>
+        <v>-31200</v>
       </c>
       <c r="F14" s="3">
-        <v>-16000</v>
+        <v>35800</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>-16700</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>16700</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K14" s="3">
         <v>41400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3800</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>4500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>14900</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>21500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>800</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>113400</v>
+        <v>124100</v>
       </c>
       <c r="E15" s="3">
-        <v>111900</v>
+        <v>118700</v>
       </c>
       <c r="F15" s="3">
-        <v>107600</v>
+        <v>117200</v>
       </c>
       <c r="G15" s="3">
-        <v>103900</v>
+        <v>112600</v>
       </c>
       <c r="H15" s="3">
-        <v>105400</v>
+        <v>108800</v>
       </c>
       <c r="I15" s="3">
-        <v>110500</v>
+        <v>110400</v>
       </c>
       <c r="J15" s="3">
+        <v>115700</v>
+      </c>
+      <c r="K15" s="3">
         <v>106100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>109900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>97900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>134000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>117600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>114600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>109900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>143700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>111400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>112900</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>348800</v>
+        <v>347100</v>
       </c>
       <c r="E17" s="3">
-        <v>375000</v>
+        <v>365300</v>
       </c>
       <c r="F17" s="3">
-        <v>318300</v>
+        <v>392700</v>
       </c>
       <c r="G17" s="3">
-        <v>324100</v>
+        <v>333400</v>
       </c>
       <c r="H17" s="3">
-        <v>444700</v>
+        <v>339400</v>
       </c>
       <c r="I17" s="3">
-        <v>470900</v>
+        <v>465800</v>
       </c>
       <c r="J17" s="3">
+        <v>493200</v>
+      </c>
+      <c r="K17" s="3">
         <v>452000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>344800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>289800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>451000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>427200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>356500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>396400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>333400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>440200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>91600</v>
+        <v>-14500</v>
       </c>
       <c r="E18" s="3">
-        <v>67600</v>
+        <v>95900</v>
       </c>
       <c r="F18" s="3">
-        <v>112600</v>
+        <v>70800</v>
       </c>
       <c r="G18" s="3">
-        <v>37100</v>
+        <v>118000</v>
       </c>
       <c r="H18" s="3">
-        <v>26200</v>
+        <v>38800</v>
       </c>
       <c r="I18" s="3">
-        <v>-18900</v>
+        <v>27400</v>
       </c>
       <c r="J18" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-21100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>152800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>23800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>17900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>47600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>217400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>36100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-20300</v>
+        <v>11400</v>
       </c>
       <c r="E20" s="3">
-        <v>71200</v>
+        <v>-22100</v>
       </c>
       <c r="F20" s="3">
-        <v>-13800</v>
+        <v>72300</v>
       </c>
       <c r="G20" s="3">
-        <v>-18900</v>
+        <v>-16700</v>
       </c>
       <c r="H20" s="3">
-        <v>-4400</v>
+        <v>-21300</v>
       </c>
       <c r="I20" s="3">
-        <v>-5100</v>
+        <v>-6100</v>
       </c>
       <c r="J20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-9400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>18400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>15400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>204900</v>
+        <v>140000</v>
       </c>
       <c r="E21" s="3">
-        <v>273200</v>
+        <v>213900</v>
       </c>
       <c r="F21" s="3">
-        <v>227500</v>
+        <v>283900</v>
       </c>
       <c r="G21" s="3">
-        <v>143900</v>
+        <v>235900</v>
       </c>
       <c r="H21" s="3">
-        <v>148200</v>
+        <v>149200</v>
       </c>
       <c r="I21" s="3">
-        <v>111900</v>
+        <v>153700</v>
       </c>
       <c r="J21" s="3">
+        <v>117200</v>
+      </c>
+      <c r="K21" s="3">
         <v>100300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>122000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>269500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>180100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>137700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>156300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>175200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>394100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>175200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>37800</v>
+        <v>36500</v>
       </c>
       <c r="E22" s="3">
-        <v>34900</v>
+        <v>38800</v>
       </c>
       <c r="F22" s="3">
-        <v>35600</v>
+        <v>34200</v>
       </c>
       <c r="G22" s="3">
-        <v>35600</v>
+        <v>35000</v>
       </c>
       <c r="H22" s="3">
+        <v>35800</v>
+      </c>
+      <c r="I22" s="3">
         <v>31200</v>
       </c>
-      <c r="I22" s="3">
-        <v>30500</v>
-      </c>
       <c r="J22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K22" s="3">
         <v>33400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>39900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>42900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>40200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>38700</v>
       </c>
       <c r="O22" s="3">
         <v>38700</v>
       </c>
       <c r="P22" s="3">
+        <v>38700</v>
+      </c>
+      <c r="Q22" s="3">
         <v>40700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>41500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>42300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>33400</v>
+        <v>-39600</v>
       </c>
       <c r="E23" s="3">
-        <v>103900</v>
+        <v>35000</v>
       </c>
       <c r="F23" s="3">
-        <v>63200</v>
+        <v>108800</v>
       </c>
       <c r="G23" s="3">
-        <v>-17400</v>
+        <v>66200</v>
       </c>
       <c r="H23" s="3">
-        <v>-9400</v>
+        <v>-18300</v>
       </c>
       <c r="I23" s="3">
-        <v>-54500</v>
+        <v>-9900</v>
       </c>
       <c r="J23" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-63900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-55000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>105400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-32000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>11500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>194400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
-        <v>29100</v>
-      </c>
       <c r="F24" s="3">
-        <v>7300</v>
+        <v>30400</v>
       </c>
       <c r="G24" s="3">
-        <v>-36300</v>
+        <v>7600</v>
       </c>
       <c r="H24" s="3">
-        <v>12400</v>
+        <v>-38100</v>
       </c>
       <c r="I24" s="3">
-        <v>-11600</v>
+        <v>12900</v>
       </c>
       <c r="J24" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-15300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>27900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>78100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-14100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>63000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>32000</v>
+        <v>-26600</v>
       </c>
       <c r="E26" s="3">
-        <v>74800</v>
+        <v>33500</v>
       </c>
       <c r="F26" s="3">
-        <v>56000</v>
+        <v>78400</v>
       </c>
       <c r="G26" s="3">
-        <v>18900</v>
+        <v>58600</v>
       </c>
       <c r="H26" s="3">
-        <v>-21800</v>
+        <v>19800</v>
       </c>
       <c r="I26" s="3">
-        <v>-42900</v>
+        <v>-22800</v>
       </c>
       <c r="J26" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-48700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-50400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>77500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-86300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-28300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>24600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>131400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>19600</v>
+        <v>-45700</v>
       </c>
       <c r="E27" s="3">
-        <v>48000</v>
+        <v>20500</v>
       </c>
       <c r="F27" s="3">
-        <v>37100</v>
+        <v>50200</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>38800</v>
       </c>
       <c r="H27" s="3">
-        <v>-47200</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>-88700</v>
+        <v>-49500</v>
       </c>
       <c r="J27" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-62500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-79000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>48900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-107900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-13400</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>46900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>20300</v>
+        <v>-11400</v>
       </c>
       <c r="E32" s="3">
-        <v>-71200</v>
+        <v>22100</v>
       </c>
       <c r="F32" s="3">
-        <v>13800</v>
+        <v>-72300</v>
       </c>
       <c r="G32" s="3">
-        <v>18900</v>
+        <v>16700</v>
       </c>
       <c r="H32" s="3">
-        <v>4400</v>
+        <v>21300</v>
       </c>
       <c r="I32" s="3">
-        <v>5100</v>
+        <v>6100</v>
       </c>
       <c r="J32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K32" s="3">
         <v>9400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-18400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-15400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>19600</v>
+        <v>-45700</v>
       </c>
       <c r="E33" s="3">
-        <v>48000</v>
+        <v>20500</v>
       </c>
       <c r="F33" s="3">
-        <v>37100</v>
+        <v>50200</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>38800</v>
       </c>
       <c r="H33" s="3">
-        <v>-47200</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>-88700</v>
+        <v>-49500</v>
       </c>
       <c r="J33" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-62500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-79000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>48900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-107900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-13400</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>46900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>19600</v>
+        <v>-45700</v>
       </c>
       <c r="E35" s="3">
-        <v>48000</v>
+        <v>20500</v>
       </c>
       <c r="F35" s="3">
-        <v>37100</v>
+        <v>50200</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>38800</v>
       </c>
       <c r="H35" s="3">
-        <v>-47200</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>-88700</v>
+        <v>-49500</v>
       </c>
       <c r="J35" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-62500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-79000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>48900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-107900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-13400</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>46900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,84 +2313,88 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>245600</v>
+        <v>195600</v>
       </c>
       <c r="E41" s="3">
-        <v>298700</v>
+        <v>257200</v>
       </c>
       <c r="F41" s="3">
-        <v>236900</v>
+        <v>312800</v>
       </c>
       <c r="G41" s="3">
-        <v>151200</v>
+        <v>248100</v>
       </c>
       <c r="H41" s="3">
-        <v>79200</v>
+        <v>158300</v>
       </c>
       <c r="I41" s="3">
+        <v>83000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>67700</v>
+      </c>
+      <c r="K41" s="3">
+        <v>69000</v>
+      </c>
+      <c r="L41" s="3">
+        <v>92600</v>
+      </c>
+      <c r="M41" s="3">
+        <v>247700</v>
+      </c>
+      <c r="N41" s="3">
+        <v>233700</v>
+      </c>
+      <c r="O41" s="3">
         <v>64700</v>
       </c>
-      <c r="J41" s="3">
-        <v>69000</v>
-      </c>
-      <c r="K41" s="3">
-        <v>92600</v>
-      </c>
-      <c r="L41" s="3">
-        <v>247700</v>
-      </c>
-      <c r="M41" s="3">
-        <v>233700</v>
-      </c>
-      <c r="N41" s="3">
-        <v>64700</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>37200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>387200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>234300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>120600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>209300</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>201700</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>126300</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>121800</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>125600</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>105800</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>111100</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2333,379 +2423,403 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>313200</v>
+        <v>325700</v>
       </c>
       <c r="E43" s="3">
-        <v>335700</v>
+        <v>328000</v>
       </c>
       <c r="F43" s="3">
-        <v>328500</v>
+        <v>351600</v>
       </c>
       <c r="G43" s="3">
-        <v>366300</v>
+        <v>344000</v>
       </c>
       <c r="H43" s="3">
-        <v>531200</v>
+        <v>383600</v>
       </c>
       <c r="I43" s="3">
-        <v>549400</v>
+        <v>556400</v>
       </c>
       <c r="J43" s="3">
+        <v>575400</v>
+      </c>
+      <c r="K43" s="3">
         <v>472300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>423100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>505100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>694300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>829000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>499400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>504700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>480900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>383300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>347200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>191100</v>
+        <v>226000</v>
       </c>
       <c r="E44" s="3">
-        <v>182400</v>
+        <v>200200</v>
       </c>
       <c r="F44" s="3">
-        <v>177300</v>
+        <v>191000</v>
       </c>
       <c r="G44" s="3">
-        <v>194800</v>
+        <v>185700</v>
       </c>
       <c r="H44" s="3">
-        <v>164200</v>
+        <v>204000</v>
       </c>
       <c r="I44" s="3">
-        <v>175900</v>
+        <v>172000</v>
       </c>
       <c r="J44" s="3">
+        <v>184200</v>
+      </c>
+      <c r="K44" s="3">
         <v>191800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>211500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>168600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>163000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>173400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>183800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>152100</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>163600</v>
       </c>
       <c r="R44" s="3">
         <v>163600</v>
       </c>
       <c r="S44" s="3">
+        <v>163600</v>
+      </c>
+      <c r="T44" s="3">
         <v>182800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>242700</v>
+        <v>48700</v>
       </c>
       <c r="E45" s="3">
-        <v>157700</v>
+        <v>52500</v>
       </c>
       <c r="F45" s="3">
-        <v>337900</v>
+        <v>38800</v>
       </c>
       <c r="G45" s="3">
-        <v>170800</v>
+        <v>232100</v>
       </c>
       <c r="H45" s="3">
-        <v>141700</v>
+        <v>53300</v>
       </c>
       <c r="I45" s="3">
-        <v>163500</v>
+        <v>42600</v>
       </c>
       <c r="J45" s="3">
+        <v>60100</v>
+      </c>
+      <c r="K45" s="3">
         <v>199100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>173100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>170900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>180800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>173400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>206900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>255800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>315000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>227400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>992700</v>
+        <v>1005400</v>
       </c>
       <c r="E46" s="3">
-        <v>974500</v>
+        <v>1039600</v>
       </c>
       <c r="F46" s="3">
-        <v>1080600</v>
+        <v>1020600</v>
       </c>
       <c r="G46" s="3">
-        <v>882900</v>
+        <v>1131700</v>
       </c>
       <c r="H46" s="3">
-        <v>916400</v>
+        <v>924700</v>
       </c>
       <c r="I46" s="3">
-        <v>953400</v>
+        <v>959700</v>
       </c>
       <c r="J46" s="3">
+        <v>998600</v>
+      </c>
+      <c r="K46" s="3">
         <v>932300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1092300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1271900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1240600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>927300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1299800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1193800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>895000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>828200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>125000</v>
+        <v>127900</v>
       </c>
       <c r="E47" s="3">
-        <v>127900</v>
+        <v>130900</v>
       </c>
       <c r="F47" s="3">
-        <v>130100</v>
+        <v>134000</v>
       </c>
       <c r="G47" s="3">
-        <v>133000</v>
+        <v>136200</v>
       </c>
       <c r="H47" s="3">
-        <v>135900</v>
+        <v>139300</v>
       </c>
       <c r="I47" s="3">
-        <v>138800</v>
+        <v>142300</v>
       </c>
       <c r="J47" s="3">
+        <v>145400</v>
+      </c>
+      <c r="K47" s="3">
         <v>142400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>152100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>157300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>160000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>171200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>500100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>535500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>552400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>554700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4520000</v>
+        <v>4632800</v>
       </c>
       <c r="E48" s="3">
-        <v>4616700</v>
+        <v>4734000</v>
       </c>
       <c r="F48" s="3">
-        <v>4344900</v>
+        <v>4835200</v>
       </c>
       <c r="G48" s="3">
-        <v>4445200</v>
+        <v>4550600</v>
       </c>
       <c r="H48" s="3">
-        <v>4440100</v>
+        <v>4655600</v>
       </c>
       <c r="I48" s="3">
-        <v>4479300</v>
+        <v>4650300</v>
       </c>
       <c r="J48" s="3">
+        <v>4691400</v>
+      </c>
+      <c r="K48" s="3">
         <v>4506200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4787000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4869800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4895400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4952000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4989200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5232400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5242400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5354600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5337700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>565400</v>
+        <v>613400</v>
       </c>
       <c r="E49" s="3">
-        <v>568300</v>
+        <v>592100</v>
       </c>
       <c r="F49" s="3">
-        <v>573400</v>
+        <v>595200</v>
       </c>
       <c r="G49" s="3">
-        <v>599500</v>
+        <v>600500</v>
       </c>
       <c r="H49" s="3">
-        <v>607500</v>
+        <v>627900</v>
       </c>
       <c r="I49" s="3">
-        <v>608200</v>
+        <v>636300</v>
       </c>
       <c r="J49" s="3">
+        <v>637000</v>
+      </c>
+      <c r="K49" s="3">
         <v>585000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>612000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>618800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>615500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>617700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>600600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>623000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>629200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>630700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>658400</v>
+        <v>752000</v>
       </c>
       <c r="E52" s="3">
-        <v>622000</v>
+        <v>689500</v>
       </c>
       <c r="F52" s="3">
-        <v>601000</v>
+        <v>651500</v>
       </c>
       <c r="G52" s="3">
-        <v>624200</v>
+        <v>629400</v>
       </c>
       <c r="H52" s="3">
-        <v>678700</v>
+        <v>653800</v>
       </c>
       <c r="I52" s="3">
-        <v>671500</v>
+        <v>710900</v>
       </c>
       <c r="J52" s="3">
+        <v>703200</v>
+      </c>
+      <c r="K52" s="3">
         <v>680200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>770100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>761800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>725600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>729300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>736800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>797400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>829700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>745200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>739800</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6861400</v>
+        <v>7131400</v>
       </c>
       <c r="E54" s="3">
-        <v>6909400</v>
+        <v>7186200</v>
       </c>
       <c r="F54" s="3">
-        <v>6729900</v>
+        <v>7236400</v>
       </c>
       <c r="G54" s="3">
-        <v>6684800</v>
+        <v>7048500</v>
       </c>
       <c r="H54" s="3">
-        <v>6778600</v>
+        <v>7001300</v>
       </c>
       <c r="I54" s="3">
-        <v>6851200</v>
+        <v>7099400</v>
       </c>
       <c r="J54" s="3">
+        <v>7175600</v>
+      </c>
+      <c r="K54" s="3">
         <v>6846100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7221500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7500000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7668300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7710800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7753900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8488200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8447500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8180100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8100200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300100</v>
+        <v>305200</v>
       </c>
       <c r="E57" s="3">
-        <v>300100</v>
+        <v>314300</v>
       </c>
       <c r="F57" s="3">
-        <v>259400</v>
+        <v>314300</v>
       </c>
       <c r="G57" s="3">
-        <v>264500</v>
+        <v>271700</v>
       </c>
       <c r="H57" s="3">
-        <v>332800</v>
+        <v>277000</v>
       </c>
       <c r="I57" s="3">
-        <v>361200</v>
+        <v>348600</v>
       </c>
       <c r="J57" s="3">
+        <v>378300</v>
+      </c>
+      <c r="K57" s="3">
         <v>346600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>319900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>373400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>442800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>380300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>313300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>351100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>317300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>283500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>229700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>373500</v>
+        <v>390400</v>
       </c>
       <c r="E58" s="3">
-        <v>372800</v>
+        <v>391200</v>
       </c>
       <c r="F58" s="3">
-        <v>74800</v>
+        <v>390400</v>
       </c>
       <c r="G58" s="3">
-        <v>76300</v>
+        <v>78400</v>
       </c>
       <c r="H58" s="3">
-        <v>76300</v>
+        <v>79900</v>
       </c>
       <c r="I58" s="3">
-        <v>107600</v>
+        <v>79900</v>
       </c>
       <c r="J58" s="3">
+        <v>112600</v>
+      </c>
+      <c r="K58" s="3">
         <v>95900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>77500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>105400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>555900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>686900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>701800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>484000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>490900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>452500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>154800</v>
+        <v>179600</v>
       </c>
       <c r="E59" s="3">
-        <v>138800</v>
+        <v>162100</v>
       </c>
       <c r="F59" s="3">
-        <v>199800</v>
+        <v>145400</v>
       </c>
       <c r="G59" s="3">
-        <v>166400</v>
+        <v>209300</v>
       </c>
       <c r="H59" s="3">
-        <v>153300</v>
+        <v>174300</v>
       </c>
       <c r="I59" s="3">
-        <v>165700</v>
+        <v>160600</v>
       </c>
       <c r="J59" s="3">
+        <v>173500</v>
+      </c>
+      <c r="K59" s="3">
         <v>133000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>159600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>203300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>198000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>94500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>105700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>117500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>126800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>218900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>553100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>828400</v>
+        <v>875300</v>
       </c>
       <c r="E60" s="3">
-        <v>811700</v>
+        <v>867600</v>
       </c>
       <c r="F60" s="3">
-        <v>534100</v>
+        <v>850100</v>
       </c>
       <c r="G60" s="3">
-        <v>507200</v>
+        <v>559400</v>
       </c>
       <c r="H60" s="3">
-        <v>562500</v>
+        <v>531200</v>
       </c>
       <c r="I60" s="3">
-        <v>634400</v>
+        <v>589100</v>
       </c>
       <c r="J60" s="3">
+        <v>664400</v>
+      </c>
+      <c r="K60" s="3">
         <v>575500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>557100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>682000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1196700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1161700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1120800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>952600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>934900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>954900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>904200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2174300</v>
+        <v>2228500</v>
       </c>
       <c r="E61" s="3">
-        <v>2198200</v>
+        <v>2277200</v>
       </c>
       <c r="F61" s="3">
-        <v>2337800</v>
+        <v>2302300</v>
       </c>
       <c r="G61" s="3">
-        <v>2373400</v>
+        <v>2448400</v>
       </c>
       <c r="H61" s="3">
-        <v>2327600</v>
+        <v>2485700</v>
       </c>
       <c r="I61" s="3">
-        <v>2266500</v>
+        <v>2437800</v>
       </c>
       <c r="J61" s="3">
+        <v>2373800</v>
+      </c>
+      <c r="K61" s="3">
         <v>2217100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2291500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2462400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2202900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2126200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2128400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2822500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2859400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2714200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2710300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>881500</v>
+        <v>990200</v>
       </c>
       <c r="E62" s="3">
-        <v>947600</v>
+        <v>923200</v>
       </c>
       <c r="F62" s="3">
-        <v>946900</v>
+        <v>992500</v>
       </c>
       <c r="G62" s="3">
-        <v>930900</v>
+        <v>991700</v>
       </c>
       <c r="H62" s="3">
-        <v>969400</v>
+        <v>975000</v>
       </c>
       <c r="I62" s="3">
-        <v>946200</v>
+        <v>1015300</v>
       </c>
       <c r="J62" s="3">
+        <v>990900</v>
+      </c>
+      <c r="K62" s="3">
         <v>940300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1021500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1029100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1005400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1091800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1081300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1118500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1070900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1025600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>990200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4687200</v>
+        <v>4906700</v>
       </c>
       <c r="E66" s="3">
-        <v>4757600</v>
+        <v>4909000</v>
       </c>
       <c r="F66" s="3">
-        <v>4618800</v>
+        <v>4982900</v>
       </c>
       <c r="G66" s="3">
-        <v>4607200</v>
+        <v>4837500</v>
       </c>
       <c r="H66" s="3">
-        <v>4687900</v>
+        <v>4825300</v>
       </c>
       <c r="I66" s="3">
-        <v>4673300</v>
+        <v>4909800</v>
       </c>
       <c r="J66" s="3">
+        <v>4894600</v>
+      </c>
+      <c r="K66" s="3">
         <v>4546200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4740300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4962400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5193100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5185700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5167100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5770900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5750200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5562000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5469000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,40 +3833,43 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>716900</v>
+      </c>
+      <c r="E70" s="3">
+        <v>716900</v>
+      </c>
+      <c r="F70" s="3">
+        <v>716900</v>
+      </c>
+      <c r="G70" s="3">
+        <v>716900</v>
+      </c>
+      <c r="H70" s="3">
+        <v>716900</v>
+      </c>
+      <c r="I70" s="3">
+        <v>716900</v>
+      </c>
+      <c r="J70" s="3">
+        <v>716900</v>
+      </c>
+      <c r="K70" s="3">
         <v>684500</v>
-      </c>
-      <c r="E70" s="3">
-        <v>684500</v>
-      </c>
-      <c r="F70" s="3">
-        <v>684500</v>
-      </c>
-      <c r="G70" s="3">
-        <v>684500</v>
-      </c>
-      <c r="H70" s="3">
-        <v>684500</v>
-      </c>
-      <c r="I70" s="3">
-        <v>684500</v>
-      </c>
-      <c r="J70" s="3">
-        <v>684500</v>
-      </c>
-      <c r="K70" s="3">
-        <v>709100</v>
       </c>
       <c r="L70" s="3">
         <v>709100</v>
       </c>
       <c r="M70" s="3">
-        <v>701000</v>
+        <v>709100</v>
       </c>
       <c r="N70" s="3">
         <v>701000</v>
@@ -3710,7 +3878,7 @@
         <v>701000</v>
       </c>
       <c r="P70" s="3">
-        <v>723700</v>
+        <v>701000</v>
       </c>
       <c r="Q70" s="3">
         <v>723700</v>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>723700</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>723700</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1041300</v>
+        <v>-1140900</v>
       </c>
       <c r="E72" s="3">
-        <v>-1057300</v>
+        <v>-1090600</v>
       </c>
       <c r="F72" s="3">
-        <v>-1104600</v>
+        <v>-1107400</v>
       </c>
       <c r="G72" s="3">
-        <v>-1135100</v>
+        <v>-1156900</v>
       </c>
       <c r="H72" s="3">
-        <v>-1132200</v>
+        <v>-1188800</v>
       </c>
       <c r="I72" s="3">
-        <v>-1087100</v>
+        <v>-1185800</v>
       </c>
       <c r="J72" s="3">
+        <v>-1138600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-986100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-952300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-879300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-899700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-785900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-716700</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-716800</v>
       </c>
       <c r="Q72" s="3">
         <v>-716800</v>
       </c>
       <c r="R72" s="3">
+        <v>-716800</v>
+      </c>
+      <c r="S72" s="3">
         <v>-775100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-756700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1489700</v>
+        <v>1507700</v>
       </c>
       <c r="E76" s="3">
-        <v>1467200</v>
+        <v>1560200</v>
       </c>
       <c r="F76" s="3">
-        <v>1426500</v>
+        <v>1536600</v>
       </c>
       <c r="G76" s="3">
-        <v>1393100</v>
+        <v>1494000</v>
       </c>
       <c r="H76" s="3">
-        <v>1406100</v>
+        <v>1459000</v>
       </c>
       <c r="I76" s="3">
-        <v>1493300</v>
+        <v>1472700</v>
       </c>
       <c r="J76" s="3">
+        <v>1564000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1615400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1772100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1828500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1774200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1824100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1885800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1993600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1973600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1894500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1907500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>19600</v>
+        <v>-45700</v>
       </c>
       <c r="E81" s="3">
-        <v>48000</v>
+        <v>20500</v>
       </c>
       <c r="F81" s="3">
-        <v>37100</v>
+        <v>50200</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>38800</v>
       </c>
       <c r="H81" s="3">
-        <v>-47200</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>-88700</v>
+        <v>-49500</v>
       </c>
       <c r="J81" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-62500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-79000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>48900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-107900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-13400</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>46900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>133700</v>
+        <v>143100</v>
       </c>
       <c r="E83" s="3">
-        <v>134400</v>
+        <v>140000</v>
       </c>
       <c r="F83" s="3">
-        <v>128600</v>
+        <v>140800</v>
       </c>
       <c r="G83" s="3">
-        <v>125700</v>
+        <v>134700</v>
       </c>
       <c r="H83" s="3">
-        <v>126400</v>
+        <v>131700</v>
       </c>
       <c r="I83" s="3">
-        <v>135900</v>
+        <v>132400</v>
       </c>
       <c r="J83" s="3">
+        <v>142300</v>
+      </c>
+      <c r="K83" s="3">
         <v>130800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>137000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>121200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>148100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>131000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>128700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>122900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>158300</v>
-      </c>
-      <c r="R83" s="3">
-        <v>123700</v>
       </c>
       <c r="S83" s="3">
         <v>123700</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>123700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>155500</v>
+        <v>92100</v>
       </c>
       <c r="E89" s="3">
-        <v>131500</v>
+        <v>162900</v>
       </c>
       <c r="F89" s="3">
-        <v>238400</v>
+        <v>137800</v>
       </c>
       <c r="G89" s="3">
-        <v>187500</v>
+        <v>249600</v>
       </c>
       <c r="H89" s="3">
-        <v>59600</v>
+        <v>196400</v>
       </c>
       <c r="I89" s="3">
-        <v>95900</v>
+        <v>62400</v>
       </c>
       <c r="J89" s="3">
+        <v>100500</v>
+      </c>
+      <c r="K89" s="3">
         <v>115500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>78300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>319900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>60300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>149600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>46900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>215900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>93700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>175200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>91400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-52300</v>
+        <v>-57100</v>
       </c>
       <c r="E91" s="3">
-        <v>-128600</v>
+        <v>-54800</v>
       </c>
       <c r="F91" s="3">
-        <v>-69800</v>
+        <v>-134700</v>
       </c>
       <c r="G91" s="3">
-        <v>-79900</v>
+        <v>-73100</v>
       </c>
       <c r="H91" s="3">
-        <v>-24700</v>
+        <v>-83700</v>
       </c>
       <c r="I91" s="3">
-        <v>-73400</v>
+        <v>-25900</v>
       </c>
       <c r="J91" s="3">
+        <v>-76900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-67600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-45200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-53600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-81100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-72200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-49200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-83700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-76800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-62200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-69000</v>
+        <v>-83000</v>
       </c>
       <c r="E94" s="3">
-        <v>-138800</v>
+        <v>-72300</v>
       </c>
       <c r="F94" s="3">
-        <v>-66100</v>
+        <v>-145400</v>
       </c>
       <c r="G94" s="3">
-        <v>-128600</v>
+        <v>-69300</v>
       </c>
       <c r="H94" s="3">
-        <v>-38500</v>
+        <v>-134700</v>
       </c>
       <c r="I94" s="3">
-        <v>-72700</v>
+        <v>-40300</v>
       </c>
       <c r="J94" s="3">
+        <v>-76100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-98100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-79800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-39900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>224000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-107900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-55100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-65300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-76100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-58400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-8000</v>
       </c>
-      <c r="E96" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-9000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-8900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-9200</v>
       </c>
       <c r="Q96" s="3">
         <v>-9200</v>
       </c>
       <c r="R96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="S96" s="3">
         <v>-8500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-142400</v>
+        <v>-71500</v>
       </c>
       <c r="E100" s="3">
-        <v>69000</v>
+        <v>-149200</v>
       </c>
       <c r="F100" s="3">
-        <v>-86500</v>
+        <v>72300</v>
       </c>
       <c r="G100" s="3">
-        <v>13800</v>
+        <v>-90600</v>
       </c>
       <c r="H100" s="3">
-        <v>-6500</v>
+        <v>14500</v>
       </c>
       <c r="I100" s="3">
-        <v>-27600</v>
+        <v>-6800</v>
       </c>
       <c r="J100" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-37100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-154300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-268700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-115400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-13400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-328900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-67600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>86000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-49900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2900</v>
+        <v>800</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3">
         <v>-700</v>
       </c>
       <c r="P101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q101" s="3">
         <v>800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-800</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-53000</v>
+        <v>-61600</v>
       </c>
       <c r="E102" s="3">
-        <v>61800</v>
+        <v>-55600</v>
       </c>
       <c r="F102" s="3">
-        <v>85700</v>
+        <v>64700</v>
       </c>
       <c r="G102" s="3">
-        <v>71900</v>
+        <v>89800</v>
       </c>
       <c r="H102" s="3">
-        <v>14500</v>
+        <v>75300</v>
       </c>
       <c r="I102" s="3">
-        <v>-4400</v>
+        <v>15200</v>
       </c>
       <c r="J102" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-20300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-155100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>168900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>27500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-337900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>152900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>113700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>49200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>48400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>TAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>332600</v>
+        <v>395700</v>
       </c>
       <c r="E8" s="3">
-        <v>461200</v>
+        <v>336400</v>
       </c>
       <c r="F8" s="3">
-        <v>463500</v>
+        <v>466500</v>
       </c>
       <c r="G8" s="3">
-        <v>451300</v>
+        <v>468800</v>
       </c>
       <c r="H8" s="3">
-        <v>378300</v>
+        <v>456500</v>
       </c>
       <c r="I8" s="3">
-        <v>493200</v>
+        <v>382600</v>
       </c>
       <c r="J8" s="3">
+        <v>498800</v>
+      </c>
+      <c r="K8" s="3">
         <v>473400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>430900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>335700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>442600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>474800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>437600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>374300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>444000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>550800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>476300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>114900</v>
+        <v>194000</v>
       </c>
       <c r="E9" s="3">
-        <v>181100</v>
+        <v>116200</v>
       </c>
       <c r="F9" s="3">
-        <v>314300</v>
+        <v>183200</v>
       </c>
       <c r="G9" s="3">
-        <v>282400</v>
+        <v>317900</v>
       </c>
       <c r="H9" s="3">
-        <v>233700</v>
+        <v>285600</v>
       </c>
       <c r="I9" s="3">
-        <v>357700</v>
+        <v>236300</v>
       </c>
       <c r="J9" s="3">
+        <v>361800</v>
+      </c>
+      <c r="K9" s="3">
         <v>361500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>311000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>227300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>308600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>326000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>307400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>228500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>288100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>311100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>322700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>217700</v>
+        <v>201700</v>
       </c>
       <c r="E10" s="3">
-        <v>280100</v>
+        <v>220200</v>
       </c>
       <c r="F10" s="3">
-        <v>149200</v>
+        <v>283300</v>
       </c>
       <c r="G10" s="3">
-        <v>169000</v>
+        <v>150900</v>
       </c>
       <c r="H10" s="3">
-        <v>144600</v>
+        <v>170900</v>
       </c>
       <c r="I10" s="3">
-        <v>135500</v>
+        <v>146300</v>
       </c>
       <c r="J10" s="3">
+        <v>137000</v>
+      </c>
+      <c r="K10" s="3">
         <v>111900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>119900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>108400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>134000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>148800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>130200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>145900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>156000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>239700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>153600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>150600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1065,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>24400</v>
+        <v>58500</v>
       </c>
       <c r="E14" s="3">
-        <v>-31200</v>
+        <v>24600</v>
       </c>
       <c r="F14" s="3">
-        <v>35800</v>
+        <v>-31600</v>
       </c>
       <c r="G14" s="3">
-        <v>-16700</v>
+        <v>36200</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>-16900</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>17500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>41400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3800</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>4500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>14900</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>21500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>800</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>124100</v>
+        <v>124700</v>
       </c>
       <c r="E15" s="3">
-        <v>118700</v>
+        <v>125500</v>
       </c>
       <c r="F15" s="3">
-        <v>117200</v>
+        <v>120100</v>
       </c>
       <c r="G15" s="3">
-        <v>112600</v>
+        <v>118600</v>
       </c>
       <c r="H15" s="3">
-        <v>108800</v>
+        <v>113900</v>
       </c>
       <c r="I15" s="3">
-        <v>110400</v>
+        <v>110100</v>
       </c>
       <c r="J15" s="3">
+        <v>111600</v>
+      </c>
+      <c r="K15" s="3">
         <v>115700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>106100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>109900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>97900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>134000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>117600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>114600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>109900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>143700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>111400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>112900</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>347100</v>
+        <v>463400</v>
       </c>
       <c r="E17" s="3">
-        <v>365300</v>
+        <v>351000</v>
       </c>
       <c r="F17" s="3">
-        <v>392700</v>
+        <v>369500</v>
       </c>
       <c r="G17" s="3">
+        <v>397200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>337200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>343300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>471100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>493200</v>
+      </c>
+      <c r="L17" s="3">
+        <v>452000</v>
+      </c>
+      <c r="M17" s="3">
+        <v>344800</v>
+      </c>
+      <c r="N17" s="3">
+        <v>289800</v>
+      </c>
+      <c r="O17" s="3">
+        <v>451000</v>
+      </c>
+      <c r="P17" s="3">
+        <v>427200</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>356500</v>
+      </c>
+      <c r="R17" s="3">
+        <v>396400</v>
+      </c>
+      <c r="S17" s="3">
         <v>333400</v>
       </c>
-      <c r="H17" s="3">
-        <v>339400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>465800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>493200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>452000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>344800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>289800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>451000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>427200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>356500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>396400</v>
-      </c>
-      <c r="R17" s="3">
-        <v>333400</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>440200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-14500</v>
+        <v>-67700</v>
       </c>
       <c r="E18" s="3">
-        <v>95900</v>
+        <v>-14600</v>
       </c>
       <c r="F18" s="3">
-        <v>70800</v>
+        <v>97000</v>
       </c>
       <c r="G18" s="3">
-        <v>118000</v>
+        <v>71600</v>
       </c>
       <c r="H18" s="3">
-        <v>38800</v>
+        <v>119300</v>
       </c>
       <c r="I18" s="3">
-        <v>27400</v>
+        <v>39300</v>
       </c>
       <c r="J18" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-19800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-21100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>152800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>23800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>17900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>47600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>217400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>36100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1346,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11400</v>
+        <v>3800</v>
       </c>
       <c r="E20" s="3">
-        <v>-22100</v>
+        <v>11500</v>
       </c>
       <c r="F20" s="3">
-        <v>72300</v>
+        <v>-22300</v>
       </c>
       <c r="G20" s="3">
-        <v>-16700</v>
+        <v>73100</v>
       </c>
       <c r="H20" s="3">
-        <v>-21300</v>
+        <v>-16900</v>
       </c>
       <c r="I20" s="3">
-        <v>-6100</v>
+        <v>-21600</v>
       </c>
       <c r="J20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>18400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>15400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>140000</v>
+        <v>86200</v>
       </c>
       <c r="E21" s="3">
-        <v>213900</v>
+        <v>141600</v>
       </c>
       <c r="F21" s="3">
-        <v>283900</v>
+        <v>216300</v>
       </c>
       <c r="G21" s="3">
-        <v>235900</v>
+        <v>287100</v>
       </c>
       <c r="H21" s="3">
-        <v>149200</v>
+        <v>238600</v>
       </c>
       <c r="I21" s="3">
-        <v>153700</v>
+        <v>150900</v>
       </c>
       <c r="J21" s="3">
+        <v>155500</v>
+      </c>
+      <c r="K21" s="3">
         <v>117200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>122000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>269500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>180100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>137700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>156300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>175200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>394100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>175200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>36500</v>
+        <v>35400</v>
       </c>
       <c r="E22" s="3">
-        <v>38800</v>
+        <v>37000</v>
       </c>
       <c r="F22" s="3">
-        <v>34200</v>
+        <v>39300</v>
       </c>
       <c r="G22" s="3">
-        <v>35000</v>
+        <v>34600</v>
       </c>
       <c r="H22" s="3">
-        <v>35800</v>
+        <v>35400</v>
       </c>
       <c r="I22" s="3">
-        <v>31200</v>
+        <v>36200</v>
       </c>
       <c r="J22" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K22" s="3">
         <v>32000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>39900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>42900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>40200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>38700</v>
       </c>
       <c r="P22" s="3">
         <v>38700</v>
       </c>
       <c r="Q22" s="3">
+        <v>38700</v>
+      </c>
+      <c r="R22" s="3">
         <v>40700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>41500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>42300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-39600</v>
+        <v>-99300</v>
       </c>
       <c r="E23" s="3">
-        <v>35000</v>
+        <v>-40000</v>
       </c>
       <c r="F23" s="3">
-        <v>108800</v>
+        <v>35400</v>
       </c>
       <c r="G23" s="3">
-        <v>66200</v>
+        <v>110100</v>
       </c>
       <c r="H23" s="3">
-        <v>-18300</v>
+        <v>67000</v>
       </c>
       <c r="I23" s="3">
-        <v>-9900</v>
+        <v>-18500</v>
       </c>
       <c r="J23" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-57100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-63900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-55000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>105400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-32000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>11500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>194400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-12900</v>
+        <v>-7700</v>
       </c>
       <c r="E24" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
-        <v>30400</v>
-      </c>
       <c r="G24" s="3">
-        <v>7600</v>
+        <v>30800</v>
       </c>
       <c r="H24" s="3">
-        <v>-38100</v>
+        <v>7700</v>
       </c>
       <c r="I24" s="3">
-        <v>12900</v>
+        <v>-38500</v>
       </c>
       <c r="J24" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-12200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-15300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>27900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>78100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-13100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>63000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-26600</v>
+        <v>-91600</v>
       </c>
       <c r="E26" s="3">
-        <v>33500</v>
+        <v>-26900</v>
       </c>
       <c r="F26" s="3">
-        <v>78400</v>
+        <v>33900</v>
       </c>
       <c r="G26" s="3">
-        <v>58600</v>
+        <v>79300</v>
       </c>
       <c r="H26" s="3">
-        <v>19800</v>
+        <v>59300</v>
       </c>
       <c r="I26" s="3">
-        <v>-22800</v>
+        <v>20000</v>
       </c>
       <c r="J26" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-44900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-48700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-50400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>77500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-86300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-28300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>24600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>131400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-45700</v>
+        <v>-104700</v>
       </c>
       <c r="E27" s="3">
-        <v>20500</v>
+        <v>-46200</v>
       </c>
       <c r="F27" s="3">
-        <v>50200</v>
+        <v>20800</v>
       </c>
       <c r="G27" s="3">
-        <v>38800</v>
+        <v>50800</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>39300</v>
       </c>
       <c r="I27" s="3">
-        <v>-49500</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-92900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-62500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-79000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>48900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-107900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-20100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>46900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11400</v>
+        <v>-3800</v>
       </c>
       <c r="E32" s="3">
-        <v>22100</v>
+        <v>-11500</v>
       </c>
       <c r="F32" s="3">
-        <v>-72300</v>
+        <v>22300</v>
       </c>
       <c r="G32" s="3">
-        <v>16700</v>
+        <v>-73100</v>
       </c>
       <c r="H32" s="3">
-        <v>21300</v>
+        <v>16900</v>
       </c>
       <c r="I32" s="3">
-        <v>6100</v>
+        <v>21600</v>
       </c>
       <c r="J32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K32" s="3">
         <v>5300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-18400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-15400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-45700</v>
+        <v>-104700</v>
       </c>
       <c r="E33" s="3">
-        <v>20500</v>
+        <v>-46200</v>
       </c>
       <c r="F33" s="3">
-        <v>50200</v>
+        <v>20800</v>
       </c>
       <c r="G33" s="3">
-        <v>38800</v>
+        <v>50800</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>39300</v>
       </c>
       <c r="I33" s="3">
-        <v>-49500</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-92900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-62500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-79000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>48900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-107900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-20100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>46900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-45700</v>
+        <v>-104700</v>
       </c>
       <c r="E35" s="3">
-        <v>20500</v>
+        <v>-46200</v>
       </c>
       <c r="F35" s="3">
-        <v>50200</v>
+        <v>20800</v>
       </c>
       <c r="G35" s="3">
-        <v>38800</v>
+        <v>50800</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>39300</v>
       </c>
       <c r="I35" s="3">
-        <v>-49500</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-92900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-62500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-79000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>48900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-107900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-20100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>46900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,91 +2400,95 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>195600</v>
+        <v>207900</v>
       </c>
       <c r="E41" s="3">
-        <v>257200</v>
+        <v>197800</v>
       </c>
       <c r="F41" s="3">
-        <v>312800</v>
+        <v>260200</v>
       </c>
       <c r="G41" s="3">
-        <v>248100</v>
+        <v>316400</v>
       </c>
       <c r="H41" s="3">
-        <v>158300</v>
+        <v>251000</v>
       </c>
       <c r="I41" s="3">
-        <v>83000</v>
+        <v>160100</v>
       </c>
       <c r="J41" s="3">
+        <v>83900</v>
+      </c>
+      <c r="K41" s="3">
         <v>67700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>69000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>92600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>247700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>233700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>64700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>37200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>387200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>234300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>120600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>209300</v>
+        <v>147800</v>
       </c>
       <c r="E42" s="3">
-        <v>201700</v>
+        <v>211700</v>
       </c>
       <c r="F42" s="3">
-        <v>126300</v>
+        <v>204000</v>
       </c>
       <c r="G42" s="3">
-        <v>121800</v>
+        <v>127800</v>
       </c>
       <c r="H42" s="3">
-        <v>125600</v>
+        <v>123200</v>
       </c>
       <c r="I42" s="3">
-        <v>105800</v>
+        <v>127000</v>
       </c>
       <c r="J42" s="3">
+        <v>107000</v>
+      </c>
+      <c r="K42" s="3">
         <v>111100</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
@@ -2426,400 +2516,424 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>325700</v>
+        <v>373400</v>
       </c>
       <c r="E43" s="3">
-        <v>328000</v>
+        <v>329500</v>
       </c>
       <c r="F43" s="3">
-        <v>351600</v>
+        <v>331800</v>
       </c>
       <c r="G43" s="3">
-        <v>344000</v>
+        <v>355700</v>
       </c>
       <c r="H43" s="3">
-        <v>383600</v>
+        <v>348000</v>
       </c>
       <c r="I43" s="3">
-        <v>556400</v>
+        <v>388000</v>
       </c>
       <c r="J43" s="3">
+        <v>562700</v>
+      </c>
+      <c r="K43" s="3">
         <v>575400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>472300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>423100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>505100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>694300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>829000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>499400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>504700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>480900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>383300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>347200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>226000</v>
+        <v>198600</v>
       </c>
       <c r="E44" s="3">
-        <v>200200</v>
+        <v>228600</v>
       </c>
       <c r="F44" s="3">
-        <v>191000</v>
+        <v>202500</v>
       </c>
       <c r="G44" s="3">
-        <v>185700</v>
+        <v>193200</v>
       </c>
       <c r="H44" s="3">
-        <v>204000</v>
+        <v>187800</v>
       </c>
       <c r="I44" s="3">
-        <v>172000</v>
+        <v>206300</v>
       </c>
       <c r="J44" s="3">
+        <v>174000</v>
+      </c>
+      <c r="K44" s="3">
         <v>184200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>191800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>211500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>168600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>163000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>173400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>183800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>152100</v>
-      </c>
-      <c r="R44" s="3">
-        <v>163600</v>
       </c>
       <c r="S44" s="3">
         <v>163600</v>
       </c>
       <c r="T44" s="3">
+        <v>163600</v>
+      </c>
+      <c r="U44" s="3">
         <v>182800</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>48700</v>
+        <v>144000</v>
       </c>
       <c r="E45" s="3">
-        <v>52500</v>
+        <v>49300</v>
       </c>
       <c r="F45" s="3">
-        <v>38800</v>
+        <v>53100</v>
       </c>
       <c r="G45" s="3">
-        <v>232100</v>
+        <v>39300</v>
       </c>
       <c r="H45" s="3">
-        <v>53300</v>
+        <v>234800</v>
       </c>
       <c r="I45" s="3">
-        <v>42600</v>
+        <v>53900</v>
       </c>
       <c r="J45" s="3">
+        <v>43100</v>
+      </c>
+      <c r="K45" s="3">
         <v>60100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>199100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>173100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>170900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>180800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>173400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>206900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>255800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>315000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>227400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1005400</v>
+        <v>1071600</v>
       </c>
       <c r="E46" s="3">
-        <v>1039600</v>
+        <v>1016900</v>
       </c>
       <c r="F46" s="3">
-        <v>1020600</v>
+        <v>1051600</v>
       </c>
       <c r="G46" s="3">
-        <v>1131700</v>
+        <v>1032300</v>
       </c>
       <c r="H46" s="3">
-        <v>924700</v>
+        <v>1144700</v>
       </c>
       <c r="I46" s="3">
-        <v>959700</v>
+        <v>935300</v>
       </c>
       <c r="J46" s="3">
+        <v>970700</v>
+      </c>
+      <c r="K46" s="3">
         <v>998600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>932300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1092300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1271900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1240600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>927300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1299800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1193800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>895000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>828200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>127900</v>
+        <v>126300</v>
       </c>
       <c r="E47" s="3">
-        <v>130900</v>
+        <v>129300</v>
       </c>
       <c r="F47" s="3">
-        <v>134000</v>
+        <v>132400</v>
       </c>
       <c r="G47" s="3">
-        <v>136200</v>
+        <v>135500</v>
       </c>
       <c r="H47" s="3">
-        <v>139300</v>
+        <v>137800</v>
       </c>
       <c r="I47" s="3">
-        <v>142300</v>
+        <v>140900</v>
       </c>
       <c r="J47" s="3">
+        <v>144000</v>
+      </c>
+      <c r="K47" s="3">
         <v>145400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>142400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>152100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>157300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>160000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>171200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>500100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>535500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>552400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>554700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4632800</v>
+        <v>4646600</v>
       </c>
       <c r="E48" s="3">
-        <v>4734000</v>
+        <v>4685900</v>
       </c>
       <c r="F48" s="3">
-        <v>4835200</v>
+        <v>4788300</v>
       </c>
       <c r="G48" s="3">
-        <v>4550600</v>
+        <v>4890700</v>
       </c>
       <c r="H48" s="3">
-        <v>4655600</v>
+        <v>4602800</v>
       </c>
       <c r="I48" s="3">
-        <v>4650300</v>
+        <v>4709000</v>
       </c>
       <c r="J48" s="3">
+        <v>4703600</v>
+      </c>
+      <c r="K48" s="3">
         <v>4691400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4506200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4787000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4869800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4895400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4952000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4989200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5232400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5242400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5354600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5337700</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>613400</v>
+        <v>609700</v>
       </c>
       <c r="E49" s="3">
-        <v>592100</v>
+        <v>620500</v>
       </c>
       <c r="F49" s="3">
-        <v>595200</v>
+        <v>598900</v>
       </c>
       <c r="G49" s="3">
-        <v>600500</v>
+        <v>602000</v>
       </c>
       <c r="H49" s="3">
-        <v>627900</v>
+        <v>607400</v>
       </c>
       <c r="I49" s="3">
-        <v>636300</v>
+        <v>635100</v>
       </c>
       <c r="J49" s="3">
+        <v>643600</v>
+      </c>
+      <c r="K49" s="3">
         <v>637000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>585000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>612000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>618800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>615500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>617700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>600600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>623000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>629200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>630700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>752000</v>
+        <v>651300</v>
       </c>
       <c r="E52" s="3">
-        <v>689500</v>
+        <v>760600</v>
       </c>
       <c r="F52" s="3">
-        <v>651500</v>
+        <v>697500</v>
       </c>
       <c r="G52" s="3">
-        <v>629400</v>
+        <v>659000</v>
       </c>
       <c r="H52" s="3">
-        <v>653800</v>
+        <v>636600</v>
       </c>
       <c r="I52" s="3">
-        <v>710900</v>
+        <v>661300</v>
       </c>
       <c r="J52" s="3">
+        <v>719000</v>
+      </c>
+      <c r="K52" s="3">
         <v>703200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>680200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>770100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>761800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>725600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>729300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>736800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>797400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>829700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>745200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>739800</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7131400</v>
+        <v>7105400</v>
       </c>
       <c r="E54" s="3">
-        <v>7186200</v>
+        <v>7213200</v>
       </c>
       <c r="F54" s="3">
-        <v>7236400</v>
+        <v>7268600</v>
       </c>
       <c r="G54" s="3">
-        <v>7048500</v>
+        <v>7319400</v>
       </c>
       <c r="H54" s="3">
-        <v>7001300</v>
+        <v>7129300</v>
       </c>
       <c r="I54" s="3">
-        <v>7099400</v>
+        <v>7081600</v>
       </c>
       <c r="J54" s="3">
+        <v>7180900</v>
+      </c>
+      <c r="K54" s="3">
         <v>7175600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6846100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7221500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7500000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7668300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7710800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7753900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8488200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8447500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8180100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8100200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3272,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>305200</v>
+        <v>391800</v>
       </c>
       <c r="E57" s="3">
-        <v>314300</v>
+        <v>308700</v>
       </c>
       <c r="F57" s="3">
-        <v>314300</v>
+        <v>317900</v>
       </c>
       <c r="G57" s="3">
-        <v>271700</v>
+        <v>317900</v>
       </c>
       <c r="H57" s="3">
-        <v>277000</v>
+        <v>274800</v>
       </c>
       <c r="I57" s="3">
-        <v>348600</v>
+        <v>280200</v>
       </c>
       <c r="J57" s="3">
+        <v>352600</v>
+      </c>
+      <c r="K57" s="3">
         <v>378300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>346600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>319900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>373400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>442800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>380300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>313300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>351100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>317300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>283500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>229700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>390400</v>
+        <v>394900</v>
       </c>
       <c r="E58" s="3">
-        <v>391200</v>
+        <v>394900</v>
       </c>
       <c r="F58" s="3">
-        <v>390400</v>
+        <v>395700</v>
       </c>
       <c r="G58" s="3">
-        <v>78400</v>
+        <v>394900</v>
       </c>
       <c r="H58" s="3">
-        <v>79900</v>
+        <v>79300</v>
       </c>
       <c r="I58" s="3">
-        <v>79900</v>
+        <v>80800</v>
       </c>
       <c r="J58" s="3">
+        <v>80800</v>
+      </c>
+      <c r="K58" s="3">
         <v>112600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>95900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>77500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>105400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>555900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>686900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>701800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>484000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>490900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>452500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>179600</v>
+        <v>165500</v>
       </c>
       <c r="E59" s="3">
-        <v>162100</v>
+        <v>181700</v>
       </c>
       <c r="F59" s="3">
-        <v>145400</v>
+        <v>164000</v>
       </c>
       <c r="G59" s="3">
-        <v>209300</v>
+        <v>147000</v>
       </c>
       <c r="H59" s="3">
-        <v>174300</v>
+        <v>211700</v>
       </c>
       <c r="I59" s="3">
-        <v>160600</v>
+        <v>176300</v>
       </c>
       <c r="J59" s="3">
+        <v>162400</v>
+      </c>
+      <c r="K59" s="3">
         <v>173500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>133000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>159600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>203300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>198000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>94500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>105700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>117500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>126800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>218900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>553100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>875300</v>
+        <v>952300</v>
       </c>
       <c r="E60" s="3">
-        <v>867600</v>
+        <v>885300</v>
       </c>
       <c r="F60" s="3">
-        <v>850100</v>
+        <v>877600</v>
       </c>
       <c r="G60" s="3">
-        <v>559400</v>
+        <v>859900</v>
       </c>
       <c r="H60" s="3">
-        <v>531200</v>
+        <v>565800</v>
       </c>
       <c r="I60" s="3">
-        <v>589100</v>
+        <v>537300</v>
       </c>
       <c r="J60" s="3">
+        <v>595800</v>
+      </c>
+      <c r="K60" s="3">
         <v>664400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>575500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>557100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>682000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1196700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1161700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1120800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>952600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>934900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>954900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>904200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2228500</v>
+        <v>2216300</v>
       </c>
       <c r="E61" s="3">
-        <v>2277200</v>
+        <v>2254000</v>
       </c>
       <c r="F61" s="3">
-        <v>2302300</v>
+        <v>2303300</v>
       </c>
       <c r="G61" s="3">
-        <v>2448400</v>
+        <v>2328700</v>
       </c>
       <c r="H61" s="3">
-        <v>2485700</v>
+        <v>2476500</v>
       </c>
       <c r="I61" s="3">
-        <v>2437800</v>
+        <v>2514200</v>
       </c>
       <c r="J61" s="3">
+        <v>2465700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2373800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2217100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2291500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2462400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2202900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2126200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2128400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2822500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2859400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2714200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2710300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1034600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1001500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>933800</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1003800</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1003100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>986100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1026900</v>
+      </c>
+      <c r="K62" s="3">
+        <v>990900</v>
+      </c>
+      <c r="L62" s="3">
+        <v>940300</v>
+      </c>
+      <c r="M62" s="3">
+        <v>1021500</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1029100</v>
+      </c>
+      <c r="O62" s="3">
+        <v>1005400</v>
+      </c>
+      <c r="P62" s="3">
+        <v>1091800</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>1081300</v>
+      </c>
+      <c r="R62" s="3">
+        <v>1118500</v>
+      </c>
+      <c r="S62" s="3">
+        <v>1070900</v>
+      </c>
+      <c r="T62" s="3">
+        <v>1025600</v>
+      </c>
+      <c r="U62" s="3">
         <v>990200</v>
       </c>
-      <c r="E62" s="3">
-        <v>923200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>992500</v>
-      </c>
-      <c r="G62" s="3">
-        <v>991700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>975000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1015300</v>
-      </c>
-      <c r="J62" s="3">
-        <v>990900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>940300</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1021500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1029100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1005400</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1091800</v>
-      </c>
-      <c r="P62" s="3">
-        <v>1081300</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>1118500</v>
-      </c>
-      <c r="R62" s="3">
-        <v>1070900</v>
-      </c>
-      <c r="S62" s="3">
-        <v>1025600</v>
-      </c>
-      <c r="T62" s="3">
-        <v>990200</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4906700</v>
+        <v>5055400</v>
       </c>
       <c r="E66" s="3">
-        <v>4909000</v>
+        <v>4963000</v>
       </c>
       <c r="F66" s="3">
-        <v>4982900</v>
+        <v>4965300</v>
       </c>
       <c r="G66" s="3">
-        <v>4837500</v>
+        <v>5040000</v>
       </c>
       <c r="H66" s="3">
-        <v>4825300</v>
+        <v>4893000</v>
       </c>
       <c r="I66" s="3">
-        <v>4909800</v>
+        <v>4880700</v>
       </c>
       <c r="J66" s="3">
+        <v>4966100</v>
+      </c>
+      <c r="K66" s="3">
         <v>4894600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4546200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4740300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4962400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5193100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5185700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5167100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5770900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5750200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5562000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5469000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,43 +4001,46 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>725200</v>
+      </c>
+      <c r="E70" s="3">
+        <v>725200</v>
+      </c>
+      <c r="F70" s="3">
+        <v>725200</v>
+      </c>
+      <c r="G70" s="3">
+        <v>725200</v>
+      </c>
+      <c r="H70" s="3">
+        <v>725200</v>
+      </c>
+      <c r="I70" s="3">
+        <v>725200</v>
+      </c>
+      <c r="J70" s="3">
+        <v>725200</v>
+      </c>
+      <c r="K70" s="3">
         <v>716900</v>
       </c>
-      <c r="E70" s="3">
-        <v>716900</v>
-      </c>
-      <c r="F70" s="3">
-        <v>716900</v>
-      </c>
-      <c r="G70" s="3">
-        <v>716900</v>
-      </c>
-      <c r="H70" s="3">
-        <v>716900</v>
-      </c>
-      <c r="I70" s="3">
-        <v>716900</v>
-      </c>
-      <c r="J70" s="3">
-        <v>716900</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>684500</v>
-      </c>
-      <c r="L70" s="3">
-        <v>709100</v>
       </c>
       <c r="M70" s="3">
         <v>709100</v>
       </c>
       <c r="N70" s="3">
-        <v>701000</v>
+        <v>709100</v>
       </c>
       <c r="O70" s="3">
         <v>701000</v>
@@ -3881,7 +4049,7 @@
         <v>701000</v>
       </c>
       <c r="Q70" s="3">
-        <v>723700</v>
+        <v>701000</v>
       </c>
       <c r="R70" s="3">
         <v>723700</v>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>723700</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>723700</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1140900</v>
+        <v>-1266400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1090600</v>
+        <v>-1154000</v>
       </c>
       <c r="F72" s="3">
-        <v>-1107400</v>
+        <v>-1103200</v>
       </c>
       <c r="G72" s="3">
-        <v>-1156900</v>
+        <v>-1120100</v>
       </c>
       <c r="H72" s="3">
-        <v>-1188800</v>
+        <v>-1170100</v>
       </c>
       <c r="I72" s="3">
-        <v>-1185800</v>
+        <v>-1202500</v>
       </c>
       <c r="J72" s="3">
+        <v>-1199400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1138600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-986100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-952300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-879300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-899700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-785900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-716700</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-716800</v>
       </c>
       <c r="R72" s="3">
         <v>-716800</v>
       </c>
       <c r="S72" s="3">
+        <v>-716800</v>
+      </c>
+      <c r="T72" s="3">
         <v>-775100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-756700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1507700</v>
+        <v>1324900</v>
       </c>
       <c r="E76" s="3">
-        <v>1560200</v>
+        <v>1525000</v>
       </c>
       <c r="F76" s="3">
-        <v>1536600</v>
+        <v>1578100</v>
       </c>
       <c r="G76" s="3">
-        <v>1494000</v>
+        <v>1554300</v>
       </c>
       <c r="H76" s="3">
-        <v>1459000</v>
+        <v>1511200</v>
       </c>
       <c r="I76" s="3">
-        <v>1472700</v>
+        <v>1475700</v>
       </c>
       <c r="J76" s="3">
+        <v>1489600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1564000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1615400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1772100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1828500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1774200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1824100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1885800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1993600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1973600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1894500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1907500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-45700</v>
+        <v>-104700</v>
       </c>
       <c r="E81" s="3">
-        <v>20500</v>
+        <v>-46200</v>
       </c>
       <c r="F81" s="3">
-        <v>50200</v>
+        <v>20800</v>
       </c>
       <c r="G81" s="3">
-        <v>38800</v>
+        <v>50800</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>39300</v>
       </c>
       <c r="I81" s="3">
-        <v>-49500</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-92900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-62500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-79000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>48900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-107900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-20100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>46900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>143100</v>
+        <v>150100</v>
       </c>
       <c r="E83" s="3">
-        <v>140000</v>
+        <v>144700</v>
       </c>
       <c r="F83" s="3">
-        <v>140800</v>
+        <v>141600</v>
       </c>
       <c r="G83" s="3">
-        <v>134700</v>
+        <v>142400</v>
       </c>
       <c r="H83" s="3">
-        <v>131700</v>
+        <v>136300</v>
       </c>
       <c r="I83" s="3">
-        <v>132400</v>
+        <v>133200</v>
       </c>
       <c r="J83" s="3">
+        <v>133900</v>
+      </c>
+      <c r="K83" s="3">
         <v>142300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>130800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>137000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>121200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>148100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>131000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>128700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>122900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>158300</v>
-      </c>
-      <c r="S83" s="3">
-        <v>123700</v>
       </c>
       <c r="T83" s="3">
         <v>123700</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>123700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>92100</v>
+        <v>197800</v>
       </c>
       <c r="E89" s="3">
-        <v>162900</v>
+        <v>93100</v>
       </c>
       <c r="F89" s="3">
-        <v>137800</v>
+        <v>164700</v>
       </c>
       <c r="G89" s="3">
-        <v>249600</v>
+        <v>139300</v>
       </c>
       <c r="H89" s="3">
-        <v>196400</v>
+        <v>252500</v>
       </c>
       <c r="I89" s="3">
-        <v>62400</v>
+        <v>198600</v>
       </c>
       <c r="J89" s="3">
+        <v>63100</v>
+      </c>
+      <c r="K89" s="3">
         <v>100500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>115500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>78300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>319900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>60300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>149600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>46900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>215900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>93700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>175200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>91400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-57100</v>
+        <v>-99300</v>
       </c>
       <c r="E91" s="3">
-        <v>-54800</v>
+        <v>-57700</v>
       </c>
       <c r="F91" s="3">
-        <v>-134700</v>
+        <v>-55400</v>
       </c>
       <c r="G91" s="3">
-        <v>-73100</v>
+        <v>-136300</v>
       </c>
       <c r="H91" s="3">
+        <v>-73900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-84700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-76900</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-67600</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-81100</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="S91" s="3">
         <v>-83700</v>
       </c>
-      <c r="I91" s="3">
-        <v>-25900</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-76900</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-67600</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-45200</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-17300</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-53600</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-81100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-72200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-49200</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-83700</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-76800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-62200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-83000</v>
+        <v>-126300</v>
       </c>
       <c r="E94" s="3">
-        <v>-72300</v>
+        <v>-83900</v>
       </c>
       <c r="F94" s="3">
-        <v>-145400</v>
+        <v>-73100</v>
       </c>
       <c r="G94" s="3">
-        <v>-69300</v>
+        <v>-147000</v>
       </c>
       <c r="H94" s="3">
-        <v>-134700</v>
+        <v>-70100</v>
       </c>
       <c r="I94" s="3">
-        <v>-40300</v>
+        <v>-136300</v>
       </c>
       <c r="J94" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-76100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-98100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-79800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-39900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>224000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-107900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-55100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-65300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-76100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-58400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5316,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-9100</v>
       </c>
-      <c r="E96" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-9000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-8200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-8900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-9200</v>
       </c>
       <c r="R96" s="3">
         <v>-9200</v>
       </c>
       <c r="S96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="T96" s="3">
         <v>-8500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-71500</v>
+        <v>-60800</v>
       </c>
       <c r="E100" s="3">
-        <v>-149200</v>
+        <v>-72400</v>
       </c>
       <c r="F100" s="3">
-        <v>72300</v>
+        <v>-150900</v>
       </c>
       <c r="G100" s="3">
-        <v>-90600</v>
+        <v>73100</v>
       </c>
       <c r="H100" s="3">
-        <v>14500</v>
+        <v>-91600</v>
       </c>
       <c r="I100" s="3">
-        <v>-6800</v>
+        <v>14600</v>
       </c>
       <c r="J100" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-28900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-37100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-154300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-268700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-115400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-13400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-328900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-67600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>86000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-49900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
-        <v>3000</v>
-      </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="P101" s="3">
         <v>-700</v>
       </c>
       <c r="Q101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R101" s="3">
         <v>800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-800</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-61600</v>
+        <v>10000</v>
       </c>
       <c r="E102" s="3">
-        <v>-55600</v>
+        <v>-62400</v>
       </c>
       <c r="F102" s="3">
-        <v>64700</v>
+        <v>-56200</v>
       </c>
       <c r="G102" s="3">
-        <v>89800</v>
+        <v>65400</v>
       </c>
       <c r="H102" s="3">
-        <v>75300</v>
+        <v>90800</v>
       </c>
       <c r="I102" s="3">
-        <v>15200</v>
+        <v>76200</v>
       </c>
       <c r="J102" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-20300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-155100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>168900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>27500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-337900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>152900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>113700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>49200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>48400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>TAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>395700</v>
+        <v>431400</v>
       </c>
       <c r="E8" s="3">
-        <v>336400</v>
+        <v>407600</v>
       </c>
       <c r="F8" s="3">
-        <v>466500</v>
+        <v>346500</v>
       </c>
       <c r="G8" s="3">
-        <v>468800</v>
+        <v>480600</v>
       </c>
       <c r="H8" s="3">
-        <v>456500</v>
+        <v>482900</v>
       </c>
       <c r="I8" s="3">
-        <v>382600</v>
+        <v>470300</v>
       </c>
       <c r="J8" s="3">
+        <v>394100</v>
+      </c>
+      <c r="K8" s="3">
         <v>498800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>473400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>430900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>335700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>442600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>474800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>437600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>374300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>444000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>550800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>476300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>194000</v>
+        <v>259300</v>
       </c>
       <c r="E9" s="3">
-        <v>116200</v>
+        <v>199800</v>
       </c>
       <c r="F9" s="3">
-        <v>183200</v>
+        <v>119700</v>
       </c>
       <c r="G9" s="3">
-        <v>317900</v>
+        <v>188700</v>
       </c>
       <c r="H9" s="3">
-        <v>285600</v>
+        <v>327500</v>
       </c>
       <c r="I9" s="3">
-        <v>236300</v>
+        <v>294200</v>
       </c>
       <c r="J9" s="3">
+        <v>243500</v>
+      </c>
+      <c r="K9" s="3">
         <v>361800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>361500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>311000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>227300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>308600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>326000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>307400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>228500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>288100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>311100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>322700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>201700</v>
+        <v>172100</v>
       </c>
       <c r="E10" s="3">
-        <v>220200</v>
+        <v>207800</v>
       </c>
       <c r="F10" s="3">
-        <v>283300</v>
+        <v>226800</v>
       </c>
       <c r="G10" s="3">
-        <v>150900</v>
+        <v>291800</v>
       </c>
       <c r="H10" s="3">
-        <v>170900</v>
+        <v>155400</v>
       </c>
       <c r="I10" s="3">
-        <v>146300</v>
+        <v>176100</v>
       </c>
       <c r="J10" s="3">
+        <v>150700</v>
+      </c>
+      <c r="K10" s="3">
         <v>137000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>111900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>119900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>108400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>134000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>148800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>130200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>145900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>156000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>239700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>153600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>150600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>58500</v>
+        <v>13500</v>
       </c>
       <c r="E14" s="3">
-        <v>24600</v>
+        <v>60300</v>
       </c>
       <c r="F14" s="3">
-        <v>-31600</v>
+        <v>25400</v>
       </c>
       <c r="G14" s="3">
-        <v>36200</v>
+        <v>-32500</v>
       </c>
       <c r="H14" s="3">
-        <v>-16900</v>
+        <v>37300</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>-17400</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>17500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>41400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3800</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>4500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>14900</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>21500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>800</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>124700</v>
+        <v>137200</v>
       </c>
       <c r="E15" s="3">
-        <v>125500</v>
+        <v>128500</v>
       </c>
       <c r="F15" s="3">
-        <v>120100</v>
+        <v>129300</v>
       </c>
       <c r="G15" s="3">
-        <v>118600</v>
+        <v>123700</v>
       </c>
       <c r="H15" s="3">
-        <v>113900</v>
+        <v>122100</v>
       </c>
       <c r="I15" s="3">
-        <v>110100</v>
+        <v>117400</v>
       </c>
       <c r="J15" s="3">
+        <v>113400</v>
+      </c>
+      <c r="K15" s="3">
         <v>111600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>115700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>106100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>109900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>97900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>134000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>117600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>114600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>109900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>143700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>111400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>112900</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>463400</v>
+        <v>525000</v>
       </c>
       <c r="E17" s="3">
-        <v>351000</v>
+        <v>477400</v>
       </c>
       <c r="F17" s="3">
-        <v>369500</v>
+        <v>361600</v>
       </c>
       <c r="G17" s="3">
-        <v>397200</v>
+        <v>380600</v>
       </c>
       <c r="H17" s="3">
-        <v>337200</v>
+        <v>409200</v>
       </c>
       <c r="I17" s="3">
-        <v>343300</v>
+        <v>347300</v>
       </c>
       <c r="J17" s="3">
+        <v>353700</v>
+      </c>
+      <c r="K17" s="3">
         <v>471100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>493200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>452000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>344800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>289800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>451000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>427200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>356500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>396400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>333400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>440200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-67700</v>
+        <v>-93600</v>
       </c>
       <c r="E18" s="3">
-        <v>-14600</v>
+        <v>-69800</v>
       </c>
       <c r="F18" s="3">
-        <v>97000</v>
+        <v>-15100</v>
       </c>
       <c r="G18" s="3">
-        <v>71600</v>
+        <v>99900</v>
       </c>
       <c r="H18" s="3">
-        <v>119300</v>
+        <v>73800</v>
       </c>
       <c r="I18" s="3">
-        <v>39300</v>
+        <v>122900</v>
       </c>
       <c r="J18" s="3">
+        <v>40400</v>
+      </c>
+      <c r="K18" s="3">
         <v>27700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-21100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>152800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>23800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>17900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>47600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>217400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>36100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3800</v>
+        <v>1600</v>
       </c>
       <c r="E20" s="3">
-        <v>11500</v>
+        <v>4000</v>
       </c>
       <c r="F20" s="3">
-        <v>-22300</v>
+        <v>11900</v>
       </c>
       <c r="G20" s="3">
-        <v>73100</v>
+        <v>-23000</v>
       </c>
       <c r="H20" s="3">
-        <v>-16900</v>
+        <v>75300</v>
       </c>
       <c r="I20" s="3">
-        <v>-21600</v>
+        <v>-17400</v>
       </c>
       <c r="J20" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>9700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>18400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>15400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>86200</v>
+        <v>91200</v>
       </c>
       <c r="E21" s="3">
-        <v>141600</v>
+        <v>88800</v>
       </c>
       <c r="F21" s="3">
-        <v>216300</v>
+        <v>145900</v>
       </c>
       <c r="G21" s="3">
-        <v>287100</v>
+        <v>222800</v>
       </c>
       <c r="H21" s="3">
-        <v>238600</v>
+        <v>295800</v>
       </c>
       <c r="I21" s="3">
-        <v>150900</v>
+        <v>245800</v>
       </c>
       <c r="J21" s="3">
+        <v>155400</v>
+      </c>
+      <c r="K21" s="3">
         <v>155500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>117200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>122000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>269500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>180100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>137700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>156300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>175200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>394100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>175200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>35400</v>
+        <v>41200</v>
       </c>
       <c r="E22" s="3">
-        <v>37000</v>
+        <v>36500</v>
       </c>
       <c r="F22" s="3">
-        <v>39300</v>
+        <v>38100</v>
       </c>
       <c r="G22" s="3">
-        <v>34600</v>
+        <v>40400</v>
       </c>
       <c r="H22" s="3">
-        <v>35400</v>
+        <v>35700</v>
       </c>
       <c r="I22" s="3">
-        <v>36200</v>
+        <v>36500</v>
       </c>
       <c r="J22" s="3">
+        <v>37300</v>
+      </c>
+      <c r="K22" s="3">
         <v>31600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>32000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>33400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>39900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>42900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>40200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>38700</v>
       </c>
       <c r="Q22" s="3">
         <v>38700</v>
       </c>
       <c r="R22" s="3">
+        <v>38700</v>
+      </c>
+      <c r="S22" s="3">
         <v>40700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>41500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>42300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-99300</v>
+        <v>-133200</v>
       </c>
       <c r="E23" s="3">
-        <v>-40000</v>
+        <v>-102300</v>
       </c>
       <c r="F23" s="3">
-        <v>35400</v>
+        <v>-41200</v>
       </c>
       <c r="G23" s="3">
-        <v>110100</v>
+        <v>36500</v>
       </c>
       <c r="H23" s="3">
-        <v>67000</v>
+        <v>113400</v>
       </c>
       <c r="I23" s="3">
-        <v>-18500</v>
+        <v>69000</v>
       </c>
       <c r="J23" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-10000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-57100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-63900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-55000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>105400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>11500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>194400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-7700</v>
+        <v>-19800</v>
       </c>
       <c r="E24" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H24" s="3">
+        <v>31700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="K24" s="3">
+        <v>13100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="O24" s="3">
+        <v>27900</v>
+      </c>
+      <c r="P24" s="3">
+        <v>78100</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="R24" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="S24" s="3">
         <v>-13100</v>
       </c>
-      <c r="F24" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>30800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>7700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-38500</v>
-      </c>
-      <c r="J24" s="3">
-        <v>13100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="N24" s="3">
-        <v>27900</v>
-      </c>
-      <c r="O24" s="3">
-        <v>78100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>-14100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>63000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-91600</v>
+        <v>-113400</v>
       </c>
       <c r="E26" s="3">
-        <v>-26900</v>
+        <v>-94400</v>
       </c>
       <c r="F26" s="3">
-        <v>33900</v>
+        <v>-27800</v>
       </c>
       <c r="G26" s="3">
-        <v>79300</v>
+        <v>34900</v>
       </c>
       <c r="H26" s="3">
-        <v>59300</v>
+        <v>81700</v>
       </c>
       <c r="I26" s="3">
-        <v>20000</v>
+        <v>61100</v>
       </c>
       <c r="J26" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-23100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-44900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-48700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-50400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>77500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-86300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-28300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>24600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>131400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>10800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-104700</v>
+        <v>-132400</v>
       </c>
       <c r="E27" s="3">
-        <v>-46200</v>
+        <v>-107900</v>
       </c>
       <c r="F27" s="3">
-        <v>20800</v>
+        <v>-47600</v>
       </c>
       <c r="G27" s="3">
-        <v>50800</v>
+        <v>21400</v>
       </c>
       <c r="H27" s="3">
-        <v>39300</v>
+        <v>52300</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>40400</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-50000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-92900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-62500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-79000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>48900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-107900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13400</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>46900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3800</v>
+        <v>-1600</v>
       </c>
       <c r="E32" s="3">
-        <v>-11500</v>
+        <v>-4000</v>
       </c>
       <c r="F32" s="3">
-        <v>22300</v>
+        <v>-11900</v>
       </c>
       <c r="G32" s="3">
-        <v>-73100</v>
+        <v>23000</v>
       </c>
       <c r="H32" s="3">
-        <v>16900</v>
+        <v>-75300</v>
       </c>
       <c r="I32" s="3">
-        <v>21600</v>
+        <v>17400</v>
       </c>
       <c r="J32" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K32" s="3">
         <v>6200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-9700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-18400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-15400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-104700</v>
+        <v>-132400</v>
       </c>
       <c r="E33" s="3">
-        <v>-46200</v>
+        <v>-107900</v>
       </c>
       <c r="F33" s="3">
-        <v>20800</v>
+        <v>-47600</v>
       </c>
       <c r="G33" s="3">
-        <v>50800</v>
+        <v>21400</v>
       </c>
       <c r="H33" s="3">
-        <v>39300</v>
+        <v>52300</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>40400</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-50000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-92900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-62500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-79000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>48900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-107900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-13400</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>46900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-104700</v>
+        <v>-132400</v>
       </c>
       <c r="E35" s="3">
-        <v>-46200</v>
+        <v>-107900</v>
       </c>
       <c r="F35" s="3">
-        <v>20800</v>
+        <v>-47600</v>
       </c>
       <c r="G35" s="3">
-        <v>50800</v>
+        <v>21400</v>
       </c>
       <c r="H35" s="3">
-        <v>39300</v>
+        <v>52300</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>40400</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-50000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-92900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-62500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-79000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>48900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-107900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-13400</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>46900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,97 +2486,101 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>207900</v>
+        <v>557500</v>
       </c>
       <c r="E41" s="3">
-        <v>197800</v>
+        <v>214100</v>
       </c>
       <c r="F41" s="3">
-        <v>260200</v>
+        <v>203800</v>
       </c>
       <c r="G41" s="3">
-        <v>316400</v>
+        <v>268000</v>
       </c>
       <c r="H41" s="3">
-        <v>251000</v>
+        <v>325900</v>
       </c>
       <c r="I41" s="3">
-        <v>160100</v>
+        <v>258500</v>
       </c>
       <c r="J41" s="3">
+        <v>164900</v>
+      </c>
+      <c r="K41" s="3">
         <v>83900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>67700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>69000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>92600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>247700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>233700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>64700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>37200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>387200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>234300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>120600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>147800</v>
+        <v>135600</v>
       </c>
       <c r="E42" s="3">
-        <v>211700</v>
+        <v>152300</v>
       </c>
       <c r="F42" s="3">
-        <v>204000</v>
+        <v>218100</v>
       </c>
       <c r="G42" s="3">
-        <v>127800</v>
+        <v>210200</v>
       </c>
       <c r="H42" s="3">
-        <v>123200</v>
+        <v>131600</v>
       </c>
       <c r="I42" s="3">
-        <v>127000</v>
+        <v>126900</v>
       </c>
       <c r="J42" s="3">
+        <v>130800</v>
+      </c>
+      <c r="K42" s="3">
         <v>107000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>111100</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
@@ -2519,421 +2608,445 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>373400</v>
+        <v>462300</v>
       </c>
       <c r="E43" s="3">
-        <v>329500</v>
+        <v>384600</v>
       </c>
       <c r="F43" s="3">
-        <v>331800</v>
+        <v>339400</v>
       </c>
       <c r="G43" s="3">
-        <v>355700</v>
+        <v>341800</v>
       </c>
       <c r="H43" s="3">
-        <v>348000</v>
+        <v>366400</v>
       </c>
       <c r="I43" s="3">
-        <v>388000</v>
+        <v>358400</v>
       </c>
       <c r="J43" s="3">
+        <v>399700</v>
+      </c>
+      <c r="K43" s="3">
         <v>562700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>575400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>472300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>423100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>505100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>694300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>829000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>499400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>504700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>480900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>383300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>347200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>198600</v>
+        <v>188700</v>
       </c>
       <c r="E44" s="3">
-        <v>228600</v>
+        <v>204600</v>
       </c>
       <c r="F44" s="3">
-        <v>202500</v>
+        <v>235500</v>
       </c>
       <c r="G44" s="3">
-        <v>193200</v>
+        <v>208600</v>
       </c>
       <c r="H44" s="3">
-        <v>187800</v>
+        <v>199000</v>
       </c>
       <c r="I44" s="3">
-        <v>206300</v>
+        <v>193500</v>
       </c>
       <c r="J44" s="3">
+        <v>212500</v>
+      </c>
+      <c r="K44" s="3">
         <v>174000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>184200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>191800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>211500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>168600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>163000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>173400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>183800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>152100</v>
-      </c>
-      <c r="S44" s="3">
-        <v>163600</v>
       </c>
       <c r="T44" s="3">
         <v>163600</v>
       </c>
       <c r="U44" s="3">
+        <v>163600</v>
+      </c>
+      <c r="V44" s="3">
         <v>182800</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>144000</v>
+        <v>164200</v>
       </c>
       <c r="E45" s="3">
-        <v>49300</v>
+        <v>148300</v>
       </c>
       <c r="F45" s="3">
-        <v>53100</v>
+        <v>50800</v>
       </c>
       <c r="G45" s="3">
-        <v>39300</v>
+        <v>54700</v>
       </c>
       <c r="H45" s="3">
-        <v>234800</v>
+        <v>40400</v>
       </c>
       <c r="I45" s="3">
-        <v>53900</v>
+        <v>241900</v>
       </c>
       <c r="J45" s="3">
+        <v>55500</v>
+      </c>
+      <c r="K45" s="3">
         <v>43100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>60100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>199100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>173100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>170900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>180800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>173400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>206900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>255800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>315000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>227400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1071600</v>
+        <v>1508300</v>
       </c>
       <c r="E46" s="3">
-        <v>1016900</v>
+        <v>1103900</v>
       </c>
       <c r="F46" s="3">
-        <v>1051600</v>
+        <v>1047600</v>
       </c>
       <c r="G46" s="3">
-        <v>1032300</v>
+        <v>1083300</v>
       </c>
       <c r="H46" s="3">
-        <v>1144700</v>
+        <v>1063400</v>
       </c>
       <c r="I46" s="3">
-        <v>935300</v>
+        <v>1179200</v>
       </c>
       <c r="J46" s="3">
+        <v>963500</v>
+      </c>
+      <c r="K46" s="3">
         <v>970700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>998600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>932300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1092300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1271900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1240600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>927300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1299800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1193800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>895000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>828200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>126300</v>
+        <v>260100</v>
       </c>
       <c r="E47" s="3">
-        <v>129300</v>
+        <v>130100</v>
       </c>
       <c r="F47" s="3">
-        <v>132400</v>
+        <v>133200</v>
       </c>
       <c r="G47" s="3">
-        <v>135500</v>
+        <v>136400</v>
       </c>
       <c r="H47" s="3">
-        <v>137800</v>
+        <v>139600</v>
       </c>
       <c r="I47" s="3">
-        <v>140900</v>
+        <v>142000</v>
       </c>
       <c r="J47" s="3">
+        <v>145100</v>
+      </c>
+      <c r="K47" s="3">
         <v>144000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>145400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>142400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>152100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>157300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>160000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>171200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>500100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>535500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>552400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>554700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4646600</v>
+        <v>4728800</v>
       </c>
       <c r="E48" s="3">
-        <v>4685900</v>
+        <v>4786700</v>
       </c>
       <c r="F48" s="3">
-        <v>4788300</v>
+        <v>4827100</v>
       </c>
       <c r="G48" s="3">
-        <v>4890700</v>
+        <v>4932600</v>
       </c>
       <c r="H48" s="3">
-        <v>4602800</v>
+        <v>5038100</v>
       </c>
       <c r="I48" s="3">
-        <v>4709000</v>
+        <v>4741500</v>
       </c>
       <c r="J48" s="3">
+        <v>4850900</v>
+      </c>
+      <c r="K48" s="3">
         <v>4703600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4691400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4506200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4787000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4869800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4895400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4952000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4989200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5232400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5242400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5354600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5337700</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>609700</v>
+        <v>615400</v>
       </c>
       <c r="E49" s="3">
-        <v>620500</v>
+        <v>628100</v>
       </c>
       <c r="F49" s="3">
-        <v>598900</v>
+        <v>639200</v>
       </c>
       <c r="G49" s="3">
-        <v>602000</v>
+        <v>617000</v>
       </c>
       <c r="H49" s="3">
-        <v>607400</v>
+        <v>620100</v>
       </c>
       <c r="I49" s="3">
-        <v>635100</v>
+        <v>625700</v>
       </c>
       <c r="J49" s="3">
+        <v>654200</v>
+      </c>
+      <c r="K49" s="3">
         <v>643600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>637000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>585000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>612000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>618800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>615500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>617700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>600600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>623000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>629200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>630700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>651300</v>
+        <v>617000</v>
       </c>
       <c r="E52" s="3">
-        <v>760600</v>
+        <v>670900</v>
       </c>
       <c r="F52" s="3">
-        <v>697500</v>
+        <v>783500</v>
       </c>
       <c r="G52" s="3">
-        <v>659000</v>
+        <v>718500</v>
       </c>
       <c r="H52" s="3">
-        <v>636600</v>
+        <v>678800</v>
       </c>
       <c r="I52" s="3">
-        <v>661300</v>
+        <v>655800</v>
       </c>
       <c r="J52" s="3">
+        <v>681200</v>
+      </c>
+      <c r="K52" s="3">
         <v>719000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>703200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>680200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>770100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>761800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>725600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>729300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>736800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>797400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>829700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>745200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>739800</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7105400</v>
+        <v>7729600</v>
       </c>
       <c r="E54" s="3">
-        <v>7213200</v>
+        <v>7319600</v>
       </c>
       <c r="F54" s="3">
-        <v>7268600</v>
+        <v>7430600</v>
       </c>
       <c r="G54" s="3">
-        <v>7319400</v>
+        <v>7487700</v>
       </c>
       <c r="H54" s="3">
-        <v>7129300</v>
+        <v>7540000</v>
       </c>
       <c r="I54" s="3">
-        <v>7081600</v>
+        <v>7344200</v>
       </c>
       <c r="J54" s="3">
+        <v>7295000</v>
+      </c>
+      <c r="K54" s="3">
         <v>7180900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7175600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6846100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7221500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7500000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7668300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7710800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7753900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8488200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8447500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8180100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8100200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>391800</v>
+        <v>475000</v>
       </c>
       <c r="E57" s="3">
-        <v>308700</v>
+        <v>403600</v>
       </c>
       <c r="F57" s="3">
-        <v>317900</v>
+        <v>318000</v>
       </c>
       <c r="G57" s="3">
-        <v>317900</v>
+        <v>327500</v>
       </c>
       <c r="H57" s="3">
-        <v>274800</v>
+        <v>327500</v>
       </c>
       <c r="I57" s="3">
-        <v>280200</v>
+        <v>283100</v>
       </c>
       <c r="J57" s="3">
+        <v>288700</v>
+      </c>
+      <c r="K57" s="3">
         <v>352600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>378300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>346600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>319900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>373400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>442800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>380300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>313300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>351100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>317300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>283500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>229700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>394900</v>
+        <v>83300</v>
       </c>
       <c r="E58" s="3">
-        <v>394900</v>
+        <v>406800</v>
       </c>
       <c r="F58" s="3">
-        <v>395700</v>
+        <v>406800</v>
       </c>
       <c r="G58" s="3">
-        <v>394900</v>
+        <v>407600</v>
       </c>
       <c r="H58" s="3">
-        <v>79300</v>
+        <v>406800</v>
       </c>
       <c r="I58" s="3">
+        <v>81700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>83300</v>
+      </c>
+      <c r="K58" s="3">
         <v>80800</v>
       </c>
-      <c r="J58" s="3">
-        <v>80800</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>112600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>95900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>77500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>105400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>555900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>686900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>701800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>484000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>490900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>452500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>165500</v>
+        <v>183200</v>
       </c>
       <c r="E59" s="3">
-        <v>181700</v>
+        <v>170500</v>
       </c>
       <c r="F59" s="3">
-        <v>164000</v>
+        <v>187200</v>
       </c>
       <c r="G59" s="3">
-        <v>147000</v>
+        <v>168900</v>
       </c>
       <c r="H59" s="3">
-        <v>211700</v>
+        <v>151500</v>
       </c>
       <c r="I59" s="3">
-        <v>176300</v>
+        <v>218100</v>
       </c>
       <c r="J59" s="3">
+        <v>181600</v>
+      </c>
+      <c r="K59" s="3">
         <v>162400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>173500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>133000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>159600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>203300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>198000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>94500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>105700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>117500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>126800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>218900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>553100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>952300</v>
+        <v>741500</v>
       </c>
       <c r="E60" s="3">
-        <v>885300</v>
+        <v>981000</v>
       </c>
       <c r="F60" s="3">
-        <v>877600</v>
+        <v>912000</v>
       </c>
       <c r="G60" s="3">
-        <v>859900</v>
+        <v>904000</v>
       </c>
       <c r="H60" s="3">
-        <v>565800</v>
+        <v>885800</v>
       </c>
       <c r="I60" s="3">
-        <v>537300</v>
+        <v>582900</v>
       </c>
       <c r="J60" s="3">
+        <v>553500</v>
+      </c>
+      <c r="K60" s="3">
         <v>595800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>664400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>575500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>557100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>682000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1196700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1161700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1120800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>952600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>934900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>954900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>904200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2216300</v>
+        <v>3161000</v>
       </c>
       <c r="E61" s="3">
-        <v>2254000</v>
+        <v>2283100</v>
       </c>
       <c r="F61" s="3">
-        <v>2303300</v>
+        <v>2322000</v>
       </c>
       <c r="G61" s="3">
-        <v>2328700</v>
+        <v>2372700</v>
       </c>
       <c r="H61" s="3">
-        <v>2476500</v>
+        <v>2398900</v>
       </c>
       <c r="I61" s="3">
-        <v>2514200</v>
+        <v>2551100</v>
       </c>
       <c r="J61" s="3">
+        <v>2590000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2465700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2373800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2217100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2291500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2462400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2202900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2126200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2128400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2822500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2859400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2714200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2710300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1034600</v>
+        <v>1102300</v>
       </c>
       <c r="E62" s="3">
-        <v>1001500</v>
+        <v>1065800</v>
       </c>
       <c r="F62" s="3">
-        <v>933800</v>
+        <v>1031700</v>
       </c>
       <c r="G62" s="3">
-        <v>1003800</v>
+        <v>961900</v>
       </c>
       <c r="H62" s="3">
-        <v>1003100</v>
+        <v>1034100</v>
       </c>
       <c r="I62" s="3">
-        <v>986100</v>
+        <v>1033300</v>
       </c>
       <c r="J62" s="3">
+        <v>1015900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1026900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>990900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>940300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1021500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1029100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1005400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1091800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1081300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1118500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1070900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1025600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>990200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5055400</v>
+        <v>5864400</v>
       </c>
       <c r="E66" s="3">
-        <v>4963000</v>
+        <v>5207800</v>
       </c>
       <c r="F66" s="3">
-        <v>4965300</v>
+        <v>5112600</v>
       </c>
       <c r="G66" s="3">
-        <v>5040000</v>
+        <v>5115000</v>
       </c>
       <c r="H66" s="3">
-        <v>4893000</v>
+        <v>5191900</v>
       </c>
       <c r="I66" s="3">
-        <v>4880700</v>
+        <v>5040400</v>
       </c>
       <c r="J66" s="3">
+        <v>5027700</v>
+      </c>
+      <c r="K66" s="3">
         <v>4966100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4894600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4546200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4740300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4962400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5193100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5185700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5167100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5770900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5750200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5562000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5469000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,46 +4168,49 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>747000</v>
+      </c>
+      <c r="E70" s="3">
+        <v>747000</v>
+      </c>
+      <c r="F70" s="3">
+        <v>747000</v>
+      </c>
+      <c r="G70" s="3">
+        <v>747000</v>
+      </c>
+      <c r="H70" s="3">
+        <v>747000</v>
+      </c>
+      <c r="I70" s="3">
+        <v>747000</v>
+      </c>
+      <c r="J70" s="3">
+        <v>747000</v>
+      </c>
+      <c r="K70" s="3">
         <v>725200</v>
       </c>
-      <c r="E70" s="3">
-        <v>725200</v>
-      </c>
-      <c r="F70" s="3">
-        <v>725200</v>
-      </c>
-      <c r="G70" s="3">
-        <v>725200</v>
-      </c>
-      <c r="H70" s="3">
-        <v>725200</v>
-      </c>
-      <c r="I70" s="3">
-        <v>725200</v>
-      </c>
-      <c r="J70" s="3">
-        <v>725200</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>716900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>684500</v>
-      </c>
-      <c r="M70" s="3">
-        <v>709100</v>
       </c>
       <c r="N70" s="3">
         <v>709100</v>
       </c>
       <c r="O70" s="3">
-        <v>701000</v>
+        <v>709100</v>
       </c>
       <c r="P70" s="3">
         <v>701000</v>
@@ -4052,7 +4219,7 @@
         <v>701000</v>
       </c>
       <c r="R70" s="3">
-        <v>723700</v>
+        <v>701000</v>
       </c>
       <c r="S70" s="3">
         <v>723700</v>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>723700</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>723700</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1266400</v>
+        <v>-1448100</v>
       </c>
       <c r="E72" s="3">
-        <v>-1154000</v>
+        <v>-1304500</v>
       </c>
       <c r="F72" s="3">
-        <v>-1103200</v>
+        <v>-1188700</v>
       </c>
       <c r="G72" s="3">
-        <v>-1120100</v>
+        <v>-1136400</v>
       </c>
       <c r="H72" s="3">
-        <v>-1170100</v>
+        <v>-1153800</v>
       </c>
       <c r="I72" s="3">
-        <v>-1202500</v>
+        <v>-1205400</v>
       </c>
       <c r="J72" s="3">
+        <v>-1238700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1199400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1138600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-986100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-952300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-879300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-899700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-785900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-716700</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-716800</v>
       </c>
       <c r="S72" s="3">
         <v>-716800</v>
       </c>
       <c r="T72" s="3">
+        <v>-716800</v>
+      </c>
+      <c r="U72" s="3">
         <v>-775100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-756700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1324900</v>
+        <v>1118200</v>
       </c>
       <c r="E76" s="3">
-        <v>1525000</v>
+        <v>1364800</v>
       </c>
       <c r="F76" s="3">
-        <v>1578100</v>
+        <v>1571000</v>
       </c>
       <c r="G76" s="3">
-        <v>1554300</v>
+        <v>1625700</v>
       </c>
       <c r="H76" s="3">
-        <v>1511200</v>
+        <v>1601100</v>
       </c>
       <c r="I76" s="3">
-        <v>1475700</v>
+        <v>1556700</v>
       </c>
       <c r="J76" s="3">
+        <v>1520200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1489600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1564000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1615400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1772100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1828500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1774200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1824100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1885800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1993600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1973600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1894500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1907500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-104700</v>
+        <v>-132400</v>
       </c>
       <c r="E81" s="3">
-        <v>-46200</v>
+        <v>-107900</v>
       </c>
       <c r="F81" s="3">
-        <v>20800</v>
+        <v>-47600</v>
       </c>
       <c r="G81" s="3">
-        <v>50800</v>
+        <v>21400</v>
       </c>
       <c r="H81" s="3">
-        <v>39300</v>
+        <v>52300</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>40400</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-50000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-92900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-62500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-79000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>48900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-107900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-13400</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>46900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>150100</v>
+        <v>183200</v>
       </c>
       <c r="E83" s="3">
-        <v>144700</v>
+        <v>154600</v>
       </c>
       <c r="F83" s="3">
-        <v>141600</v>
+        <v>149100</v>
       </c>
       <c r="G83" s="3">
-        <v>142400</v>
+        <v>145900</v>
       </c>
       <c r="H83" s="3">
-        <v>136300</v>
+        <v>146700</v>
       </c>
       <c r="I83" s="3">
-        <v>133200</v>
+        <v>140400</v>
       </c>
       <c r="J83" s="3">
+        <v>137200</v>
+      </c>
+      <c r="K83" s="3">
         <v>133900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>142300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>130800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>137000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>121200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>148100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>131000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>128700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>122900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>158300</v>
-      </c>
-      <c r="T83" s="3">
-        <v>123700</v>
       </c>
       <c r="U83" s="3">
         <v>123700</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>123700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>197800</v>
+        <v>87200</v>
       </c>
       <c r="E89" s="3">
-        <v>93100</v>
+        <v>203800</v>
       </c>
       <c r="F89" s="3">
-        <v>164700</v>
+        <v>96000</v>
       </c>
       <c r="G89" s="3">
-        <v>139300</v>
+        <v>169700</v>
       </c>
       <c r="H89" s="3">
-        <v>252500</v>
+        <v>143500</v>
       </c>
       <c r="I89" s="3">
-        <v>198600</v>
+        <v>260100</v>
       </c>
       <c r="J89" s="3">
+        <v>204600</v>
+      </c>
+      <c r="K89" s="3">
         <v>63100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>115500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>78300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>319900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>60300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>149600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>46900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>215900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>93700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>175200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>91400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-99300</v>
+        <v>-166500</v>
       </c>
       <c r="E91" s="3">
-        <v>-57700</v>
+        <v>-102300</v>
       </c>
       <c r="F91" s="3">
-        <v>-55400</v>
+        <v>-59500</v>
       </c>
       <c r="G91" s="3">
-        <v>-136300</v>
+        <v>-57100</v>
       </c>
       <c r="H91" s="3">
-        <v>-73900</v>
+        <v>-140400</v>
       </c>
       <c r="I91" s="3">
-        <v>-84700</v>
+        <v>-76100</v>
       </c>
       <c r="J91" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-26200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-76900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-67600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-45200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-53600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-81100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-72200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-49200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-83700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-76800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-62200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-126300</v>
+        <v>-253000</v>
       </c>
       <c r="E94" s="3">
-        <v>-83900</v>
+        <v>-130100</v>
       </c>
       <c r="F94" s="3">
-        <v>-73100</v>
+        <v>-86400</v>
       </c>
       <c r="G94" s="3">
-        <v>-147000</v>
+        <v>-75300</v>
       </c>
       <c r="H94" s="3">
-        <v>-70100</v>
+        <v>-151500</v>
       </c>
       <c r="I94" s="3">
-        <v>-136300</v>
+        <v>-72200</v>
       </c>
       <c r="J94" s="3">
+        <v>-140400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-40800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-76100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-98100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-79800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-39900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>224000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-107900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-55100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>3800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-65300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-76100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-58400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-9200</v>
+        <v>-9500</v>
       </c>
       <c r="E96" s="3">
-        <v>-9200</v>
+        <v>-9500</v>
       </c>
       <c r="F96" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-8500</v>
       </c>
-      <c r="G96" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-9100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-9000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-8200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-9200</v>
       </c>
       <c r="S96" s="3">
         <v>-9200</v>
       </c>
       <c r="T96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="U96" s="3">
         <v>-8500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-60800</v>
+        <v>508300</v>
       </c>
       <c r="E100" s="3">
-        <v>-72400</v>
+        <v>-62600</v>
       </c>
       <c r="F100" s="3">
-        <v>-150900</v>
+        <v>-74500</v>
       </c>
       <c r="G100" s="3">
-        <v>73100</v>
+        <v>-155400</v>
       </c>
       <c r="H100" s="3">
-        <v>-91600</v>
+        <v>75300</v>
       </c>
       <c r="I100" s="3">
-        <v>14600</v>
+        <v>-94400</v>
       </c>
       <c r="J100" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-28900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-37100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-154300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-268700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-115400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-328900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-67600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>86000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-49900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
-        <v>3100</v>
-      </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="3">
         <v>-700</v>
       </c>
       <c r="R101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S101" s="3">
         <v>800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-800</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10000</v>
+        <v>343400</v>
       </c>
       <c r="E102" s="3">
-        <v>-62400</v>
+        <v>10300</v>
       </c>
       <c r="F102" s="3">
-        <v>-56200</v>
+        <v>-64200</v>
       </c>
       <c r="G102" s="3">
-        <v>65400</v>
+        <v>-57900</v>
       </c>
       <c r="H102" s="3">
-        <v>90800</v>
+        <v>67400</v>
       </c>
       <c r="I102" s="3">
-        <v>76200</v>
+        <v>93600</v>
       </c>
       <c r="J102" s="3">
+        <v>78500</v>
+      </c>
+      <c r="K102" s="3">
         <v>15400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-20300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-155100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>168900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>27500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-337900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>152900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>113700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>49200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>48400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>TAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>431400</v>
+        <v>532300</v>
       </c>
       <c r="E8" s="3">
-        <v>407600</v>
+        <v>451000</v>
       </c>
       <c r="F8" s="3">
-        <v>346500</v>
+        <v>426100</v>
       </c>
       <c r="G8" s="3">
-        <v>480600</v>
+        <v>362300</v>
       </c>
       <c r="H8" s="3">
-        <v>482900</v>
+        <v>502400</v>
       </c>
       <c r="I8" s="3">
-        <v>470300</v>
+        <v>504900</v>
       </c>
       <c r="J8" s="3">
+        <v>491600</v>
+      </c>
+      <c r="K8" s="3">
         <v>394100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>498800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>473400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>430900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>335700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>442600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>474800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>437600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>374300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>444000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>550800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>476300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>259300</v>
+        <v>242900</v>
       </c>
       <c r="E9" s="3">
-        <v>199800</v>
+        <v>271100</v>
       </c>
       <c r="F9" s="3">
-        <v>119700</v>
+        <v>208900</v>
       </c>
       <c r="G9" s="3">
-        <v>188700</v>
+        <v>125200</v>
       </c>
       <c r="H9" s="3">
-        <v>327500</v>
+        <v>197300</v>
       </c>
       <c r="I9" s="3">
-        <v>294200</v>
+        <v>342400</v>
       </c>
       <c r="J9" s="3">
+        <v>307600</v>
+      </c>
+      <c r="K9" s="3">
         <v>243500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>361800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>361500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>311000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>227300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>308600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>326000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>307400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>228500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>288100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>311100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>322700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>172100</v>
+        <v>289300</v>
       </c>
       <c r="E10" s="3">
-        <v>207800</v>
+        <v>179900</v>
       </c>
       <c r="F10" s="3">
-        <v>226800</v>
+        <v>217200</v>
       </c>
       <c r="G10" s="3">
-        <v>291800</v>
+        <v>237100</v>
       </c>
       <c r="H10" s="3">
-        <v>155400</v>
+        <v>305100</v>
       </c>
       <c r="I10" s="3">
-        <v>176100</v>
+        <v>162500</v>
       </c>
       <c r="J10" s="3">
+        <v>184000</v>
+      </c>
+      <c r="K10" s="3">
         <v>150700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>137000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>111900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>119900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>108400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>134000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>148800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>130200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>145900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>156000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>239700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>153600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>150600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,132 +1104,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13500</v>
+        <v>24000</v>
       </c>
       <c r="E14" s="3">
-        <v>60300</v>
+        <v>14100</v>
       </c>
       <c r="F14" s="3">
-        <v>25400</v>
+        <v>63000</v>
       </c>
       <c r="G14" s="3">
-        <v>-32500</v>
+        <v>26500</v>
       </c>
       <c r="H14" s="3">
-        <v>37300</v>
+        <v>-34000</v>
       </c>
       <c r="I14" s="3">
-        <v>-17400</v>
+        <v>39000</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>-18200</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>17500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>41400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3800</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>4500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>14900</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>21500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>800</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>137200</v>
+        <v>123500</v>
       </c>
       <c r="E15" s="3">
-        <v>128500</v>
+        <v>143400</v>
       </c>
       <c r="F15" s="3">
+        <v>134300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>135100</v>
+      </c>
+      <c r="H15" s="3">
         <v>129300</v>
       </c>
-      <c r="G15" s="3">
-        <v>123700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>122100</v>
-      </c>
       <c r="I15" s="3">
-        <v>117400</v>
+        <v>127700</v>
       </c>
       <c r="J15" s="3">
+        <v>122700</v>
+      </c>
+      <c r="K15" s="3">
         <v>113400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>111600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>115700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>106100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>109900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>97900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>134000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>117600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>114600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>109900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>143700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>111400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>112900</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>525000</v>
+        <v>476700</v>
       </c>
       <c r="E17" s="3">
-        <v>477400</v>
+        <v>548800</v>
       </c>
       <c r="F17" s="3">
-        <v>361600</v>
+        <v>499100</v>
       </c>
       <c r="G17" s="3">
-        <v>380600</v>
+        <v>378000</v>
       </c>
       <c r="H17" s="3">
-        <v>409200</v>
+        <v>397900</v>
       </c>
       <c r="I17" s="3">
-        <v>347300</v>
+        <v>427800</v>
       </c>
       <c r="J17" s="3">
+        <v>363100</v>
+      </c>
+      <c r="K17" s="3">
         <v>353700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>471100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>493200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>452000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>344800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>289800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>451000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>427200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>356500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>396400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>333400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>440200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-93600</v>
+        <v>55500</v>
       </c>
       <c r="E18" s="3">
-        <v>-69800</v>
+        <v>-97800</v>
       </c>
       <c r="F18" s="3">
-        <v>-15100</v>
+        <v>-73000</v>
       </c>
       <c r="G18" s="3">
-        <v>99900</v>
+        <v>-15800</v>
       </c>
       <c r="H18" s="3">
-        <v>73800</v>
+        <v>104500</v>
       </c>
       <c r="I18" s="3">
-        <v>122900</v>
+        <v>77100</v>
       </c>
       <c r="J18" s="3">
+        <v>128500</v>
+      </c>
+      <c r="K18" s="3">
         <v>40400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>27700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-21100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>152800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>23800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>17900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>47600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>217400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>36100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1600</v>
+        <v>4100</v>
       </c>
       <c r="E20" s="3">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="F20" s="3">
-        <v>11900</v>
+        <v>4100</v>
       </c>
       <c r="G20" s="3">
-        <v>-23000</v>
+        <v>12400</v>
       </c>
       <c r="H20" s="3">
-        <v>75300</v>
+        <v>-24000</v>
       </c>
       <c r="I20" s="3">
-        <v>-17400</v>
+        <v>78800</v>
       </c>
       <c r="J20" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-22200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>18400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>15400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>91200</v>
+        <v>228800</v>
       </c>
       <c r="E21" s="3">
-        <v>88800</v>
+        <v>95300</v>
       </c>
       <c r="F21" s="3">
-        <v>145900</v>
+        <v>92900</v>
       </c>
       <c r="G21" s="3">
-        <v>222800</v>
+        <v>152500</v>
       </c>
       <c r="H21" s="3">
-        <v>295800</v>
+        <v>233000</v>
       </c>
       <c r="I21" s="3">
-        <v>245800</v>
+        <v>309200</v>
       </c>
       <c r="J21" s="3">
+        <v>257000</v>
+      </c>
+      <c r="K21" s="3">
         <v>155400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>155500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>117200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>100300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>122000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>269500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>180100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>137700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>156300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>175200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>394100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>175200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>41200</v>
+        <v>42300</v>
       </c>
       <c r="E22" s="3">
-        <v>36500</v>
+        <v>43100</v>
       </c>
       <c r="F22" s="3">
         <v>38100</v>
       </c>
       <c r="G22" s="3">
-        <v>40400</v>
+        <v>39800</v>
       </c>
       <c r="H22" s="3">
-        <v>35700</v>
+        <v>42300</v>
       </c>
       <c r="I22" s="3">
-        <v>36500</v>
+        <v>37300</v>
       </c>
       <c r="J22" s="3">
+        <v>38100</v>
+      </c>
+      <c r="K22" s="3">
         <v>37300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>31600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>32000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>33400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>39900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>42900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>40200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>38700</v>
       </c>
       <c r="R22" s="3">
         <v>38700</v>
       </c>
       <c r="S22" s="3">
+        <v>38700</v>
+      </c>
+      <c r="T22" s="3">
         <v>40700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>41500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>42300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-133200</v>
+        <v>17400</v>
       </c>
       <c r="E23" s="3">
-        <v>-102300</v>
+        <v>-139300</v>
       </c>
       <c r="F23" s="3">
-        <v>-41200</v>
+        <v>-106900</v>
       </c>
       <c r="G23" s="3">
-        <v>36500</v>
+        <v>-43100</v>
       </c>
       <c r="H23" s="3">
-        <v>113400</v>
+        <v>38100</v>
       </c>
       <c r="I23" s="3">
-        <v>69000</v>
+        <v>118600</v>
       </c>
       <c r="J23" s="3">
+        <v>72100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-19000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-57100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-63900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-55000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>105400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-32000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>11500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>194400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>9200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-19800</v>
+        <v>16600</v>
       </c>
       <c r="E24" s="3">
-        <v>-7900</v>
+        <v>-20700</v>
       </c>
       <c r="F24" s="3">
-        <v>-13500</v>
+        <v>-8300</v>
       </c>
       <c r="G24" s="3">
-        <v>1600</v>
+        <v>-14100</v>
       </c>
       <c r="H24" s="3">
-        <v>31700</v>
+        <v>1700</v>
       </c>
       <c r="I24" s="3">
-        <v>7900</v>
+        <v>33200</v>
       </c>
       <c r="J24" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-39700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-12200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-15300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>27900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>78100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-14100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-13100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>63000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-113400</v>
+        <v>800</v>
       </c>
       <c r="E26" s="3">
-        <v>-94400</v>
+        <v>-118600</v>
       </c>
       <c r="F26" s="3">
-        <v>-27800</v>
+        <v>-98700</v>
       </c>
       <c r="G26" s="3">
-        <v>34900</v>
+        <v>-29000</v>
       </c>
       <c r="H26" s="3">
-        <v>81700</v>
+        <v>36500</v>
       </c>
       <c r="I26" s="3">
-        <v>61100</v>
+        <v>85400</v>
       </c>
       <c r="J26" s="3">
+        <v>63800</v>
+      </c>
+      <c r="K26" s="3">
         <v>20600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-23100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-44900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-48700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-50400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>77500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-86300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-28300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>24600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>131400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>10800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-132400</v>
+        <v>-24900</v>
       </c>
       <c r="E27" s="3">
+        <v>-138500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-112800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>22400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>54700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>42300</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="P27" s="3">
+        <v>48900</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-107900</v>
       </c>
-      <c r="F27" s="3">
-        <v>-47600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>21400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>52300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>40400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-50000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-92900</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-62500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-79000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>48900</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-107900</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-20100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-13400</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>46900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-9200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1600</v>
+        <v>-4100</v>
       </c>
       <c r="E32" s="3">
-        <v>-4000</v>
+        <v>-1700</v>
       </c>
       <c r="F32" s="3">
-        <v>-11900</v>
+        <v>-4100</v>
       </c>
       <c r="G32" s="3">
-        <v>23000</v>
+        <v>-12400</v>
       </c>
       <c r="H32" s="3">
-        <v>-75300</v>
+        <v>24000</v>
       </c>
       <c r="I32" s="3">
-        <v>17400</v>
+        <v>-78800</v>
       </c>
       <c r="J32" s="3">
+        <v>18200</v>
+      </c>
+      <c r="K32" s="3">
         <v>22200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-18400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-15400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-132400</v>
+        <v>-24900</v>
       </c>
       <c r="E33" s="3">
+        <v>-138500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-112800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>22400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>54700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>42300</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="P33" s="3">
+        <v>48900</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-107900</v>
       </c>
-      <c r="F33" s="3">
-        <v>-47600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>21400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>52300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>40400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-50000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-92900</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-62500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-79000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>48900</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-107900</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-20100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-13400</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>46900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-9200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-132400</v>
+        <v>-24900</v>
       </c>
       <c r="E35" s="3">
+        <v>-138500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-112800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="H35" s="3">
+        <v>22400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>54700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>42300</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="P35" s="3">
+        <v>48900</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-107900</v>
       </c>
-      <c r="F35" s="3">
-        <v>-47600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>21400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>52300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>40400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-50000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-92900</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-62500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-79000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>48900</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-107900</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-20100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-13400</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>46900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-9200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,103 +2573,107 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>557500</v>
+        <v>537200</v>
       </c>
       <c r="E41" s="3">
-        <v>214100</v>
+        <v>582800</v>
       </c>
       <c r="F41" s="3">
-        <v>203800</v>
+        <v>223800</v>
       </c>
       <c r="G41" s="3">
-        <v>268000</v>
+        <v>213100</v>
       </c>
       <c r="H41" s="3">
-        <v>325900</v>
+        <v>280200</v>
       </c>
       <c r="I41" s="3">
-        <v>258500</v>
+        <v>340700</v>
       </c>
       <c r="J41" s="3">
+        <v>270300</v>
+      </c>
+      <c r="K41" s="3">
         <v>164900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>83900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>67700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>69000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>92600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>247700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>233700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>64700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>37200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>387200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>234300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>120600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>135600</v>
+        <v>136000</v>
       </c>
       <c r="E42" s="3">
-        <v>152300</v>
+        <v>141800</v>
       </c>
       <c r="F42" s="3">
-        <v>218100</v>
+        <v>159200</v>
       </c>
       <c r="G42" s="3">
-        <v>210200</v>
+        <v>228000</v>
       </c>
       <c r="H42" s="3">
-        <v>131600</v>
+        <v>219700</v>
       </c>
       <c r="I42" s="3">
-        <v>126900</v>
+        <v>137600</v>
       </c>
       <c r="J42" s="3">
+        <v>132600</v>
+      </c>
+      <c r="K42" s="3">
         <v>130800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>107000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>111100</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
@@ -2611,442 +2701,466 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>462300</v>
+        <v>470900</v>
       </c>
       <c r="E43" s="3">
-        <v>384600</v>
+        <v>483300</v>
       </c>
       <c r="F43" s="3">
-        <v>339400</v>
+        <v>402100</v>
       </c>
       <c r="G43" s="3">
-        <v>341800</v>
+        <v>354800</v>
       </c>
       <c r="H43" s="3">
-        <v>366400</v>
+        <v>357300</v>
       </c>
       <c r="I43" s="3">
-        <v>358400</v>
+        <v>383000</v>
       </c>
       <c r="J43" s="3">
+        <v>374700</v>
+      </c>
+      <c r="K43" s="3">
         <v>399700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>562700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>575400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>472300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>423100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>505100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>694300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>829000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>499400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>504700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>480900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>383300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>347200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>188700</v>
+        <v>179100</v>
       </c>
       <c r="E44" s="3">
-        <v>204600</v>
+        <v>197300</v>
       </c>
       <c r="F44" s="3">
-        <v>235500</v>
+        <v>213900</v>
       </c>
       <c r="G44" s="3">
-        <v>208600</v>
+        <v>246200</v>
       </c>
       <c r="H44" s="3">
-        <v>199000</v>
+        <v>218000</v>
       </c>
       <c r="I44" s="3">
-        <v>193500</v>
+        <v>208100</v>
       </c>
       <c r="J44" s="3">
+        <v>202300</v>
+      </c>
+      <c r="K44" s="3">
         <v>212500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>174000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>184200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>191800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>211500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>168600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>163000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>173400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>183800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>152100</v>
-      </c>
-      <c r="T44" s="3">
-        <v>163600</v>
       </c>
       <c r="U44" s="3">
         <v>163600</v>
       </c>
       <c r="V44" s="3">
+        <v>163600</v>
+      </c>
+      <c r="W44" s="3">
         <v>182800</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>164200</v>
+        <v>176600</v>
       </c>
       <c r="E45" s="3">
-        <v>148300</v>
+        <v>171600</v>
       </c>
       <c r="F45" s="3">
-        <v>50800</v>
+        <v>155000</v>
       </c>
       <c r="G45" s="3">
-        <v>54700</v>
+        <v>53100</v>
       </c>
       <c r="H45" s="3">
-        <v>40400</v>
+        <v>57200</v>
       </c>
       <c r="I45" s="3">
-        <v>241900</v>
+        <v>42300</v>
       </c>
       <c r="J45" s="3">
+        <v>252900</v>
+      </c>
+      <c r="K45" s="3">
         <v>55500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>43100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>60100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>199100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>173100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>170900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>180800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>173400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>206900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>255800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>315000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>227400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1508300</v>
+        <v>1499800</v>
       </c>
       <c r="E46" s="3">
-        <v>1103900</v>
+        <v>1576900</v>
       </c>
       <c r="F46" s="3">
-        <v>1047600</v>
+        <v>1154000</v>
       </c>
       <c r="G46" s="3">
-        <v>1083300</v>
+        <v>1095200</v>
       </c>
       <c r="H46" s="3">
-        <v>1063400</v>
+        <v>1132500</v>
       </c>
       <c r="I46" s="3">
-        <v>1179200</v>
+        <v>1111800</v>
       </c>
       <c r="J46" s="3">
+        <v>1232800</v>
+      </c>
+      <c r="K46" s="3">
         <v>963500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>970700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>998600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>932300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>900300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1092300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1271900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1240600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>927300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1299800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1193800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>895000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>828200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>260100</v>
+        <v>262800</v>
       </c>
       <c r="E47" s="3">
-        <v>130100</v>
+        <v>271900</v>
       </c>
       <c r="F47" s="3">
-        <v>133200</v>
+        <v>136000</v>
       </c>
       <c r="G47" s="3">
-        <v>136400</v>
+        <v>139300</v>
       </c>
       <c r="H47" s="3">
-        <v>139600</v>
+        <v>142600</v>
       </c>
       <c r="I47" s="3">
-        <v>142000</v>
+        <v>145900</v>
       </c>
       <c r="J47" s="3">
+        <v>148400</v>
+      </c>
+      <c r="K47" s="3">
         <v>145100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>144000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>145400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>142400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>152100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>157300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>160000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>171200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>500100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>535500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>552400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>554700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4728800</v>
+        <v>4800200</v>
       </c>
       <c r="E48" s="3">
-        <v>4786700</v>
+        <v>4943600</v>
       </c>
       <c r="F48" s="3">
-        <v>4827100</v>
+        <v>5004100</v>
       </c>
       <c r="G48" s="3">
-        <v>4932600</v>
+        <v>5046400</v>
       </c>
       <c r="H48" s="3">
-        <v>5038100</v>
+        <v>5156700</v>
       </c>
       <c r="I48" s="3">
-        <v>4741500</v>
+        <v>5267000</v>
       </c>
       <c r="J48" s="3">
+        <v>4956900</v>
+      </c>
+      <c r="K48" s="3">
         <v>4850900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4703600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4691400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4506200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4787000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4869800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4895400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4952000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4989200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5232400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5242400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5354600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5337700</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>615400</v>
+        <v>621000</v>
       </c>
       <c r="E49" s="3">
-        <v>628100</v>
+        <v>643300</v>
       </c>
       <c r="F49" s="3">
-        <v>639200</v>
+        <v>656600</v>
       </c>
       <c r="G49" s="3">
-        <v>617000</v>
+        <v>668200</v>
       </c>
       <c r="H49" s="3">
-        <v>620100</v>
+        <v>645000</v>
       </c>
       <c r="I49" s="3">
-        <v>625700</v>
+        <v>648300</v>
       </c>
       <c r="J49" s="3">
+        <v>654100</v>
+      </c>
+      <c r="K49" s="3">
         <v>654200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>643600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>637000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>585000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>612000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>618800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>615500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>617700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>600600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>623000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>629200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>630700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>617000</v>
+        <v>625100</v>
       </c>
       <c r="E52" s="3">
-        <v>670900</v>
+        <v>645000</v>
       </c>
       <c r="F52" s="3">
-        <v>783500</v>
+        <v>701400</v>
       </c>
       <c r="G52" s="3">
-        <v>718500</v>
+        <v>819100</v>
       </c>
       <c r="H52" s="3">
-        <v>678800</v>
+        <v>751100</v>
       </c>
       <c r="I52" s="3">
-        <v>655800</v>
+        <v>709700</v>
       </c>
       <c r="J52" s="3">
+        <v>685600</v>
+      </c>
+      <c r="K52" s="3">
         <v>681200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>719000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>703200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>680200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>770100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>761800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>725600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>729300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>736800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>797400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>829700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>745200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>739800</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7729600</v>
+        <v>7808800</v>
       </c>
       <c r="E54" s="3">
-        <v>7319600</v>
+        <v>8080800</v>
       </c>
       <c r="F54" s="3">
-        <v>7430600</v>
+        <v>7652100</v>
       </c>
       <c r="G54" s="3">
-        <v>7487700</v>
+        <v>7768200</v>
       </c>
       <c r="H54" s="3">
-        <v>7540000</v>
+        <v>7827900</v>
       </c>
       <c r="I54" s="3">
-        <v>7344200</v>
+        <v>7882600</v>
       </c>
       <c r="J54" s="3">
+        <v>7677800</v>
+      </c>
+      <c r="K54" s="3">
         <v>7295000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7180900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7175600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6846100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7221500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7500000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7668300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7710800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7753900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8488200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8447500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8180100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8100200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>475000</v>
+        <v>518200</v>
       </c>
       <c r="E57" s="3">
-        <v>403600</v>
+        <v>496600</v>
       </c>
       <c r="F57" s="3">
-        <v>318000</v>
+        <v>422000</v>
       </c>
       <c r="G57" s="3">
-        <v>327500</v>
+        <v>332400</v>
       </c>
       <c r="H57" s="3">
-        <v>327500</v>
+        <v>342400</v>
       </c>
       <c r="I57" s="3">
-        <v>283100</v>
+        <v>342400</v>
       </c>
       <c r="J57" s="3">
+        <v>296000</v>
+      </c>
+      <c r="K57" s="3">
         <v>288700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>352600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>378300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>346600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>319900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>373400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>442800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>380300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>313300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>351100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>317300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>283500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>229700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>87100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>425300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>425300</v>
+      </c>
+      <c r="H58" s="3">
+        <v>426100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>425300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>85400</v>
+      </c>
+      <c r="K58" s="3">
         <v>83300</v>
       </c>
-      <c r="E58" s="3">
-        <v>406800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>406800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>407600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>406800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>81700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>83300</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>80800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>112600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>95900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>77500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>105400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>555900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>686900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>701800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>484000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>490900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>452500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>183200</v>
+        <v>165800</v>
       </c>
       <c r="E59" s="3">
-        <v>170500</v>
+        <v>191500</v>
       </c>
       <c r="F59" s="3">
-        <v>187200</v>
+        <v>178200</v>
       </c>
       <c r="G59" s="3">
-        <v>168900</v>
+        <v>195700</v>
       </c>
       <c r="H59" s="3">
-        <v>151500</v>
+        <v>176600</v>
       </c>
       <c r="I59" s="3">
-        <v>218100</v>
+        <v>158300</v>
       </c>
       <c r="J59" s="3">
+        <v>228000</v>
+      </c>
+      <c r="K59" s="3">
         <v>181600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>162400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>173500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>133000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>159600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>203300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>198000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>94500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>105700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>117500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>126800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>218900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>553100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>741500</v>
+        <v>776000</v>
       </c>
       <c r="E60" s="3">
-        <v>981000</v>
+        <v>775200</v>
       </c>
       <c r="F60" s="3">
-        <v>912000</v>
+        <v>1025500</v>
       </c>
       <c r="G60" s="3">
-        <v>904000</v>
+        <v>953400</v>
       </c>
       <c r="H60" s="3">
-        <v>885800</v>
+        <v>945100</v>
       </c>
       <c r="I60" s="3">
-        <v>582900</v>
+        <v>926000</v>
       </c>
       <c r="J60" s="3">
+        <v>609400</v>
+      </c>
+      <c r="K60" s="3">
         <v>553500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>595800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>664400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>575500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>557100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>682000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1196700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1161700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1120800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>952600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>934900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>954900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>904200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3161000</v>
+        <v>3171900</v>
       </c>
       <c r="E61" s="3">
-        <v>2283100</v>
+        <v>3304600</v>
       </c>
       <c r="F61" s="3">
-        <v>2322000</v>
+        <v>2386800</v>
       </c>
       <c r="G61" s="3">
-        <v>2372700</v>
+        <v>2427500</v>
       </c>
       <c r="H61" s="3">
-        <v>2398900</v>
+        <v>2480500</v>
       </c>
       <c r="I61" s="3">
-        <v>2551100</v>
+        <v>2507900</v>
       </c>
       <c r="J61" s="3">
+        <v>2667100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2590000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2465700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2373800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2217100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2291500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2462400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2202900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2126200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2128400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2822500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2859400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2714200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2710300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1102300</v>
+        <v>1061200</v>
       </c>
       <c r="E62" s="3">
-        <v>1065800</v>
+        <v>1152400</v>
       </c>
       <c r="F62" s="3">
-        <v>1031700</v>
+        <v>1114200</v>
       </c>
       <c r="G62" s="3">
-        <v>961900</v>
+        <v>1078600</v>
       </c>
       <c r="H62" s="3">
-        <v>1034100</v>
+        <v>1005600</v>
       </c>
       <c r="I62" s="3">
-        <v>1033300</v>
+        <v>1081100</v>
       </c>
       <c r="J62" s="3">
+        <v>1080300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1015900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1026900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>990900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>940300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1021500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1029100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1005400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1091800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1081300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1118500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1070900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1025600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>990200</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5864400</v>
+        <v>5868800</v>
       </c>
       <c r="E66" s="3">
-        <v>5207800</v>
+        <v>6130800</v>
       </c>
       <c r="F66" s="3">
-        <v>5112600</v>
+        <v>5444400</v>
       </c>
       <c r="G66" s="3">
-        <v>5115000</v>
+        <v>5344900</v>
       </c>
       <c r="H66" s="3">
-        <v>5191900</v>
+        <v>5347400</v>
       </c>
       <c r="I66" s="3">
-        <v>5040400</v>
+        <v>5427800</v>
       </c>
       <c r="J66" s="3">
+        <v>5269400</v>
+      </c>
+      <c r="K66" s="3">
         <v>5027700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4966100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4894600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4546200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4740300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4962400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5193100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5185700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5167100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5770900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5750200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5562000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5469000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,49 +4336,52 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>781000</v>
+      </c>
+      <c r="E70" s="3">
+        <v>781000</v>
+      </c>
+      <c r="F70" s="3">
+        <v>781000</v>
+      </c>
+      <c r="G70" s="3">
+        <v>781000</v>
+      </c>
+      <c r="H70" s="3">
+        <v>781000</v>
+      </c>
+      <c r="I70" s="3">
+        <v>781000</v>
+      </c>
+      <c r="J70" s="3">
+        <v>781000</v>
+      </c>
+      <c r="K70" s="3">
         <v>747000</v>
       </c>
-      <c r="E70" s="3">
-        <v>747000</v>
-      </c>
-      <c r="F70" s="3">
-        <v>747000</v>
-      </c>
-      <c r="G70" s="3">
-        <v>747000</v>
-      </c>
-      <c r="H70" s="3">
-        <v>747000</v>
-      </c>
-      <c r="I70" s="3">
-        <v>747000</v>
-      </c>
-      <c r="J70" s="3">
-        <v>747000</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>725200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>716900</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>684500</v>
-      </c>
-      <c r="N70" s="3">
-        <v>709100</v>
       </c>
       <c r="O70" s="3">
         <v>709100</v>
       </c>
       <c r="P70" s="3">
-        <v>701000</v>
+        <v>709100</v>
       </c>
       <c r="Q70" s="3">
         <v>701000</v>
@@ -4222,7 +4390,7 @@
         <v>701000</v>
       </c>
       <c r="S70" s="3">
-        <v>723700</v>
+        <v>701000</v>
       </c>
       <c r="T70" s="3">
         <v>723700</v>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>723700</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>723700</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1448100</v>
+        <v>-1538700</v>
       </c>
       <c r="E72" s="3">
-        <v>-1304500</v>
+        <v>-1513800</v>
       </c>
       <c r="F72" s="3">
-        <v>-1188700</v>
+        <v>-1363800</v>
       </c>
       <c r="G72" s="3">
-        <v>-1136400</v>
+        <v>-1242700</v>
       </c>
       <c r="H72" s="3">
-        <v>-1153800</v>
+        <v>-1188000</v>
       </c>
       <c r="I72" s="3">
-        <v>-1205400</v>
+        <v>-1206300</v>
       </c>
       <c r="J72" s="3">
+        <v>-1260200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1238700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1199400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1138600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-986100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-952300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-879300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-899700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-785900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-716700</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-716800</v>
       </c>
       <c r="T72" s="3">
         <v>-716800</v>
       </c>
       <c r="U72" s="3">
+        <v>-716800</v>
+      </c>
+      <c r="V72" s="3">
         <v>-775100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-756700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1118200</v>
+        <v>1159000</v>
       </c>
       <c r="E76" s="3">
-        <v>1364800</v>
+        <v>1169000</v>
       </c>
       <c r="F76" s="3">
-        <v>1571000</v>
+        <v>1426800</v>
       </c>
       <c r="G76" s="3">
-        <v>1625700</v>
+        <v>1642300</v>
       </c>
       <c r="H76" s="3">
-        <v>1601100</v>
+        <v>1699600</v>
       </c>
       <c r="I76" s="3">
-        <v>1556700</v>
+        <v>1673900</v>
       </c>
       <c r="J76" s="3">
+        <v>1627400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1520200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1489600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1564000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1615400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1772100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1828500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1774200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1824100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1885800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1993600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1973600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1894500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1907500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-132400</v>
+        <v>-24900</v>
       </c>
       <c r="E81" s="3">
+        <v>-138500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-112800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="H81" s="3">
+        <v>22400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>54700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>42300</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="P81" s="3">
+        <v>48900</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-107900</v>
       </c>
-      <c r="F81" s="3">
-        <v>-47600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>21400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>52300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>40400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-50000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-92900</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-62500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-79000</v>
-      </c>
-      <c r="O81" s="3">
-        <v>48900</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-107900</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-20100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-13400</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>46900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-9200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>183200</v>
+        <v>169100</v>
       </c>
       <c r="E83" s="3">
-        <v>154600</v>
+        <v>191500</v>
       </c>
       <c r="F83" s="3">
-        <v>149100</v>
+        <v>161700</v>
       </c>
       <c r="G83" s="3">
-        <v>145900</v>
+        <v>155900</v>
       </c>
       <c r="H83" s="3">
+        <v>152500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>153400</v>
+      </c>
+      <c r="J83" s="3">
         <v>146700</v>
       </c>
-      <c r="I83" s="3">
-        <v>140400</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>137200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>133900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>142300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>130800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>137000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>121200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>148100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>131000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>128700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>122900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>158300</v>
-      </c>
-      <c r="U83" s="3">
-        <v>123700</v>
       </c>
       <c r="V83" s="3">
         <v>123700</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>123700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>87200</v>
+        <v>213100</v>
       </c>
       <c r="E89" s="3">
-        <v>203800</v>
+        <v>91200</v>
       </c>
       <c r="F89" s="3">
-        <v>96000</v>
+        <v>213100</v>
       </c>
       <c r="G89" s="3">
-        <v>169700</v>
+        <v>100300</v>
       </c>
       <c r="H89" s="3">
-        <v>143500</v>
+        <v>177400</v>
       </c>
       <c r="I89" s="3">
-        <v>260100</v>
+        <v>150100</v>
       </c>
       <c r="J89" s="3">
+        <v>271900</v>
+      </c>
+      <c r="K89" s="3">
         <v>204600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>63100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>115500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>78300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>319900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>60300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>149600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>46900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>215900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>93700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>175200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>91400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-166500</v>
+        <v>-81200</v>
       </c>
       <c r="E91" s="3">
-        <v>-102300</v>
+        <v>-174100</v>
       </c>
       <c r="F91" s="3">
-        <v>-59500</v>
+        <v>-106900</v>
       </c>
       <c r="G91" s="3">
-        <v>-57100</v>
+        <v>-62200</v>
       </c>
       <c r="H91" s="3">
-        <v>-140400</v>
+        <v>-59700</v>
       </c>
       <c r="I91" s="3">
-        <v>-76100</v>
+        <v>-146700</v>
       </c>
       <c r="J91" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-87200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-26200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-76900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-67600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-45200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-53600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-81100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-72200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-49200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-83700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-76800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-62200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-253000</v>
+        <v>-92000</v>
       </c>
       <c r="E94" s="3">
-        <v>-130100</v>
+        <v>-264500</v>
       </c>
       <c r="F94" s="3">
-        <v>-86400</v>
+        <v>-136000</v>
       </c>
       <c r="G94" s="3">
-        <v>-75300</v>
+        <v>-90400</v>
       </c>
       <c r="H94" s="3">
-        <v>-151500</v>
+        <v>-78800</v>
       </c>
       <c r="I94" s="3">
-        <v>-72200</v>
+        <v>-158300</v>
       </c>
       <c r="J94" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-140400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-40800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-76100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-98100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-79800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-39900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>224000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-107900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-55100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-65300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-76100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-58400</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-9500</v>
       </c>
-      <c r="E96" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-9100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-8300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-9000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-8900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-9200</v>
       </c>
       <c r="T96" s="3">
         <v>-9200</v>
       </c>
       <c r="U96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="V96" s="3">
         <v>-8500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>508300</v>
+        <v>-165800</v>
       </c>
       <c r="E100" s="3">
-        <v>-62600</v>
+        <v>531400</v>
       </c>
       <c r="F100" s="3">
-        <v>-74500</v>
+        <v>-65500</v>
       </c>
       <c r="G100" s="3">
-        <v>-155400</v>
+        <v>-77900</v>
       </c>
       <c r="H100" s="3">
-        <v>75300</v>
+        <v>-162500</v>
       </c>
       <c r="I100" s="3">
-        <v>-94400</v>
+        <v>78800</v>
       </c>
       <c r="J100" s="3">
+        <v>-98700</v>
+      </c>
+      <c r="K100" s="3">
         <v>15100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-28900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-37100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-154300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-268700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-115400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-13400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-328900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-67600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>86000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-49900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
-        <v>3200</v>
-      </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="R101" s="3">
         <v>-700</v>
       </c>
       <c r="S101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T101" s="3">
         <v>800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-800</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>343400</v>
+        <v>-45600</v>
       </c>
       <c r="E102" s="3">
-        <v>10300</v>
+        <v>359000</v>
       </c>
       <c r="F102" s="3">
-        <v>-64200</v>
+        <v>10800</v>
       </c>
       <c r="G102" s="3">
-        <v>-57900</v>
+        <v>-67200</v>
       </c>
       <c r="H102" s="3">
-        <v>67400</v>
+        <v>-60500</v>
       </c>
       <c r="I102" s="3">
-        <v>93600</v>
+        <v>70500</v>
       </c>
       <c r="J102" s="3">
+        <v>97800</v>
+      </c>
+      <c r="K102" s="3">
         <v>78500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-20300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-155100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>168900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>27500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-337900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>152900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>113700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>49200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>48400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>TAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>532300</v>
+        <v>482600</v>
       </c>
       <c r="E8" s="3">
-        <v>451000</v>
+        <v>500500</v>
       </c>
       <c r="F8" s="3">
-        <v>426100</v>
+        <v>424100</v>
       </c>
       <c r="G8" s="3">
-        <v>362300</v>
+        <v>400800</v>
       </c>
       <c r="H8" s="3">
-        <v>502400</v>
+        <v>340700</v>
       </c>
       <c r="I8" s="3">
-        <v>504900</v>
+        <v>472500</v>
       </c>
       <c r="J8" s="3">
+        <v>474800</v>
+      </c>
+      <c r="K8" s="3">
         <v>491600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>394100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>498800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>473400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>430900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>335700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>442600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>474800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>437600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>374300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>444000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>550800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>476300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>242900</v>
+        <v>198000</v>
       </c>
       <c r="E9" s="3">
-        <v>271100</v>
+        <v>228400</v>
       </c>
       <c r="F9" s="3">
-        <v>208900</v>
+        <v>255000</v>
       </c>
       <c r="G9" s="3">
-        <v>125200</v>
+        <v>196500</v>
       </c>
       <c r="H9" s="3">
-        <v>197300</v>
+        <v>117700</v>
       </c>
       <c r="I9" s="3">
-        <v>342400</v>
+        <v>185600</v>
       </c>
       <c r="J9" s="3">
+        <v>322000</v>
+      </c>
+      <c r="K9" s="3">
         <v>307600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>243500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>361800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>361500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>311000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>227300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>308600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>326000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>307400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>228500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>288100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>311100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>322700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>289300</v>
+        <v>284600</v>
       </c>
       <c r="E10" s="3">
-        <v>179900</v>
+        <v>272100</v>
       </c>
       <c r="F10" s="3">
-        <v>217200</v>
+        <v>169200</v>
       </c>
       <c r="G10" s="3">
-        <v>237100</v>
+        <v>204300</v>
       </c>
       <c r="H10" s="3">
-        <v>305100</v>
+        <v>223000</v>
       </c>
       <c r="I10" s="3">
-        <v>162500</v>
+        <v>286900</v>
       </c>
       <c r="J10" s="3">
+        <v>152800</v>
+      </c>
+      <c r="K10" s="3">
         <v>184000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>150700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>137000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>111900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>119900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>108400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>134000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>148800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>130200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>145900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>156000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>239700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>153600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>150600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,138 +1124,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>24000</v>
+        <v>12500</v>
       </c>
       <c r="E14" s="3">
-        <v>14100</v>
+        <v>22600</v>
       </c>
       <c r="F14" s="3">
-        <v>63000</v>
+        <v>13300</v>
       </c>
       <c r="G14" s="3">
-        <v>26500</v>
+        <v>59300</v>
       </c>
       <c r="H14" s="3">
-        <v>-34000</v>
+        <v>24900</v>
       </c>
       <c r="I14" s="3">
-        <v>39000</v>
+        <v>-32000</v>
       </c>
       <c r="J14" s="3">
+        <v>36600</v>
+      </c>
+      <c r="K14" s="3">
         <v>-18200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>17500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>41400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3800</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>4500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>14900</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>21500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>800</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>123500</v>
+        <v>95900</v>
       </c>
       <c r="E15" s="3">
-        <v>143400</v>
+        <v>116200</v>
       </c>
       <c r="F15" s="3">
-        <v>134300</v>
+        <v>134900</v>
       </c>
       <c r="G15" s="3">
-        <v>135100</v>
+        <v>126300</v>
       </c>
       <c r="H15" s="3">
-        <v>129300</v>
+        <v>127100</v>
       </c>
       <c r="I15" s="3">
-        <v>127700</v>
+        <v>121600</v>
       </c>
       <c r="J15" s="3">
+        <v>120100</v>
+      </c>
+      <c r="K15" s="3">
         <v>122700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>113400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>111600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>115700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>106100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>109900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>97900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>134000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>117600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>114600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>109900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>143700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>111400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>112900</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>476700</v>
+        <v>421800</v>
       </c>
       <c r="E17" s="3">
-        <v>548800</v>
+        <v>448300</v>
       </c>
       <c r="F17" s="3">
-        <v>499100</v>
+        <v>516100</v>
       </c>
       <c r="G17" s="3">
-        <v>378000</v>
+        <v>469400</v>
       </c>
       <c r="H17" s="3">
-        <v>397900</v>
+        <v>355500</v>
       </c>
       <c r="I17" s="3">
-        <v>427800</v>
+        <v>374200</v>
       </c>
       <c r="J17" s="3">
+        <v>402300</v>
+      </c>
+      <c r="K17" s="3">
         <v>363100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>353700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>471100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>493200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>452000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>344800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>289800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>451000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>427200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>356500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>396400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>333400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>440200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>55500</v>
+        <v>60800</v>
       </c>
       <c r="E18" s="3">
-        <v>-97800</v>
+        <v>52200</v>
       </c>
       <c r="F18" s="3">
-        <v>-73000</v>
+        <v>-92000</v>
       </c>
       <c r="G18" s="3">
-        <v>-15800</v>
+        <v>-68600</v>
       </c>
       <c r="H18" s="3">
-        <v>104500</v>
+        <v>-14800</v>
       </c>
       <c r="I18" s="3">
-        <v>77100</v>
+        <v>98200</v>
       </c>
       <c r="J18" s="3">
+        <v>72500</v>
+      </c>
+      <c r="K18" s="3">
         <v>128500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>40400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>27700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-19800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-21100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>152800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>23800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>17900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>47600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>217400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>36100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4100</v>
+        <v>31200</v>
       </c>
       <c r="E20" s="3">
-        <v>1700</v>
+        <v>3900</v>
       </c>
       <c r="F20" s="3">
-        <v>4100</v>
+        <v>1600</v>
       </c>
       <c r="G20" s="3">
-        <v>12400</v>
+        <v>3900</v>
       </c>
       <c r="H20" s="3">
-        <v>-24000</v>
+        <v>11700</v>
       </c>
       <c r="I20" s="3">
-        <v>78800</v>
+        <v>-22600</v>
       </c>
       <c r="J20" s="3">
+        <v>74100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-18200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-22200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>18400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>15400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>228800</v>
+        <v>226900</v>
       </c>
       <c r="E21" s="3">
-        <v>95300</v>
+        <v>215200</v>
       </c>
       <c r="F21" s="3">
-        <v>92900</v>
+        <v>89700</v>
       </c>
       <c r="G21" s="3">
-        <v>152500</v>
+        <v>87300</v>
       </c>
       <c r="H21" s="3">
-        <v>233000</v>
+        <v>143500</v>
       </c>
       <c r="I21" s="3">
-        <v>309200</v>
+        <v>219100</v>
       </c>
       <c r="J21" s="3">
+        <v>290800</v>
+      </c>
+      <c r="K21" s="3">
         <v>257000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>155400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>155500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>117200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>100300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>122000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>269500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>180100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>137700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>156300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>175200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>394100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>175200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>42300</v>
+        <v>35900</v>
       </c>
       <c r="E22" s="3">
-        <v>43100</v>
+        <v>39800</v>
       </c>
       <c r="F22" s="3">
+        <v>40500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>35900</v>
+      </c>
+      <c r="H22" s="3">
+        <v>37400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>39800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K22" s="3">
         <v>38100</v>
       </c>
-      <c r="G22" s="3">
-        <v>39800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>42300</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>37300</v>
       </c>
-      <c r="J22" s="3">
-        <v>38100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>37300</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>31600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>32000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>33400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>39900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>42900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>40200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>38700</v>
       </c>
       <c r="S22" s="3">
         <v>38700</v>
       </c>
       <c r="T22" s="3">
+        <v>38700</v>
+      </c>
+      <c r="U22" s="3">
         <v>40700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>41500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>42300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>17400</v>
+        <v>56100</v>
       </c>
       <c r="E23" s="3">
-        <v>-139300</v>
+        <v>16400</v>
       </c>
       <c r="F23" s="3">
-        <v>-106900</v>
+        <v>-131000</v>
       </c>
       <c r="G23" s="3">
-        <v>-43100</v>
+        <v>-100600</v>
       </c>
       <c r="H23" s="3">
-        <v>38100</v>
+        <v>-40500</v>
       </c>
       <c r="I23" s="3">
-        <v>118600</v>
+        <v>35900</v>
       </c>
       <c r="J23" s="3">
+        <v>111500</v>
+      </c>
+      <c r="K23" s="3">
         <v>72100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-57100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-63900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-55000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>105400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-32000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>11500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>194400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>9200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16600</v>
+        <v>34300</v>
       </c>
       <c r="E24" s="3">
-        <v>-20700</v>
+        <v>15600</v>
       </c>
       <c r="F24" s="3">
-        <v>-8300</v>
+        <v>-19500</v>
       </c>
       <c r="G24" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>8300</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="M24" s="3">
+        <v>13100</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>27900</v>
+      </c>
+      <c r="R24" s="3">
+        <v>78100</v>
+      </c>
+      <c r="S24" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="T24" s="3">
         <v>-14100</v>
       </c>
-      <c r="H24" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>33200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>8300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-39700</v>
-      </c>
-      <c r="L24" s="3">
-        <v>13100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="P24" s="3">
-        <v>27900</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>78100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="S24" s="3">
-        <v>-14100</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-13100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>63000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
-        <v>-118600</v>
-      </c>
       <c r="F26" s="3">
-        <v>-98700</v>
+        <v>-111500</v>
       </c>
       <c r="G26" s="3">
-        <v>-29000</v>
+        <v>-92800</v>
       </c>
       <c r="H26" s="3">
-        <v>36500</v>
+        <v>-27300</v>
       </c>
       <c r="I26" s="3">
-        <v>85400</v>
+        <v>34300</v>
       </c>
       <c r="J26" s="3">
+        <v>80300</v>
+      </c>
+      <c r="K26" s="3">
         <v>63800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-44900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-48700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-50400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>77500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-86300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-28300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>24600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>131400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>10800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-24900</v>
+        <v>-9400</v>
       </c>
       <c r="E27" s="3">
-        <v>-138500</v>
+        <v>-23400</v>
       </c>
       <c r="F27" s="3">
-        <v>-112800</v>
+        <v>-130200</v>
       </c>
       <c r="G27" s="3">
-        <v>-49700</v>
+        <v>-106000</v>
       </c>
       <c r="H27" s="3">
-        <v>22400</v>
+        <v>-46800</v>
       </c>
       <c r="I27" s="3">
-        <v>54700</v>
+        <v>21100</v>
       </c>
       <c r="J27" s="3">
+        <v>51500</v>
+      </c>
+      <c r="K27" s="3">
         <v>42300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-50000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-92900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-62500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-79000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>48900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-107900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-20100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-13400</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>46900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-9200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4100</v>
+        <v>-31200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1700</v>
+        <v>-3900</v>
       </c>
       <c r="F32" s="3">
-        <v>-4100</v>
+        <v>-1600</v>
       </c>
       <c r="G32" s="3">
-        <v>-12400</v>
+        <v>-3900</v>
       </c>
       <c r="H32" s="3">
-        <v>24000</v>
+        <v>-11700</v>
       </c>
       <c r="I32" s="3">
-        <v>-78800</v>
+        <v>22600</v>
       </c>
       <c r="J32" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="K32" s="3">
         <v>18200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>22200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-18400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-15400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-24900</v>
+        <v>-9400</v>
       </c>
       <c r="E33" s="3">
-        <v>-138500</v>
+        <v>-23400</v>
       </c>
       <c r="F33" s="3">
-        <v>-112800</v>
+        <v>-130200</v>
       </c>
       <c r="G33" s="3">
-        <v>-49700</v>
+        <v>-106000</v>
       </c>
       <c r="H33" s="3">
-        <v>22400</v>
+        <v>-46800</v>
       </c>
       <c r="I33" s="3">
-        <v>54700</v>
+        <v>21100</v>
       </c>
       <c r="J33" s="3">
+        <v>51500</v>
+      </c>
+      <c r="K33" s="3">
         <v>42300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-50000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-92900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-62500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-79000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>48900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-107900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-20100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-13400</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>46900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-9200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-24900</v>
+        <v>-9400</v>
       </c>
       <c r="E35" s="3">
-        <v>-138500</v>
+        <v>-23400</v>
       </c>
       <c r="F35" s="3">
-        <v>-112800</v>
+        <v>-130200</v>
       </c>
       <c r="G35" s="3">
-        <v>-49700</v>
+        <v>-106000</v>
       </c>
       <c r="H35" s="3">
-        <v>22400</v>
+        <v>-46800</v>
       </c>
       <c r="I35" s="3">
-        <v>54700</v>
+        <v>21100</v>
       </c>
       <c r="J35" s="3">
+        <v>51500</v>
+      </c>
+      <c r="K35" s="3">
         <v>42300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-50000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-92900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-62500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-79000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>48900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-107900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-20100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-13400</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>46900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-9200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,109 +2660,113 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>537200</v>
+        <v>500500</v>
       </c>
       <c r="E41" s="3">
-        <v>582800</v>
+        <v>505200</v>
       </c>
       <c r="F41" s="3">
-        <v>223800</v>
+        <v>548100</v>
       </c>
       <c r="G41" s="3">
-        <v>213100</v>
+        <v>210500</v>
       </c>
       <c r="H41" s="3">
-        <v>280200</v>
+        <v>200400</v>
       </c>
       <c r="I41" s="3">
-        <v>340700</v>
+        <v>263500</v>
       </c>
       <c r="J41" s="3">
+        <v>320400</v>
+      </c>
+      <c r="K41" s="3">
         <v>270300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>164900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>83900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>67700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>69000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>92600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>247700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>233700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>64700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>37200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>387200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>234300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>120600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>136000</v>
+        <v>175400</v>
       </c>
       <c r="E42" s="3">
-        <v>141800</v>
+        <v>127900</v>
       </c>
       <c r="F42" s="3">
-        <v>159200</v>
+        <v>133300</v>
       </c>
       <c r="G42" s="3">
-        <v>228000</v>
+        <v>149700</v>
       </c>
       <c r="H42" s="3">
-        <v>219700</v>
+        <v>214400</v>
       </c>
       <c r="I42" s="3">
-        <v>137600</v>
+        <v>206600</v>
       </c>
       <c r="J42" s="3">
+        <v>129400</v>
+      </c>
+      <c r="K42" s="3">
         <v>132600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>130800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>107000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>111100</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
@@ -2704,463 +2794,487 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>470900</v>
+        <v>541900</v>
       </c>
       <c r="E43" s="3">
-        <v>483300</v>
+        <v>442900</v>
       </c>
       <c r="F43" s="3">
-        <v>402100</v>
+        <v>454500</v>
       </c>
       <c r="G43" s="3">
-        <v>354800</v>
+        <v>378100</v>
       </c>
       <c r="H43" s="3">
-        <v>357300</v>
+        <v>333700</v>
       </c>
       <c r="I43" s="3">
-        <v>383000</v>
+        <v>336000</v>
       </c>
       <c r="J43" s="3">
+        <v>360200</v>
+      </c>
+      <c r="K43" s="3">
         <v>374700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>399700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>562700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>575400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>472300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>423100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>505100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>694300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>829000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>499400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>504700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>480900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>383300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>347200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>179100</v>
+        <v>162200</v>
       </c>
       <c r="E44" s="3">
-        <v>197300</v>
+        <v>168400</v>
       </c>
       <c r="F44" s="3">
-        <v>213900</v>
+        <v>185600</v>
       </c>
       <c r="G44" s="3">
-        <v>246200</v>
+        <v>201200</v>
       </c>
       <c r="H44" s="3">
-        <v>218000</v>
+        <v>231600</v>
       </c>
       <c r="I44" s="3">
-        <v>208100</v>
+        <v>205100</v>
       </c>
       <c r="J44" s="3">
+        <v>195700</v>
+      </c>
+      <c r="K44" s="3">
         <v>202300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>212500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>174000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>184200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>191800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>211500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>168600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>163000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>173400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>183800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>152100</v>
-      </c>
-      <c r="U44" s="3">
-        <v>163600</v>
       </c>
       <c r="V44" s="3">
         <v>163600</v>
       </c>
       <c r="W44" s="3">
+        <v>163600</v>
+      </c>
+      <c r="X44" s="3">
         <v>182800</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>176600</v>
+        <v>93600</v>
       </c>
       <c r="E45" s="3">
-        <v>171600</v>
+        <v>166100</v>
       </c>
       <c r="F45" s="3">
-        <v>155000</v>
+        <v>161400</v>
       </c>
       <c r="G45" s="3">
-        <v>53100</v>
+        <v>145800</v>
       </c>
       <c r="H45" s="3">
-        <v>57200</v>
+        <v>49900</v>
       </c>
       <c r="I45" s="3">
-        <v>42300</v>
+        <v>53800</v>
       </c>
       <c r="J45" s="3">
+        <v>39800</v>
+      </c>
+      <c r="K45" s="3">
         <v>252900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>55500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>43100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>60100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>199100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>173100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>170900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>180800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>173400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>206900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>255800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>315000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>227400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1499800</v>
+        <v>1473600</v>
       </c>
       <c r="E46" s="3">
-        <v>1576900</v>
+        <v>1410400</v>
       </c>
       <c r="F46" s="3">
-        <v>1154000</v>
+        <v>1482900</v>
       </c>
       <c r="G46" s="3">
-        <v>1095200</v>
+        <v>1085300</v>
       </c>
       <c r="H46" s="3">
-        <v>1132500</v>
+        <v>1029900</v>
       </c>
       <c r="I46" s="3">
-        <v>1111800</v>
+        <v>1065000</v>
       </c>
       <c r="J46" s="3">
+        <v>1045500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1232800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>963500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>970700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>998600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>932300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1092300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1271900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1240600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>927300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1299800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1193800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>895000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>828200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>262800</v>
+        <v>233100</v>
       </c>
       <c r="E47" s="3">
-        <v>271900</v>
+        <v>247200</v>
       </c>
       <c r="F47" s="3">
-        <v>136000</v>
+        <v>255700</v>
       </c>
       <c r="G47" s="3">
-        <v>139300</v>
+        <v>127900</v>
       </c>
       <c r="H47" s="3">
-        <v>142600</v>
+        <v>131000</v>
       </c>
       <c r="I47" s="3">
-        <v>145900</v>
+        <v>134100</v>
       </c>
       <c r="J47" s="3">
+        <v>137200</v>
+      </c>
+      <c r="K47" s="3">
         <v>148400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>145100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>144000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>145400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>142400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>152100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>157300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>160000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>171200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>500100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>535500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>552400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>554700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4800200</v>
+        <v>4456600</v>
       </c>
       <c r="E48" s="3">
-        <v>4943600</v>
+        <v>4514300</v>
       </c>
       <c r="F48" s="3">
-        <v>5004100</v>
+        <v>4649200</v>
       </c>
       <c r="G48" s="3">
-        <v>5046400</v>
+        <v>4706100</v>
       </c>
       <c r="H48" s="3">
-        <v>5156700</v>
+        <v>4745900</v>
       </c>
       <c r="I48" s="3">
-        <v>5267000</v>
+        <v>4849500</v>
       </c>
       <c r="J48" s="3">
+        <v>4953200</v>
+      </c>
+      <c r="K48" s="3">
         <v>4956900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4850900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4703600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4691400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4506200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4787000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4869800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4895400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4952000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4989200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5232400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5242400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5354600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5337700</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>621000</v>
+        <v>572300</v>
       </c>
       <c r="E49" s="3">
-        <v>643300</v>
+        <v>584000</v>
       </c>
       <c r="F49" s="3">
-        <v>656600</v>
+        <v>605000</v>
       </c>
       <c r="G49" s="3">
-        <v>668200</v>
+        <v>617500</v>
       </c>
       <c r="H49" s="3">
-        <v>645000</v>
+        <v>628400</v>
       </c>
       <c r="I49" s="3">
-        <v>648300</v>
+        <v>606600</v>
       </c>
       <c r="J49" s="3">
+        <v>609700</v>
+      </c>
+      <c r="K49" s="3">
         <v>654100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>654200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>643600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>637000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>585000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>612000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>618800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>615500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>617700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>600600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>623000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>629200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>630700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>625100</v>
+        <v>566800</v>
       </c>
       <c r="E52" s="3">
-        <v>645000</v>
+        <v>587900</v>
       </c>
       <c r="F52" s="3">
-        <v>701400</v>
+        <v>606600</v>
       </c>
       <c r="G52" s="3">
-        <v>819100</v>
+        <v>659600</v>
       </c>
       <c r="H52" s="3">
-        <v>751100</v>
+        <v>770300</v>
       </c>
       <c r="I52" s="3">
-        <v>709700</v>
+        <v>706400</v>
       </c>
       <c r="J52" s="3">
+        <v>667400</v>
+      </c>
+      <c r="K52" s="3">
         <v>685600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>681200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>719000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>703200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>680200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>770100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>761800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>725600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>729300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>736800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>797400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>829700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>745200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>739800</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7808800</v>
+        <v>7302400</v>
       </c>
       <c r="E54" s="3">
-        <v>8080800</v>
+        <v>7343700</v>
       </c>
       <c r="F54" s="3">
-        <v>7652100</v>
+        <v>7599400</v>
       </c>
       <c r="G54" s="3">
-        <v>7768200</v>
+        <v>7196400</v>
       </c>
       <c r="H54" s="3">
-        <v>7827900</v>
+        <v>7305500</v>
       </c>
       <c r="I54" s="3">
-        <v>7882600</v>
+        <v>7361600</v>
       </c>
       <c r="J54" s="3">
+        <v>7413100</v>
+      </c>
+      <c r="K54" s="3">
         <v>7677800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7295000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7180900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7175600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6846100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7221500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7500000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7668300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7710800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7753900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8488200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8447500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8180100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8100200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>518200</v>
+        <v>453800</v>
       </c>
       <c r="E57" s="3">
-        <v>496600</v>
+        <v>487300</v>
       </c>
       <c r="F57" s="3">
-        <v>422000</v>
+        <v>467000</v>
       </c>
       <c r="G57" s="3">
-        <v>332400</v>
+        <v>396900</v>
       </c>
       <c r="H57" s="3">
-        <v>342400</v>
+        <v>312600</v>
       </c>
       <c r="I57" s="3">
-        <v>342400</v>
+        <v>322000</v>
       </c>
       <c r="J57" s="3">
+        <v>322000</v>
+      </c>
+      <c r="K57" s="3">
         <v>296000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>288700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>352600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>378300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>346600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>319900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>373400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>442800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>380300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>313300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>351100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>317300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>283500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>229700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>92000</v>
+        <v>89700</v>
       </c>
       <c r="E58" s="3">
-        <v>87100</v>
+        <v>86500</v>
       </c>
       <c r="F58" s="3">
-        <v>425300</v>
+        <v>81900</v>
       </c>
       <c r="G58" s="3">
-        <v>425300</v>
+        <v>400000</v>
       </c>
       <c r="H58" s="3">
-        <v>426100</v>
+        <v>400000</v>
       </c>
       <c r="I58" s="3">
-        <v>425300</v>
+        <v>400800</v>
       </c>
       <c r="J58" s="3">
+        <v>400000</v>
+      </c>
+      <c r="K58" s="3">
         <v>85400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>83300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>80800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>112600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>95900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>77500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>105400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>555900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>686900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>701800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>484000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>490900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>452500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>165800</v>
+        <v>288500</v>
       </c>
       <c r="E59" s="3">
-        <v>191500</v>
+        <v>155900</v>
       </c>
       <c r="F59" s="3">
-        <v>178200</v>
+        <v>180100</v>
       </c>
       <c r="G59" s="3">
-        <v>195700</v>
+        <v>167600</v>
       </c>
       <c r="H59" s="3">
-        <v>176600</v>
+        <v>184000</v>
       </c>
       <c r="I59" s="3">
-        <v>158300</v>
+        <v>166100</v>
       </c>
       <c r="J59" s="3">
+        <v>148900</v>
+      </c>
+      <c r="K59" s="3">
         <v>228000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>181600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>162400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>173500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>133000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>159600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>203300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>198000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>94500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>105700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>117500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>126800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>218900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>553100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>776000</v>
+        <v>831900</v>
       </c>
       <c r="E60" s="3">
-        <v>775200</v>
+        <v>729800</v>
       </c>
       <c r="F60" s="3">
-        <v>1025500</v>
+        <v>729000</v>
       </c>
       <c r="G60" s="3">
-        <v>953400</v>
+        <v>964500</v>
       </c>
       <c r="H60" s="3">
-        <v>945100</v>
+        <v>896600</v>
       </c>
       <c r="I60" s="3">
-        <v>926000</v>
+        <v>888800</v>
       </c>
       <c r="J60" s="3">
+        <v>870900</v>
+      </c>
+      <c r="K60" s="3">
         <v>609400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>553500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>595800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>664400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>575500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>557100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>682000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1196700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1161700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1120800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>952600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>934900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>954900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>904200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3171900</v>
+        <v>2891000</v>
       </c>
       <c r="E61" s="3">
-        <v>3304600</v>
+        <v>2983000</v>
       </c>
       <c r="F61" s="3">
-        <v>2386800</v>
+        <v>3107800</v>
       </c>
       <c r="G61" s="3">
-        <v>2427500</v>
+        <v>2244700</v>
       </c>
       <c r="H61" s="3">
-        <v>2480500</v>
+        <v>2282900</v>
       </c>
       <c r="I61" s="3">
-        <v>2507900</v>
+        <v>2332800</v>
       </c>
       <c r="J61" s="3">
+        <v>2358500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2667100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2590000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2465700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2373800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2217100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2291500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2462400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2202900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2126200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2128400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2822500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2859400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2714200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2710300</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1061200</v>
+        <v>1058800</v>
       </c>
       <c r="E62" s="3">
-        <v>1152400</v>
+        <v>998000</v>
       </c>
       <c r="F62" s="3">
-        <v>1114200</v>
+        <v>1083700</v>
       </c>
       <c r="G62" s="3">
-        <v>1078600</v>
+        <v>1047900</v>
       </c>
       <c r="H62" s="3">
-        <v>1005600</v>
+        <v>1014400</v>
       </c>
       <c r="I62" s="3">
-        <v>1081100</v>
+        <v>945700</v>
       </c>
       <c r="J62" s="3">
+        <v>1016700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1080300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1015900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1026900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>990900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>940300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1021500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1029100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1005400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1091800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1081300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1118500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1070900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1025600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>990200</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5868800</v>
+        <v>5592600</v>
       </c>
       <c r="E66" s="3">
-        <v>6130800</v>
+        <v>5519300</v>
       </c>
       <c r="F66" s="3">
-        <v>5444400</v>
+        <v>5765700</v>
       </c>
       <c r="G66" s="3">
-        <v>5344900</v>
+        <v>5120100</v>
       </c>
       <c r="H66" s="3">
-        <v>5347400</v>
+        <v>5026500</v>
       </c>
       <c r="I66" s="3">
-        <v>5427800</v>
+        <v>5028900</v>
       </c>
       <c r="J66" s="3">
+        <v>5104500</v>
+      </c>
+      <c r="K66" s="3">
         <v>5269400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5027700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4966100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4894600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4546200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4740300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4962400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5193100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5185700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5167100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5770900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5750200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5562000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5469000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,52 +4504,55 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>734400</v>
+      </c>
+      <c r="E70" s="3">
+        <v>734400</v>
+      </c>
+      <c r="F70" s="3">
+        <v>734400</v>
+      </c>
+      <c r="G70" s="3">
+        <v>734400</v>
+      </c>
+      <c r="H70" s="3">
+        <v>734400</v>
+      </c>
+      <c r="I70" s="3">
+        <v>734400</v>
+      </c>
+      <c r="J70" s="3">
+        <v>734400</v>
+      </c>
+      <c r="K70" s="3">
         <v>781000</v>
       </c>
-      <c r="E70" s="3">
-        <v>781000</v>
-      </c>
-      <c r="F70" s="3">
-        <v>781000</v>
-      </c>
-      <c r="G70" s="3">
-        <v>781000</v>
-      </c>
-      <c r="H70" s="3">
-        <v>781000</v>
-      </c>
-      <c r="I70" s="3">
-        <v>781000</v>
-      </c>
-      <c r="J70" s="3">
-        <v>781000</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>747000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>725200</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>716900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>684500</v>
-      </c>
-      <c r="O70" s="3">
-        <v>709100</v>
       </c>
       <c r="P70" s="3">
         <v>709100</v>
       </c>
       <c r="Q70" s="3">
-        <v>701000</v>
+        <v>709100</v>
       </c>
       <c r="R70" s="3">
         <v>701000</v>
@@ -4393,7 +4561,7 @@
         <v>701000</v>
       </c>
       <c r="T70" s="3">
-        <v>723700</v>
+        <v>701000</v>
       </c>
       <c r="U70" s="3">
         <v>723700</v>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>723700</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>723700</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1538700</v>
+        <v>-1465800</v>
       </c>
       <c r="E72" s="3">
-        <v>-1513800</v>
+        <v>-1447100</v>
       </c>
       <c r="F72" s="3">
-        <v>-1363800</v>
+        <v>-1423700</v>
       </c>
       <c r="G72" s="3">
-        <v>-1242700</v>
+        <v>-1282600</v>
       </c>
       <c r="H72" s="3">
-        <v>-1188000</v>
+        <v>-1168700</v>
       </c>
       <c r="I72" s="3">
-        <v>-1206300</v>
+        <v>-1117300</v>
       </c>
       <c r="J72" s="3">
+        <v>-1134400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1260200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1238700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1199400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1138600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-986100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-952300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-879300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-899700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-785900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-716700</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-716800</v>
       </c>
       <c r="U72" s="3">
         <v>-716800</v>
       </c>
       <c r="V72" s="3">
+        <v>-716800</v>
+      </c>
+      <c r="W72" s="3">
         <v>-775100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-756700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1159000</v>
+        <v>975400</v>
       </c>
       <c r="E76" s="3">
-        <v>1169000</v>
+        <v>1090000</v>
       </c>
       <c r="F76" s="3">
-        <v>1426800</v>
+        <v>1099300</v>
       </c>
       <c r="G76" s="3">
-        <v>1642300</v>
+        <v>1341800</v>
       </c>
       <c r="H76" s="3">
-        <v>1699600</v>
+        <v>1544500</v>
       </c>
       <c r="I76" s="3">
-        <v>1673900</v>
+        <v>1598300</v>
       </c>
       <c r="J76" s="3">
+        <v>1574200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1627400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1520200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1489600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1564000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1615400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1772100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1828500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1774200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1824100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1885800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1993600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1973600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1894500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1907500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-24900</v>
+        <v>-9400</v>
       </c>
       <c r="E81" s="3">
-        <v>-138500</v>
+        <v>-23400</v>
       </c>
       <c r="F81" s="3">
-        <v>-112800</v>
+        <v>-130200</v>
       </c>
       <c r="G81" s="3">
-        <v>-49700</v>
+        <v>-106000</v>
       </c>
       <c r="H81" s="3">
-        <v>22400</v>
+        <v>-46800</v>
       </c>
       <c r="I81" s="3">
-        <v>54700</v>
+        <v>21100</v>
       </c>
       <c r="J81" s="3">
+        <v>51500</v>
+      </c>
+      <c r="K81" s="3">
         <v>42300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-50000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-92900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-62500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-79000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>48900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-107900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-20100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-13400</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>46900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-9200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>169100</v>
+        <v>134900</v>
       </c>
       <c r="E83" s="3">
-        <v>191500</v>
+        <v>159100</v>
       </c>
       <c r="F83" s="3">
-        <v>161700</v>
+        <v>180100</v>
       </c>
       <c r="G83" s="3">
-        <v>155900</v>
+        <v>152000</v>
       </c>
       <c r="H83" s="3">
-        <v>152500</v>
+        <v>146600</v>
       </c>
       <c r="I83" s="3">
-        <v>153400</v>
+        <v>143500</v>
       </c>
       <c r="J83" s="3">
+        <v>144200</v>
+      </c>
+      <c r="K83" s="3">
         <v>146700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>137200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>133900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>142300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>130800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>137000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>121200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>148100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>131000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>128700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>122900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>158300</v>
-      </c>
-      <c r="V83" s="3">
-        <v>123700</v>
       </c>
       <c r="W83" s="3">
         <v>123700</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>123700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>213100</v>
+        <v>62400</v>
       </c>
       <c r="E89" s="3">
-        <v>91200</v>
+        <v>200400</v>
       </c>
       <c r="F89" s="3">
-        <v>213100</v>
+        <v>85800</v>
       </c>
       <c r="G89" s="3">
-        <v>100300</v>
+        <v>200400</v>
       </c>
       <c r="H89" s="3">
-        <v>177400</v>
+        <v>94300</v>
       </c>
       <c r="I89" s="3">
-        <v>150100</v>
+        <v>166800</v>
       </c>
       <c r="J89" s="3">
+        <v>141100</v>
+      </c>
+      <c r="K89" s="3">
         <v>271900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>204600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>63100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>115500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>78300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>319900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>60300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>149600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>46900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>215900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>93700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>175200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>91400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-81200</v>
+        <v>-92800</v>
       </c>
       <c r="E91" s="3">
-        <v>-174100</v>
+        <v>-76400</v>
       </c>
       <c r="F91" s="3">
-        <v>-106900</v>
+        <v>-163700</v>
       </c>
       <c r="G91" s="3">
+        <v>-100600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-138000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-76900</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-67600</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-81100</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-83700</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-76800</v>
+      </c>
+      <c r="X91" s="3">
         <v>-62200</v>
       </c>
-      <c r="H91" s="3">
-        <v>-59700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-146700</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-79600</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-87200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-26200</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-76900</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-67600</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-45200</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-17300</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-53600</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-81100</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-72200</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-49200</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-83700</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-76800</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-62200</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-92000</v>
+        <v>-7800</v>
       </c>
       <c r="E94" s="3">
-        <v>-264500</v>
+        <v>-86500</v>
       </c>
       <c r="F94" s="3">
-        <v>-136000</v>
+        <v>-248700</v>
       </c>
       <c r="G94" s="3">
-        <v>-90400</v>
+        <v>-127900</v>
       </c>
       <c r="H94" s="3">
-        <v>-78800</v>
+        <v>-85000</v>
       </c>
       <c r="I94" s="3">
-        <v>-158300</v>
+        <v>-74100</v>
       </c>
       <c r="J94" s="3">
+        <v>-148900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-75400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-140400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-40800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-76100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-98100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-79800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-39900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>224000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-107900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-55100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-65300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-76100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-58400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-9900</v>
+        <v>-9400</v>
       </c>
       <c r="E96" s="3">
-        <v>-9900</v>
+        <v>-9400</v>
       </c>
       <c r="F96" s="3">
-        <v>-9900</v>
+        <v>-9400</v>
       </c>
       <c r="G96" s="3">
-        <v>-9900</v>
+        <v>-9400</v>
       </c>
       <c r="H96" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-9100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="L96" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="N96" s="3">
         <v>-9100</v>
       </c>
-      <c r="J96" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-8000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-8300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-8200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-8900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-9200</v>
       </c>
       <c r="U96" s="3">
         <v>-9200</v>
       </c>
       <c r="V96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="W96" s="3">
         <v>-8500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-165800</v>
+        <v>-56900</v>
       </c>
       <c r="E100" s="3">
-        <v>531400</v>
+        <v>-155900</v>
       </c>
       <c r="F100" s="3">
-        <v>-65500</v>
+        <v>499800</v>
       </c>
       <c r="G100" s="3">
-        <v>-77900</v>
+        <v>-61600</v>
       </c>
       <c r="H100" s="3">
-        <v>-162500</v>
+        <v>-73300</v>
       </c>
       <c r="I100" s="3">
-        <v>78800</v>
+        <v>-152800</v>
       </c>
       <c r="J100" s="3">
+        <v>74100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-98700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>15100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-28900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-37100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-154300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-268700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-115400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-13400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-328900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-67600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>86000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-49900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
-        <v>3300</v>
-      </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="S101" s="3">
         <v>-700</v>
       </c>
       <c r="T101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U101" s="3">
         <v>800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-800</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-45600</v>
+        <v>-4700</v>
       </c>
       <c r="E102" s="3">
-        <v>359000</v>
+        <v>-42900</v>
       </c>
       <c r="F102" s="3">
-        <v>10800</v>
+        <v>337600</v>
       </c>
       <c r="G102" s="3">
-        <v>-67200</v>
+        <v>10100</v>
       </c>
       <c r="H102" s="3">
-        <v>-60500</v>
+        <v>-63200</v>
       </c>
       <c r="I102" s="3">
-        <v>70500</v>
+        <v>-56900</v>
       </c>
       <c r="J102" s="3">
+        <v>66300</v>
+      </c>
+      <c r="K102" s="3">
         <v>97800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>78500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-20300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-155100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>168900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>27500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-337900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>152900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>113700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>49200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>48400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>TAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>482600</v>
+        <v>667300</v>
       </c>
       <c r="E8" s="3">
-        <v>500500</v>
+        <v>485900</v>
       </c>
       <c r="F8" s="3">
-        <v>424100</v>
+        <v>504000</v>
       </c>
       <c r="G8" s="3">
-        <v>400800</v>
+        <v>427100</v>
       </c>
       <c r="H8" s="3">
-        <v>340700</v>
+        <v>403500</v>
       </c>
       <c r="I8" s="3">
-        <v>472500</v>
+        <v>343100</v>
       </c>
       <c r="J8" s="3">
+        <v>475700</v>
+      </c>
+      <c r="K8" s="3">
         <v>474800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>491600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>394100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>498800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>473400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>430900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>335700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>442600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>474800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>437600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>374300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>444000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>550800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>476300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>198000</v>
+        <v>293600</v>
       </c>
       <c r="E9" s="3">
-        <v>228400</v>
+        <v>199400</v>
       </c>
       <c r="F9" s="3">
-        <v>255000</v>
+        <v>230000</v>
       </c>
       <c r="G9" s="3">
-        <v>196500</v>
+        <v>256700</v>
       </c>
       <c r="H9" s="3">
-        <v>117700</v>
+        <v>197800</v>
       </c>
       <c r="I9" s="3">
-        <v>185600</v>
+        <v>118500</v>
       </c>
       <c r="J9" s="3">
+        <v>186800</v>
+      </c>
+      <c r="K9" s="3">
         <v>322000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>307600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>243500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>361800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>361500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>311000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>227300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>308600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>326000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>307400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>228500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>288100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>311100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>322700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>284600</v>
+        <v>373700</v>
       </c>
       <c r="E10" s="3">
-        <v>272100</v>
+        <v>286500</v>
       </c>
       <c r="F10" s="3">
-        <v>169200</v>
+        <v>274000</v>
       </c>
       <c r="G10" s="3">
-        <v>204300</v>
+        <v>170400</v>
       </c>
       <c r="H10" s="3">
-        <v>223000</v>
+        <v>205700</v>
       </c>
       <c r="I10" s="3">
-        <v>286900</v>
+        <v>224500</v>
       </c>
       <c r="J10" s="3">
+        <v>288900</v>
+      </c>
+      <c r="K10" s="3">
         <v>152800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>184000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>150700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>137000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>111900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>119900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>108400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>134000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>148800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>130200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>145900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>156000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>239700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>153600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>150600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,144 +1144,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>12500</v>
+        <v>451400</v>
       </c>
       <c r="E14" s="3">
-        <v>22600</v>
+        <v>12600</v>
       </c>
       <c r="F14" s="3">
+        <v>22800</v>
+      </c>
+      <c r="G14" s="3">
         <v>13300</v>
       </c>
-      <c r="G14" s="3">
-        <v>59300</v>
-      </c>
       <c r="H14" s="3">
-        <v>24900</v>
+        <v>59700</v>
       </c>
       <c r="I14" s="3">
-        <v>-32000</v>
+        <v>25100</v>
       </c>
       <c r="J14" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="K14" s="3">
         <v>36600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-18200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>17500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>41400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3800</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>4500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>14900</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>21500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>800</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>95900</v>
+        <v>96600</v>
       </c>
       <c r="E15" s="3">
-        <v>116200</v>
+        <v>96600</v>
       </c>
       <c r="F15" s="3">
-        <v>134900</v>
+        <v>117000</v>
       </c>
       <c r="G15" s="3">
-        <v>126300</v>
+        <v>135800</v>
       </c>
       <c r="H15" s="3">
-        <v>127100</v>
+        <v>127200</v>
       </c>
       <c r="I15" s="3">
-        <v>121600</v>
+        <v>128000</v>
       </c>
       <c r="J15" s="3">
+        <v>122500</v>
+      </c>
+      <c r="K15" s="3">
         <v>120100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>122700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>113400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>111600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>115700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>106100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>109900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>97900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>134000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>117600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>114600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>109900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>143700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>111400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>112900</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>421800</v>
+        <v>988400</v>
       </c>
       <c r="E17" s="3">
-        <v>448300</v>
+        <v>424700</v>
       </c>
       <c r="F17" s="3">
-        <v>516100</v>
+        <v>451400</v>
       </c>
       <c r="G17" s="3">
-        <v>469400</v>
+        <v>519700</v>
       </c>
       <c r="H17" s="3">
-        <v>355500</v>
+        <v>472600</v>
       </c>
       <c r="I17" s="3">
-        <v>374200</v>
+        <v>358000</v>
       </c>
       <c r="J17" s="3">
+        <v>376800</v>
+      </c>
+      <c r="K17" s="3">
         <v>402300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>363100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>353700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>471100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>493200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>452000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>344800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>289800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>451000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>427200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>356500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>396400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>333400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>440200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>60800</v>
+        <v>-321100</v>
       </c>
       <c r="E18" s="3">
-        <v>52200</v>
+        <v>61200</v>
       </c>
       <c r="F18" s="3">
-        <v>-92000</v>
+        <v>52600</v>
       </c>
       <c r="G18" s="3">
-        <v>-68600</v>
+        <v>-92600</v>
       </c>
       <c r="H18" s="3">
-        <v>-14800</v>
+        <v>-69100</v>
       </c>
       <c r="I18" s="3">
-        <v>98200</v>
+        <v>-14900</v>
       </c>
       <c r="J18" s="3">
+        <v>98900</v>
+      </c>
+      <c r="K18" s="3">
         <v>72500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>128500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>40400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>27700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-19800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-21100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>152800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>23800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>17900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>47600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>217400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>36100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1481,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>31200</v>
+        <v>15700</v>
       </c>
       <c r="E20" s="3">
+        <v>31400</v>
+      </c>
+      <c r="F20" s="3">
         <v>3900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3900</v>
       </c>
-      <c r="H20" s="3">
-        <v>11700</v>
-      </c>
       <c r="I20" s="3">
-        <v>-22600</v>
+        <v>11800</v>
       </c>
       <c r="J20" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="K20" s="3">
         <v>74100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-18200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-22200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>9700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>18400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>15400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>226900</v>
+        <v>-150700</v>
       </c>
       <c r="E21" s="3">
-        <v>215200</v>
+        <v>228400</v>
       </c>
       <c r="F21" s="3">
-        <v>89700</v>
+        <v>216700</v>
       </c>
       <c r="G21" s="3">
-        <v>87300</v>
+        <v>90300</v>
       </c>
       <c r="H21" s="3">
-        <v>143500</v>
+        <v>87900</v>
       </c>
       <c r="I21" s="3">
-        <v>219100</v>
+        <v>144400</v>
       </c>
       <c r="J21" s="3">
+        <v>220600</v>
+      </c>
+      <c r="K21" s="3">
         <v>290800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>257000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>155400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>155500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>117200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>100300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>122000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>269500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>180100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>137700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>156300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>175200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>394100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>175200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>35900</v>
+        <v>40800</v>
       </c>
       <c r="E22" s="3">
-        <v>39800</v>
+        <v>36100</v>
       </c>
       <c r="F22" s="3">
-        <v>40500</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="3">
-        <v>35900</v>
+        <v>40800</v>
       </c>
       <c r="H22" s="3">
-        <v>37400</v>
+        <v>36100</v>
       </c>
       <c r="I22" s="3">
-        <v>39800</v>
+        <v>37700</v>
       </c>
       <c r="J22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K22" s="3">
         <v>35100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>38100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>37300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>31600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>32000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>33400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>39900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>42900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>40200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>38700</v>
       </c>
       <c r="T22" s="3">
         <v>38700</v>
       </c>
       <c r="U22" s="3">
+        <v>38700</v>
+      </c>
+      <c r="V22" s="3">
         <v>40700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>41500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>42300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>56100</v>
+        <v>-346200</v>
       </c>
       <c r="E23" s="3">
-        <v>16400</v>
+        <v>56500</v>
       </c>
       <c r="F23" s="3">
-        <v>-131000</v>
+        <v>16500</v>
       </c>
       <c r="G23" s="3">
-        <v>-100600</v>
+        <v>-131900</v>
       </c>
       <c r="H23" s="3">
-        <v>-40500</v>
+        <v>-101300</v>
       </c>
       <c r="I23" s="3">
-        <v>35900</v>
+        <v>-40800</v>
       </c>
       <c r="J23" s="3">
+        <v>36100</v>
+      </c>
+      <c r="K23" s="3">
         <v>111500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>72100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-57100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-63900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>105400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-32000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-11200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>11500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>194400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>9200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>34300</v>
+        <v>-17300</v>
       </c>
       <c r="E24" s="3">
-        <v>15600</v>
+        <v>34500</v>
       </c>
       <c r="F24" s="3">
-        <v>-19500</v>
+        <v>15700</v>
       </c>
       <c r="G24" s="3">
-        <v>-7800</v>
+        <v>-19600</v>
       </c>
       <c r="H24" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="I24" s="3">
         <v>-13300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>31200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-39700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-12200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-15300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>27900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>78100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-3700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-14100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-13100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>63000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>21800</v>
+        <v>-328900</v>
       </c>
       <c r="E26" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
-        <v>-111500</v>
-      </c>
       <c r="G26" s="3">
-        <v>-92800</v>
+        <v>-112300</v>
       </c>
       <c r="H26" s="3">
-        <v>-27300</v>
+        <v>-93400</v>
       </c>
       <c r="I26" s="3">
-        <v>34300</v>
+        <v>-27500</v>
       </c>
       <c r="J26" s="3">
+        <v>34500</v>
+      </c>
+      <c r="K26" s="3">
         <v>80300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>63800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>20600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-44900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-48700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-50400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>77500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-86300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-28300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>24600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>131400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>10800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-358000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9400</v>
       </c>
-      <c r="E27" s="3">
-        <v>-23400</v>
-      </c>
       <c r="F27" s="3">
-        <v>-130200</v>
+        <v>-23600</v>
       </c>
       <c r="G27" s="3">
-        <v>-106000</v>
+        <v>-131100</v>
       </c>
       <c r="H27" s="3">
-        <v>-46800</v>
+        <v>-106800</v>
       </c>
       <c r="I27" s="3">
-        <v>21100</v>
+        <v>-47100</v>
       </c>
       <c r="J27" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K27" s="3">
         <v>51500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>42300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-50000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-92900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-62500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-79000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>48900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-107900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-20100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-13400</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>46900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-9200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-31200</v>
+        <v>-15700</v>
       </c>
       <c r="E32" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3900</v>
       </c>
-      <c r="H32" s="3">
-        <v>-11700</v>
-      </c>
       <c r="I32" s="3">
-        <v>22600</v>
+        <v>-11800</v>
       </c>
       <c r="J32" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-74100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>18200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>22200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-9700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-18400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-15400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-358000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9400</v>
       </c>
-      <c r="E33" s="3">
-        <v>-23400</v>
-      </c>
       <c r="F33" s="3">
-        <v>-130200</v>
+        <v>-23600</v>
       </c>
       <c r="G33" s="3">
-        <v>-106000</v>
+        <v>-131100</v>
       </c>
       <c r="H33" s="3">
-        <v>-46800</v>
+        <v>-106800</v>
       </c>
       <c r="I33" s="3">
-        <v>21100</v>
+        <v>-47100</v>
       </c>
       <c r="J33" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K33" s="3">
         <v>51500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>42300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-50000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-92900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-62500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-79000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>48900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-107900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-20100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-13400</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>46900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-9200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-358000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9400</v>
       </c>
-      <c r="E35" s="3">
-        <v>-23400</v>
-      </c>
       <c r="F35" s="3">
-        <v>-130200</v>
+        <v>-23600</v>
       </c>
       <c r="G35" s="3">
-        <v>-106000</v>
+        <v>-131100</v>
       </c>
       <c r="H35" s="3">
-        <v>-46800</v>
+        <v>-106800</v>
       </c>
       <c r="I35" s="3">
-        <v>21100</v>
+        <v>-47100</v>
       </c>
       <c r="J35" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K35" s="3">
         <v>51500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>42300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-50000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-92900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-62500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-79000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>48900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-107900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-20100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-13400</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>46900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-9200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,115 +2747,119 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>500500</v>
+        <v>847900</v>
       </c>
       <c r="E41" s="3">
-        <v>505200</v>
+        <v>504000</v>
       </c>
       <c r="F41" s="3">
-        <v>548100</v>
+        <v>508700</v>
       </c>
       <c r="G41" s="3">
-        <v>210500</v>
+        <v>551900</v>
       </c>
       <c r="H41" s="3">
-        <v>200400</v>
+        <v>212000</v>
       </c>
       <c r="I41" s="3">
-        <v>263500</v>
+        <v>201800</v>
       </c>
       <c r="J41" s="3">
+        <v>265300</v>
+      </c>
+      <c r="K41" s="3">
         <v>320400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>270300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>164900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>83900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>67700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>69000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>92600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>247700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>233700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>64700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>37200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>387200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>234300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>120600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>175400</v>
+        <v>321900</v>
       </c>
       <c r="E42" s="3">
-        <v>127900</v>
+        <v>176600</v>
       </c>
       <c r="F42" s="3">
-        <v>133300</v>
+        <v>128700</v>
       </c>
       <c r="G42" s="3">
-        <v>149700</v>
+        <v>134200</v>
       </c>
       <c r="H42" s="3">
-        <v>214400</v>
+        <v>150700</v>
       </c>
       <c r="I42" s="3">
-        <v>206600</v>
+        <v>215900</v>
       </c>
       <c r="J42" s="3">
+        <v>208000</v>
+      </c>
+      <c r="K42" s="3">
         <v>129400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>132600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>130800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>107000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>111100</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
@@ -2797,484 +2887,508 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>541900</v>
+        <v>405100</v>
       </c>
       <c r="E43" s="3">
-        <v>442900</v>
+        <v>545600</v>
       </c>
       <c r="F43" s="3">
-        <v>454500</v>
+        <v>445900</v>
       </c>
       <c r="G43" s="3">
-        <v>378100</v>
+        <v>457700</v>
       </c>
       <c r="H43" s="3">
-        <v>333700</v>
+        <v>380700</v>
       </c>
       <c r="I43" s="3">
         <v>336000</v>
       </c>
       <c r="J43" s="3">
+        <v>338400</v>
+      </c>
+      <c r="K43" s="3">
         <v>360200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>374700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>399700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>562700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>575400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>472300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>423100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>505100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>694300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>829000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>499400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>504700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>480900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>383300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>347200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>162200</v>
+        <v>146000</v>
       </c>
       <c r="E44" s="3">
-        <v>168400</v>
+        <v>163300</v>
       </c>
       <c r="F44" s="3">
-        <v>185600</v>
+        <v>169600</v>
       </c>
       <c r="G44" s="3">
-        <v>201200</v>
+        <v>186800</v>
       </c>
       <c r="H44" s="3">
-        <v>231600</v>
+        <v>202500</v>
       </c>
       <c r="I44" s="3">
-        <v>205100</v>
+        <v>233200</v>
       </c>
       <c r="J44" s="3">
+        <v>206500</v>
+      </c>
+      <c r="K44" s="3">
         <v>195700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>202300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>212500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>174000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>184200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>191800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>211500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>168600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>163000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>173400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>183800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>152100</v>
-      </c>
-      <c r="V44" s="3">
-        <v>163600</v>
       </c>
       <c r="W44" s="3">
         <v>163600</v>
       </c>
       <c r="X44" s="3">
+        <v>163600</v>
+      </c>
+      <c r="Y44" s="3">
         <v>182800</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>93600</v>
+        <v>93400</v>
       </c>
       <c r="E45" s="3">
-        <v>166100</v>
+        <v>94200</v>
       </c>
       <c r="F45" s="3">
-        <v>161400</v>
+        <v>167200</v>
       </c>
       <c r="G45" s="3">
-        <v>145800</v>
+        <v>162500</v>
       </c>
       <c r="H45" s="3">
-        <v>49900</v>
+        <v>146800</v>
       </c>
       <c r="I45" s="3">
-        <v>53800</v>
+        <v>50200</v>
       </c>
       <c r="J45" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K45" s="3">
         <v>39800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>252900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>55500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>43100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>60100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>199100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>173100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>170900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>180800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>173400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>206900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>255800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>315000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>227400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1473600</v>
+        <v>1814300</v>
       </c>
       <c r="E46" s="3">
-        <v>1410400</v>
+        <v>1483700</v>
       </c>
       <c r="F46" s="3">
-        <v>1482900</v>
+        <v>1420200</v>
       </c>
       <c r="G46" s="3">
-        <v>1085300</v>
+        <v>1493200</v>
       </c>
       <c r="H46" s="3">
-        <v>1029900</v>
+        <v>1092800</v>
       </c>
       <c r="I46" s="3">
-        <v>1065000</v>
+        <v>1037100</v>
       </c>
       <c r="J46" s="3">
+        <v>1072400</v>
+      </c>
+      <c r="K46" s="3">
         <v>1045500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1232800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>963500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>970700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>998600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>932300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1092300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1271900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1240600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>927300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1299800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1193800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>895000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>828200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>233100</v>
+        <v>230800</v>
       </c>
       <c r="E47" s="3">
-        <v>247200</v>
+        <v>234700</v>
       </c>
       <c r="F47" s="3">
-        <v>255700</v>
+        <v>248900</v>
       </c>
       <c r="G47" s="3">
-        <v>127900</v>
+        <v>257500</v>
       </c>
       <c r="H47" s="3">
-        <v>131000</v>
+        <v>128700</v>
       </c>
       <c r="I47" s="3">
-        <v>134100</v>
+        <v>131900</v>
       </c>
       <c r="J47" s="3">
+        <v>135000</v>
+      </c>
+      <c r="K47" s="3">
         <v>137200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>148400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>145100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>144000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>145400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>142400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>152100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>157300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>160000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>171200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>500100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>535500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>552400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>554700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4456600</v>
+        <v>4152900</v>
       </c>
       <c r="E48" s="3">
-        <v>4514300</v>
+        <v>4487300</v>
       </c>
       <c r="F48" s="3">
-        <v>4649200</v>
+        <v>4545400</v>
       </c>
       <c r="G48" s="3">
-        <v>4706100</v>
+        <v>4681300</v>
       </c>
       <c r="H48" s="3">
-        <v>4745900</v>
+        <v>4738600</v>
       </c>
       <c r="I48" s="3">
-        <v>4849500</v>
+        <v>4778600</v>
       </c>
       <c r="J48" s="3">
+        <v>4883000</v>
+      </c>
+      <c r="K48" s="3">
         <v>4953200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4956900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4850900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4703600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4691400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4506200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4787000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4869800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4895400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4952000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4989200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5232400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5242400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5354600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5337700</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>572300</v>
+        <v>566800</v>
       </c>
       <c r="E49" s="3">
-        <v>584000</v>
+        <v>576200</v>
       </c>
       <c r="F49" s="3">
-        <v>605000</v>
+        <v>588000</v>
       </c>
       <c r="G49" s="3">
-        <v>617500</v>
+        <v>609200</v>
       </c>
       <c r="H49" s="3">
-        <v>628400</v>
+        <v>621800</v>
       </c>
       <c r="I49" s="3">
-        <v>606600</v>
+        <v>632800</v>
       </c>
       <c r="J49" s="3">
+        <v>610800</v>
+      </c>
+      <c r="K49" s="3">
         <v>609700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>654100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>654200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>643600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>637000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>585000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>612000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>618800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>615500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>617700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>600600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>623000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>629200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>630700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>566800</v>
+        <v>551900</v>
       </c>
       <c r="E52" s="3">
-        <v>587900</v>
+        <v>570700</v>
       </c>
       <c r="F52" s="3">
-        <v>606600</v>
+        <v>591900</v>
       </c>
       <c r="G52" s="3">
-        <v>659600</v>
+        <v>610800</v>
       </c>
       <c r="H52" s="3">
-        <v>770300</v>
+        <v>664200</v>
       </c>
       <c r="I52" s="3">
-        <v>706400</v>
+        <v>775600</v>
       </c>
       <c r="J52" s="3">
+        <v>711300</v>
+      </c>
+      <c r="K52" s="3">
         <v>667400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>685600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>681200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>719000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>703200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>680200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>770100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>761800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>725600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>729300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>736800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>797400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>829700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>745200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>739800</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7302400</v>
+        <v>7316700</v>
       </c>
       <c r="E54" s="3">
-        <v>7343700</v>
+        <v>7352800</v>
       </c>
       <c r="F54" s="3">
-        <v>7599400</v>
+        <v>7394400</v>
       </c>
       <c r="G54" s="3">
-        <v>7196400</v>
+        <v>7651900</v>
       </c>
       <c r="H54" s="3">
-        <v>7305500</v>
+        <v>7246000</v>
       </c>
       <c r="I54" s="3">
-        <v>7361600</v>
+        <v>7355900</v>
       </c>
       <c r="J54" s="3">
+        <v>7412400</v>
+      </c>
+      <c r="K54" s="3">
         <v>7413100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7677800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7295000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7180900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7175600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6846100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7221500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7500000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7668300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7710800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7753900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8488200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8447500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8180100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8100200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3795,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>453800</v>
+        <v>607600</v>
       </c>
       <c r="E57" s="3">
-        <v>487300</v>
+        <v>456900</v>
       </c>
       <c r="F57" s="3">
-        <v>467000</v>
+        <v>490700</v>
       </c>
       <c r="G57" s="3">
-        <v>396900</v>
+        <v>470200</v>
       </c>
       <c r="H57" s="3">
-        <v>312600</v>
+        <v>399600</v>
       </c>
       <c r="I57" s="3">
+        <v>314800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>324200</v>
+      </c>
+      <c r="K57" s="3">
         <v>322000</v>
       </c>
-      <c r="J57" s="3">
-        <v>322000</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>296000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>288700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>352600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>378300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>346600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>319900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>373400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>442800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>380300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>313300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>351100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>317300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>283500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>229700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>89700</v>
+        <v>93400</v>
       </c>
       <c r="E58" s="3">
-        <v>86500</v>
+        <v>90300</v>
       </c>
       <c r="F58" s="3">
-        <v>81900</v>
+        <v>87100</v>
       </c>
       <c r="G58" s="3">
+        <v>82400</v>
+      </c>
+      <c r="H58" s="3">
+        <v>402700</v>
+      </c>
+      <c r="I58" s="3">
+        <v>402700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>403500</v>
+      </c>
+      <c r="K58" s="3">
         <v>400000</v>
       </c>
-      <c r="H58" s="3">
-        <v>400000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>400800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>400000</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>85400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>83300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>80800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>112600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>95900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>77500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>105400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>555900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>686900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>701800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>484000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>490900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>452500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>288500</v>
+        <v>455300</v>
       </c>
       <c r="E59" s="3">
-        <v>155900</v>
+        <v>290500</v>
       </c>
       <c r="F59" s="3">
-        <v>180100</v>
+        <v>157000</v>
       </c>
       <c r="G59" s="3">
-        <v>167600</v>
+        <v>181300</v>
       </c>
       <c r="H59" s="3">
-        <v>184000</v>
+        <v>168800</v>
       </c>
       <c r="I59" s="3">
-        <v>166100</v>
+        <v>185300</v>
       </c>
       <c r="J59" s="3">
+        <v>167200</v>
+      </c>
+      <c r="K59" s="3">
         <v>148900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>228000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>181600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>162400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>173500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>133000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>159600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>203300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>198000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>94500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>105700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>117500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>126800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>218900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>553100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>831900</v>
+        <v>1156400</v>
       </c>
       <c r="E60" s="3">
-        <v>729800</v>
+        <v>837600</v>
       </c>
       <c r="F60" s="3">
-        <v>729000</v>
+        <v>734800</v>
       </c>
       <c r="G60" s="3">
-        <v>964500</v>
+        <v>734000</v>
       </c>
       <c r="H60" s="3">
-        <v>896600</v>
+        <v>971100</v>
       </c>
       <c r="I60" s="3">
-        <v>888800</v>
+        <v>902800</v>
       </c>
       <c r="J60" s="3">
+        <v>895000</v>
+      </c>
+      <c r="K60" s="3">
         <v>870900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>609400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>553500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>595800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>664400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>575500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>557100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>682000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1196700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1161700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1120800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>952600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>934900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>954900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>904200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2891000</v>
+        <v>2907800</v>
       </c>
       <c r="E61" s="3">
-        <v>2983000</v>
+        <v>2911000</v>
       </c>
       <c r="F61" s="3">
-        <v>3107800</v>
+        <v>3003600</v>
       </c>
       <c r="G61" s="3">
-        <v>2244700</v>
+        <v>3129200</v>
       </c>
       <c r="H61" s="3">
-        <v>2282900</v>
+        <v>2260200</v>
       </c>
       <c r="I61" s="3">
-        <v>2332800</v>
+        <v>2298600</v>
       </c>
       <c r="J61" s="3">
+        <v>2348900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2358500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2667100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2590000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2465700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2373800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2217100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2291500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2462400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2202900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2126200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2128400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2822500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2859400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2714200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2710300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1058800</v>
+        <v>1169700</v>
       </c>
       <c r="E62" s="3">
-        <v>998000</v>
+        <v>1066100</v>
       </c>
       <c r="F62" s="3">
-        <v>1083700</v>
+        <v>1004900</v>
       </c>
       <c r="G62" s="3">
-        <v>1047900</v>
+        <v>1091200</v>
       </c>
       <c r="H62" s="3">
-        <v>1014400</v>
+        <v>1055100</v>
       </c>
       <c r="I62" s="3">
-        <v>945700</v>
+        <v>1021400</v>
       </c>
       <c r="J62" s="3">
+        <v>952300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1016700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1080300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1015900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1026900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>990900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>940300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1021500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1029100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1005400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1091800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1081300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1118500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1070900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1025600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>990200</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5592600</v>
+        <v>6037800</v>
       </c>
       <c r="E66" s="3">
-        <v>5519300</v>
+        <v>5631200</v>
       </c>
       <c r="F66" s="3">
-        <v>5765700</v>
+        <v>5557400</v>
       </c>
       <c r="G66" s="3">
-        <v>5120100</v>
+        <v>5805400</v>
       </c>
       <c r="H66" s="3">
-        <v>5026500</v>
+        <v>5155400</v>
       </c>
       <c r="I66" s="3">
-        <v>5028900</v>
+        <v>5061200</v>
       </c>
       <c r="J66" s="3">
+        <v>5063600</v>
+      </c>
+      <c r="K66" s="3">
         <v>5104500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5269400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5027700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4966100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4894600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4546200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4740300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4962400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5193100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5185700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5167100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5770900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5750200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5562000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5469000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,55 +4672,58 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>739500</v>
+      </c>
+      <c r="E70" s="3">
+        <v>739500</v>
+      </c>
+      <c r="F70" s="3">
+        <v>739500</v>
+      </c>
+      <c r="G70" s="3">
+        <v>739500</v>
+      </c>
+      <c r="H70" s="3">
+        <v>739500</v>
+      </c>
+      <c r="I70" s="3">
+        <v>739500</v>
+      </c>
+      <c r="J70" s="3">
+        <v>739500</v>
+      </c>
+      <c r="K70" s="3">
         <v>734400</v>
       </c>
-      <c r="E70" s="3">
-        <v>734400</v>
-      </c>
-      <c r="F70" s="3">
-        <v>734400</v>
-      </c>
-      <c r="G70" s="3">
-        <v>734400</v>
-      </c>
-      <c r="H70" s="3">
-        <v>734400</v>
-      </c>
-      <c r="I70" s="3">
-        <v>734400</v>
-      </c>
-      <c r="J70" s="3">
-        <v>734400</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>781000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>747000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>725200</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>716900</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>684500</v>
-      </c>
-      <c r="P70" s="3">
-        <v>709100</v>
       </c>
       <c r="Q70" s="3">
         <v>709100</v>
       </c>
       <c r="R70" s="3">
-        <v>701000</v>
+        <v>709100</v>
       </c>
       <c r="S70" s="3">
         <v>701000</v>
@@ -4564,7 +4732,7 @@
         <v>701000</v>
       </c>
       <c r="U70" s="3">
-        <v>723700</v>
+        <v>701000</v>
       </c>
       <c r="V70" s="3">
         <v>723700</v>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>723700</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>723700</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1465800</v>
+        <v>-1853500</v>
       </c>
       <c r="E72" s="3">
-        <v>-1447100</v>
+        <v>-1475900</v>
       </c>
       <c r="F72" s="3">
-        <v>-1423700</v>
+        <v>-1457100</v>
       </c>
       <c r="G72" s="3">
-        <v>-1282600</v>
+        <v>-1433500</v>
       </c>
       <c r="H72" s="3">
-        <v>-1168700</v>
+        <v>-1291400</v>
       </c>
       <c r="I72" s="3">
-        <v>-1117300</v>
+        <v>-1176800</v>
       </c>
       <c r="J72" s="3">
+        <v>-1125000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1134400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1260200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1238700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1199400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1138600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-986100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-952300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-879300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-899700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-785900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-716700</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-716800</v>
       </c>
       <c r="V72" s="3">
         <v>-716800</v>
       </c>
       <c r="W72" s="3">
+        <v>-716800</v>
+      </c>
+      <c r="X72" s="3">
         <v>-775100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-756700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>975400</v>
+        <v>539300</v>
       </c>
       <c r="E76" s="3">
-        <v>1090000</v>
+        <v>982100</v>
       </c>
       <c r="F76" s="3">
-        <v>1099300</v>
+        <v>1097500</v>
       </c>
       <c r="G76" s="3">
-        <v>1341800</v>
+        <v>1106900</v>
       </c>
       <c r="H76" s="3">
-        <v>1544500</v>
+        <v>1351100</v>
       </c>
       <c r="I76" s="3">
-        <v>1598300</v>
+        <v>1555200</v>
       </c>
       <c r="J76" s="3">
+        <v>1609400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1574200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1627400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1520200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1489600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1564000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1615400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1772100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1828500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1774200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1824100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1885800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1993600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1973600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1894500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1907500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-358000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9400</v>
       </c>
-      <c r="E81" s="3">
-        <v>-23400</v>
-      </c>
       <c r="F81" s="3">
-        <v>-130200</v>
+        <v>-23600</v>
       </c>
       <c r="G81" s="3">
-        <v>-106000</v>
+        <v>-131100</v>
       </c>
       <c r="H81" s="3">
-        <v>-46800</v>
+        <v>-106800</v>
       </c>
       <c r="I81" s="3">
-        <v>21100</v>
+        <v>-47100</v>
       </c>
       <c r="J81" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K81" s="3">
         <v>51500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>42300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-50000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-92900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-62500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-79000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>48900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-107900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-20100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-13400</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>46900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-9200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5416,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>134900</v>
+        <v>154700</v>
       </c>
       <c r="E83" s="3">
-        <v>159100</v>
+        <v>135800</v>
       </c>
       <c r="F83" s="3">
-        <v>180100</v>
+        <v>160200</v>
       </c>
       <c r="G83" s="3">
-        <v>152000</v>
+        <v>181300</v>
       </c>
       <c r="H83" s="3">
-        <v>146600</v>
+        <v>153100</v>
       </c>
       <c r="I83" s="3">
-        <v>143500</v>
+        <v>147600</v>
       </c>
       <c r="J83" s="3">
+        <v>144400</v>
+      </c>
+      <c r="K83" s="3">
         <v>144200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>146700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>137200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>133900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>142300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>130800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>137000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>121200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>148100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>131000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>128700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>122900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>158300</v>
-      </c>
-      <c r="W83" s="3">
-        <v>123700</v>
       </c>
       <c r="X83" s="3">
         <v>123700</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>123700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>62400</v>
+        <v>478900</v>
       </c>
       <c r="E89" s="3">
-        <v>200400</v>
+        <v>62800</v>
       </c>
       <c r="F89" s="3">
-        <v>85800</v>
+        <v>201800</v>
       </c>
       <c r="G89" s="3">
-        <v>200400</v>
+        <v>86400</v>
       </c>
       <c r="H89" s="3">
-        <v>94300</v>
+        <v>201800</v>
       </c>
       <c r="I89" s="3">
-        <v>166800</v>
+        <v>95000</v>
       </c>
       <c r="J89" s="3">
+        <v>168000</v>
+      </c>
+      <c r="K89" s="3">
         <v>141100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>271900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>204600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>63100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>115500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>78300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>319900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>60300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>149600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>46900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>215900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>93700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>175200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>91400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-92800</v>
+        <v>-99700</v>
       </c>
       <c r="E91" s="3">
-        <v>-76400</v>
+        <v>-93400</v>
       </c>
       <c r="F91" s="3">
-        <v>-163700</v>
+        <v>-76900</v>
       </c>
       <c r="G91" s="3">
-        <v>-100600</v>
+        <v>-164900</v>
       </c>
       <c r="H91" s="3">
-        <v>-58500</v>
+        <v>-101300</v>
       </c>
       <c r="I91" s="3">
-        <v>-56100</v>
+        <v>-58900</v>
       </c>
       <c r="J91" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-138000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-79600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-87200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-26200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-76900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-67600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-45200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-53600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-81100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-72200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-49200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-83700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-76800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-62200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7800</v>
+        <v>-63600</v>
       </c>
       <c r="E94" s="3">
-        <v>-86500</v>
+        <v>-7900</v>
       </c>
       <c r="F94" s="3">
-        <v>-248700</v>
+        <v>-87100</v>
       </c>
       <c r="G94" s="3">
-        <v>-127900</v>
+        <v>-250400</v>
       </c>
       <c r="H94" s="3">
-        <v>-85000</v>
+        <v>-128700</v>
       </c>
       <c r="I94" s="3">
-        <v>-74100</v>
+        <v>-85600</v>
       </c>
       <c r="J94" s="3">
+        <v>-74600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-148900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-75400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-140400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-40800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-76100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-98100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-79800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-39900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>224000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-107900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-55100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>3800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-65300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-76100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-58400</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,13 +6251,14 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-9400</v>
+        <v>-10200</v>
       </c>
       <c r="E96" s="3">
         <v>-9400</v>
@@ -6039,55 +6273,58 @@
         <v>-9400</v>
       </c>
       <c r="I96" s="3">
-        <v>-8600</v>
+        <v>-9400</v>
       </c>
       <c r="J96" s="3">
         <v>-8600</v>
       </c>
       <c r="K96" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="L96" s="3">
         <v>-9100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-9500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-9100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-8000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-9000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-8200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-8900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-9200</v>
       </c>
       <c r="V96" s="3">
         <v>-9200</v>
       </c>
       <c r="W96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="X96" s="3">
         <v>-8500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6533,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-56900</v>
+        <v>-71400</v>
       </c>
       <c r="E100" s="3">
-        <v>-155900</v>
+        <v>-57300</v>
       </c>
       <c r="F100" s="3">
-        <v>499800</v>
+        <v>-157000</v>
       </c>
       <c r="G100" s="3">
-        <v>-61600</v>
+        <v>503200</v>
       </c>
       <c r="H100" s="3">
-        <v>-73300</v>
+        <v>-62000</v>
       </c>
       <c r="I100" s="3">
-        <v>-152800</v>
+        <v>-73800</v>
       </c>
       <c r="J100" s="3">
+        <v>-153900</v>
+      </c>
+      <c r="K100" s="3">
         <v>74100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-98700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>15100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-28900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-37100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-154300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-268700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-115400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-13400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-328900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-67600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>86000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-49900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2300</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>800</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="T101" s="3">
         <v>-700</v>
       </c>
       <c r="U101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V101" s="3">
         <v>800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-800</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>343900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4700</v>
       </c>
-      <c r="E102" s="3">
-        <v>-42900</v>
-      </c>
       <c r="F102" s="3">
-        <v>337600</v>
+        <v>-43200</v>
       </c>
       <c r="G102" s="3">
-        <v>10100</v>
+        <v>339900</v>
       </c>
       <c r="H102" s="3">
-        <v>-63200</v>
+        <v>10200</v>
       </c>
       <c r="I102" s="3">
-        <v>-56900</v>
+        <v>-63600</v>
       </c>
       <c r="J102" s="3">
+        <v>-57300</v>
+      </c>
+      <c r="K102" s="3">
         <v>66300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>97800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>78500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>15400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-20300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-155100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>168900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>27500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-337900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>152900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>113700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>49200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>48400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>TAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,333 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>667300</v>
+        <v>478700</v>
       </c>
       <c r="E8" s="3">
-        <v>485900</v>
+        <v>667000</v>
       </c>
       <c r="F8" s="3">
-        <v>504000</v>
+        <v>485800</v>
       </c>
       <c r="G8" s="3">
-        <v>427100</v>
+        <v>503800</v>
       </c>
       <c r="H8" s="3">
-        <v>403500</v>
+        <v>426900</v>
       </c>
       <c r="I8" s="3">
-        <v>343100</v>
+        <v>403400</v>
       </c>
       <c r="J8" s="3">
+        <v>342900</v>
+      </c>
+      <c r="K8" s="3">
         <v>475700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>474800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>491600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>394100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>498800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>473400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>430900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>335700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>442600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>474800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>437600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>374300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>444000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>550800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>476300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>293600</v>
+        <v>244100</v>
       </c>
       <c r="E9" s="3">
-        <v>199400</v>
+        <v>293500</v>
       </c>
       <c r="F9" s="3">
-        <v>230000</v>
+        <v>199300</v>
       </c>
       <c r="G9" s="3">
-        <v>256700</v>
+        <v>229900</v>
       </c>
       <c r="H9" s="3">
+        <v>256600</v>
+      </c>
+      <c r="I9" s="3">
         <v>197800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>118500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>186800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>322000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>307600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>243500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>361800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>361500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>311000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>227300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>308600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>326000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>307400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>228500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>288100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>311100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>322700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>373700</v>
+        <v>234600</v>
       </c>
       <c r="E10" s="3">
-        <v>286500</v>
+        <v>373500</v>
       </c>
       <c r="F10" s="3">
-        <v>274000</v>
+        <v>286400</v>
       </c>
       <c r="G10" s="3">
-        <v>170400</v>
+        <v>273900</v>
       </c>
       <c r="H10" s="3">
-        <v>205700</v>
+        <v>170300</v>
       </c>
       <c r="I10" s="3">
-        <v>224500</v>
+        <v>205600</v>
       </c>
       <c r="J10" s="3">
+        <v>224400</v>
+      </c>
+      <c r="K10" s="3">
         <v>288900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>152800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>184000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>150700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>137000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>111900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>119900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>108400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>134000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>148800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>130200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>145900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>156000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>239700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>153600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>150600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,150 +1163,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>451400</v>
+        <v>22000</v>
       </c>
       <c r="E14" s="3">
+        <v>451200</v>
+      </c>
+      <c r="F14" s="3">
         <v>12600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>22800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>13300</v>
       </c>
-      <c r="H14" s="3">
-        <v>59700</v>
-      </c>
       <c r="I14" s="3">
+        <v>59600</v>
+      </c>
+      <c r="J14" s="3">
         <v>25100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-32200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>36600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-18200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>17500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>41400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3800</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>4500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>14900</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>21500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>800</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>96600</v>
+        <v>105200</v>
       </c>
       <c r="E15" s="3">
-        <v>96600</v>
+        <v>96500</v>
       </c>
       <c r="F15" s="3">
-        <v>117000</v>
+        <v>96500</v>
       </c>
       <c r="G15" s="3">
+        <v>116900</v>
+      </c>
+      <c r="H15" s="3">
         <v>135800</v>
       </c>
-      <c r="H15" s="3">
-        <v>127200</v>
-      </c>
       <c r="I15" s="3">
-        <v>128000</v>
+        <v>127100</v>
       </c>
       <c r="J15" s="3">
+        <v>127900</v>
+      </c>
+      <c r="K15" s="3">
         <v>122500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>120100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>122700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>113400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>111600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>115700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>106100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>109900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>97900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>134000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>117600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>114600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>109900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>143700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>111400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>112900</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>988400</v>
+        <v>459100</v>
       </c>
       <c r="E17" s="3">
-        <v>424700</v>
+        <v>988000</v>
       </c>
       <c r="F17" s="3">
-        <v>451400</v>
+        <v>424500</v>
       </c>
       <c r="G17" s="3">
-        <v>519700</v>
+        <v>451200</v>
       </c>
       <c r="H17" s="3">
-        <v>472600</v>
+        <v>519500</v>
       </c>
       <c r="I17" s="3">
-        <v>358000</v>
+        <v>472400</v>
       </c>
       <c r="J17" s="3">
+        <v>357800</v>
+      </c>
+      <c r="K17" s="3">
         <v>376800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>402300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>363100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>353700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>471100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>493200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>452000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>344800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>289800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>451000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>427200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>356500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>396400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>333400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>440200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-321100</v>
+        <v>19600</v>
       </c>
       <c r="E18" s="3">
+        <v>-321000</v>
+      </c>
+      <c r="F18" s="3">
         <v>61200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>52600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-92600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-69100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-14900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>98900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>72500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>128500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>40400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>27700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-19800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>152800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>23800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>17900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>47600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>217400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>36100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E20" s="3">
         <v>15700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>31400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>11800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-22800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>74100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-18200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-22200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>8200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>9700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>18400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>15400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>127900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-150700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>228400</v>
       </c>
-      <c r="F21" s="3">
-        <v>216700</v>
-      </c>
       <c r="G21" s="3">
-        <v>90300</v>
+        <v>216600</v>
       </c>
       <c r="H21" s="3">
+        <v>90200</v>
+      </c>
+      <c r="I21" s="3">
         <v>87900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>144400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>220600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>290800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>257000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>155400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>155500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>117200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>100300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>122000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>269500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>180100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>137700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>156300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>175200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>394100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>175200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E22" s="3">
         <v>40800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>36100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>40000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>40800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>36100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>37700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>40000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>35100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>38100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>37300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>31600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>32000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>33400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>39900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>42900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>40200</v>
-      </c>
-      <c r="T22" s="3">
-        <v>38700</v>
       </c>
       <c r="U22" s="3">
         <v>38700</v>
       </c>
       <c r="V22" s="3">
+        <v>38700</v>
+      </c>
+      <c r="W22" s="3">
         <v>40700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>41500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>42300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-346200</v>
+        <v>-25100</v>
       </c>
       <c r="E23" s="3">
+        <v>-346100</v>
+      </c>
+      <c r="F23" s="3">
         <v>56500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-131900</v>
-      </c>
       <c r="H23" s="3">
-        <v>-101300</v>
+        <v>-131800</v>
       </c>
       <c r="I23" s="3">
+        <v>-101200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-40800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>36100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>111500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>72100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-57100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-63900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-55000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>105400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-32000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-11200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>11500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>194400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>9200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-17300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>34500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-19600</v>
       </c>
-      <c r="H24" s="3">
-        <v>-7900</v>
-      </c>
       <c r="I24" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="J24" s="3">
         <v>-13300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-39700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-12200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>27900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>78100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-3700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-14100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-13100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>63000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-328900</v>
+        <v>-27500</v>
       </c>
       <c r="E26" s="3">
+        <v>-328800</v>
+      </c>
+      <c r="F26" s="3">
         <v>22000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
-        <v>-112300</v>
-      </c>
       <c r="H26" s="3">
+        <v>-112200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-93400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-27500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>34500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>80300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>63800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>20600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-44900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-48700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-50400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>77500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-86300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-28300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>24600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>131400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>10800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-358000</v>
+        <v>-61200</v>
       </c>
       <c r="E27" s="3">
+        <v>-357800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-9400</v>
       </c>
-      <c r="F27" s="3">
-        <v>-23600</v>
-      </c>
       <c r="G27" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-131100</v>
       </c>
-      <c r="H27" s="3">
-        <v>-106800</v>
-      </c>
       <c r="I27" s="3">
+        <v>-106700</v>
+      </c>
+      <c r="J27" s="3">
         <v>-47100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>51500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>42300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-50000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-92900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-62500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-79000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>48900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-107900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-20100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-13400</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>46900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-15700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-31400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-11800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>22800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-74100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>18200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>22200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-8200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-9700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-18400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-15400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-358000</v>
+        <v>-61200</v>
       </c>
       <c r="E33" s="3">
+        <v>-357800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-9400</v>
       </c>
-      <c r="F33" s="3">
-        <v>-23600</v>
-      </c>
       <c r="G33" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="H33" s="3">
         <v>-131100</v>
       </c>
-      <c r="H33" s="3">
-        <v>-106800</v>
-      </c>
       <c r="I33" s="3">
+        <v>-106700</v>
+      </c>
+      <c r="J33" s="3">
         <v>-47100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>21200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>51500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>42300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-50000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-92900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-62500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-79000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>48900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-107900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-20100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-13400</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>46900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-358000</v>
+        <v>-61200</v>
       </c>
       <c r="E35" s="3">
+        <v>-357800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-9400</v>
       </c>
-      <c r="F35" s="3">
-        <v>-23600</v>
-      </c>
       <c r="G35" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="H35" s="3">
         <v>-131100</v>
       </c>
-      <c r="H35" s="3">
-        <v>-106800</v>
-      </c>
       <c r="I35" s="3">
+        <v>-106700</v>
+      </c>
+      <c r="J35" s="3">
         <v>-47100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>21200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>51500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>42300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-50000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-92900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-62500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-79000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>48900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-107900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-20100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-13400</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>46900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,121 +2833,125 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>847900</v>
+        <v>743100</v>
       </c>
       <c r="E41" s="3">
-        <v>504000</v>
+        <v>847500</v>
       </c>
       <c r="F41" s="3">
-        <v>508700</v>
+        <v>503800</v>
       </c>
       <c r="G41" s="3">
-        <v>551900</v>
+        <v>508500</v>
       </c>
       <c r="H41" s="3">
-        <v>212000</v>
+        <v>551700</v>
       </c>
       <c r="I41" s="3">
-        <v>201800</v>
+        <v>211900</v>
       </c>
       <c r="J41" s="3">
+        <v>201700</v>
+      </c>
+      <c r="K41" s="3">
         <v>265300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>320400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>270300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>164900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>83900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>67700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>69000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>92600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>247700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>233700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>64700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>37200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>387200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>234300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>120600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>321900</v>
+        <v>241700</v>
       </c>
       <c r="E42" s="3">
+        <v>321700</v>
+      </c>
+      <c r="F42" s="3">
         <v>176600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>128700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>134200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>150700</v>
       </c>
-      <c r="I42" s="3">
-        <v>215900</v>
-      </c>
       <c r="J42" s="3">
+        <v>215800</v>
+      </c>
+      <c r="K42" s="3">
         <v>208000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>129400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>132600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>130800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>107000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>111100</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
       <c r="Q42" s="3">
         <v>0</v>
       </c>
@@ -2890,505 +2979,529 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>405100</v>
+        <v>510900</v>
       </c>
       <c r="E43" s="3">
-        <v>545600</v>
+        <v>404900</v>
       </c>
       <c r="F43" s="3">
-        <v>445900</v>
+        <v>545400</v>
       </c>
       <c r="G43" s="3">
-        <v>457700</v>
+        <v>445700</v>
       </c>
       <c r="H43" s="3">
-        <v>380700</v>
+        <v>457500</v>
       </c>
       <c r="I43" s="3">
-        <v>336000</v>
+        <v>380600</v>
       </c>
       <c r="J43" s="3">
+        <v>335900</v>
+      </c>
+      <c r="K43" s="3">
         <v>338400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>360200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>374700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>399700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>562700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>575400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>472300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>423100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>505100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>694300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>829000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>499400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>504700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>480900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>383300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>347200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>131100</v>
+      </c>
+      <c r="E44" s="3">
         <v>146000</v>
       </c>
-      <c r="E44" s="3">
-        <v>163300</v>
-      </c>
       <c r="F44" s="3">
-        <v>169600</v>
+        <v>163200</v>
       </c>
       <c r="G44" s="3">
+        <v>169500</v>
+      </c>
+      <c r="H44" s="3">
         <v>186800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>202500</v>
       </c>
-      <c r="I44" s="3">
-        <v>233200</v>
-      </c>
       <c r="J44" s="3">
+        <v>233100</v>
+      </c>
+      <c r="K44" s="3">
         <v>206500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>195700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>202300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>212500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>174000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>184200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>191800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>211500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>168600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>163000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>173400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>183800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>152100</v>
-      </c>
-      <c r="W44" s="3">
-        <v>163600</v>
       </c>
       <c r="X44" s="3">
         <v>163600</v>
       </c>
       <c r="Y44" s="3">
+        <v>163600</v>
+      </c>
+      <c r="Z44" s="3">
         <v>182800</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>97300</v>
+      </c>
+      <c r="E45" s="3">
         <v>93400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>94200</v>
       </c>
-      <c r="F45" s="3">
-        <v>167200</v>
-      </c>
       <c r="G45" s="3">
-        <v>162500</v>
+        <v>167100</v>
       </c>
       <c r="H45" s="3">
-        <v>146800</v>
+        <v>162400</v>
       </c>
       <c r="I45" s="3">
+        <v>146700</v>
+      </c>
+      <c r="J45" s="3">
         <v>50200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>54200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>39800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>252900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>55500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>43100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>60100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>199100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>173100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>170900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>180800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>173400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>206900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>255800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>315000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>227400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1814300</v>
+        <v>1724100</v>
       </c>
       <c r="E46" s="3">
-        <v>1483700</v>
+        <v>1813500</v>
       </c>
       <c r="F46" s="3">
-        <v>1420200</v>
+        <v>1483200</v>
       </c>
       <c r="G46" s="3">
-        <v>1493200</v>
+        <v>1419600</v>
       </c>
       <c r="H46" s="3">
-        <v>1092800</v>
+        <v>1492600</v>
       </c>
       <c r="I46" s="3">
-        <v>1037100</v>
+        <v>1092400</v>
       </c>
       <c r="J46" s="3">
+        <v>1036600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1072400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1045500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1232800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>963500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>970700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>998600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>932300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>900300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1092300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1271900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1240600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>927300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1299800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1193800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>895000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>828200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>230800</v>
+        <v>227600</v>
       </c>
       <c r="E47" s="3">
-        <v>234700</v>
+        <v>230700</v>
       </c>
       <c r="F47" s="3">
-        <v>248900</v>
+        <v>234600</v>
       </c>
       <c r="G47" s="3">
-        <v>257500</v>
+        <v>248800</v>
       </c>
       <c r="H47" s="3">
+        <v>257400</v>
+      </c>
+      <c r="I47" s="3">
         <v>128700</v>
       </c>
-      <c r="I47" s="3">
-        <v>131900</v>
-      </c>
       <c r="J47" s="3">
+        <v>131800</v>
+      </c>
+      <c r="K47" s="3">
         <v>135000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>137200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>148400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>145100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>144000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>145400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>142400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>152100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>157300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>160000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>171200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>500100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>535500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>552400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>554700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4152900</v>
+        <v>4249400</v>
       </c>
       <c r="E48" s="3">
-        <v>4487300</v>
+        <v>4151300</v>
       </c>
       <c r="F48" s="3">
-        <v>4545400</v>
+        <v>4485600</v>
       </c>
       <c r="G48" s="3">
-        <v>4681300</v>
+        <v>4543600</v>
       </c>
       <c r="H48" s="3">
-        <v>4738600</v>
+        <v>4679400</v>
       </c>
       <c r="I48" s="3">
-        <v>4778600</v>
+        <v>4736700</v>
       </c>
       <c r="J48" s="3">
+        <v>4776700</v>
+      </c>
+      <c r="K48" s="3">
         <v>4883000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4953200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4956900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4850900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4703600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4691400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4506200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4787000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4869800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4895400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4952000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4989200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5232400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5242400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5354600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5337700</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>566800</v>
+        <v>564200</v>
       </c>
       <c r="E49" s="3">
-        <v>576200</v>
+        <v>566600</v>
       </c>
       <c r="F49" s="3">
-        <v>588000</v>
+        <v>576000</v>
       </c>
       <c r="G49" s="3">
-        <v>609200</v>
+        <v>587800</v>
       </c>
       <c r="H49" s="3">
-        <v>621800</v>
+        <v>609000</v>
       </c>
       <c r="I49" s="3">
-        <v>632800</v>
+        <v>621500</v>
       </c>
       <c r="J49" s="3">
+        <v>632500</v>
+      </c>
+      <c r="K49" s="3">
         <v>610800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>609700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>654100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>654200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>643600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>637000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>585000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>612000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>618800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>615500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>617700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>600600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>623000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>629200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>630700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>551900</v>
+        <v>474800</v>
       </c>
       <c r="E52" s="3">
-        <v>570700</v>
+        <v>551700</v>
       </c>
       <c r="F52" s="3">
-        <v>591900</v>
+        <v>570500</v>
       </c>
       <c r="G52" s="3">
-        <v>610800</v>
+        <v>591700</v>
       </c>
       <c r="H52" s="3">
-        <v>664200</v>
+        <v>610500</v>
       </c>
       <c r="I52" s="3">
-        <v>775600</v>
+        <v>663900</v>
       </c>
       <c r="J52" s="3">
+        <v>775300</v>
+      </c>
+      <c r="K52" s="3">
         <v>711300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>667400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>685600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>681200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>719000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>703200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>680200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>770100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>761800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>725600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>729300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>736800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>797400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>829700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>745200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>739800</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7316700</v>
+        <v>7240000</v>
       </c>
       <c r="E54" s="3">
-        <v>7352800</v>
+        <v>7313800</v>
       </c>
       <c r="F54" s="3">
-        <v>7394400</v>
+        <v>7349900</v>
       </c>
       <c r="G54" s="3">
-        <v>7651900</v>
+        <v>7391500</v>
       </c>
       <c r="H54" s="3">
-        <v>7246000</v>
+        <v>7648900</v>
       </c>
       <c r="I54" s="3">
-        <v>7355900</v>
+        <v>7243200</v>
       </c>
       <c r="J54" s="3">
+        <v>7353000</v>
+      </c>
+      <c r="K54" s="3">
         <v>7412400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7413100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7677800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7295000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7180900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7175600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6846100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7221500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7500000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7668300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7710800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7753900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8488200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8447500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8180100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8100200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>607600</v>
+        <v>540700</v>
       </c>
       <c r="E57" s="3">
-        <v>456900</v>
+        <v>607400</v>
       </c>
       <c r="F57" s="3">
-        <v>490700</v>
+        <v>456700</v>
       </c>
       <c r="G57" s="3">
-        <v>470200</v>
+        <v>490500</v>
       </c>
       <c r="H57" s="3">
-        <v>399600</v>
+        <v>470100</v>
       </c>
       <c r="I57" s="3">
-        <v>314800</v>
+        <v>399400</v>
       </c>
       <c r="J57" s="3">
+        <v>314700</v>
+      </c>
+      <c r="K57" s="3">
         <v>324200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>322000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>296000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>288700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>352600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>378300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>346600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>319900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>373400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>442800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>380300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>313300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>351100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>317300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>283500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>229700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>662300</v>
+      </c>
+      <c r="E58" s="3">
         <v>93400</v>
       </c>
-      <c r="E58" s="3">
-        <v>90300</v>
-      </c>
       <c r="F58" s="3">
+        <v>90200</v>
+      </c>
+      <c r="G58" s="3">
         <v>87100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>82400</v>
       </c>
-      <c r="H58" s="3">
-        <v>402700</v>
-      </c>
       <c r="I58" s="3">
-        <v>402700</v>
+        <v>402600</v>
       </c>
       <c r="J58" s="3">
+        <v>402600</v>
+      </c>
+      <c r="K58" s="3">
         <v>403500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>85400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>83300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>80800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>112600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>95900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>77500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>105400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>555900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>686900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>701800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>484000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>490900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>452500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>455300</v>
+        <v>312300</v>
       </c>
       <c r="E59" s="3">
-        <v>290500</v>
+        <v>455100</v>
       </c>
       <c r="F59" s="3">
-        <v>157000</v>
+        <v>290400</v>
       </c>
       <c r="G59" s="3">
+        <v>156900</v>
+      </c>
+      <c r="H59" s="3">
         <v>181300</v>
       </c>
-      <c r="H59" s="3">
-        <v>168800</v>
-      </c>
       <c r="I59" s="3">
-        <v>185300</v>
+        <v>168700</v>
       </c>
       <c r="J59" s="3">
+        <v>185200</v>
+      </c>
+      <c r="K59" s="3">
         <v>167200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>148900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>228000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>181600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>162400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>173500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>133000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>159600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>203300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>198000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>94500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>105700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>117500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>126800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>218900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>553100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1156400</v>
+        <v>1515300</v>
       </c>
       <c r="E60" s="3">
-        <v>837600</v>
+        <v>1155900</v>
       </c>
       <c r="F60" s="3">
-        <v>734800</v>
+        <v>837300</v>
       </c>
       <c r="G60" s="3">
-        <v>734000</v>
+        <v>734500</v>
       </c>
       <c r="H60" s="3">
-        <v>971100</v>
+        <v>733700</v>
       </c>
       <c r="I60" s="3">
-        <v>902800</v>
+        <v>970700</v>
       </c>
       <c r="J60" s="3">
+        <v>902500</v>
+      </c>
+      <c r="K60" s="3">
         <v>895000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>870900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>609400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>553500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>595800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>664400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>575500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>557100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>682000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1196700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1161700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1120800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>952600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>934900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>954900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>904200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2907800</v>
+        <v>2478200</v>
       </c>
       <c r="E61" s="3">
-        <v>2911000</v>
+        <v>2906700</v>
       </c>
       <c r="F61" s="3">
-        <v>3003600</v>
+        <v>2909800</v>
       </c>
       <c r="G61" s="3">
-        <v>3129200</v>
+        <v>3002400</v>
       </c>
       <c r="H61" s="3">
-        <v>2260200</v>
+        <v>3128000</v>
       </c>
       <c r="I61" s="3">
-        <v>2298600</v>
+        <v>2259300</v>
       </c>
       <c r="J61" s="3">
+        <v>2297700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2348900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2358500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2667100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2590000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2465700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2373800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2217100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2291500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2462400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2202900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2126200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2128400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2822500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2859400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2714200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2710300</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1169700</v>
+        <v>1211600</v>
       </c>
       <c r="E62" s="3">
-        <v>1066100</v>
+        <v>1169300</v>
       </c>
       <c r="F62" s="3">
-        <v>1004900</v>
+        <v>1065700</v>
       </c>
       <c r="G62" s="3">
-        <v>1091200</v>
+        <v>1004500</v>
       </c>
       <c r="H62" s="3">
-        <v>1055100</v>
+        <v>1090800</v>
       </c>
       <c r="I62" s="3">
-        <v>1021400</v>
+        <v>1054700</v>
       </c>
       <c r="J62" s="3">
+        <v>1020900</v>
+      </c>
+      <c r="K62" s="3">
         <v>952300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1016700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1080300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1015900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1026900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>990900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>940300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1021500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1029100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1005400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1091800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1081300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1118500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1070900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1025600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>990200</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6037800</v>
+        <v>5998600</v>
       </c>
       <c r="E66" s="3">
-        <v>5631200</v>
+        <v>6035400</v>
       </c>
       <c r="F66" s="3">
-        <v>5557400</v>
+        <v>5628900</v>
       </c>
       <c r="G66" s="3">
-        <v>5805400</v>
+        <v>5555200</v>
       </c>
       <c r="H66" s="3">
-        <v>5155400</v>
+        <v>5803200</v>
       </c>
       <c r="I66" s="3">
-        <v>5061200</v>
+        <v>5153400</v>
       </c>
       <c r="J66" s="3">
+        <v>5059200</v>
+      </c>
+      <c r="K66" s="3">
         <v>5063600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5104500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5269400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5027700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4966100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4894600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4546200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4740300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4962400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5193100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5185700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5167100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5770900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5750200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5562000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5469000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,58 +4839,61 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>739200</v>
+      </c>
+      <c r="E70" s="3">
+        <v>739200</v>
+      </c>
+      <c r="F70" s="3">
+        <v>739200</v>
+      </c>
+      <c r="G70" s="3">
+        <v>739200</v>
+      </c>
+      <c r="H70" s="3">
+        <v>739200</v>
+      </c>
+      <c r="I70" s="3">
+        <v>739200</v>
+      </c>
+      <c r="J70" s="3">
+        <v>739200</v>
+      </c>
+      <c r="K70" s="3">
         <v>739500</v>
       </c>
-      <c r="E70" s="3">
-        <v>739500</v>
-      </c>
-      <c r="F70" s="3">
-        <v>739500</v>
-      </c>
-      <c r="G70" s="3">
-        <v>739500</v>
-      </c>
-      <c r="H70" s="3">
-        <v>739500</v>
-      </c>
-      <c r="I70" s="3">
-        <v>739500</v>
-      </c>
-      <c r="J70" s="3">
-        <v>739500</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>734400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>781000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>747000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>725200</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>716900</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>684500</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>709100</v>
       </c>
       <c r="R70" s="3">
         <v>709100</v>
       </c>
       <c r="S70" s="3">
-        <v>701000</v>
+        <v>709100</v>
       </c>
       <c r="T70" s="3">
         <v>701000</v>
@@ -4735,7 +4902,7 @@
         <v>701000</v>
       </c>
       <c r="V70" s="3">
-        <v>723700</v>
+        <v>701000</v>
       </c>
       <c r="W70" s="3">
         <v>723700</v>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>723700</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>723700</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1853500</v>
+        <v>-1925000</v>
       </c>
       <c r="E72" s="3">
-        <v>-1475900</v>
+        <v>-1852800</v>
       </c>
       <c r="F72" s="3">
-        <v>-1457100</v>
+        <v>-1475300</v>
       </c>
       <c r="G72" s="3">
-        <v>-1433500</v>
+        <v>-1456500</v>
       </c>
       <c r="H72" s="3">
-        <v>-1291400</v>
+        <v>-1432900</v>
       </c>
       <c r="I72" s="3">
-        <v>-1176800</v>
+        <v>-1290900</v>
       </c>
       <c r="J72" s="3">
+        <v>-1176300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1125000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1134400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1260200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1238700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1199400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1138600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-986100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-952300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-879300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-899700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-785900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-716700</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-716800</v>
       </c>
       <c r="W72" s="3">
         <v>-716800</v>
       </c>
       <c r="X72" s="3">
+        <v>-716800</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-775100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-756700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>539300</v>
+        <v>502200</v>
       </c>
       <c r="E76" s="3">
-        <v>982100</v>
+        <v>539100</v>
       </c>
       <c r="F76" s="3">
-        <v>1097500</v>
+        <v>981700</v>
       </c>
       <c r="G76" s="3">
-        <v>1106900</v>
+        <v>1097100</v>
       </c>
       <c r="H76" s="3">
-        <v>1351100</v>
+        <v>1106500</v>
       </c>
       <c r="I76" s="3">
-        <v>1555200</v>
+        <v>1350500</v>
       </c>
       <c r="J76" s="3">
+        <v>1554600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1609400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1574200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1627400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1520200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1489600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1564000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1615400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1772100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1828500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1774200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1824100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1885800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1993600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1973600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1894500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1907500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-358000</v>
+        <v>-61200</v>
       </c>
       <c r="E81" s="3">
+        <v>-357800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-9400</v>
       </c>
-      <c r="F81" s="3">
-        <v>-23600</v>
-      </c>
       <c r="G81" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="H81" s="3">
         <v>-131100</v>
       </c>
-      <c r="H81" s="3">
-        <v>-106800</v>
-      </c>
       <c r="I81" s="3">
+        <v>-106700</v>
+      </c>
+      <c r="J81" s="3">
         <v>-47100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>21200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>51500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>42300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-50000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-92900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-62500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-79000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>48900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-107900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-20100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-13400</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>46900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>154700</v>
+        <v>113800</v>
       </c>
       <c r="E83" s="3">
+        <v>154600</v>
+      </c>
+      <c r="F83" s="3">
         <v>135800</v>
       </c>
-      <c r="F83" s="3">
-        <v>160200</v>
-      </c>
       <c r="G83" s="3">
+        <v>160100</v>
+      </c>
+      <c r="H83" s="3">
         <v>181300</v>
       </c>
-      <c r="H83" s="3">
-        <v>153100</v>
-      </c>
       <c r="I83" s="3">
-        <v>147600</v>
+        <v>153000</v>
       </c>
       <c r="J83" s="3">
+        <v>147500</v>
+      </c>
+      <c r="K83" s="3">
         <v>144400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>144200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>146700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>137200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>133900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>142300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>130800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>137000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>121200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>148100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>131000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>128700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>122900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>158300</v>
-      </c>
-      <c r="X83" s="3">
-        <v>123700</v>
       </c>
       <c r="Y83" s="3">
         <v>123700</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>123700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>478900</v>
+        <v>42400</v>
       </c>
       <c r="E89" s="3">
+        <v>478700</v>
+      </c>
+      <c r="F89" s="3">
         <v>62800</v>
       </c>
-      <c r="F89" s="3">
-        <v>201800</v>
-      </c>
       <c r="G89" s="3">
-        <v>86400</v>
+        <v>201700</v>
       </c>
       <c r="H89" s="3">
-        <v>201800</v>
+        <v>86300</v>
       </c>
       <c r="I89" s="3">
+        <v>201700</v>
+      </c>
+      <c r="J89" s="3">
         <v>95000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>168000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>141100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>271900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>204600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>63100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>100500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>115500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>78300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>319900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>60300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>149600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>46900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>215900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>93700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>175200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>91400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-106700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-99700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-93400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-76900</v>
       </c>
-      <c r="G91" s="3">
-        <v>-164900</v>
-      </c>
       <c r="H91" s="3">
-        <v>-101300</v>
+        <v>-164800</v>
       </c>
       <c r="I91" s="3">
+        <v>-101200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-58900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-56500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-138000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-79600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-87200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-26200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-76900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-67600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-45200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-53600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-81100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-72200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-49200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-83700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-76800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-62200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-211900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-63600</v>
       </c>
-      <c r="E94" s="3">
-        <v>-7900</v>
-      </c>
       <c r="F94" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="G94" s="3">
         <v>-87100</v>
       </c>
-      <c r="G94" s="3">
-        <v>-250400</v>
-      </c>
       <c r="H94" s="3">
+        <v>-250300</v>
+      </c>
+      <c r="I94" s="3">
         <v>-128700</v>
       </c>
-      <c r="I94" s="3">
-        <v>-85600</v>
-      </c>
       <c r="J94" s="3">
+        <v>-85500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-74600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-148900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-75400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-140400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-40800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-76100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-98100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-79800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-39900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>224000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-107900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-55100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>3800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-65300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-76100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-58400</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,16 +6484,17 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-10200</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-9400</v>
       </c>
       <c r="F96" s="3">
         <v>-9400</v>
@@ -6276,55 +6509,58 @@
         <v>-9400</v>
       </c>
       <c r="J96" s="3">
-        <v>-8600</v>
+        <v>-9400</v>
       </c>
       <c r="K96" s="3">
         <v>-8600</v>
       </c>
       <c r="L96" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="M96" s="3">
         <v>-9100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-9500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-8500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-9100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-8300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-9000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-8200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-8900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-9200</v>
       </c>
       <c r="W96" s="3">
         <v>-9200</v>
       </c>
       <c r="X96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-71400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-57300</v>
       </c>
-      <c r="F100" s="3">
-        <v>-157000</v>
-      </c>
       <c r="G100" s="3">
-        <v>503200</v>
+        <v>-156900</v>
       </c>
       <c r="H100" s="3">
+        <v>503000</v>
+      </c>
+      <c r="I100" s="3">
         <v>-62000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-73800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-153900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>74100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-98700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>15100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-28900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-37100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-154300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-268700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-115400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-13400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-328900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-67600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>86000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-49900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>800</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
       <c r="T101" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="U101" s="3">
         <v>-700</v>
       </c>
       <c r="V101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W101" s="3">
         <v>800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-800</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>343900</v>
+        <v>-104400</v>
       </c>
       <c r="E102" s="3">
+        <v>343700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-43200</v>
       </c>
-      <c r="G102" s="3">
-        <v>339900</v>
-      </c>
       <c r="H102" s="3">
+        <v>339800</v>
+      </c>
+      <c r="I102" s="3">
         <v>10200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-63600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-57300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>66300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>97800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>78500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>15400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-155100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>168900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>27500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-337900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>152900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>113700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>49200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>48400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>TAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>478700</v>
+        <v>563500</v>
       </c>
       <c r="E8" s="3">
-        <v>667000</v>
+        <v>467700</v>
       </c>
       <c r="F8" s="3">
-        <v>485800</v>
+        <v>651600</v>
       </c>
       <c r="G8" s="3">
-        <v>503800</v>
+        <v>474600</v>
       </c>
       <c r="H8" s="3">
-        <v>426900</v>
+        <v>492200</v>
       </c>
       <c r="I8" s="3">
-        <v>403400</v>
+        <v>417100</v>
       </c>
       <c r="J8" s="3">
+        <v>394100</v>
+      </c>
+      <c r="K8" s="3">
         <v>342900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>475700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>474800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>491600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>394100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>498800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>473400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>430900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>335700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>442600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>474800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>437600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>374300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>444000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>550800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>476300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>244100</v>
+        <v>197000</v>
       </c>
       <c r="E9" s="3">
-        <v>293500</v>
+        <v>238400</v>
       </c>
       <c r="F9" s="3">
-        <v>199300</v>
+        <v>286700</v>
       </c>
       <c r="G9" s="3">
-        <v>229900</v>
+        <v>194700</v>
       </c>
       <c r="H9" s="3">
-        <v>256600</v>
+        <v>224600</v>
       </c>
       <c r="I9" s="3">
-        <v>197800</v>
+        <v>250700</v>
       </c>
       <c r="J9" s="3">
+        <v>193200</v>
+      </c>
+      <c r="K9" s="3">
         <v>118500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>186800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>322000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>307600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>243500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>361800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>361500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>311000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>227300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>308600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>326000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>307400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>228500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>288100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>311100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>322700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>234600</v>
+        <v>366500</v>
       </c>
       <c r="E10" s="3">
-        <v>373500</v>
+        <v>229200</v>
       </c>
       <c r="F10" s="3">
-        <v>286400</v>
+        <v>364900</v>
       </c>
       <c r="G10" s="3">
-        <v>273900</v>
+        <v>279800</v>
       </c>
       <c r="H10" s="3">
-        <v>170300</v>
+        <v>267600</v>
       </c>
       <c r="I10" s="3">
-        <v>205600</v>
+        <v>166400</v>
       </c>
       <c r="J10" s="3">
+        <v>200900</v>
+      </c>
+      <c r="K10" s="3">
         <v>224400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>288900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>152800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>184000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>150700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>137000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>111900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>119900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>108400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>134000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>148800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>130200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>145900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>156000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>239700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>153600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>150600</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,156 +1183,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>22000</v>
+        <v>-32200</v>
       </c>
       <c r="E14" s="3">
-        <v>451200</v>
+        <v>21500</v>
       </c>
       <c r="F14" s="3">
-        <v>12600</v>
+        <v>440800</v>
       </c>
       <c r="G14" s="3">
-        <v>22800</v>
+        <v>12300</v>
       </c>
       <c r="H14" s="3">
-        <v>13300</v>
+        <v>22200</v>
       </c>
       <c r="I14" s="3">
-        <v>59600</v>
+        <v>13000</v>
       </c>
       <c r="J14" s="3">
+        <v>58300</v>
+      </c>
+      <c r="K14" s="3">
         <v>25100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-32200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>36600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-18200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>17500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>41400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3800</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>4500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>14900</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>21500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>800</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>105200</v>
+        <v>89700</v>
       </c>
       <c r="E15" s="3">
-        <v>96500</v>
+        <v>102700</v>
       </c>
       <c r="F15" s="3">
-        <v>96500</v>
+        <v>94300</v>
       </c>
       <c r="G15" s="3">
-        <v>116900</v>
+        <v>94300</v>
       </c>
       <c r="H15" s="3">
-        <v>135800</v>
+        <v>114200</v>
       </c>
       <c r="I15" s="3">
-        <v>127100</v>
+        <v>132600</v>
       </c>
       <c r="J15" s="3">
+        <v>124200</v>
+      </c>
+      <c r="K15" s="3">
         <v>127900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>122500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>120100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>122700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>113400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>111600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>115700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>106100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>109900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>97900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>134000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>117600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>114600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>109900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>143700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>111400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>112900</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>459100</v>
+        <v>333500</v>
       </c>
       <c r="E17" s="3">
-        <v>988000</v>
+        <v>448500</v>
       </c>
       <c r="F17" s="3">
-        <v>424500</v>
+        <v>965200</v>
       </c>
       <c r="G17" s="3">
-        <v>451200</v>
+        <v>414800</v>
       </c>
       <c r="H17" s="3">
-        <v>519500</v>
+        <v>440800</v>
       </c>
       <c r="I17" s="3">
-        <v>472400</v>
+        <v>507500</v>
       </c>
       <c r="J17" s="3">
+        <v>461500</v>
+      </c>
+      <c r="K17" s="3">
         <v>357800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>376800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>402300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>363100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>353700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>471100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>493200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>452000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>344800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>289800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>451000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>427200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>356500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>396400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>333400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>440200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>19600</v>
+        <v>230000</v>
       </c>
       <c r="E18" s="3">
-        <v>-321000</v>
+        <v>19200</v>
       </c>
       <c r="F18" s="3">
-        <v>61200</v>
+        <v>-313600</v>
       </c>
       <c r="G18" s="3">
-        <v>52600</v>
+        <v>59800</v>
       </c>
       <c r="H18" s="3">
-        <v>-92600</v>
+        <v>51400</v>
       </c>
       <c r="I18" s="3">
-        <v>-69100</v>
+        <v>-90500</v>
       </c>
       <c r="J18" s="3">
+        <v>-67500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-14900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>98900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>72500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>128500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>40400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>27700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-21100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>152800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>23800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>17900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>47600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>217400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>36100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5500</v>
+        <v>-7700</v>
       </c>
       <c r="E20" s="3">
-        <v>15700</v>
+        <v>-5400</v>
       </c>
       <c r="F20" s="3">
-        <v>31400</v>
+        <v>15300</v>
       </c>
       <c r="G20" s="3">
-        <v>3900</v>
+        <v>30700</v>
       </c>
       <c r="H20" s="3">
-        <v>1600</v>
+        <v>3800</v>
       </c>
       <c r="I20" s="3">
-        <v>3900</v>
+        <v>1500</v>
       </c>
       <c r="J20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K20" s="3">
         <v>11800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-22800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>74100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-18200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-22200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-9400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>8200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>9700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>18400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>15400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>127900</v>
+        <v>312000</v>
       </c>
       <c r="E21" s="3">
-        <v>-150700</v>
+        <v>125000</v>
       </c>
       <c r="F21" s="3">
-        <v>228400</v>
+        <v>-147200</v>
       </c>
       <c r="G21" s="3">
-        <v>216600</v>
+        <v>223100</v>
       </c>
       <c r="H21" s="3">
-        <v>90200</v>
+        <v>211600</v>
       </c>
       <c r="I21" s="3">
-        <v>87900</v>
+        <v>88200</v>
       </c>
       <c r="J21" s="3">
+        <v>85900</v>
+      </c>
+      <c r="K21" s="3">
         <v>144400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>220600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>290800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>257000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>155400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>155500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>117200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>100300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>122000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>269500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>180100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>137700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>156300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>175200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>394100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>175200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>39200</v>
+        <v>36800</v>
       </c>
       <c r="E22" s="3">
-        <v>40800</v>
+        <v>38300</v>
       </c>
       <c r="F22" s="3">
-        <v>36100</v>
+        <v>39900</v>
       </c>
       <c r="G22" s="3">
+        <v>35300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>39100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>39900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K22" s="3">
+        <v>37700</v>
+      </c>
+      <c r="L22" s="3">
         <v>40000</v>
       </c>
-      <c r="H22" s="3">
-        <v>40800</v>
-      </c>
-      <c r="I22" s="3">
-        <v>36100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>37700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>40000</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>35100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>38100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>37300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>31600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>32000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>33400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>39900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>42900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>40200</v>
-      </c>
-      <c r="U22" s="3">
-        <v>38700</v>
       </c>
       <c r="V22" s="3">
         <v>38700</v>
       </c>
       <c r="W22" s="3">
+        <v>38700</v>
+      </c>
+      <c r="X22" s="3">
         <v>40700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>41500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>42300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-25100</v>
+        <v>185500</v>
       </c>
       <c r="E23" s="3">
-        <v>-346100</v>
+        <v>-24500</v>
       </c>
       <c r="F23" s="3">
-        <v>56500</v>
+        <v>-338100</v>
       </c>
       <c r="G23" s="3">
-        <v>16500</v>
+        <v>55200</v>
       </c>
       <c r="H23" s="3">
-        <v>-131800</v>
+        <v>16100</v>
       </c>
       <c r="I23" s="3">
-        <v>-101200</v>
+        <v>-128800</v>
       </c>
       <c r="J23" s="3">
+        <v>-98900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-40800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>36100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>111500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>72100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-19000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-57100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-63900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-55000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>105400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-8200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-32000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-11200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>11500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>194400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>9200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2400</v>
+        <v>27600</v>
       </c>
       <c r="E24" s="3">
-        <v>-17300</v>
+        <v>2300</v>
       </c>
       <c r="F24" s="3">
-        <v>34500</v>
+        <v>-16900</v>
       </c>
       <c r="G24" s="3">
-        <v>15700</v>
+        <v>33700</v>
       </c>
       <c r="H24" s="3">
-        <v>-19600</v>
+        <v>15300</v>
       </c>
       <c r="I24" s="3">
-        <v>-7800</v>
+        <v>-19200</v>
       </c>
       <c r="J24" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-13300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>31200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-39700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-15300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>27900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>78100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-3700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-14100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-13100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>63000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>157900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-321200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>21500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-109600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-27500</v>
       </c>
-      <c r="E26" s="3">
-        <v>-328800</v>
-      </c>
-      <c r="F26" s="3">
-        <v>22000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-112200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-93400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-27500</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>34500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>80300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>63800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>20600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-23100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-44900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-48700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-50400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>77500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-86300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-28300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>24600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>131400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>10800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-61200</v>
+        <v>142600</v>
       </c>
       <c r="E27" s="3">
-        <v>-357800</v>
+        <v>-59800</v>
       </c>
       <c r="F27" s="3">
-        <v>-9400</v>
+        <v>-349600</v>
       </c>
       <c r="G27" s="3">
-        <v>-23500</v>
+        <v>-9200</v>
       </c>
       <c r="H27" s="3">
-        <v>-131100</v>
+        <v>-23000</v>
       </c>
       <c r="I27" s="3">
-        <v>-106700</v>
+        <v>-128000</v>
       </c>
       <c r="J27" s="3">
+        <v>-104300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-47100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>51500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>42300</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-50000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-92900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-62500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-79000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>48900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-107900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-20100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-13400</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>46900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-9200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5500</v>
+        <v>7700</v>
       </c>
       <c r="E32" s="3">
-        <v>-15700</v>
+        <v>5400</v>
       </c>
       <c r="F32" s="3">
-        <v>-31400</v>
+        <v>-15300</v>
       </c>
       <c r="G32" s="3">
-        <v>-3900</v>
+        <v>-30700</v>
       </c>
       <c r="H32" s="3">
-        <v>-1600</v>
+        <v>-3800</v>
       </c>
       <c r="I32" s="3">
-        <v>-3900</v>
+        <v>-1500</v>
       </c>
       <c r="J32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>22800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-74100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>18200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>22200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>9400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-8200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-9700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-18400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-15400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-61200</v>
+        <v>142600</v>
       </c>
       <c r="E33" s="3">
-        <v>-357800</v>
+        <v>-59800</v>
       </c>
       <c r="F33" s="3">
-        <v>-9400</v>
+        <v>-349600</v>
       </c>
       <c r="G33" s="3">
-        <v>-23500</v>
+        <v>-9200</v>
       </c>
       <c r="H33" s="3">
-        <v>-131100</v>
+        <v>-23000</v>
       </c>
       <c r="I33" s="3">
-        <v>-106700</v>
+        <v>-128000</v>
       </c>
       <c r="J33" s="3">
+        <v>-104300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-47100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>51500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>42300</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-50000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-92900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-62500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-79000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>48900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-107900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-20100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-13400</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>46900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-9200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-61200</v>
+        <v>142600</v>
       </c>
       <c r="E35" s="3">
-        <v>-357800</v>
+        <v>-59800</v>
       </c>
       <c r="F35" s="3">
-        <v>-9400</v>
+        <v>-349600</v>
       </c>
       <c r="G35" s="3">
-        <v>-23500</v>
+        <v>-9200</v>
       </c>
       <c r="H35" s="3">
-        <v>-131100</v>
+        <v>-23000</v>
       </c>
       <c r="I35" s="3">
-        <v>-106700</v>
+        <v>-128000</v>
       </c>
       <c r="J35" s="3">
+        <v>-104300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-47100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>51500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>42300</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-50000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-92900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-62500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-79000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>48900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-107900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-20100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-13400</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>46900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-9200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,127 +2920,131 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>743100</v>
+        <v>936100</v>
       </c>
       <c r="E41" s="3">
-        <v>847500</v>
+        <v>726000</v>
       </c>
       <c r="F41" s="3">
-        <v>503800</v>
+        <v>828000</v>
       </c>
       <c r="G41" s="3">
-        <v>508500</v>
+        <v>492200</v>
       </c>
       <c r="H41" s="3">
-        <v>551700</v>
+        <v>496800</v>
       </c>
       <c r="I41" s="3">
-        <v>211900</v>
+        <v>538900</v>
       </c>
       <c r="J41" s="3">
+        <v>207000</v>
+      </c>
+      <c r="K41" s="3">
         <v>201700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>265300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>320400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>270300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>164900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>83900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>67700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>69000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>92600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>247700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>233700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>64700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>37200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>387200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>234300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>120600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>241700</v>
+        <v>394100</v>
       </c>
       <c r="E42" s="3">
-        <v>321700</v>
+        <v>236100</v>
       </c>
       <c r="F42" s="3">
-        <v>176600</v>
+        <v>314300</v>
       </c>
       <c r="G42" s="3">
-        <v>128700</v>
+        <v>172500</v>
       </c>
       <c r="H42" s="3">
-        <v>134200</v>
+        <v>125700</v>
       </c>
       <c r="I42" s="3">
-        <v>150700</v>
+        <v>131100</v>
       </c>
       <c r="J42" s="3">
+        <v>147200</v>
+      </c>
+      <c r="K42" s="3">
         <v>215800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>208000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>129400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>132600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>130800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>107000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>111100</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
       <c r="R42" s="3">
         <v>0</v>
       </c>
@@ -2982,526 +3072,550 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>510900</v>
+        <v>415500</v>
       </c>
       <c r="E43" s="3">
-        <v>404900</v>
+        <v>499100</v>
       </c>
       <c r="F43" s="3">
-        <v>545400</v>
+        <v>395600</v>
       </c>
       <c r="G43" s="3">
-        <v>445700</v>
+        <v>532800</v>
       </c>
       <c r="H43" s="3">
-        <v>457500</v>
+        <v>435500</v>
       </c>
       <c r="I43" s="3">
-        <v>380600</v>
+        <v>447000</v>
       </c>
       <c r="J43" s="3">
+        <v>371800</v>
+      </c>
+      <c r="K43" s="3">
         <v>335900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>338400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>360200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>374700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>399700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>562700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>575400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>472300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>423100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>505100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>694300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>829000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>499400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>504700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>480900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>383300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>347200</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>131100</v>
+        <v>118100</v>
       </c>
       <c r="E44" s="3">
-        <v>146000</v>
+        <v>128000</v>
       </c>
       <c r="F44" s="3">
-        <v>163200</v>
+        <v>142600</v>
       </c>
       <c r="G44" s="3">
-        <v>169500</v>
+        <v>159500</v>
       </c>
       <c r="H44" s="3">
-        <v>186800</v>
+        <v>165600</v>
       </c>
       <c r="I44" s="3">
-        <v>202500</v>
+        <v>182500</v>
       </c>
       <c r="J44" s="3">
+        <v>197800</v>
+      </c>
+      <c r="K44" s="3">
         <v>233100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>206500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>195700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>202300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>212500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>174000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>184200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>191800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>211500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>168600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>163000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>173400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>183800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>152100</v>
-      </c>
-      <c r="X44" s="3">
-        <v>163600</v>
       </c>
       <c r="Y44" s="3">
         <v>163600</v>
       </c>
       <c r="Z44" s="3">
+        <v>163600</v>
+      </c>
+      <c r="AA44" s="3">
         <v>182800</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>97300</v>
+        <v>95800</v>
       </c>
       <c r="E45" s="3">
-        <v>93400</v>
+        <v>95100</v>
       </c>
       <c r="F45" s="3">
-        <v>94200</v>
+        <v>91200</v>
       </c>
       <c r="G45" s="3">
-        <v>167100</v>
+        <v>92000</v>
       </c>
       <c r="H45" s="3">
-        <v>162400</v>
+        <v>163300</v>
       </c>
       <c r="I45" s="3">
-        <v>146700</v>
+        <v>158700</v>
       </c>
       <c r="J45" s="3">
+        <v>143400</v>
+      </c>
+      <c r="K45" s="3">
         <v>50200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>54200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>39800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>252900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>55500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>43100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>60100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>199100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>173100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>170900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>180800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>173400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>206900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>255800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>315000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>227400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1724100</v>
+        <v>1959500</v>
       </c>
       <c r="E46" s="3">
-        <v>1813500</v>
+        <v>1684300</v>
       </c>
       <c r="F46" s="3">
-        <v>1483200</v>
+        <v>1771700</v>
       </c>
       <c r="G46" s="3">
-        <v>1419600</v>
+        <v>1448900</v>
       </c>
       <c r="H46" s="3">
-        <v>1492600</v>
+        <v>1386900</v>
       </c>
       <c r="I46" s="3">
-        <v>1092400</v>
+        <v>1458100</v>
       </c>
       <c r="J46" s="3">
+        <v>1067200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1036600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1072400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1045500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1232800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>963500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>970700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>998600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>932300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>900300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1092300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1271900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1240600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>927300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1299800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1193800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>895000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>828200</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>227600</v>
+        <v>213100</v>
       </c>
       <c r="E47" s="3">
-        <v>230700</v>
+        <v>222300</v>
       </c>
       <c r="F47" s="3">
-        <v>234600</v>
+        <v>225400</v>
       </c>
       <c r="G47" s="3">
-        <v>248800</v>
+        <v>229200</v>
       </c>
       <c r="H47" s="3">
-        <v>257400</v>
+        <v>243000</v>
       </c>
       <c r="I47" s="3">
-        <v>128700</v>
+        <v>251500</v>
       </c>
       <c r="J47" s="3">
+        <v>125700</v>
+      </c>
+      <c r="K47" s="3">
         <v>131800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>135000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>137200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>148400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>145100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>144000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>145400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>142400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>152100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>157300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>160000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>171200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>500100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>535500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>552400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>554700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4249400</v>
+        <v>4050900</v>
       </c>
       <c r="E48" s="3">
-        <v>4151300</v>
+        <v>4151400</v>
       </c>
       <c r="F48" s="3">
-        <v>4485600</v>
+        <v>4055500</v>
       </c>
       <c r="G48" s="3">
-        <v>4543600</v>
+        <v>4382100</v>
       </c>
       <c r="H48" s="3">
-        <v>4679400</v>
+        <v>4438800</v>
       </c>
       <c r="I48" s="3">
-        <v>4736700</v>
+        <v>4571500</v>
       </c>
       <c r="J48" s="3">
+        <v>4627400</v>
+      </c>
+      <c r="K48" s="3">
         <v>4776700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4883000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4953200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4956900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4850900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4703600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4691400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4506200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4787000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4869800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4895400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4952000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4989200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5232400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5242400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5354600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5337700</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>564200</v>
+        <v>558100</v>
       </c>
       <c r="E49" s="3">
-        <v>566600</v>
+        <v>551200</v>
       </c>
       <c r="F49" s="3">
-        <v>576000</v>
+        <v>553500</v>
       </c>
       <c r="G49" s="3">
-        <v>587800</v>
+        <v>562700</v>
       </c>
       <c r="H49" s="3">
-        <v>609000</v>
+        <v>574200</v>
       </c>
       <c r="I49" s="3">
-        <v>621500</v>
+        <v>594900</v>
       </c>
       <c r="J49" s="3">
+        <v>607200</v>
+      </c>
+      <c r="K49" s="3">
         <v>632500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>610800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>609700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>654100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>654200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>643600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>637000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>585000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>612000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>618800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>615500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>617700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>600600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>623000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>629200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>630700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>474800</v>
+        <v>443900</v>
       </c>
       <c r="E52" s="3">
-        <v>551700</v>
+        <v>463800</v>
       </c>
       <c r="F52" s="3">
-        <v>570500</v>
+        <v>538900</v>
       </c>
       <c r="G52" s="3">
-        <v>591700</v>
+        <v>557300</v>
       </c>
       <c r="H52" s="3">
-        <v>610500</v>
+        <v>578000</v>
       </c>
       <c r="I52" s="3">
-        <v>663900</v>
+        <v>596400</v>
       </c>
       <c r="J52" s="3">
+        <v>648600</v>
+      </c>
+      <c r="K52" s="3">
         <v>775300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>711300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>667400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>685600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>681200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>719000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>703200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>680200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>770100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>761800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>725600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>729300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>736800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>797400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>829700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>745200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>739800</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7240000</v>
+        <v>7225600</v>
       </c>
       <c r="E54" s="3">
-        <v>7313800</v>
+        <v>7073000</v>
       </c>
       <c r="F54" s="3">
-        <v>7349900</v>
+        <v>7145100</v>
       </c>
       <c r="G54" s="3">
-        <v>7391500</v>
+        <v>7180400</v>
       </c>
       <c r="H54" s="3">
-        <v>7648900</v>
+        <v>7221000</v>
       </c>
       <c r="I54" s="3">
-        <v>7243200</v>
+        <v>7472400</v>
       </c>
       <c r="J54" s="3">
+        <v>7076100</v>
+      </c>
+      <c r="K54" s="3">
         <v>7353000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7412400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7413100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7677800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7295000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7180900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7175600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6846100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7221500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7500000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7668300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7710800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7753900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8488200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8447500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8180100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8100200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>540700</v>
+        <v>644700</v>
       </c>
       <c r="E57" s="3">
-        <v>607400</v>
+        <v>528200</v>
       </c>
       <c r="F57" s="3">
-        <v>456700</v>
+        <v>593400</v>
       </c>
       <c r="G57" s="3">
-        <v>490500</v>
+        <v>446200</v>
       </c>
       <c r="H57" s="3">
-        <v>470100</v>
+        <v>479200</v>
       </c>
       <c r="I57" s="3">
-        <v>399400</v>
+        <v>459200</v>
       </c>
       <c r="J57" s="3">
+        <v>390200</v>
+      </c>
+      <c r="K57" s="3">
         <v>314700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>324200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>322000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>296000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>288700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>352600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>378300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>346600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>319900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>373400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>442800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>380300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>313300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>351100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>317300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>283500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>229700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>662300</v>
+        <v>637800</v>
       </c>
       <c r="E58" s="3">
-        <v>93400</v>
+        <v>647000</v>
       </c>
       <c r="F58" s="3">
-        <v>90200</v>
+        <v>91200</v>
       </c>
       <c r="G58" s="3">
-        <v>87100</v>
+        <v>88200</v>
       </c>
       <c r="H58" s="3">
-        <v>82400</v>
+        <v>85100</v>
       </c>
       <c r="I58" s="3">
+        <v>80500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>393300</v>
+      </c>
+      <c r="K58" s="3">
         <v>402600</v>
       </c>
-      <c r="J58" s="3">
-        <v>402600</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>403500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>85400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>83300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>80800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>112600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>95900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>77500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>105400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>555900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>686900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>701800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>484000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>490900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>452500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>312300</v>
+        <v>438500</v>
       </c>
       <c r="E59" s="3">
-        <v>455100</v>
+        <v>305100</v>
       </c>
       <c r="F59" s="3">
-        <v>290400</v>
+        <v>444700</v>
       </c>
       <c r="G59" s="3">
-        <v>156900</v>
+        <v>283700</v>
       </c>
       <c r="H59" s="3">
-        <v>181300</v>
+        <v>153300</v>
       </c>
       <c r="I59" s="3">
-        <v>168700</v>
+        <v>177100</v>
       </c>
       <c r="J59" s="3">
+        <v>164800</v>
+      </c>
+      <c r="K59" s="3">
         <v>185200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>167200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>148900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>228000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>181600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>162400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>173500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>133000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>159600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>203300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>198000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>94500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>105700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>117500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>126800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>218900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>553100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1515300</v>
+        <v>1721100</v>
       </c>
       <c r="E60" s="3">
-        <v>1155900</v>
+        <v>1480400</v>
       </c>
       <c r="F60" s="3">
-        <v>837300</v>
+        <v>1129300</v>
       </c>
       <c r="G60" s="3">
-        <v>734500</v>
+        <v>818000</v>
       </c>
       <c r="H60" s="3">
-        <v>733700</v>
+        <v>717600</v>
       </c>
       <c r="I60" s="3">
-        <v>970700</v>
+        <v>716800</v>
       </c>
       <c r="J60" s="3">
+        <v>948300</v>
+      </c>
+      <c r="K60" s="3">
         <v>902500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>895000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>870900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>609400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>553500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>595800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>664400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>575500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>557100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>682000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1196700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1161700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1120800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>952600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>934900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>954900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>904200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2478200</v>
+        <v>2397300</v>
       </c>
       <c r="E61" s="3">
-        <v>2906700</v>
+        <v>2421000</v>
       </c>
       <c r="F61" s="3">
-        <v>2909800</v>
+        <v>2839600</v>
       </c>
       <c r="G61" s="3">
-        <v>3002400</v>
+        <v>2842700</v>
       </c>
       <c r="H61" s="3">
-        <v>3128000</v>
+        <v>2933200</v>
       </c>
       <c r="I61" s="3">
-        <v>2259300</v>
+        <v>3055800</v>
       </c>
       <c r="J61" s="3">
+        <v>2207200</v>
+      </c>
+      <c r="K61" s="3">
         <v>2297700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2348900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2358500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2667100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2590000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2465700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2373800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2217100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2291500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2462400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2202900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2126200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2128400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2822500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2859400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2714200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2710300</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1211600</v>
+        <v>1083300</v>
       </c>
       <c r="E62" s="3">
-        <v>1169300</v>
+        <v>1183700</v>
       </c>
       <c r="F62" s="3">
-        <v>1065700</v>
+        <v>1142300</v>
       </c>
       <c r="G62" s="3">
-        <v>1004500</v>
+        <v>1041100</v>
       </c>
       <c r="H62" s="3">
-        <v>1090800</v>
+        <v>981300</v>
       </c>
       <c r="I62" s="3">
-        <v>1054700</v>
+        <v>1065600</v>
       </c>
       <c r="J62" s="3">
+        <v>1030400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1020900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>952300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1016700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1080300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1015900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1026900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>990900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>940300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1021500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1029100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1005400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1091800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1081300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1118500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1070900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1025600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>990200</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5998600</v>
+        <v>5926100</v>
       </c>
       <c r="E66" s="3">
-        <v>6035400</v>
+        <v>5860200</v>
       </c>
       <c r="F66" s="3">
-        <v>5628900</v>
+        <v>5896200</v>
       </c>
       <c r="G66" s="3">
-        <v>5555200</v>
+        <v>5499100</v>
       </c>
       <c r="H66" s="3">
-        <v>5803200</v>
+        <v>5427000</v>
       </c>
       <c r="I66" s="3">
-        <v>5153400</v>
+        <v>5669300</v>
       </c>
       <c r="J66" s="3">
+        <v>5034500</v>
+      </c>
+      <c r="K66" s="3">
         <v>5059200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5063600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5104500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5269400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5027700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4966100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4894600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4546200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4740300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4962400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5193100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5185700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5167100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5770900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5750200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5562000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5469000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,61 +5007,64 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>722200</v>
+      </c>
+      <c r="E70" s="3">
+        <v>722200</v>
+      </c>
+      <c r="F70" s="3">
+        <v>722200</v>
+      </c>
+      <c r="G70" s="3">
+        <v>722200</v>
+      </c>
+      <c r="H70" s="3">
+        <v>722200</v>
+      </c>
+      <c r="I70" s="3">
+        <v>722200</v>
+      </c>
+      <c r="J70" s="3">
+        <v>722200</v>
+      </c>
+      <c r="K70" s="3">
         <v>739200</v>
       </c>
-      <c r="E70" s="3">
-        <v>739200</v>
-      </c>
-      <c r="F70" s="3">
-        <v>739200</v>
-      </c>
-      <c r="G70" s="3">
-        <v>739200</v>
-      </c>
-      <c r="H70" s="3">
-        <v>739200</v>
-      </c>
-      <c r="I70" s="3">
-        <v>739200</v>
-      </c>
-      <c r="J70" s="3">
-        <v>739200</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>739500</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>734400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>781000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>747000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>725200</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>716900</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>684500</v>
-      </c>
-      <c r="R70" s="3">
-        <v>709100</v>
       </c>
       <c r="S70" s="3">
         <v>709100</v>
       </c>
       <c r="T70" s="3">
-        <v>701000</v>
+        <v>709100</v>
       </c>
       <c r="U70" s="3">
         <v>701000</v>
@@ -4905,7 +5073,7 @@
         <v>701000</v>
       </c>
       <c r="W70" s="3">
-        <v>723700</v>
+        <v>701000</v>
       </c>
       <c r="X70" s="3">
         <v>723700</v>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>723700</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>723700</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1925000</v>
+        <v>-1740300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1852800</v>
+        <v>-1880600</v>
       </c>
       <c r="F72" s="3">
-        <v>-1475300</v>
+        <v>-1810000</v>
       </c>
       <c r="G72" s="3">
-        <v>-1456500</v>
+        <v>-1441300</v>
       </c>
       <c r="H72" s="3">
-        <v>-1432900</v>
+        <v>-1422900</v>
       </c>
       <c r="I72" s="3">
-        <v>-1290900</v>
+        <v>-1399900</v>
       </c>
       <c r="J72" s="3">
+        <v>-1261100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1176300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1125000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1134400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1260200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1238700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1199400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1138600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-986100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-952300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-879300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-899700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-785900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-716700</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-716800</v>
       </c>
       <c r="X72" s="3">
         <v>-716800</v>
       </c>
       <c r="Y72" s="3">
+        <v>-716800</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-775100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-756700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>502200</v>
+        <v>577300</v>
       </c>
       <c r="E76" s="3">
-        <v>539100</v>
+        <v>490600</v>
       </c>
       <c r="F76" s="3">
-        <v>981700</v>
+        <v>526700</v>
       </c>
       <c r="G76" s="3">
-        <v>1097100</v>
+        <v>959100</v>
       </c>
       <c r="H76" s="3">
-        <v>1106500</v>
+        <v>1071800</v>
       </c>
       <c r="I76" s="3">
-        <v>1350500</v>
+        <v>1081000</v>
       </c>
       <c r="J76" s="3">
+        <v>1319400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1554600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1609400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1574200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1627400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1520200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1489600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1564000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1615400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1772100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1828500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1774200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1824100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1885800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1993600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1973600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1894500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1907500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-61200</v>
+        <v>142600</v>
       </c>
       <c r="E81" s="3">
-        <v>-357800</v>
+        <v>-59800</v>
       </c>
       <c r="F81" s="3">
-        <v>-9400</v>
+        <v>-349600</v>
       </c>
       <c r="G81" s="3">
-        <v>-23500</v>
+        <v>-9200</v>
       </c>
       <c r="H81" s="3">
-        <v>-131100</v>
+        <v>-23000</v>
       </c>
       <c r="I81" s="3">
-        <v>-106700</v>
+        <v>-128000</v>
       </c>
       <c r="J81" s="3">
+        <v>-104300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-47100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>51500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>42300</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-50000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-92900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-62500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-79000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>48900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-107900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-20100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-13400</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>46900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-9200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>113800</v>
+        <v>89700</v>
       </c>
       <c r="E83" s="3">
-        <v>154600</v>
+        <v>111200</v>
       </c>
       <c r="F83" s="3">
-        <v>135800</v>
+        <v>151000</v>
       </c>
       <c r="G83" s="3">
-        <v>160100</v>
+        <v>132600</v>
       </c>
       <c r="H83" s="3">
-        <v>181300</v>
+        <v>156400</v>
       </c>
       <c r="I83" s="3">
-        <v>153000</v>
+        <v>177100</v>
       </c>
       <c r="J83" s="3">
+        <v>149500</v>
+      </c>
+      <c r="K83" s="3">
         <v>147500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>144400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>144200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>146700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>137200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>133900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>142300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>130800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>137000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>121200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>148100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>131000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>128700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>122900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>158300</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>123700</v>
       </c>
       <c r="Z83" s="3">
         <v>123700</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>123700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>42400</v>
+        <v>345800</v>
       </c>
       <c r="E89" s="3">
-        <v>478700</v>
+        <v>41400</v>
       </c>
       <c r="F89" s="3">
-        <v>62800</v>
+        <v>467700</v>
       </c>
       <c r="G89" s="3">
-        <v>201700</v>
+        <v>61300</v>
       </c>
       <c r="H89" s="3">
-        <v>86300</v>
+        <v>197000</v>
       </c>
       <c r="I89" s="3">
-        <v>201700</v>
+        <v>84300</v>
       </c>
       <c r="J89" s="3">
+        <v>197000</v>
+      </c>
+      <c r="K89" s="3">
         <v>95000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>168000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>141100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>271900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>204600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>63100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>100500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>115500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>78300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>319900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>60300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>149600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>46900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>215900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>93700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>175200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>91400</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-106700</v>
+        <v>-55200</v>
       </c>
       <c r="E91" s="3">
-        <v>-99700</v>
+        <v>-104300</v>
       </c>
       <c r="F91" s="3">
-        <v>-93400</v>
+        <v>-97400</v>
       </c>
       <c r="G91" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-75100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-98900</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-138000</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-76900</v>
       </c>
-      <c r="H91" s="3">
-        <v>-164800</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-101200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-58900</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-56500</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-138000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-79600</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-87200</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-26200</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-76900</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-67600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-45200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-53600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-81100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-72200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-49200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-83700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-76800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-62200</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-211900</v>
+        <v>-55200</v>
       </c>
       <c r="E94" s="3">
-        <v>-63600</v>
+        <v>-207000</v>
       </c>
       <c r="F94" s="3">
-        <v>-7800</v>
+        <v>-62100</v>
       </c>
       <c r="G94" s="3">
-        <v>-87100</v>
+        <v>-7700</v>
       </c>
       <c r="H94" s="3">
-        <v>-250300</v>
+        <v>-85100</v>
       </c>
       <c r="I94" s="3">
-        <v>-128700</v>
+        <v>-244600</v>
       </c>
       <c r="J94" s="3">
+        <v>-125700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-85500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-74600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-148900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-75400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-140400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-40800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-76100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-98100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-79800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-39900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>224000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-107900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-55100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>3800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-65300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-76100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-58400</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-8600</v>
+        <v>-10700</v>
       </c>
       <c r="E96" s="3">
-        <v>-10200</v>
+        <v>-8400</v>
       </c>
       <c r="F96" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-9400</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-8600</v>
       </c>
       <c r="L96" s="3">
         <v>-8600</v>
       </c>
       <c r="M96" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="N96" s="3">
         <v>-9100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-9500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-8500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-8000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-8300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-9000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-8200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-8900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-9200</v>
       </c>
       <c r="X96" s="3">
         <v>-9200</v>
       </c>
       <c r="Y96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-8500</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>64300</v>
+        <v>-81300</v>
       </c>
       <c r="E100" s="3">
-        <v>-71400</v>
+        <v>62900</v>
       </c>
       <c r="F100" s="3">
-        <v>-57300</v>
+        <v>-69800</v>
       </c>
       <c r="G100" s="3">
-        <v>-156900</v>
+        <v>-56000</v>
       </c>
       <c r="H100" s="3">
-        <v>503000</v>
+        <v>-153300</v>
       </c>
       <c r="I100" s="3">
-        <v>-62000</v>
+        <v>491400</v>
       </c>
       <c r="J100" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-73800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-153900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>74100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-98700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>15100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-28900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-37100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-154300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-268700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-115400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-13400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-328900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-67600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>86000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-49900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6864,143 +7113,149 @@
         <v>800</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F101" s="3">
-        <v>-2400</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>800</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
       <c r="U101" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="V101" s="3">
         <v>-700</v>
       </c>
       <c r="W101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X101" s="3">
         <v>800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-800</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-104400</v>
+        <v>210100</v>
       </c>
       <c r="E102" s="3">
-        <v>343700</v>
+        <v>-102000</v>
       </c>
       <c r="F102" s="3">
-        <v>-4700</v>
+        <v>335800</v>
       </c>
       <c r="G102" s="3">
-        <v>-43200</v>
+        <v>-4600</v>
       </c>
       <c r="H102" s="3">
-        <v>339800</v>
+        <v>-42200</v>
       </c>
       <c r="I102" s="3">
-        <v>10200</v>
+        <v>332000</v>
       </c>
       <c r="J102" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-63600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-57300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>66300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>97800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>78500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>15400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-20300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-155100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>168900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>27500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-337900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>152900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>113700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>49200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>48400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>TAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>563500</v>
+        <v>354400</v>
       </c>
       <c r="E8" s="3">
-        <v>467700</v>
+        <v>568700</v>
       </c>
       <c r="F8" s="3">
-        <v>651600</v>
+        <v>472000</v>
       </c>
       <c r="G8" s="3">
-        <v>474600</v>
+        <v>657700</v>
       </c>
       <c r="H8" s="3">
-        <v>492200</v>
+        <v>479000</v>
       </c>
       <c r="I8" s="3">
-        <v>417100</v>
+        <v>496700</v>
       </c>
       <c r="J8" s="3">
+        <v>420900</v>
+      </c>
+      <c r="K8" s="3">
         <v>394100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>342900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>475700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>474800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>491600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>394100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>498800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>473400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>430900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>335700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>442600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>474800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>437600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>374300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>444000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>550800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>476300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>197000</v>
+        <v>185700</v>
       </c>
       <c r="E9" s="3">
-        <v>238400</v>
+        <v>198900</v>
       </c>
       <c r="F9" s="3">
-        <v>286700</v>
+        <v>240600</v>
       </c>
       <c r="G9" s="3">
-        <v>194700</v>
+        <v>289400</v>
       </c>
       <c r="H9" s="3">
-        <v>224600</v>
+        <v>196500</v>
       </c>
       <c r="I9" s="3">
-        <v>250700</v>
+        <v>226700</v>
       </c>
       <c r="J9" s="3">
+        <v>253000</v>
+      </c>
+      <c r="K9" s="3">
         <v>193200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>118500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>186800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>322000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>307600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>243500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>361800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>361500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>311000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>227300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>308600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>326000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>307400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>228500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>288100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>311100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>322700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>366500</v>
+        <v>168700</v>
       </c>
       <c r="E10" s="3">
-        <v>229200</v>
+        <v>369900</v>
       </c>
       <c r="F10" s="3">
-        <v>364900</v>
+        <v>231400</v>
       </c>
       <c r="G10" s="3">
-        <v>279800</v>
+        <v>368300</v>
       </c>
       <c r="H10" s="3">
-        <v>267600</v>
+        <v>282400</v>
       </c>
       <c r="I10" s="3">
-        <v>166400</v>
+        <v>270000</v>
       </c>
       <c r="J10" s="3">
+        <v>167900</v>
+      </c>
+      <c r="K10" s="3">
         <v>200900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>224400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>288900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>152800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>184000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>150700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>137000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>111900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>119900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>108400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>134000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>148800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>130200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>145900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>156000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>239700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>153600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>150600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,162 +1203,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>21700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>444900</v>
+      </c>
+      <c r="H14" s="3">
+        <v>12400</v>
+      </c>
+      <c r="I14" s="3">
+        <v>22400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K14" s="3">
+        <v>58300</v>
+      </c>
+      <c r="L14" s="3">
+        <v>25100</v>
+      </c>
+      <c r="M14" s="3">
         <v>-32200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="N14" s="3">
+        <v>36600</v>
+      </c>
+      <c r="O14" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>17500</v>
+      </c>
+      <c r="S14" s="3">
+        <v>41400</v>
+      </c>
+      <c r="T14" s="3">
+        <v>9000</v>
+      </c>
+      <c r="U14" s="3">
+        <v>3800</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>4500</v>
+      </c>
+      <c r="X14" s="3">
+        <v>14900</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
         <v>21500</v>
       </c>
-      <c r="F14" s="3">
-        <v>440800</v>
-      </c>
-      <c r="G14" s="3">
-        <v>12300</v>
-      </c>
-      <c r="H14" s="3">
-        <v>22200</v>
-      </c>
-      <c r="I14" s="3">
-        <v>13000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>58300</v>
-      </c>
-      <c r="K14" s="3">
-        <v>25100</v>
-      </c>
-      <c r="L14" s="3">
-        <v>-32200</v>
-      </c>
-      <c r="M14" s="3">
-        <v>36600</v>
-      </c>
-      <c r="N14" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>17500</v>
-      </c>
-      <c r="R14" s="3">
-        <v>41400</v>
-      </c>
-      <c r="S14" s="3">
-        <v>9000</v>
-      </c>
-      <c r="T14" s="3">
-        <v>3800</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>4500</v>
-      </c>
-      <c r="W14" s="3">
-        <v>14900</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>21500</v>
-      </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>800</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>89700</v>
+        <v>89000</v>
       </c>
       <c r="E15" s="3">
-        <v>102700</v>
+        <v>90500</v>
       </c>
       <c r="F15" s="3">
-        <v>94300</v>
+        <v>103700</v>
       </c>
       <c r="G15" s="3">
-        <v>94300</v>
+        <v>95200</v>
       </c>
       <c r="H15" s="3">
-        <v>114200</v>
+        <v>95200</v>
       </c>
       <c r="I15" s="3">
-        <v>132600</v>
+        <v>115300</v>
       </c>
       <c r="J15" s="3">
+        <v>133900</v>
+      </c>
+      <c r="K15" s="3">
         <v>124200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>127900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>122500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>120100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>122700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>113400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>111600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>115700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>106100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>109900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>97900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>134000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>117600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>114600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>109900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>143700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>111400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>112900</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>333500</v>
+        <v>338100</v>
       </c>
       <c r="E17" s="3">
-        <v>448500</v>
+        <v>336600</v>
       </c>
       <c r="F17" s="3">
-        <v>965200</v>
+        <v>452600</v>
       </c>
       <c r="G17" s="3">
-        <v>414800</v>
+        <v>974200</v>
       </c>
       <c r="H17" s="3">
-        <v>440800</v>
+        <v>418600</v>
       </c>
       <c r="I17" s="3">
-        <v>507500</v>
+        <v>444900</v>
       </c>
       <c r="J17" s="3">
+        <v>512200</v>
+      </c>
+      <c r="K17" s="3">
         <v>461500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>357800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>376800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>402300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>363100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>353700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>471100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>493200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>452000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>344800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>289800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>451000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>427200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>356500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>396400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>333400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>440200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>230000</v>
+        <v>16200</v>
       </c>
       <c r="E18" s="3">
-        <v>19200</v>
+        <v>232100</v>
       </c>
       <c r="F18" s="3">
-        <v>-313600</v>
+        <v>19300</v>
       </c>
       <c r="G18" s="3">
-        <v>59800</v>
+        <v>-316500</v>
       </c>
       <c r="H18" s="3">
-        <v>51400</v>
+        <v>60400</v>
       </c>
       <c r="I18" s="3">
-        <v>-90500</v>
+        <v>51800</v>
       </c>
       <c r="J18" s="3">
+        <v>-91300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-67500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>98900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>72500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>128500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>40400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>27700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-19800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-21100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-9000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>152800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>23800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>10400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>17900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>47600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>217400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>36100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5400</v>
       </c>
-      <c r="F20" s="3">
-        <v>15300</v>
-      </c>
       <c r="G20" s="3">
-        <v>30700</v>
+        <v>15500</v>
       </c>
       <c r="H20" s="3">
+        <v>31000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K20" s="3">
         <v>3800</v>
       </c>
-      <c r="I20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>3800</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-22800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>74100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-18200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-22200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-9400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>8200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>9700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>4600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>18400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>15400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>312000</v>
+        <v>113700</v>
       </c>
       <c r="E21" s="3">
-        <v>125000</v>
+        <v>314900</v>
       </c>
       <c r="F21" s="3">
-        <v>-147200</v>
+        <v>126100</v>
       </c>
       <c r="G21" s="3">
-        <v>223100</v>
+        <v>-148600</v>
       </c>
       <c r="H21" s="3">
-        <v>211600</v>
+        <v>225200</v>
       </c>
       <c r="I21" s="3">
-        <v>88200</v>
+        <v>213600</v>
       </c>
       <c r="J21" s="3">
+        <v>89000</v>
+      </c>
+      <c r="K21" s="3">
         <v>85900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>144400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>220600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>290800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>257000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>155400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>155500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>117200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>100300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>122000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>269500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>180100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>137700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>156300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>175200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>394100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>175200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>36800</v>
+        <v>41800</v>
       </c>
       <c r="E22" s="3">
-        <v>38300</v>
+        <v>37100</v>
       </c>
       <c r="F22" s="3">
+        <v>38700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>40200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>35600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>39500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>40200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>35300</v>
+      </c>
+      <c r="L22" s="3">
+        <v>37700</v>
+      </c>
+      <c r="M22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="N22" s="3">
+        <v>35100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>38100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>37300</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>31600</v>
+      </c>
+      <c r="R22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="S22" s="3">
+        <v>33400</v>
+      </c>
+      <c r="T22" s="3">
         <v>39900</v>
       </c>
-      <c r="G22" s="3">
-        <v>35300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>39100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>39900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>35300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>37700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>40000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>35100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>38100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>37300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>31600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>32000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>33400</v>
-      </c>
-      <c r="S22" s="3">
-        <v>39900</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>42900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>40200</v>
-      </c>
-      <c r="V22" s="3">
-        <v>38700</v>
       </c>
       <c r="W22" s="3">
         <v>38700</v>
       </c>
       <c r="X22" s="3">
+        <v>38700</v>
+      </c>
+      <c r="Y22" s="3">
         <v>40700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>41500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>42300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>185500</v>
+        <v>-17000</v>
       </c>
       <c r="E23" s="3">
-        <v>-24500</v>
+        <v>187200</v>
       </c>
       <c r="F23" s="3">
-        <v>-338100</v>
+        <v>-24800</v>
       </c>
       <c r="G23" s="3">
-        <v>55200</v>
+        <v>-341200</v>
       </c>
       <c r="H23" s="3">
-        <v>16100</v>
+        <v>55700</v>
       </c>
       <c r="I23" s="3">
-        <v>-128800</v>
+        <v>16200</v>
       </c>
       <c r="J23" s="3">
+        <v>-130000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-98900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-40800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>36100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>111500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>72100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-19000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-57100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-63900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-55000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>105400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-8200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-32000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-11200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>11500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>194400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>9200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27600</v>
+        <v>28600</v>
       </c>
       <c r="E24" s="3">
+        <v>27900</v>
+      </c>
+      <c r="F24" s="3">
         <v>2300</v>
       </c>
-      <c r="F24" s="3">
-        <v>-16900</v>
-      </c>
       <c r="G24" s="3">
-        <v>33700</v>
+        <v>-17000</v>
       </c>
       <c r="H24" s="3">
-        <v>15300</v>
+        <v>34000</v>
       </c>
       <c r="I24" s="3">
-        <v>-19200</v>
+        <v>15500</v>
       </c>
       <c r="J24" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-7700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-13300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>31200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-39700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-12200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-15300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-4500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>27900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>78100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-3700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-14100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-13100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>63000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>157900</v>
+        <v>-45700</v>
       </c>
       <c r="E26" s="3">
-        <v>-26800</v>
+        <v>159400</v>
       </c>
       <c r="F26" s="3">
-        <v>-321200</v>
+        <v>-27100</v>
       </c>
       <c r="G26" s="3">
-        <v>21500</v>
+        <v>-324200</v>
       </c>
       <c r="H26" s="3">
+        <v>21700</v>
+      </c>
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
-        <v>-109600</v>
-      </c>
       <c r="J26" s="3">
+        <v>-110600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-91200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-27500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>34500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>80300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>63800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>20600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-44900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-48700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-50400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>77500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-86300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-28300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>24600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>131400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>10800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>142600</v>
+        <v>-61900</v>
       </c>
       <c r="E27" s="3">
-        <v>-59800</v>
+        <v>143900</v>
       </c>
       <c r="F27" s="3">
-        <v>-349600</v>
+        <v>-60400</v>
       </c>
       <c r="G27" s="3">
+        <v>-352800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-129200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-104300</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>21200</v>
+      </c>
+      <c r="N27" s="3">
+        <v>51500</v>
+      </c>
+      <c r="O27" s="3">
+        <v>42300</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="U27" s="3">
+        <v>48900</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-107900</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>46900</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-9200</v>
       </c>
-      <c r="H27" s="3">
-        <v>-23000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-128000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-104300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>21200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>51500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>42300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-50000</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-92900</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-62500</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-79000</v>
-      </c>
-      <c r="T27" s="3">
-        <v>48900</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-107900</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>46900</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E32" s="3">
         <v>7700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5400</v>
       </c>
-      <c r="F32" s="3">
-        <v>-15300</v>
-      </c>
       <c r="G32" s="3">
-        <v>-30700</v>
+        <v>-15500</v>
       </c>
       <c r="H32" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3800</v>
       </c>
-      <c r="I32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>22800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-74100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>18200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>22200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>9400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-8200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-9700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-18400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-15400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>142600</v>
+        <v>-61900</v>
       </c>
       <c r="E33" s="3">
-        <v>-59800</v>
+        <v>143900</v>
       </c>
       <c r="F33" s="3">
-        <v>-349600</v>
+        <v>-60400</v>
       </c>
       <c r="G33" s="3">
+        <v>-352800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-129200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-104300</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>21200</v>
+      </c>
+      <c r="N33" s="3">
+        <v>51500</v>
+      </c>
+      <c r="O33" s="3">
+        <v>42300</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="U33" s="3">
+        <v>48900</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-107900</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>46900</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-9200</v>
       </c>
-      <c r="H33" s="3">
-        <v>-23000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-128000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-104300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>21200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>51500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>42300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-50000</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-92900</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-62500</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-79000</v>
-      </c>
-      <c r="T33" s="3">
-        <v>48900</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-107900</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>46900</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>142600</v>
+        <v>-61900</v>
       </c>
       <c r="E35" s="3">
-        <v>-59800</v>
+        <v>143900</v>
       </c>
       <c r="F35" s="3">
-        <v>-349600</v>
+        <v>-60400</v>
       </c>
       <c r="G35" s="3">
+        <v>-352800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-129200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-104300</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>21200</v>
+      </c>
+      <c r="N35" s="3">
+        <v>51500</v>
+      </c>
+      <c r="O35" s="3">
+        <v>42300</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="U35" s="3">
+        <v>48900</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-107900</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>46900</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-9200</v>
       </c>
-      <c r="H35" s="3">
-        <v>-23000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-128000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-104300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>21200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>51500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>42300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-50000</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-92900</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-62500</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-79000</v>
-      </c>
-      <c r="T35" s="3">
-        <v>48900</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-107900</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>46900</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,133 +3007,137 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>936100</v>
+        <v>694800</v>
       </c>
       <c r="E41" s="3">
-        <v>726000</v>
+        <v>944700</v>
       </c>
       <c r="F41" s="3">
-        <v>828000</v>
+        <v>732700</v>
       </c>
       <c r="G41" s="3">
-        <v>492200</v>
+        <v>835700</v>
       </c>
       <c r="H41" s="3">
-        <v>496800</v>
+        <v>496700</v>
       </c>
       <c r="I41" s="3">
-        <v>538900</v>
+        <v>501400</v>
       </c>
       <c r="J41" s="3">
+        <v>543900</v>
+      </c>
+      <c r="K41" s="3">
         <v>207000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>201700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>265300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>320400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>270300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>164900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>83900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>67700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>69000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>92600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>247700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>233700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>64700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>37200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>387200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>234300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>120600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>394100</v>
+        <v>466600</v>
       </c>
       <c r="E42" s="3">
-        <v>236100</v>
+        <v>397700</v>
       </c>
       <c r="F42" s="3">
-        <v>314300</v>
+        <v>238300</v>
       </c>
       <c r="G42" s="3">
-        <v>172500</v>
+        <v>317200</v>
       </c>
       <c r="H42" s="3">
-        <v>125700</v>
+        <v>174100</v>
       </c>
       <c r="I42" s="3">
-        <v>131100</v>
+        <v>126900</v>
       </c>
       <c r="J42" s="3">
+        <v>132300</v>
+      </c>
+      <c r="K42" s="3">
         <v>147200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>215800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>208000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>129400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>132600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>130800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>107000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>111100</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
@@ -3075,547 +3165,571 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>415500</v>
+        <v>794600</v>
       </c>
       <c r="E43" s="3">
-        <v>499100</v>
+        <v>419400</v>
       </c>
       <c r="F43" s="3">
-        <v>395600</v>
+        <v>503700</v>
       </c>
       <c r="G43" s="3">
-        <v>532800</v>
+        <v>399300</v>
       </c>
       <c r="H43" s="3">
-        <v>435500</v>
+        <v>537800</v>
       </c>
       <c r="I43" s="3">
-        <v>447000</v>
+        <v>439500</v>
       </c>
       <c r="J43" s="3">
+        <v>451100</v>
+      </c>
+      <c r="K43" s="3">
         <v>371800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>335900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>338400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>360200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>374700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>399700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>562700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>575400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>472300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>423100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>505100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>694300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>829000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>499400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>504700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>480900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>383300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>347200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>118100</v>
+        <v>120700</v>
       </c>
       <c r="E44" s="3">
-        <v>128000</v>
+        <v>119200</v>
       </c>
       <c r="F44" s="3">
-        <v>142600</v>
+        <v>129200</v>
       </c>
       <c r="G44" s="3">
-        <v>159500</v>
+        <v>143900</v>
       </c>
       <c r="H44" s="3">
-        <v>165600</v>
+        <v>160900</v>
       </c>
       <c r="I44" s="3">
-        <v>182500</v>
+        <v>167100</v>
       </c>
       <c r="J44" s="3">
+        <v>184200</v>
+      </c>
+      <c r="K44" s="3">
         <v>197800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>233100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>206500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>195700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>202300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>212500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>174000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>184200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>191800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>211500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>168600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>163000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>173400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>183800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>152100</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>163600</v>
       </c>
       <c r="Z44" s="3">
         <v>163600</v>
       </c>
       <c r="AA44" s="3">
+        <v>163600</v>
+      </c>
+      <c r="AB44" s="3">
         <v>182800</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>95800</v>
+        <v>101400</v>
       </c>
       <c r="E45" s="3">
-        <v>95100</v>
+        <v>96700</v>
       </c>
       <c r="F45" s="3">
-        <v>91200</v>
+        <v>95900</v>
       </c>
       <c r="G45" s="3">
-        <v>92000</v>
+        <v>92100</v>
       </c>
       <c r="H45" s="3">
-        <v>163300</v>
+        <v>92900</v>
       </c>
       <c r="I45" s="3">
-        <v>158700</v>
+        <v>164800</v>
       </c>
       <c r="J45" s="3">
+        <v>160200</v>
+      </c>
+      <c r="K45" s="3">
         <v>143400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>50200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>54200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>39800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>252900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>55500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>43100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>60100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>199100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>173100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>170900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>180800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>173400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>206900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>255800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>315000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>227400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1959500</v>
+        <v>2178100</v>
       </c>
       <c r="E46" s="3">
-        <v>1684300</v>
+        <v>1977700</v>
       </c>
       <c r="F46" s="3">
-        <v>1771700</v>
+        <v>1699900</v>
       </c>
       <c r="G46" s="3">
-        <v>1448900</v>
+        <v>1788100</v>
       </c>
       <c r="H46" s="3">
-        <v>1386900</v>
+        <v>1462400</v>
       </c>
       <c r="I46" s="3">
-        <v>1458100</v>
+        <v>1399700</v>
       </c>
       <c r="J46" s="3">
+        <v>1471700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1067200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1036600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1072400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1045500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1232800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>963500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>970700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>998600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>932300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>900300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1092300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1271900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1240600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>927300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1299800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1193800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>895000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>828200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>213100</v>
+        <v>212800</v>
       </c>
       <c r="E47" s="3">
-        <v>222300</v>
+        <v>215100</v>
       </c>
       <c r="F47" s="3">
-        <v>225400</v>
+        <v>224400</v>
       </c>
       <c r="G47" s="3">
-        <v>229200</v>
+        <v>227500</v>
       </c>
       <c r="H47" s="3">
-        <v>243000</v>
+        <v>231400</v>
       </c>
       <c r="I47" s="3">
-        <v>251500</v>
+        <v>245300</v>
       </c>
       <c r="J47" s="3">
+        <v>253800</v>
+      </c>
+      <c r="K47" s="3">
         <v>125700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>131800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>135000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>137200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>148400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>145100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>144000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>145400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>142400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>152100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>157300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>160000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>171200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>500100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>535500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>552400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>554700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4050900</v>
+        <v>4055200</v>
       </c>
       <c r="E48" s="3">
-        <v>4151400</v>
+        <v>4088500</v>
       </c>
       <c r="F48" s="3">
-        <v>4055500</v>
+        <v>4189900</v>
       </c>
       <c r="G48" s="3">
-        <v>4382100</v>
+        <v>4093100</v>
       </c>
       <c r="H48" s="3">
-        <v>4438800</v>
+        <v>4422800</v>
       </c>
       <c r="I48" s="3">
-        <v>4571500</v>
+        <v>4480000</v>
       </c>
       <c r="J48" s="3">
+        <v>4613900</v>
+      </c>
+      <c r="K48" s="3">
         <v>4627400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4776700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4883000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4953200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4956900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4850900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4703600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4691400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4506200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4787000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4869800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4895400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4952000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4989200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5232400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5242400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5354600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5337700</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>558100</v>
+        <v>559400</v>
       </c>
       <c r="E49" s="3">
-        <v>551200</v>
+        <v>563300</v>
       </c>
       <c r="F49" s="3">
-        <v>553500</v>
+        <v>556300</v>
       </c>
       <c r="G49" s="3">
-        <v>562700</v>
+        <v>558600</v>
       </c>
       <c r="H49" s="3">
-        <v>574200</v>
+        <v>567900</v>
       </c>
       <c r="I49" s="3">
-        <v>594900</v>
+        <v>579500</v>
       </c>
       <c r="J49" s="3">
+        <v>600400</v>
+      </c>
+      <c r="K49" s="3">
         <v>607200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>632500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>610800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>609700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>654100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>654200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>643600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>637000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>585000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>612000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>618800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>615500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>617700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>600600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>623000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>629200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>630700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>443900</v>
+        <v>411600</v>
       </c>
       <c r="E52" s="3">
-        <v>463800</v>
+        <v>448000</v>
       </c>
       <c r="F52" s="3">
-        <v>538900</v>
+        <v>468100</v>
       </c>
       <c r="G52" s="3">
-        <v>557300</v>
+        <v>543900</v>
       </c>
       <c r="H52" s="3">
-        <v>578000</v>
+        <v>562500</v>
       </c>
       <c r="I52" s="3">
-        <v>596400</v>
+        <v>583400</v>
       </c>
       <c r="J52" s="3">
+        <v>602000</v>
+      </c>
+      <c r="K52" s="3">
         <v>648600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>775300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>711300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>667400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>685600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>681200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>719000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>703200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>680200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>770100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>761800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>725600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>729300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>736800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>797400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>829700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>745200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>739800</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7225600</v>
+        <v>7417200</v>
       </c>
       <c r="E54" s="3">
-        <v>7073000</v>
+        <v>7292600</v>
       </c>
       <c r="F54" s="3">
-        <v>7145100</v>
+        <v>7138600</v>
       </c>
       <c r="G54" s="3">
-        <v>7180400</v>
+        <v>7211400</v>
       </c>
       <c r="H54" s="3">
-        <v>7221000</v>
+        <v>7246900</v>
       </c>
       <c r="I54" s="3">
-        <v>7472400</v>
+        <v>7288000</v>
       </c>
       <c r="J54" s="3">
+        <v>7541700</v>
+      </c>
+      <c r="K54" s="3">
         <v>7076100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7353000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7412400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7413100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7677800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7295000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7180900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7175600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6846100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7221500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7500000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7668300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7710800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7753900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8488200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8447500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8180100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8100200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>644700</v>
+        <v>886700</v>
       </c>
       <c r="E57" s="3">
-        <v>528200</v>
+        <v>650700</v>
       </c>
       <c r="F57" s="3">
-        <v>593400</v>
+        <v>533100</v>
       </c>
       <c r="G57" s="3">
-        <v>446200</v>
+        <v>598900</v>
       </c>
       <c r="H57" s="3">
-        <v>479200</v>
+        <v>450300</v>
       </c>
       <c r="I57" s="3">
-        <v>459200</v>
+        <v>483600</v>
       </c>
       <c r="J57" s="3">
+        <v>463500</v>
+      </c>
+      <c r="K57" s="3">
         <v>390200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>314700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>324200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>322000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>296000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>288700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>352600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>378300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>346600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>319900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>373400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>442800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>380300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>313300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>351100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>317300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>283500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>229700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>637800</v>
+        <v>533900</v>
       </c>
       <c r="E58" s="3">
-        <v>647000</v>
+        <v>643800</v>
       </c>
       <c r="F58" s="3">
-        <v>91200</v>
+        <v>653000</v>
       </c>
       <c r="G58" s="3">
-        <v>88200</v>
+        <v>92100</v>
       </c>
       <c r="H58" s="3">
-        <v>85100</v>
+        <v>89000</v>
       </c>
       <c r="I58" s="3">
-        <v>80500</v>
+        <v>85900</v>
       </c>
       <c r="J58" s="3">
+        <v>81200</v>
+      </c>
+      <c r="K58" s="3">
         <v>393300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>402600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>403500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>85400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>83300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>80800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>112600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>95900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>77500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>105400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>555900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>686900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>701800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>484000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>490900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>452500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>438500</v>
+        <v>526200</v>
       </c>
       <c r="E59" s="3">
-        <v>305100</v>
+        <v>442600</v>
       </c>
       <c r="F59" s="3">
-        <v>444700</v>
+        <v>308000</v>
       </c>
       <c r="G59" s="3">
-        <v>283700</v>
+        <v>448800</v>
       </c>
       <c r="H59" s="3">
-        <v>153300</v>
+        <v>286300</v>
       </c>
       <c r="I59" s="3">
-        <v>177100</v>
+        <v>154800</v>
       </c>
       <c r="J59" s="3">
+        <v>178700</v>
+      </c>
+      <c r="K59" s="3">
         <v>164800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>185200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>167200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>148900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>228000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>181600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>162400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>173500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>133000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>159600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>203300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>198000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>94500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>105700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>117500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>126800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>218900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>553100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1721100</v>
+        <v>1946800</v>
       </c>
       <c r="E60" s="3">
-        <v>1480400</v>
+        <v>1737100</v>
       </c>
       <c r="F60" s="3">
-        <v>1129300</v>
+        <v>1494100</v>
       </c>
       <c r="G60" s="3">
-        <v>818000</v>
+        <v>1139700</v>
       </c>
       <c r="H60" s="3">
-        <v>717600</v>
+        <v>825600</v>
       </c>
       <c r="I60" s="3">
-        <v>716800</v>
+        <v>724200</v>
       </c>
       <c r="J60" s="3">
+        <v>723500</v>
+      </c>
+      <c r="K60" s="3">
         <v>948300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>902500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>895000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>870900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>609400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>553500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>595800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>664400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>575500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>557100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>682000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1196700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1161700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1120800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>952600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>934900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>954900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>904200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2397300</v>
+        <v>2496100</v>
       </c>
       <c r="E61" s="3">
-        <v>2421000</v>
+        <v>2419500</v>
       </c>
       <c r="F61" s="3">
-        <v>2839600</v>
+        <v>2443500</v>
       </c>
       <c r="G61" s="3">
-        <v>2842700</v>
+        <v>2866000</v>
       </c>
       <c r="H61" s="3">
-        <v>2933200</v>
+        <v>2869100</v>
       </c>
       <c r="I61" s="3">
-        <v>3055800</v>
+        <v>2960400</v>
       </c>
       <c r="J61" s="3">
+        <v>3084200</v>
+      </c>
+      <c r="K61" s="3">
         <v>2207200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2297700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2348900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2358500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2667100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2590000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2465700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2373800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2217100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2291500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2462400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2202900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2126200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2128400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2822500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2859400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2714200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2710300</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1083300</v>
+        <v>1060000</v>
       </c>
       <c r="E62" s="3">
-        <v>1183700</v>
+        <v>1093300</v>
       </c>
       <c r="F62" s="3">
-        <v>1142300</v>
+        <v>1194700</v>
       </c>
       <c r="G62" s="3">
-        <v>1041100</v>
+        <v>1152900</v>
       </c>
       <c r="H62" s="3">
-        <v>981300</v>
+        <v>1050800</v>
       </c>
       <c r="I62" s="3">
-        <v>1065600</v>
+        <v>990400</v>
       </c>
       <c r="J62" s="3">
+        <v>1075500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1030400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1020900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>952300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1016700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1080300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1015900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1026900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>990900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>940300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1021500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1029100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1005400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1091800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1081300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1118500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1070900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1025600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>990200</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5926100</v>
+        <v>6199300</v>
       </c>
       <c r="E66" s="3">
-        <v>5860200</v>
+        <v>5981100</v>
       </c>
       <c r="F66" s="3">
-        <v>5896200</v>
+        <v>5914500</v>
       </c>
       <c r="G66" s="3">
-        <v>5499100</v>
+        <v>5950900</v>
       </c>
       <c r="H66" s="3">
-        <v>5427000</v>
+        <v>5550100</v>
       </c>
       <c r="I66" s="3">
-        <v>5669300</v>
+        <v>5477400</v>
       </c>
       <c r="J66" s="3">
+        <v>5721900</v>
+      </c>
+      <c r="K66" s="3">
         <v>5034500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5059200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5063600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5104500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5269400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5027700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4966100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4894600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4546200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4740300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4962400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5193100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5185700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5167100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5770900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5750200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5562000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5469000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,64 +5175,67 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>728900</v>
+      </c>
+      <c r="E70" s="3">
+        <v>728900</v>
+      </c>
+      <c r="F70" s="3">
+        <v>728900</v>
+      </c>
+      <c r="G70" s="3">
+        <v>728900</v>
+      </c>
+      <c r="H70" s="3">
+        <v>728900</v>
+      </c>
+      <c r="I70" s="3">
+        <v>728900</v>
+      </c>
+      <c r="J70" s="3">
+        <v>728900</v>
+      </c>
+      <c r="K70" s="3">
         <v>722200</v>
       </c>
-      <c r="E70" s="3">
-        <v>722200</v>
-      </c>
-      <c r="F70" s="3">
-        <v>722200</v>
-      </c>
-      <c r="G70" s="3">
-        <v>722200</v>
-      </c>
-      <c r="H70" s="3">
-        <v>722200</v>
-      </c>
-      <c r="I70" s="3">
-        <v>722200</v>
-      </c>
-      <c r="J70" s="3">
-        <v>722200</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>739200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>739500</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>734400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>781000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>747000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>725200</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>716900</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>684500</v>
-      </c>
-      <c r="S70" s="3">
-        <v>709100</v>
       </c>
       <c r="T70" s="3">
         <v>709100</v>
       </c>
       <c r="U70" s="3">
-        <v>701000</v>
+        <v>709100</v>
       </c>
       <c r="V70" s="3">
         <v>701000</v>
@@ -5076,7 +5244,7 @@
         <v>701000</v>
       </c>
       <c r="X70" s="3">
-        <v>723700</v>
+        <v>701000</v>
       </c>
       <c r="Y70" s="3">
         <v>723700</v>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>723700</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>723700</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1740300</v>
+        <v>-1828400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1880600</v>
+        <v>-1756400</v>
       </c>
       <c r="F72" s="3">
-        <v>-1810000</v>
+        <v>-1898000</v>
       </c>
       <c r="G72" s="3">
-        <v>-1441300</v>
+        <v>-1826800</v>
       </c>
       <c r="H72" s="3">
-        <v>-1422900</v>
+        <v>-1454700</v>
       </c>
       <c r="I72" s="3">
-        <v>-1399900</v>
+        <v>-1436100</v>
       </c>
       <c r="J72" s="3">
+        <v>-1412900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1261100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1176300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1125000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1134400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1260200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1238700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1199400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1138600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-986100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-952300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-879300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-899700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-785900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-716700</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-716800</v>
       </c>
       <c r="Y72" s="3">
         <v>-716800</v>
       </c>
       <c r="Z72" s="3">
+        <v>-716800</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-775100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-756700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>577300</v>
+        <v>489000</v>
       </c>
       <c r="E76" s="3">
-        <v>490600</v>
+        <v>582600</v>
       </c>
       <c r="F76" s="3">
-        <v>526700</v>
+        <v>495200</v>
       </c>
       <c r="G76" s="3">
-        <v>959100</v>
+        <v>531600</v>
       </c>
       <c r="H76" s="3">
-        <v>1071800</v>
+        <v>968000</v>
       </c>
       <c r="I76" s="3">
-        <v>1081000</v>
+        <v>1081700</v>
       </c>
       <c r="J76" s="3">
+        <v>1091000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1319400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1554600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1609400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1574200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1627400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1520200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1489600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1564000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1615400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1772100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1828500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1774200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1824100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1885800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1993600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1973600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1894500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1907500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>142600</v>
+        <v>-61900</v>
       </c>
       <c r="E81" s="3">
-        <v>-59800</v>
+        <v>143900</v>
       </c>
       <c r="F81" s="3">
-        <v>-349600</v>
+        <v>-60400</v>
       </c>
       <c r="G81" s="3">
+        <v>-352800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-129200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-104300</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>21200</v>
+      </c>
+      <c r="N81" s="3">
+        <v>51500</v>
+      </c>
+      <c r="O81" s="3">
+        <v>42300</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="U81" s="3">
+        <v>48900</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-107900</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>46900</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-9200</v>
       </c>
-      <c r="H81" s="3">
-        <v>-23000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-128000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-104300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>21200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>51500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>42300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-50000</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-92900</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-62500</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-79000</v>
-      </c>
-      <c r="T81" s="3">
-        <v>48900</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-107900</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>46900</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>89700</v>
+        <v>89000</v>
       </c>
       <c r="E83" s="3">
-        <v>111200</v>
+        <v>90500</v>
       </c>
       <c r="F83" s="3">
-        <v>151000</v>
+        <v>112200</v>
       </c>
       <c r="G83" s="3">
-        <v>132600</v>
+        <v>152400</v>
       </c>
       <c r="H83" s="3">
-        <v>156400</v>
+        <v>133900</v>
       </c>
       <c r="I83" s="3">
-        <v>177100</v>
+        <v>157800</v>
       </c>
       <c r="J83" s="3">
+        <v>178700</v>
+      </c>
+      <c r="K83" s="3">
         <v>149500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>147500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>144400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>144200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>146700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>137200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>133900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>142300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>130800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>137000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>121200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>148100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>131000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>128700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>122900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>158300</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>123700</v>
       </c>
       <c r="AA83" s="3">
         <v>123700</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>123700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>345800</v>
+        <v>-99800</v>
       </c>
       <c r="E89" s="3">
-        <v>41400</v>
+        <v>349000</v>
       </c>
       <c r="F89" s="3">
-        <v>467700</v>
+        <v>41800</v>
       </c>
       <c r="G89" s="3">
-        <v>61300</v>
+        <v>472000</v>
       </c>
       <c r="H89" s="3">
+        <v>61900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>198900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>85100</v>
+      </c>
+      <c r="K89" s="3">
         <v>197000</v>
       </c>
-      <c r="I89" s="3">
-        <v>84300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>197000</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>95000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>168000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>141100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>271900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>204600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>63100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>100500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>115500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>78300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>319900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>60300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>149600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>46900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>215900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>93700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>175200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>91400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-55200</v>
+        <v>-99800</v>
       </c>
       <c r="E91" s="3">
-        <v>-104300</v>
+        <v>-55700</v>
       </c>
       <c r="F91" s="3">
-        <v>-97400</v>
+        <v>-105200</v>
       </c>
       <c r="G91" s="3">
-        <v>-91200</v>
+        <v>-98300</v>
       </c>
       <c r="H91" s="3">
-        <v>-75100</v>
+        <v>-92100</v>
       </c>
       <c r="I91" s="3">
-        <v>-161000</v>
+        <v>-75800</v>
       </c>
       <c r="J91" s="3">
+        <v>-162500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-98900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-58900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-56500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-138000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-79600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-87200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-76900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-67600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-45200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-53600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-81100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-72200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-49200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-83700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-76800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-62200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-55200</v>
+        <v>-72700</v>
       </c>
       <c r="E94" s="3">
-        <v>-207000</v>
+        <v>-55700</v>
       </c>
       <c r="F94" s="3">
-        <v>-62100</v>
+        <v>-208900</v>
       </c>
       <c r="G94" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="H94" s="3">
         <v>-7700</v>
       </c>
-      <c r="H94" s="3">
-        <v>-85100</v>
-      </c>
       <c r="I94" s="3">
-        <v>-244600</v>
+        <v>-85900</v>
       </c>
       <c r="J94" s="3">
+        <v>-246800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-125700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-85500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-74600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-148900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-75400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-140400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-40800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-76100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-98100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-79800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-39900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>224000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-107900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-55100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>3800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-65300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-76100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-58400</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-10700</v>
+        <v>-10100</v>
       </c>
       <c r="E96" s="3">
-        <v>-8400</v>
+        <v>-10800</v>
       </c>
       <c r="F96" s="3">
-        <v>-10000</v>
+        <v>-8500</v>
       </c>
       <c r="G96" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-9200</v>
       </c>
-      <c r="H96" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-9400</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-8600</v>
       </c>
       <c r="M96" s="3">
         <v>-8600</v>
       </c>
       <c r="N96" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="O96" s="3">
         <v>-9100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-9500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-9100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-8000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-8300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-9000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-8200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-8900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-9200</v>
       </c>
       <c r="Y96" s="3">
         <v>-9200</v>
       </c>
       <c r="Z96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-8500</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-81300</v>
+        <v>-73500</v>
       </c>
       <c r="E100" s="3">
-        <v>62900</v>
+        <v>-82000</v>
       </c>
       <c r="F100" s="3">
-        <v>-69800</v>
+        <v>63400</v>
       </c>
       <c r="G100" s="3">
-        <v>-56000</v>
+        <v>-70400</v>
       </c>
       <c r="H100" s="3">
-        <v>-153300</v>
+        <v>-56500</v>
       </c>
       <c r="I100" s="3">
-        <v>491400</v>
+        <v>-154800</v>
       </c>
       <c r="J100" s="3">
+        <v>496000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-60600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-73800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-153900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>74100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-98700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>15100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-28900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-37100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-154300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-268700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-115400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-13400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-328900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-67600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>86000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-49900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>800</v>
+        <v>-3900</v>
       </c>
       <c r="E101" s="3">
         <v>800</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-2300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>800</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
       <c r="V101" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="W101" s="3">
         <v>-700</v>
       </c>
       <c r="X101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Y101" s="3">
         <v>800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-800</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>210100</v>
+        <v>-249900</v>
       </c>
       <c r="E102" s="3">
-        <v>-102000</v>
+        <v>212000</v>
       </c>
       <c r="F102" s="3">
-        <v>335800</v>
+        <v>-102900</v>
       </c>
       <c r="G102" s="3">
+        <v>338900</v>
+      </c>
+      <c r="H102" s="3">
         <v>-4600</v>
       </c>
-      <c r="H102" s="3">
-        <v>-42200</v>
-      </c>
       <c r="I102" s="3">
-        <v>332000</v>
+        <v>-42600</v>
       </c>
       <c r="J102" s="3">
+        <v>335000</v>
+      </c>
+      <c r="K102" s="3">
         <v>10000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-63600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-57300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>66300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>97800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>78500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>15400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-20300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-155100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>168900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>27500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-337900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>152900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>113700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>49200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>48400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>TAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,372 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>354400</v>
+        <v>697500</v>
       </c>
       <c r="E8" s="3">
-        <v>568700</v>
+        <v>343900</v>
       </c>
       <c r="F8" s="3">
-        <v>472000</v>
+        <v>551900</v>
       </c>
       <c r="G8" s="3">
-        <v>657700</v>
+        <v>458000</v>
       </c>
       <c r="H8" s="3">
-        <v>479000</v>
+        <v>1585100</v>
       </c>
       <c r="I8" s="3">
-        <v>496700</v>
+        <v>464800</v>
       </c>
       <c r="J8" s="3">
+        <v>482100</v>
+      </c>
+      <c r="K8" s="3">
         <v>420900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>394100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>342900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>475700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>474800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>491600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>394100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>498800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>473400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>430900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>335700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>442600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>474800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>437600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>374300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>444000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>550800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>476300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>185700</v>
+        <v>278600</v>
       </c>
       <c r="E9" s="3">
-        <v>198900</v>
+        <v>180200</v>
       </c>
       <c r="F9" s="3">
-        <v>240600</v>
+        <v>193000</v>
       </c>
       <c r="G9" s="3">
-        <v>289400</v>
+        <v>233500</v>
       </c>
       <c r="H9" s="3">
-        <v>196500</v>
+        <v>696000</v>
       </c>
       <c r="I9" s="3">
-        <v>226700</v>
+        <v>190700</v>
       </c>
       <c r="J9" s="3">
+        <v>220000</v>
+      </c>
+      <c r="K9" s="3">
         <v>253000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>193200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>118500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>186800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>322000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>307600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>243500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>361800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>361500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>311000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>227300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>308600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>326000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>307400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>228500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>288100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>311100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>322700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>168700</v>
+        <v>419000</v>
       </c>
       <c r="E10" s="3">
-        <v>369900</v>
+        <v>163700</v>
       </c>
       <c r="F10" s="3">
-        <v>231400</v>
+        <v>358900</v>
       </c>
       <c r="G10" s="3">
-        <v>368300</v>
+        <v>224500</v>
       </c>
       <c r="H10" s="3">
-        <v>282400</v>
+        <v>889000</v>
       </c>
       <c r="I10" s="3">
-        <v>270000</v>
+        <v>274100</v>
       </c>
       <c r="J10" s="3">
+        <v>262100</v>
+      </c>
+      <c r="K10" s="3">
         <v>167900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>224400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>288900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>152800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>184000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>150700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>137000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>111900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>119900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>108400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>134000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>148800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>130200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>145900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>156000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>239700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>153600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>150600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,168 +1223,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-18600</v>
+        <v>52600</v>
       </c>
       <c r="E14" s="3">
-        <v>-32500</v>
+        <v>-18000</v>
       </c>
       <c r="F14" s="3">
-        <v>21700</v>
+        <v>-31500</v>
       </c>
       <c r="G14" s="3">
-        <v>444900</v>
+        <v>21000</v>
       </c>
       <c r="H14" s="3">
-        <v>12400</v>
+        <v>897300</v>
       </c>
       <c r="I14" s="3">
-        <v>22400</v>
+        <v>12000</v>
       </c>
       <c r="J14" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K14" s="3">
         <v>13200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>58300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>25100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-32200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>36600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-18200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>17500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>41400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3800</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>4500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>14900</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>21500</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>800</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>89000</v>
+        <v>134400</v>
       </c>
       <c r="E15" s="3">
-        <v>90500</v>
+        <v>86300</v>
       </c>
       <c r="F15" s="3">
-        <v>103700</v>
+        <v>87900</v>
       </c>
       <c r="G15" s="3">
-        <v>95200</v>
+        <v>100600</v>
       </c>
       <c r="H15" s="3">
-        <v>95200</v>
+        <v>296600</v>
       </c>
       <c r="I15" s="3">
-        <v>115300</v>
+        <v>92400</v>
       </c>
       <c r="J15" s="3">
+        <v>111900</v>
+      </c>
+      <c r="K15" s="3">
         <v>133900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>124200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>127900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>122500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>120100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>122700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>113400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>111600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>115700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>106100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>109900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>97900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>134000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>117600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>114600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>109900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>143700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>111400</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>112900</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>338100</v>
+        <v>564600</v>
       </c>
       <c r="E17" s="3">
-        <v>336600</v>
+        <v>328100</v>
       </c>
       <c r="F17" s="3">
-        <v>452600</v>
+        <v>326600</v>
       </c>
       <c r="G17" s="3">
-        <v>974200</v>
+        <v>439300</v>
       </c>
       <c r="H17" s="3">
-        <v>418600</v>
+        <v>1783300</v>
       </c>
       <c r="I17" s="3">
-        <v>444900</v>
+        <v>406200</v>
       </c>
       <c r="J17" s="3">
+        <v>431700</v>
+      </c>
+      <c r="K17" s="3">
         <v>512200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>461500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>357800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>376800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>402300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>363100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>353700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>471100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>493200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>452000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>344800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>289800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>451000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>427200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>356500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>396400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>333400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>440200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>16200</v>
+        <v>132900</v>
       </c>
       <c r="E18" s="3">
-        <v>232100</v>
+        <v>15800</v>
       </c>
       <c r="F18" s="3">
-        <v>19300</v>
+        <v>225300</v>
       </c>
       <c r="G18" s="3">
-        <v>-316500</v>
+        <v>18800</v>
       </c>
       <c r="H18" s="3">
-        <v>60400</v>
+        <v>-198200</v>
       </c>
       <c r="I18" s="3">
-        <v>51800</v>
+        <v>58600</v>
       </c>
       <c r="J18" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-91300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-67500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>98900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>72500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>128500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>40400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>27700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-19800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-21100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-9000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>152800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>23800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>10400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>17900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>47600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>217400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>36100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1616,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8500</v>
+        <v>-3800</v>
       </c>
       <c r="E20" s="3">
-        <v>-7700</v>
+        <v>8300</v>
       </c>
       <c r="F20" s="3">
-        <v>-5400</v>
+        <v>-7500</v>
       </c>
       <c r="G20" s="3">
-        <v>15500</v>
+        <v>-5300</v>
       </c>
       <c r="H20" s="3">
-        <v>31000</v>
+        <v>54100</v>
       </c>
       <c r="I20" s="3">
-        <v>3900</v>
+        <v>30000</v>
       </c>
       <c r="J20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-22800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>74100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-18200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-22200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-9400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>8200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>9700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>4600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>18400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>15400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>113700</v>
+        <v>263600</v>
       </c>
       <c r="E21" s="3">
-        <v>314900</v>
+        <v>110400</v>
       </c>
       <c r="F21" s="3">
-        <v>126100</v>
+        <v>305600</v>
       </c>
       <c r="G21" s="3">
-        <v>-148600</v>
+        <v>122400</v>
       </c>
       <c r="H21" s="3">
-        <v>225200</v>
+        <v>286800</v>
       </c>
       <c r="I21" s="3">
-        <v>213600</v>
+        <v>218500</v>
       </c>
       <c r="J21" s="3">
+        <v>207200</v>
+      </c>
+      <c r="K21" s="3">
         <v>89000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>85900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>144400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>220600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>290800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>257000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>155400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>155500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>117200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>100300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>122000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>269500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>180100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>137700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>156300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>175200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>394100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>175200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>41800</v>
+        <v>34500</v>
       </c>
       <c r="E22" s="3">
-        <v>37100</v>
+        <v>40500</v>
       </c>
       <c r="F22" s="3">
-        <v>38700</v>
+        <v>36000</v>
       </c>
       <c r="G22" s="3">
+        <v>37500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>117100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>34500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>38300</v>
+      </c>
+      <c r="K22" s="3">
         <v>40200</v>
       </c>
-      <c r="H22" s="3">
-        <v>35600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>39500</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
+        <v>35300</v>
+      </c>
+      <c r="M22" s="3">
+        <v>37700</v>
+      </c>
+      <c r="N22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="O22" s="3">
+        <v>35100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>38100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>37300</v>
+      </c>
+      <c r="R22" s="3">
+        <v>31600</v>
+      </c>
+      <c r="S22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="T22" s="3">
+        <v>33400</v>
+      </c>
+      <c r="U22" s="3">
+        <v>39900</v>
+      </c>
+      <c r="V22" s="3">
+        <v>42900</v>
+      </c>
+      <c r="W22" s="3">
         <v>40200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>35300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>37700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>40000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>35100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>38100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>37300</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>31600</v>
-      </c>
-      <c r="R22" s="3">
-        <v>32000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>33400</v>
-      </c>
-      <c r="T22" s="3">
-        <v>39900</v>
-      </c>
-      <c r="U22" s="3">
-        <v>42900</v>
-      </c>
-      <c r="V22" s="3">
-        <v>40200</v>
-      </c>
-      <c r="W22" s="3">
-        <v>38700</v>
       </c>
       <c r="X22" s="3">
         <v>38700</v>
       </c>
       <c r="Y22" s="3">
+        <v>38700</v>
+      </c>
+      <c r="Z22" s="3">
         <v>40700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>41500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>42300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-17000</v>
+        <v>94600</v>
       </c>
       <c r="E23" s="3">
-        <v>187200</v>
+        <v>-16500</v>
       </c>
       <c r="F23" s="3">
-        <v>-24800</v>
+        <v>181700</v>
       </c>
       <c r="G23" s="3">
-        <v>-341200</v>
+        <v>-24000</v>
       </c>
       <c r="H23" s="3">
-        <v>55700</v>
+        <v>-261300</v>
       </c>
       <c r="I23" s="3">
-        <v>16200</v>
+        <v>54100</v>
       </c>
       <c r="J23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-130000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-98900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-40800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>36100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>111500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>72100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-10000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-57100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-63900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-55000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>105400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-8200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-32000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-11200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>11500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>194400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>9200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>28600</v>
+        <v>22500</v>
       </c>
       <c r="E24" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F24" s="3">
+        <v>27000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>31500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>33000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O24" s="3">
+        <v>31200</v>
+      </c>
+      <c r="P24" s="3">
+        <v>8300</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="R24" s="3">
+        <v>13100</v>
+      </c>
+      <c r="S24" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="T24" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="U24" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="V24" s="3">
         <v>27900</v>
       </c>
-      <c r="F24" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>34000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>15500</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-19300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-13300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N24" s="3">
-        <v>31200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>8300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-39700</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>13100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="S24" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="T24" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="U24" s="3">
-        <v>27900</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>78100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-3700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-14100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-13100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>63000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-45700</v>
+        <v>72100</v>
       </c>
       <c r="E26" s="3">
-        <v>159400</v>
+        <v>-44300</v>
       </c>
       <c r="F26" s="3">
-        <v>-27100</v>
+        <v>154700</v>
       </c>
       <c r="G26" s="3">
-        <v>-324200</v>
+        <v>-26300</v>
       </c>
       <c r="H26" s="3">
-        <v>21700</v>
+        <v>-292800</v>
       </c>
       <c r="I26" s="3">
+        <v>21000</v>
+      </c>
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-110600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-91200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-27500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>34500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>80300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>63800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>20600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-23100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-44900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-48700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-50400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>77500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-86300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-28300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>24600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>131400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>10800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-61900</v>
+        <v>45800</v>
       </c>
       <c r="E27" s="3">
-        <v>143900</v>
+        <v>-60100</v>
       </c>
       <c r="F27" s="3">
-        <v>-60400</v>
+        <v>139700</v>
       </c>
       <c r="G27" s="3">
-        <v>-352800</v>
+        <v>-58600</v>
       </c>
       <c r="H27" s="3">
-        <v>-9300</v>
+        <v>-373900</v>
       </c>
       <c r="I27" s="3">
-        <v>-23200</v>
+        <v>-9000</v>
       </c>
       <c r="J27" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-129200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-104300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-47100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>21200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>51500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>42300</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-50000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-92900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-62500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-79000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>48900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-107900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-20100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-13400</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>46900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-9200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8500</v>
+        <v>3800</v>
       </c>
       <c r="E32" s="3">
-        <v>7700</v>
+        <v>-8300</v>
       </c>
       <c r="F32" s="3">
-        <v>5400</v>
+        <v>7500</v>
       </c>
       <c r="G32" s="3">
-        <v>-15500</v>
+        <v>5300</v>
       </c>
       <c r="H32" s="3">
-        <v>-31000</v>
+        <v>-54100</v>
       </c>
       <c r="I32" s="3">
-        <v>-3900</v>
+        <v>-30000</v>
       </c>
       <c r="J32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>22800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-74100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>18200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>22200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>9400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-8200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-4600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-18400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-15400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-61900</v>
+        <v>45800</v>
       </c>
       <c r="E33" s="3">
-        <v>143900</v>
+        <v>-60100</v>
       </c>
       <c r="F33" s="3">
-        <v>-60400</v>
+        <v>139700</v>
       </c>
       <c r="G33" s="3">
-        <v>-352800</v>
+        <v>-58600</v>
       </c>
       <c r="H33" s="3">
-        <v>-9300</v>
+        <v>-373900</v>
       </c>
       <c r="I33" s="3">
-        <v>-23200</v>
+        <v>-9000</v>
       </c>
       <c r="J33" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-129200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-104300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-47100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>21200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>51500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>42300</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-50000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-92900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-62500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-79000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>48900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-107900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-20100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-13400</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>46900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-9200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-61900</v>
+        <v>45800</v>
       </c>
       <c r="E35" s="3">
-        <v>143900</v>
+        <v>-60100</v>
       </c>
       <c r="F35" s="3">
-        <v>-60400</v>
+        <v>139700</v>
       </c>
       <c r="G35" s="3">
-        <v>-352800</v>
+        <v>-58600</v>
       </c>
       <c r="H35" s="3">
-        <v>-9300</v>
+        <v>-373900</v>
       </c>
       <c r="I35" s="3">
-        <v>-23200</v>
+        <v>-9000</v>
       </c>
       <c r="J35" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-129200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-104300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-47100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>21200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>51500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>42300</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-50000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-92900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-62500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-79000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>48900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-107900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-20100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-13400</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>46900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-9200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,139 +3094,143 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>694800</v>
+        <v>612700</v>
       </c>
       <c r="E41" s="3">
-        <v>944700</v>
+        <v>674300</v>
       </c>
       <c r="F41" s="3">
-        <v>732700</v>
+        <v>916800</v>
       </c>
       <c r="G41" s="3">
-        <v>835700</v>
+        <v>711100</v>
       </c>
       <c r="H41" s="3">
-        <v>496700</v>
+        <v>810900</v>
       </c>
       <c r="I41" s="3">
-        <v>501400</v>
+        <v>482100</v>
       </c>
       <c r="J41" s="3">
+        <v>486600</v>
+      </c>
+      <c r="K41" s="3">
         <v>543900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>207000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>201700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>265300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>320400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>270300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>164900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>83900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>67700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>69000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>92600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>247700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>233700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>64700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>37200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>387200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>234300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>120600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>466600</v>
+        <v>566900</v>
       </c>
       <c r="E42" s="3">
-        <v>397700</v>
+        <v>452800</v>
       </c>
       <c r="F42" s="3">
-        <v>238300</v>
+        <v>385900</v>
       </c>
       <c r="G42" s="3">
-        <v>317200</v>
+        <v>231300</v>
       </c>
       <c r="H42" s="3">
-        <v>174100</v>
+        <v>307900</v>
       </c>
       <c r="I42" s="3">
-        <v>126900</v>
+        <v>168900</v>
       </c>
       <c r="J42" s="3">
+        <v>123100</v>
+      </c>
+      <c r="K42" s="3">
         <v>132300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>147200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>215800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>208000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>129400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>132600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>130800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>107000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>111100</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
       <c r="T42" s="3">
         <v>0</v>
       </c>
@@ -3168,568 +3258,592 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>794600</v>
+        <v>996400</v>
       </c>
       <c r="E43" s="3">
-        <v>419400</v>
+        <v>771100</v>
       </c>
       <c r="F43" s="3">
-        <v>503700</v>
+        <v>407000</v>
       </c>
       <c r="G43" s="3">
-        <v>399300</v>
+        <v>488800</v>
       </c>
       <c r="H43" s="3">
-        <v>537800</v>
+        <v>387400</v>
       </c>
       <c r="I43" s="3">
-        <v>439500</v>
+        <v>521800</v>
       </c>
       <c r="J43" s="3">
+        <v>426500</v>
+      </c>
+      <c r="K43" s="3">
         <v>451100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>371800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>335900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>338400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>360200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>374700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>399700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>562700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>575400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>472300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>423100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>505100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>694300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>829000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>499400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>504700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>480900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>383300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>347200</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>120700</v>
+        <v>128400</v>
       </c>
       <c r="E44" s="3">
-        <v>119200</v>
+        <v>117100</v>
       </c>
       <c r="F44" s="3">
-        <v>129200</v>
+        <v>115600</v>
       </c>
       <c r="G44" s="3">
-        <v>143900</v>
+        <v>125400</v>
       </c>
       <c r="H44" s="3">
-        <v>160900</v>
+        <v>139700</v>
       </c>
       <c r="I44" s="3">
-        <v>167100</v>
+        <v>156200</v>
       </c>
       <c r="J44" s="3">
+        <v>162200</v>
+      </c>
+      <c r="K44" s="3">
         <v>184200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>197800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>233100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>206500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>195700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>202300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>212500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>174000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>184200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>191800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>211500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>168600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>163000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>173400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>183800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>152100</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>163600</v>
       </c>
       <c r="AA44" s="3">
         <v>163600</v>
       </c>
       <c r="AB44" s="3">
+        <v>163600</v>
+      </c>
+      <c r="AC44" s="3">
         <v>182800</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>101400</v>
+        <v>110400</v>
       </c>
       <c r="E45" s="3">
-        <v>96700</v>
+        <v>98400</v>
       </c>
       <c r="F45" s="3">
-        <v>95900</v>
+        <v>93900</v>
       </c>
       <c r="G45" s="3">
-        <v>92100</v>
+        <v>93100</v>
       </c>
       <c r="H45" s="3">
-        <v>92900</v>
+        <v>89400</v>
       </c>
       <c r="I45" s="3">
-        <v>164800</v>
+        <v>90100</v>
       </c>
       <c r="J45" s="3">
+        <v>159900</v>
+      </c>
+      <c r="K45" s="3">
         <v>160200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>143400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>50200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>54200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>39800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>252900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>55500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>43100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>60100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>199100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>173100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>170900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>180800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>173400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>206900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>255800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>315000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>227400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2178100</v>
+        <v>2414800</v>
       </c>
       <c r="E46" s="3">
-        <v>1977700</v>
+        <v>2113700</v>
       </c>
       <c r="F46" s="3">
-        <v>1699900</v>
+        <v>1919200</v>
       </c>
       <c r="G46" s="3">
-        <v>1788100</v>
+        <v>1649600</v>
       </c>
       <c r="H46" s="3">
-        <v>1462400</v>
+        <v>1735200</v>
       </c>
       <c r="I46" s="3">
-        <v>1399700</v>
+        <v>1419100</v>
       </c>
       <c r="J46" s="3">
+        <v>1358300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1471700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1067200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1036600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1072400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1045500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1232800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>963500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>970700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>998600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>932300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>900300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1092300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1271900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1240600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>927300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1299800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1193800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>895000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>828200</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>212800</v>
+        <v>201200</v>
       </c>
       <c r="E47" s="3">
-        <v>215100</v>
+        <v>206500</v>
       </c>
       <c r="F47" s="3">
-        <v>224400</v>
+        <v>208700</v>
       </c>
       <c r="G47" s="3">
-        <v>227500</v>
+        <v>217700</v>
       </c>
       <c r="H47" s="3">
-        <v>231400</v>
+        <v>220800</v>
       </c>
       <c r="I47" s="3">
-        <v>245300</v>
+        <v>224500</v>
       </c>
       <c r="J47" s="3">
+        <v>238000</v>
+      </c>
+      <c r="K47" s="3">
         <v>253800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>125700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>131800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>135000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>137200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>148400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>145100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>144000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>145400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>142400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>152100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>157300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>160000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>171200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>500100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>535500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>552400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>554700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4055200</v>
+        <v>4047100</v>
       </c>
       <c r="E48" s="3">
-        <v>4088500</v>
+        <v>3935300</v>
       </c>
       <c r="F48" s="3">
-        <v>4189900</v>
+        <v>3967500</v>
       </c>
       <c r="G48" s="3">
-        <v>4093100</v>
+        <v>4065900</v>
       </c>
       <c r="H48" s="3">
-        <v>4422800</v>
+        <v>3972000</v>
       </c>
       <c r="I48" s="3">
-        <v>4480000</v>
+        <v>4291900</v>
       </c>
       <c r="J48" s="3">
+        <v>4347500</v>
+      </c>
+      <c r="K48" s="3">
         <v>4613900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4627400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4776700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4883000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4953200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4956900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4850900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4703600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4691400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4506200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4787000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4869800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4895400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4952000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4989200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5232400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5242400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5354600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>5337700</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>559400</v>
+        <v>542100</v>
       </c>
       <c r="E49" s="3">
-        <v>563300</v>
+        <v>542900</v>
       </c>
       <c r="F49" s="3">
-        <v>556300</v>
+        <v>546600</v>
       </c>
       <c r="G49" s="3">
-        <v>558600</v>
+        <v>539900</v>
       </c>
       <c r="H49" s="3">
-        <v>567900</v>
+        <v>542100</v>
       </c>
       <c r="I49" s="3">
-        <v>579500</v>
+        <v>551100</v>
       </c>
       <c r="J49" s="3">
+        <v>562400</v>
+      </c>
+      <c r="K49" s="3">
         <v>600400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>607200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>632500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>610800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>609700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>654100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>654200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>643600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>637000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>585000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>612000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>618800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>615500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>617700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>600600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>623000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>629200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>630700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4005,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>411600</v>
+        <v>337100</v>
       </c>
       <c r="E52" s="3">
-        <v>448000</v>
+        <v>399500</v>
       </c>
       <c r="F52" s="3">
-        <v>468100</v>
+        <v>434700</v>
       </c>
       <c r="G52" s="3">
-        <v>543900</v>
+        <v>454300</v>
       </c>
       <c r="H52" s="3">
-        <v>562500</v>
+        <v>527900</v>
       </c>
       <c r="I52" s="3">
-        <v>583400</v>
+        <v>545900</v>
       </c>
       <c r="J52" s="3">
+        <v>566100</v>
+      </c>
+      <c r="K52" s="3">
         <v>602000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>648600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>775300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>711300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>667400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>685600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>681200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>719000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>703200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>680200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>770100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>761800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>725600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>729300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>736800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>797400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>829700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>745200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>739800</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7417200</v>
+        <v>7542400</v>
       </c>
       <c r="E54" s="3">
-        <v>7292600</v>
+        <v>7197700</v>
       </c>
       <c r="F54" s="3">
-        <v>7138600</v>
+        <v>7076900</v>
       </c>
       <c r="G54" s="3">
-        <v>7211400</v>
+        <v>6927400</v>
       </c>
       <c r="H54" s="3">
-        <v>7246900</v>
+        <v>6998000</v>
       </c>
       <c r="I54" s="3">
-        <v>7288000</v>
+        <v>7032600</v>
       </c>
       <c r="J54" s="3">
+        <v>7072400</v>
+      </c>
+      <c r="K54" s="3">
         <v>7541700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7076100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7353000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7412400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7413100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7677800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7295000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7180900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7175600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6846100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7221500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7500000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7668300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7710800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7753900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8488200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8447500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8180100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>8100200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4318,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>886700</v>
+        <v>960300</v>
       </c>
       <c r="E57" s="3">
-        <v>650700</v>
+        <v>860500</v>
       </c>
       <c r="F57" s="3">
-        <v>533100</v>
+        <v>631500</v>
       </c>
       <c r="G57" s="3">
-        <v>598900</v>
+        <v>517300</v>
       </c>
       <c r="H57" s="3">
-        <v>450300</v>
+        <v>581200</v>
       </c>
       <c r="I57" s="3">
-        <v>483600</v>
+        <v>437000</v>
       </c>
       <c r="J57" s="3">
+        <v>469300</v>
+      </c>
+      <c r="K57" s="3">
         <v>463500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>390200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>314700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>324200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>322000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>296000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>288700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>352600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>378300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>346600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>319900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>373400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>442800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>380300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>313300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>351100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>317300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>283500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>229700</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>533900</v>
+        <v>542100</v>
       </c>
       <c r="E58" s="3">
-        <v>643800</v>
+        <v>518100</v>
       </c>
       <c r="F58" s="3">
-        <v>653000</v>
+        <v>624700</v>
       </c>
       <c r="G58" s="3">
-        <v>92100</v>
+        <v>633700</v>
       </c>
       <c r="H58" s="3">
-        <v>89000</v>
+        <v>89400</v>
       </c>
       <c r="I58" s="3">
-        <v>85900</v>
+        <v>86300</v>
       </c>
       <c r="J58" s="3">
+        <v>83300</v>
+      </c>
+      <c r="K58" s="3">
         <v>81200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>393300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>402600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>403500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>85400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>83300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>80800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>112600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>95900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>77500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>105400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>555900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>686900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>701800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>484000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>490900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>452500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>526200</v>
+        <v>720100</v>
       </c>
       <c r="E59" s="3">
-        <v>442600</v>
+        <v>510600</v>
       </c>
       <c r="F59" s="3">
-        <v>308000</v>
+        <v>429500</v>
       </c>
       <c r="G59" s="3">
-        <v>448800</v>
+        <v>298800</v>
       </c>
       <c r="H59" s="3">
-        <v>286300</v>
+        <v>435500</v>
       </c>
       <c r="I59" s="3">
-        <v>154800</v>
+        <v>277800</v>
       </c>
       <c r="J59" s="3">
+        <v>150200</v>
+      </c>
+      <c r="K59" s="3">
         <v>178700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>164800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>185200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>167200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>148900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>228000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>181600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>162400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>173500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>133000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>159600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>203300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>198000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>94500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>105700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>117500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>126800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>218900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>553100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1946800</v>
+        <v>2222500</v>
       </c>
       <c r="E60" s="3">
-        <v>1737100</v>
+        <v>1889200</v>
       </c>
       <c r="F60" s="3">
-        <v>1494100</v>
+        <v>1685700</v>
       </c>
       <c r="G60" s="3">
-        <v>1139700</v>
+        <v>1449900</v>
       </c>
       <c r="H60" s="3">
-        <v>825600</v>
+        <v>1106000</v>
       </c>
       <c r="I60" s="3">
-        <v>724200</v>
+        <v>801200</v>
       </c>
       <c r="J60" s="3">
+        <v>702800</v>
+      </c>
+      <c r="K60" s="3">
         <v>723500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>948300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>902500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>895000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>870900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>609400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>553500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>595800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>664400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>575500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>557100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>682000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1196700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1161700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1120800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>952600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>934900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>954900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>904200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2496100</v>
+        <v>2421500</v>
       </c>
       <c r="E61" s="3">
-        <v>2419500</v>
+        <v>2422300</v>
       </c>
       <c r="F61" s="3">
-        <v>2443500</v>
+        <v>2347900</v>
       </c>
       <c r="G61" s="3">
-        <v>2866000</v>
+        <v>2371200</v>
       </c>
       <c r="H61" s="3">
-        <v>2869100</v>
+        <v>2781200</v>
       </c>
       <c r="I61" s="3">
-        <v>2960400</v>
+        <v>2784200</v>
       </c>
       <c r="J61" s="3">
+        <v>2872800</v>
+      </c>
+      <c r="K61" s="3">
         <v>3084200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2207200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2297700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2348900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2358500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2667100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2590000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2465700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2373800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2217100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2291500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2462400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2202900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2126200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2128400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2822500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2859400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2714200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2710300</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1060000</v>
+        <v>1083500</v>
       </c>
       <c r="E62" s="3">
-        <v>1093300</v>
+        <v>1028700</v>
       </c>
       <c r="F62" s="3">
-        <v>1194700</v>
+        <v>1061000</v>
       </c>
       <c r="G62" s="3">
-        <v>1152900</v>
+        <v>1159300</v>
       </c>
       <c r="H62" s="3">
-        <v>1050800</v>
+        <v>1118800</v>
       </c>
       <c r="I62" s="3">
-        <v>990400</v>
+        <v>1019700</v>
       </c>
       <c r="J62" s="3">
+        <v>961100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1075500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1030400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1020900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>952300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1016700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1080300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1015900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1026900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>990900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>940300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1021500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1029100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1005400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1091800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1081300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1118500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1070900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1025600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>990200</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6199300</v>
+        <v>6387600</v>
       </c>
       <c r="E66" s="3">
-        <v>5981100</v>
+        <v>6015900</v>
       </c>
       <c r="F66" s="3">
-        <v>5914500</v>
+        <v>5804100</v>
       </c>
       <c r="G66" s="3">
-        <v>5950900</v>
+        <v>5739600</v>
       </c>
       <c r="H66" s="3">
-        <v>5550100</v>
+        <v>5774900</v>
       </c>
       <c r="I66" s="3">
-        <v>5477400</v>
+        <v>5385900</v>
       </c>
       <c r="J66" s="3">
+        <v>5315300</v>
+      </c>
+      <c r="K66" s="3">
         <v>5721900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5034500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5059200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5063600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5104500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5269400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5027700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4966100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4894600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4546200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4740300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4962400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5193100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5185700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5167100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5770900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5750200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5562000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5469000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,67 +5343,70 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>707300</v>
+      </c>
+      <c r="E70" s="3">
+        <v>707300</v>
+      </c>
+      <c r="F70" s="3">
+        <v>707300</v>
+      </c>
+      <c r="G70" s="3">
+        <v>707300</v>
+      </c>
+      <c r="H70" s="3">
+        <v>707300</v>
+      </c>
+      <c r="I70" s="3">
+        <v>707300</v>
+      </c>
+      <c r="J70" s="3">
+        <v>707300</v>
+      </c>
+      <c r="K70" s="3">
         <v>728900</v>
       </c>
-      <c r="E70" s="3">
-        <v>728900</v>
-      </c>
-      <c r="F70" s="3">
-        <v>728900</v>
-      </c>
-      <c r="G70" s="3">
-        <v>728900</v>
-      </c>
-      <c r="H70" s="3">
-        <v>728900</v>
-      </c>
-      <c r="I70" s="3">
-        <v>728900</v>
-      </c>
-      <c r="J70" s="3">
-        <v>728900</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>722200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>739200</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>739500</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>734400</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>781000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>747000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>725200</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>716900</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>684500</v>
-      </c>
-      <c r="T70" s="3">
-        <v>709100</v>
       </c>
       <c r="U70" s="3">
         <v>709100</v>
       </c>
       <c r="V70" s="3">
-        <v>701000</v>
+        <v>709100</v>
       </c>
       <c r="W70" s="3">
         <v>701000</v>
@@ -5247,7 +5415,7 @@
         <v>701000</v>
       </c>
       <c r="Y70" s="3">
-        <v>723700</v>
+        <v>701000</v>
       </c>
       <c r="Z70" s="3">
         <v>723700</v>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>723700</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>723700</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1828400</v>
+        <v>-1740500</v>
       </c>
       <c r="E72" s="3">
-        <v>-1756400</v>
+        <v>-1774300</v>
       </c>
       <c r="F72" s="3">
-        <v>-1898000</v>
+        <v>-1704500</v>
       </c>
       <c r="G72" s="3">
-        <v>-1826800</v>
+        <v>-1841900</v>
       </c>
       <c r="H72" s="3">
-        <v>-1454700</v>
+        <v>-1772800</v>
       </c>
       <c r="I72" s="3">
-        <v>-1436100</v>
+        <v>-1411600</v>
       </c>
       <c r="J72" s="3">
+        <v>-1393600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1412900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1261100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1176300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1125000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1134400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1260200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1238700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1199400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1138600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-986100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-952300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-879300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-899700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-785900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-716700</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-716800</v>
       </c>
       <c r="Z72" s="3">
         <v>-716800</v>
       </c>
       <c r="AA72" s="3">
+        <v>-716800</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-775100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-756700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>489000</v>
+        <v>447500</v>
       </c>
       <c r="E76" s="3">
-        <v>582600</v>
+        <v>474500</v>
       </c>
       <c r="F76" s="3">
-        <v>495200</v>
+        <v>565400</v>
       </c>
       <c r="G76" s="3">
-        <v>531600</v>
+        <v>480600</v>
       </c>
       <c r="H76" s="3">
-        <v>968000</v>
+        <v>515800</v>
       </c>
       <c r="I76" s="3">
-        <v>1081700</v>
+        <v>939300</v>
       </c>
       <c r="J76" s="3">
+        <v>1049700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1091000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1319400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1554600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1609400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1574200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1627400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1520200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1489600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1564000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1615400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1772100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1828500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1774200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1824100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1885800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1993600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1973600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1894500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1907500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-61900</v>
+        <v>45800</v>
       </c>
       <c r="E81" s="3">
-        <v>143900</v>
+        <v>-60100</v>
       </c>
       <c r="F81" s="3">
-        <v>-60400</v>
+        <v>139700</v>
       </c>
       <c r="G81" s="3">
-        <v>-352800</v>
+        <v>-58600</v>
       </c>
       <c r="H81" s="3">
-        <v>-9300</v>
+        <v>-373900</v>
       </c>
       <c r="I81" s="3">
-        <v>-23200</v>
+        <v>-9000</v>
       </c>
       <c r="J81" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-129200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-104300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-47100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>21200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>51500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>42300</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-50000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-92900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-62500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-79000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>48900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-107900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-20100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-13400</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>46900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-9200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6211,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>89000</v>
+        <v>134400</v>
       </c>
       <c r="E83" s="3">
-        <v>90500</v>
+        <v>86300</v>
       </c>
       <c r="F83" s="3">
-        <v>112200</v>
+        <v>87900</v>
       </c>
       <c r="G83" s="3">
-        <v>152400</v>
+        <v>108900</v>
       </c>
       <c r="H83" s="3">
+        <v>431000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>129900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>153200</v>
+      </c>
+      <c r="K83" s="3">
+        <v>178700</v>
+      </c>
+      <c r="L83" s="3">
+        <v>149500</v>
+      </c>
+      <c r="M83" s="3">
+        <v>147500</v>
+      </c>
+      <c r="N83" s="3">
+        <v>144400</v>
+      </c>
+      <c r="O83" s="3">
+        <v>144200</v>
+      </c>
+      <c r="P83" s="3">
+        <v>146700</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>137200</v>
+      </c>
+      <c r="R83" s="3">
         <v>133900</v>
       </c>
-      <c r="I83" s="3">
-        <v>157800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>178700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>149500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>147500</v>
-      </c>
-      <c r="M83" s="3">
-        <v>144400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>144200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>146700</v>
-      </c>
-      <c r="P83" s="3">
-        <v>137200</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>133900</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>142300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>130800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>137000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>121200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>148100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>131000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>128700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>122900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>158300</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>123700</v>
       </c>
       <c r="AB83" s="3">
         <v>123700</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>123700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-99800</v>
+        <v>153200</v>
       </c>
       <c r="E89" s="3">
-        <v>349000</v>
+        <v>-96900</v>
       </c>
       <c r="F89" s="3">
-        <v>41800</v>
+        <v>338600</v>
       </c>
       <c r="G89" s="3">
-        <v>472000</v>
+        <v>40500</v>
       </c>
       <c r="H89" s="3">
-        <v>61900</v>
+        <v>711100</v>
       </c>
       <c r="I89" s="3">
-        <v>198900</v>
+        <v>60100</v>
       </c>
       <c r="J89" s="3">
+        <v>193000</v>
+      </c>
+      <c r="K89" s="3">
         <v>85100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>197000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>95000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>168000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>141100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>271900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>204600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>63100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>100500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>115500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>78300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>319900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>60300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>149600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>46900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>215900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>93700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>175200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>91400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-99800</v>
+        <v>-210200</v>
       </c>
       <c r="E91" s="3">
-        <v>-55700</v>
+        <v>-96900</v>
       </c>
       <c r="F91" s="3">
-        <v>-105200</v>
+        <v>-54100</v>
       </c>
       <c r="G91" s="3">
-        <v>-98300</v>
+        <v>-102100</v>
       </c>
       <c r="H91" s="3">
-        <v>-92100</v>
+        <v>-258300</v>
       </c>
       <c r="I91" s="3">
-        <v>-75800</v>
+        <v>-89400</v>
       </c>
       <c r="J91" s="3">
+        <v>-73600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-162500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-98900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-58900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-56500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-138000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-79600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-87200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-26200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-76900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-67600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-45200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-53600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-81100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-72200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-49200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-83700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-76800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-62200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-72700</v>
+        <v>-131400</v>
       </c>
       <c r="E94" s="3">
-        <v>-55700</v>
+        <v>-70600</v>
       </c>
       <c r="F94" s="3">
-        <v>-208900</v>
+        <v>-54100</v>
       </c>
       <c r="G94" s="3">
-        <v>-62700</v>
+        <v>-202700</v>
       </c>
       <c r="H94" s="3">
-        <v>-7700</v>
+        <v>-151700</v>
       </c>
       <c r="I94" s="3">
-        <v>-85900</v>
+        <v>-7500</v>
       </c>
       <c r="J94" s="3">
+        <v>-83300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-246800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-125700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-85500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-74600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-148900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-75400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-140400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-40800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-76100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-98100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-79800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-39900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>224000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-107900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-55100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>3800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-65300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-76100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-58400</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,88 +7186,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-10100</v>
+        <v>-10500</v>
       </c>
       <c r="E96" s="3">
-        <v>-10800</v>
+        <v>-9800</v>
       </c>
       <c r="F96" s="3">
-        <v>-8500</v>
+        <v>-10500</v>
       </c>
       <c r="G96" s="3">
-        <v>-10100</v>
+        <v>-8300</v>
       </c>
       <c r="H96" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-9300</v>
       </c>
-      <c r="I96" s="3">
-        <v>-9300</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-9300</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-9200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-9400</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-8600</v>
       </c>
       <c r="N96" s="3">
         <v>-8600</v>
       </c>
       <c r="O96" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="P96" s="3">
         <v>-9100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-8500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-9100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-8000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-8300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-9000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-8200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-8900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-9200</v>
       </c>
       <c r="Z96" s="3">
         <v>-9200</v>
       </c>
       <c r="AA96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-8500</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7516,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-73500</v>
+        <v>-85600</v>
       </c>
       <c r="E100" s="3">
-        <v>-82000</v>
+        <v>-71300</v>
       </c>
       <c r="F100" s="3">
-        <v>63400</v>
+        <v>-79600</v>
       </c>
       <c r="G100" s="3">
-        <v>-70400</v>
+        <v>61600</v>
       </c>
       <c r="H100" s="3">
-        <v>-56500</v>
+        <v>-273300</v>
       </c>
       <c r="I100" s="3">
-        <v>-154800</v>
+        <v>-54800</v>
       </c>
       <c r="J100" s="3">
+        <v>-150200</v>
+      </c>
+      <c r="K100" s="3">
         <v>496000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-60600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-73800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-153900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>74100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-98700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>15100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-28900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-37100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-154300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-268700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-115400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-13400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-328900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-67600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>86000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-49900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3900</v>
+        <v>2300</v>
       </c>
       <c r="E101" s="3">
-        <v>800</v>
+        <v>-3800</v>
       </c>
       <c r="F101" s="3">
         <v>800</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I101" s="3">
         <v>-2300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>800</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
       <c r="W101" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="X101" s="3">
         <v>-700</v>
       </c>
       <c r="Y101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z101" s="3">
         <v>800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-800</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-249900</v>
+        <v>-61600</v>
       </c>
       <c r="E102" s="3">
-        <v>212000</v>
+        <v>-242500</v>
       </c>
       <c r="F102" s="3">
-        <v>-102900</v>
+        <v>205700</v>
       </c>
       <c r="G102" s="3">
-        <v>338900</v>
+        <v>-99900</v>
       </c>
       <c r="H102" s="3">
+        <v>283100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="K102" s="3">
+        <v>335000</v>
+      </c>
+      <c r="L102" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-57300</v>
+      </c>
+      <c r="O102" s="3">
+        <v>66300</v>
+      </c>
+      <c r="P102" s="3">
+        <v>97800</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>78500</v>
+      </c>
+      <c r="R102" s="3">
+        <v>15400</v>
+      </c>
+      <c r="S102" s="3">
         <v>-4600</v>
       </c>
-      <c r="I102" s="3">
-        <v>-42600</v>
-      </c>
-      <c r="J102" s="3">
-        <v>335000</v>
-      </c>
-      <c r="K102" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-63600</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-57300</v>
-      </c>
-      <c r="N102" s="3">
-        <v>66300</v>
-      </c>
-      <c r="O102" s="3">
-        <v>97800</v>
-      </c>
-      <c r="P102" s="3">
-        <v>78500</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>15400</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-20300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-155100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>168900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>27500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-337900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>152900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>113700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>49200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>48400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>TAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,384 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>697500</v>
+        <v>617600</v>
       </c>
       <c r="E8" s="3">
-        <v>343900</v>
+        <v>671900</v>
       </c>
       <c r="F8" s="3">
-        <v>551900</v>
+        <v>331200</v>
       </c>
       <c r="G8" s="3">
-        <v>458000</v>
+        <v>531600</v>
       </c>
       <c r="H8" s="3">
-        <v>1585100</v>
+        <v>441200</v>
       </c>
       <c r="I8" s="3">
-        <v>464800</v>
+        <v>1526700</v>
       </c>
       <c r="J8" s="3">
+        <v>447700</v>
+      </c>
+      <c r="K8" s="3">
         <v>482100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>420900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>394100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>342900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>475700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>474800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>491600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>394100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>498800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>473400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>430900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>335700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>442600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>474800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>437600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>374300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>444000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>550800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>476300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>278600</v>
+        <v>342100</v>
       </c>
       <c r="E9" s="3">
-        <v>180200</v>
+        <v>268300</v>
       </c>
       <c r="F9" s="3">
-        <v>193000</v>
+        <v>173600</v>
       </c>
       <c r="G9" s="3">
-        <v>233500</v>
+        <v>185900</v>
       </c>
       <c r="H9" s="3">
-        <v>696000</v>
+        <v>224900</v>
       </c>
       <c r="I9" s="3">
-        <v>190700</v>
+        <v>670400</v>
       </c>
       <c r="J9" s="3">
+        <v>183700</v>
+      </c>
+      <c r="K9" s="3">
         <v>220000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>253000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>193200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>118500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>186800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>322000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>307600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>243500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>361800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>361500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>311000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>227300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>308600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>326000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>307400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>228500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>288100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>311100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>322700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>419000</v>
+        <v>275500</v>
       </c>
       <c r="E10" s="3">
-        <v>163700</v>
+        <v>403600</v>
       </c>
       <c r="F10" s="3">
-        <v>358900</v>
+        <v>157700</v>
       </c>
       <c r="G10" s="3">
-        <v>224500</v>
+        <v>345700</v>
       </c>
       <c r="H10" s="3">
-        <v>889000</v>
+        <v>216200</v>
       </c>
       <c r="I10" s="3">
-        <v>274100</v>
+        <v>856300</v>
       </c>
       <c r="J10" s="3">
+        <v>264000</v>
+      </c>
+      <c r="K10" s="3">
         <v>262100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>167900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>224400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>288900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>152800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>184000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>150700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>137000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>111900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>119900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>108400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>134000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>148800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>130200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>145900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>156000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>239700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>153600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>150600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,174 +1242,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>52600</v>
+        <v>3600</v>
       </c>
       <c r="E14" s="3">
-        <v>-18000</v>
+        <v>50600</v>
       </c>
       <c r="F14" s="3">
-        <v>-31500</v>
+        <v>-17400</v>
       </c>
       <c r="G14" s="3">
-        <v>21000</v>
+        <v>-30400</v>
       </c>
       <c r="H14" s="3">
-        <v>897300</v>
+        <v>20300</v>
       </c>
       <c r="I14" s="3">
-        <v>12000</v>
+        <v>864200</v>
       </c>
       <c r="J14" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K14" s="3">
         <v>21800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>13200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>58300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>25100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-32200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>36600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>17500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>41400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3800</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>4500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>14900</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>21500</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>800</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>134400</v>
+        <v>136000</v>
       </c>
       <c r="E15" s="3">
-        <v>86300</v>
+        <v>129500</v>
       </c>
       <c r="F15" s="3">
-        <v>87900</v>
+        <v>83200</v>
       </c>
       <c r="G15" s="3">
-        <v>100600</v>
+        <v>84600</v>
       </c>
       <c r="H15" s="3">
-        <v>296600</v>
+        <v>96900</v>
       </c>
       <c r="I15" s="3">
-        <v>92400</v>
+        <v>285700</v>
       </c>
       <c r="J15" s="3">
+        <v>89000</v>
+      </c>
+      <c r="K15" s="3">
         <v>111900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>133900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>124200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>127900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>122500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>120100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>122700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>113400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>111600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>115700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>106100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>109900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>97900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>134000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>117600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>114600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>109900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>143700</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>111400</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>112900</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>564600</v>
+        <v>593800</v>
       </c>
       <c r="E17" s="3">
-        <v>328100</v>
+        <v>543900</v>
       </c>
       <c r="F17" s="3">
-        <v>326600</v>
+        <v>316000</v>
       </c>
       <c r="G17" s="3">
-        <v>439300</v>
+        <v>314600</v>
       </c>
       <c r="H17" s="3">
-        <v>1783300</v>
+        <v>423100</v>
       </c>
       <c r="I17" s="3">
-        <v>406200</v>
+        <v>1717600</v>
       </c>
       <c r="J17" s="3">
+        <v>391300</v>
+      </c>
+      <c r="K17" s="3">
         <v>431700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>512200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>461500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>357800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>376800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>402300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>363100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>353700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>471100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>493200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>452000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>344800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>289800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>451000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>427200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>356500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>396400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>333400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>440200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>132900</v>
+        <v>23900</v>
       </c>
       <c r="E18" s="3">
-        <v>15800</v>
+        <v>128000</v>
       </c>
       <c r="F18" s="3">
-        <v>225300</v>
+        <v>15200</v>
       </c>
       <c r="G18" s="3">
-        <v>18800</v>
+        <v>217000</v>
       </c>
       <c r="H18" s="3">
-        <v>-198200</v>
+        <v>18100</v>
       </c>
       <c r="I18" s="3">
-        <v>58600</v>
+        <v>-190900</v>
       </c>
       <c r="J18" s="3">
+        <v>56400</v>
+      </c>
+      <c r="K18" s="3">
         <v>50300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-91300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-67500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-14900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>98900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>72500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>128500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>40400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>27700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-19800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-21100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-9000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>152800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>23800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>10400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>17900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>47600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>217400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>36100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,423 +1649,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3800</v>
+        <v>12300</v>
       </c>
       <c r="E20" s="3">
-        <v>8300</v>
+        <v>-3600</v>
       </c>
       <c r="F20" s="3">
-        <v>-7500</v>
+        <v>8000</v>
       </c>
       <c r="G20" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>52100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N20" s="3">
+        <v>11800</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="P20" s="3">
+        <v>74100</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="T20" s="3">
         <v>-5300</v>
       </c>
-      <c r="H20" s="3">
-        <v>54100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>30000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>3800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="L20" s="3">
-        <v>3800</v>
-      </c>
-      <c r="M20" s="3">
-        <v>11800</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-22800</v>
-      </c>
-      <c r="O20" s="3">
-        <v>74100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-22200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-9400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>8200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>9700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>4600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>18400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>15400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>263600</v>
+        <v>172100</v>
       </c>
       <c r="E21" s="3">
-        <v>110400</v>
+        <v>253900</v>
       </c>
       <c r="F21" s="3">
-        <v>305600</v>
+        <v>106300</v>
       </c>
       <c r="G21" s="3">
-        <v>122400</v>
+        <v>294400</v>
       </c>
       <c r="H21" s="3">
-        <v>286800</v>
+        <v>117900</v>
       </c>
       <c r="I21" s="3">
-        <v>218500</v>
+        <v>276300</v>
       </c>
       <c r="J21" s="3">
+        <v>210500</v>
+      </c>
+      <c r="K21" s="3">
         <v>207200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>89000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>85900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>144400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>220600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>290800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>257000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>155400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>155500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>117200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>100300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>122000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>269500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>180100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>137700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>156300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>175200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>394100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>175200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34500</v>
+        <v>31100</v>
       </c>
       <c r="E22" s="3">
-        <v>40500</v>
+        <v>33300</v>
       </c>
       <c r="F22" s="3">
-        <v>36000</v>
+        <v>39100</v>
       </c>
       <c r="G22" s="3">
-        <v>37500</v>
+        <v>34700</v>
       </c>
       <c r="H22" s="3">
-        <v>117100</v>
+        <v>36200</v>
       </c>
       <c r="I22" s="3">
-        <v>34500</v>
+        <v>112800</v>
       </c>
       <c r="J22" s="3">
+        <v>33300</v>
+      </c>
+      <c r="K22" s="3">
         <v>38300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>40200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>35300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>37700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>40000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>35100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>38100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>37300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>31600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>32000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>33400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>39900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>42900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>40200</v>
-      </c>
-      <c r="X22" s="3">
-        <v>38700</v>
       </c>
       <c r="Y22" s="3">
         <v>38700</v>
       </c>
       <c r="Z22" s="3">
+        <v>38700</v>
+      </c>
+      <c r="AA22" s="3">
         <v>40700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>41500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>42300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>94600</v>
+        <v>5100</v>
       </c>
       <c r="E23" s="3">
-        <v>-16500</v>
+        <v>91100</v>
       </c>
       <c r="F23" s="3">
-        <v>181700</v>
+        <v>-15900</v>
       </c>
       <c r="G23" s="3">
-        <v>-24000</v>
+        <v>175000</v>
       </c>
       <c r="H23" s="3">
-        <v>-261300</v>
+        <v>-23100</v>
       </c>
       <c r="I23" s="3">
-        <v>54100</v>
+        <v>-251700</v>
       </c>
       <c r="J23" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K23" s="3">
         <v>15800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-130000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-98900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-40800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>36100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>111500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>72100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-19000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-10000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-57100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-63900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-55000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>105400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-8200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-32000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-11200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>11500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>194400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>9200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22500</v>
+        <v>64400</v>
       </c>
       <c r="E24" s="3">
-        <v>27800</v>
+        <v>21700</v>
       </c>
       <c r="F24" s="3">
-        <v>27000</v>
+        <v>26800</v>
       </c>
       <c r="G24" s="3">
-        <v>2300</v>
+        <v>26000</v>
       </c>
       <c r="H24" s="3">
-        <v>31500</v>
+        <v>2200</v>
       </c>
       <c r="I24" s="3">
-        <v>33000</v>
+        <v>30400</v>
       </c>
       <c r="J24" s="3">
+        <v>31800</v>
+      </c>
+      <c r="K24" s="3">
         <v>15000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-19300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-7700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-13300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>31200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-39700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-12200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-15300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-4500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>27900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>78100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-14100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-13100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>63000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>72100</v>
+        <v>-59300</v>
       </c>
       <c r="E26" s="3">
-        <v>-44300</v>
+        <v>69400</v>
       </c>
       <c r="F26" s="3">
-        <v>154700</v>
+        <v>-42700</v>
       </c>
       <c r="G26" s="3">
-        <v>-26300</v>
+        <v>149000</v>
       </c>
       <c r="H26" s="3">
-        <v>-292800</v>
+        <v>-25300</v>
       </c>
       <c r="I26" s="3">
-        <v>21000</v>
+        <v>-282100</v>
       </c>
       <c r="J26" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-110600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-91200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-27500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>34500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>80300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>63800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>20600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-23100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-44900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-48700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-50400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>77500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-86300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-28300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>24600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>131400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>10800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>45800</v>
+        <v>-117900</v>
       </c>
       <c r="E27" s="3">
-        <v>-60100</v>
+        <v>44100</v>
       </c>
       <c r="F27" s="3">
-        <v>139700</v>
+        <v>-57900</v>
       </c>
       <c r="G27" s="3">
-        <v>-58600</v>
+        <v>134500</v>
       </c>
       <c r="H27" s="3">
-        <v>-373900</v>
+        <v>-56400</v>
       </c>
       <c r="I27" s="3">
-        <v>-9000</v>
+        <v>-360200</v>
       </c>
       <c r="J27" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-22500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-129200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-104300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-47100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>21200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>51500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>42300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-50000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-92900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-62500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-79000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>48900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-107900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-20100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-13400</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>46900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-9200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3800</v>
+        <v>-12300</v>
       </c>
       <c r="E32" s="3">
-        <v>-8300</v>
+        <v>3600</v>
       </c>
       <c r="F32" s="3">
-        <v>7500</v>
+        <v>-8000</v>
       </c>
       <c r="G32" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H32" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="O32" s="3">
+        <v>22800</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>18200</v>
+      </c>
+      <c r="R32" s="3">
+        <v>22200</v>
+      </c>
+      <c r="S32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="T32" s="3">
         <v>5300</v>
       </c>
-      <c r="H32" s="3">
-        <v>-54100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-30000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="N32" s="3">
-        <v>22800</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-74100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>18200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>22200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>6200</v>
-      </c>
-      <c r="S32" s="3">
-        <v>5300</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>9400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-8200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-9700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-4600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-18400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-15400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>45800</v>
+        <v>-117900</v>
       </c>
       <c r="E33" s="3">
-        <v>-60100</v>
+        <v>44100</v>
       </c>
       <c r="F33" s="3">
-        <v>139700</v>
+        <v>-57900</v>
       </c>
       <c r="G33" s="3">
-        <v>-58600</v>
+        <v>134500</v>
       </c>
       <c r="H33" s="3">
-        <v>-373900</v>
+        <v>-56400</v>
       </c>
       <c r="I33" s="3">
-        <v>-9000</v>
+        <v>-360200</v>
       </c>
       <c r="J33" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-22500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-129200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-104300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-47100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>21200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>51500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>42300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-50000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-92900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-62500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-79000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>48900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-107900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-20100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-13400</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>46900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-9200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>45800</v>
+        <v>-117900</v>
       </c>
       <c r="E35" s="3">
-        <v>-60100</v>
+        <v>44100</v>
       </c>
       <c r="F35" s="3">
-        <v>139700</v>
+        <v>-57900</v>
       </c>
       <c r="G35" s="3">
-        <v>-58600</v>
+        <v>134500</v>
       </c>
       <c r="H35" s="3">
-        <v>-373900</v>
+        <v>-56400</v>
       </c>
       <c r="I35" s="3">
-        <v>-9000</v>
+        <v>-360200</v>
       </c>
       <c r="J35" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-22500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-129200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-104300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-47100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>21200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>51500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>42300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-50000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-92900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-62500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-79000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>48900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-107900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-20100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-13400</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>46900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-9200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,145 +3180,149 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>612700</v>
+        <v>820100</v>
       </c>
       <c r="E41" s="3">
-        <v>674300</v>
+        <v>590100</v>
       </c>
       <c r="F41" s="3">
-        <v>916800</v>
+        <v>649500</v>
       </c>
       <c r="G41" s="3">
-        <v>711100</v>
+        <v>883100</v>
       </c>
       <c r="H41" s="3">
-        <v>810900</v>
+        <v>684900</v>
       </c>
       <c r="I41" s="3">
-        <v>482100</v>
+        <v>781100</v>
       </c>
       <c r="J41" s="3">
+        <v>464300</v>
+      </c>
+      <c r="K41" s="3">
         <v>486600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>543900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>207000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>201700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>265300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>320400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>270300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>164900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>83900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>67700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>69000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>92600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>247700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>233700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>64700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>37200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>387200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>234300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>120600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>566900</v>
+        <v>512800</v>
       </c>
       <c r="E42" s="3">
-        <v>452800</v>
+        <v>546000</v>
       </c>
       <c r="F42" s="3">
-        <v>385900</v>
+        <v>436100</v>
       </c>
       <c r="G42" s="3">
-        <v>231300</v>
+        <v>371700</v>
       </c>
       <c r="H42" s="3">
-        <v>307900</v>
+        <v>222800</v>
       </c>
       <c r="I42" s="3">
-        <v>168900</v>
+        <v>296500</v>
       </c>
       <c r="J42" s="3">
+        <v>162700</v>
+      </c>
+      <c r="K42" s="3">
         <v>123100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>132300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>147200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>215800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>208000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>129400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>132600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>130800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>107000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>111100</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
       <c r="U42" s="3">
         <v>0</v>
       </c>
@@ -3261,589 +3350,613 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>996400</v>
+        <v>1149200</v>
       </c>
       <c r="E43" s="3">
-        <v>771100</v>
+        <v>959700</v>
       </c>
       <c r="F43" s="3">
-        <v>407000</v>
+        <v>742700</v>
       </c>
       <c r="G43" s="3">
-        <v>488800</v>
+        <v>392000</v>
       </c>
       <c r="H43" s="3">
-        <v>387400</v>
+        <v>470800</v>
       </c>
       <c r="I43" s="3">
-        <v>521800</v>
+        <v>373200</v>
       </c>
       <c r="J43" s="3">
+        <v>502600</v>
+      </c>
+      <c r="K43" s="3">
         <v>426500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>451100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>371800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>335900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>338400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>360200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>374700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>399700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>562700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>575400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>472300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>423100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>505100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>694300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>829000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>499400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>504700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>480900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>383300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>347200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>128400</v>
+        <v>113500</v>
       </c>
       <c r="E44" s="3">
-        <v>117100</v>
+        <v>123700</v>
       </c>
       <c r="F44" s="3">
-        <v>115600</v>
+        <v>112800</v>
       </c>
       <c r="G44" s="3">
-        <v>125400</v>
+        <v>111400</v>
       </c>
       <c r="H44" s="3">
-        <v>139700</v>
+        <v>120800</v>
       </c>
       <c r="I44" s="3">
-        <v>156200</v>
+        <v>134500</v>
       </c>
       <c r="J44" s="3">
+        <v>150400</v>
+      </c>
+      <c r="K44" s="3">
         <v>162200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>184200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>197800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>233100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>206500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>195700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>202300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>212500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>174000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>184200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>191800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>211500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>168600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>163000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>173400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>183800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>152100</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>163600</v>
       </c>
       <c r="AB44" s="3">
         <v>163600</v>
       </c>
       <c r="AC44" s="3">
+        <v>163600</v>
+      </c>
+      <c r="AD44" s="3">
         <v>182800</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>110400</v>
+        <v>90400</v>
       </c>
       <c r="E45" s="3">
-        <v>98400</v>
+        <v>106300</v>
       </c>
       <c r="F45" s="3">
-        <v>93900</v>
+        <v>94700</v>
       </c>
       <c r="G45" s="3">
-        <v>93100</v>
+        <v>90400</v>
       </c>
       <c r="H45" s="3">
-        <v>89400</v>
+        <v>89700</v>
       </c>
       <c r="I45" s="3">
-        <v>90100</v>
+        <v>86100</v>
       </c>
       <c r="J45" s="3">
+        <v>86800</v>
+      </c>
+      <c r="K45" s="3">
         <v>159900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>160200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>143400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>50200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>54200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>39800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>252900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>55500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>43100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>60100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>199100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>173100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>170900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>180800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>173400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>206900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>255800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>315000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>227400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2414800</v>
+        <v>2686000</v>
       </c>
       <c r="E46" s="3">
-        <v>2113700</v>
+        <v>2325900</v>
       </c>
       <c r="F46" s="3">
-        <v>1919200</v>
+        <v>2035900</v>
       </c>
       <c r="G46" s="3">
-        <v>1649600</v>
+        <v>1848600</v>
       </c>
       <c r="H46" s="3">
-        <v>1735200</v>
+        <v>1588900</v>
       </c>
       <c r="I46" s="3">
-        <v>1419100</v>
+        <v>1671400</v>
       </c>
       <c r="J46" s="3">
+        <v>1366900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1358300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1471700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1067200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1036600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1072400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1045500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1232800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>963500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>970700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>998600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>932300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>900300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1092300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1271900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1240600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>927300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1299800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1193800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>895000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>828200</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>201200</v>
+        <v>186600</v>
       </c>
       <c r="E47" s="3">
-        <v>206500</v>
+        <v>193800</v>
       </c>
       <c r="F47" s="3">
-        <v>208700</v>
+        <v>198900</v>
       </c>
       <c r="G47" s="3">
-        <v>217700</v>
+        <v>201100</v>
       </c>
       <c r="H47" s="3">
-        <v>220800</v>
+        <v>209700</v>
       </c>
       <c r="I47" s="3">
-        <v>224500</v>
+        <v>212600</v>
       </c>
       <c r="J47" s="3">
+        <v>216200</v>
+      </c>
+      <c r="K47" s="3">
         <v>238000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>253800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>125700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>131800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>135000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>137200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>148400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>145100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>144000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>145400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>142400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>152100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>157300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>160000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>171200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>500100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>535500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>552400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>554700</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4047100</v>
+        <v>4109300</v>
       </c>
       <c r="E48" s="3">
-        <v>3935300</v>
+        <v>3898200</v>
       </c>
       <c r="F48" s="3">
-        <v>3967500</v>
+        <v>3790400</v>
       </c>
       <c r="G48" s="3">
-        <v>4065900</v>
+        <v>3821500</v>
       </c>
       <c r="H48" s="3">
-        <v>3972000</v>
+        <v>3916200</v>
       </c>
       <c r="I48" s="3">
-        <v>4291900</v>
+        <v>3825800</v>
       </c>
       <c r="J48" s="3">
+        <v>4133900</v>
+      </c>
+      <c r="K48" s="3">
         <v>4347500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4613900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4627400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4776700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4883000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4953200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4956900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4850900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4703600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4691400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4506200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4787000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4869800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4895400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4952000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4989200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5232400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5242400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>5354600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>5337700</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>542100</v>
+        <v>517800</v>
       </c>
       <c r="E49" s="3">
-        <v>542900</v>
+        <v>522200</v>
       </c>
       <c r="F49" s="3">
-        <v>546600</v>
+        <v>522900</v>
       </c>
       <c r="G49" s="3">
-        <v>539900</v>
+        <v>526500</v>
       </c>
       <c r="H49" s="3">
-        <v>542100</v>
+        <v>520000</v>
       </c>
       <c r="I49" s="3">
-        <v>551100</v>
+        <v>522200</v>
       </c>
       <c r="J49" s="3">
+        <v>530800</v>
+      </c>
+      <c r="K49" s="3">
         <v>562400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>600400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>607200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>632500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>610800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>609700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>654100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>654200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>643600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>637000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>585000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>612000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>618800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>615500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>617700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>600600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>623000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>629200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>630700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>337100</v>
+        <v>268300</v>
       </c>
       <c r="E52" s="3">
-        <v>399500</v>
+        <v>324700</v>
       </c>
       <c r="F52" s="3">
-        <v>434700</v>
+        <v>384800</v>
       </c>
       <c r="G52" s="3">
-        <v>454300</v>
+        <v>418700</v>
       </c>
       <c r="H52" s="3">
-        <v>527900</v>
+        <v>437500</v>
       </c>
       <c r="I52" s="3">
-        <v>545900</v>
+        <v>508400</v>
       </c>
       <c r="J52" s="3">
+        <v>525800</v>
+      </c>
+      <c r="K52" s="3">
         <v>566100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>602000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>648600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>775300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>711300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>667400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>685600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>681200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>719000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>703200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>680200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>770100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>761800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>725600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>729300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>736800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>797400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>829700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>745200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>739800</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7542400</v>
+        <v>7768100</v>
       </c>
       <c r="E54" s="3">
-        <v>7197700</v>
+        <v>7264700</v>
       </c>
       <c r="F54" s="3">
-        <v>7076900</v>
+        <v>6932800</v>
       </c>
       <c r="G54" s="3">
-        <v>6927400</v>
+        <v>6816300</v>
       </c>
       <c r="H54" s="3">
-        <v>6998000</v>
+        <v>6672400</v>
       </c>
       <c r="I54" s="3">
-        <v>7032600</v>
+        <v>6740400</v>
       </c>
       <c r="J54" s="3">
+        <v>6773700</v>
+      </c>
+      <c r="K54" s="3">
         <v>7072400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7541700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7076100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7353000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7412400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7413100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7677800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7295000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7180900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7175600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6846100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7221500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7500000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7668300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7710800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7753900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8488200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8447500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>8180100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>8100200</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,506 +4448,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>960300</v>
+        <v>973500</v>
       </c>
       <c r="E57" s="3">
-        <v>860500</v>
+        <v>925000</v>
       </c>
       <c r="F57" s="3">
-        <v>631500</v>
+        <v>828800</v>
       </c>
       <c r="G57" s="3">
-        <v>517300</v>
+        <v>608200</v>
       </c>
       <c r="H57" s="3">
-        <v>581200</v>
+        <v>498300</v>
       </c>
       <c r="I57" s="3">
-        <v>437000</v>
+        <v>559800</v>
       </c>
       <c r="J57" s="3">
+        <v>420900</v>
+      </c>
+      <c r="K57" s="3">
         <v>469300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>463500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>390200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>314700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>324200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>322000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>296000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>288700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>352600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>378300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>346600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>319900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>373400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>442800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>380300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>313300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>351100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>317300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>283500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>229700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>542100</v>
+        <v>140300</v>
       </c>
       <c r="E58" s="3">
-        <v>518100</v>
+        <v>522200</v>
       </c>
       <c r="F58" s="3">
-        <v>624700</v>
+        <v>499000</v>
       </c>
       <c r="G58" s="3">
-        <v>633700</v>
+        <v>601700</v>
       </c>
       <c r="H58" s="3">
-        <v>89400</v>
+        <v>610400</v>
       </c>
       <c r="I58" s="3">
-        <v>86300</v>
+        <v>86100</v>
       </c>
       <c r="J58" s="3">
+        <v>83200</v>
+      </c>
+      <c r="K58" s="3">
         <v>83300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>81200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>393300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>402600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>403500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>85400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>83300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>80800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>112600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>95900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>77500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>105400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>555900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>686900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>701800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>484000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>490900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>452500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>720100</v>
+        <v>974900</v>
       </c>
       <c r="E59" s="3">
-        <v>510600</v>
+        <v>693600</v>
       </c>
       <c r="F59" s="3">
-        <v>429500</v>
+        <v>491800</v>
       </c>
       <c r="G59" s="3">
-        <v>298800</v>
+        <v>413700</v>
       </c>
       <c r="H59" s="3">
-        <v>435500</v>
+        <v>287800</v>
       </c>
       <c r="I59" s="3">
-        <v>277800</v>
+        <v>419500</v>
       </c>
       <c r="J59" s="3">
+        <v>267600</v>
+      </c>
+      <c r="K59" s="3">
         <v>150200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>178700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>164800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>185200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>167200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>148900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>228000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>181600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>162400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>173500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>133000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>159600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>203300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>198000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>94500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>105700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>117500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>126800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>218900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>553100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2222500</v>
+        <v>2088700</v>
       </c>
       <c r="E60" s="3">
-        <v>1889200</v>
+        <v>2140700</v>
       </c>
       <c r="F60" s="3">
-        <v>1685700</v>
+        <v>1819600</v>
       </c>
       <c r="G60" s="3">
-        <v>1449900</v>
+        <v>1623600</v>
       </c>
       <c r="H60" s="3">
-        <v>1106000</v>
+        <v>1396500</v>
       </c>
       <c r="I60" s="3">
-        <v>801200</v>
+        <v>1065300</v>
       </c>
       <c r="J60" s="3">
+        <v>771700</v>
+      </c>
+      <c r="K60" s="3">
         <v>702800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>723500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>948300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>902500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>895000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>870900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>609400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>553500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>595800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>664400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>575500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>557100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>682000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1196700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1161700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1120800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>952600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>934900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>954900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>904200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2421500</v>
+        <v>3047600</v>
       </c>
       <c r="E61" s="3">
-        <v>2422300</v>
+        <v>2332400</v>
       </c>
       <c r="F61" s="3">
-        <v>2347900</v>
+        <v>2333100</v>
       </c>
       <c r="G61" s="3">
-        <v>2371200</v>
+        <v>2261500</v>
       </c>
       <c r="H61" s="3">
-        <v>2781200</v>
+        <v>2283900</v>
       </c>
       <c r="I61" s="3">
-        <v>2784200</v>
+        <v>2678800</v>
       </c>
       <c r="J61" s="3">
+        <v>2681700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2872800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3084200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2207200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2297700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2348900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2358500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2667100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2590000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2465700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2373800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2217100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2291500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2462400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2202900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2126200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2128400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2822500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2859400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2714200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2710300</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1083500</v>
+        <v>1193300</v>
       </c>
       <c r="E62" s="3">
-        <v>1028700</v>
+        <v>1043600</v>
       </c>
       <c r="F62" s="3">
-        <v>1061000</v>
+        <v>990800</v>
       </c>
       <c r="G62" s="3">
-        <v>1159300</v>
+        <v>1021900</v>
       </c>
       <c r="H62" s="3">
-        <v>1118800</v>
+        <v>1116700</v>
       </c>
       <c r="I62" s="3">
-        <v>1019700</v>
+        <v>1077600</v>
       </c>
       <c r="J62" s="3">
+        <v>982100</v>
+      </c>
+      <c r="K62" s="3">
         <v>961100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1075500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1030400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1020900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>952300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1016700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1080300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1015900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1026900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>990900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>940300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1021500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1029100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1005400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1091800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1081300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1118500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1070900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1025600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>990200</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6387600</v>
+        <v>6965300</v>
       </c>
       <c r="E66" s="3">
-        <v>6015900</v>
+        <v>6152400</v>
       </c>
       <c r="F66" s="3">
-        <v>5804100</v>
+        <v>5794400</v>
       </c>
       <c r="G66" s="3">
-        <v>5739600</v>
+        <v>5590500</v>
       </c>
       <c r="H66" s="3">
-        <v>5774900</v>
+        <v>5528300</v>
       </c>
       <c r="I66" s="3">
-        <v>5385900</v>
+        <v>5562300</v>
       </c>
       <c r="J66" s="3">
+        <v>5187700</v>
+      </c>
+      <c r="K66" s="3">
         <v>5315300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5721900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5034500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5059200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5063600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5104500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5269400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5027700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4966100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4894600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4546200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4740300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4962400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5193100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5185700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5167100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5770900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5750200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5562000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>5469000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,70 +5510,73 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>681300</v>
+      </c>
+      <c r="E70" s="3">
+        <v>681300</v>
+      </c>
+      <c r="F70" s="3">
+        <v>681300</v>
+      </c>
+      <c r="G70" s="3">
+        <v>681300</v>
+      </c>
+      <c r="H70" s="3">
+        <v>681300</v>
+      </c>
+      <c r="I70" s="3">
+        <v>681300</v>
+      </c>
+      <c r="J70" s="3">
+        <v>681300</v>
+      </c>
+      <c r="K70" s="3">
         <v>707300</v>
       </c>
-      <c r="E70" s="3">
-        <v>707300</v>
-      </c>
-      <c r="F70" s="3">
-        <v>707300</v>
-      </c>
-      <c r="G70" s="3">
-        <v>707300</v>
-      </c>
-      <c r="H70" s="3">
-        <v>707300</v>
-      </c>
-      <c r="I70" s="3">
-        <v>707300</v>
-      </c>
-      <c r="J70" s="3">
-        <v>707300</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>728900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>722200</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>739200</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>739500</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>734400</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>781000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>747000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>725200</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>716900</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>684500</v>
-      </c>
-      <c r="U70" s="3">
-        <v>709100</v>
       </c>
       <c r="V70" s="3">
         <v>709100</v>
       </c>
       <c r="W70" s="3">
-        <v>701000</v>
+        <v>709100</v>
       </c>
       <c r="X70" s="3">
         <v>701000</v>
@@ -5418,7 +5585,7 @@
         <v>701000</v>
       </c>
       <c r="Z70" s="3">
-        <v>723700</v>
+        <v>701000</v>
       </c>
       <c r="AA70" s="3">
         <v>723700</v>
@@ -5429,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>723700</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>723700</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1740500</v>
+        <v>-1818200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1774300</v>
+        <v>-1676400</v>
       </c>
       <c r="F72" s="3">
-        <v>-1704500</v>
+        <v>-1709000</v>
       </c>
       <c r="G72" s="3">
-        <v>-1841900</v>
+        <v>-1641700</v>
       </c>
       <c r="H72" s="3">
-        <v>-1772800</v>
+        <v>-1774100</v>
       </c>
       <c r="I72" s="3">
-        <v>-1411600</v>
+        <v>-1707500</v>
       </c>
       <c r="J72" s="3">
+        <v>-1359700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1393600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1412900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1261100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1176300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1125000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1134400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1260200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1238700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1199400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1138600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-986100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-952300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-879300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-899700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-785900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-716700</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-716800</v>
       </c>
       <c r="AA72" s="3">
         <v>-716800</v>
       </c>
       <c r="AB72" s="3">
+        <v>-716800</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-775100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-756700</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>447500</v>
+        <v>121500</v>
       </c>
       <c r="E76" s="3">
-        <v>474500</v>
+        <v>431000</v>
       </c>
       <c r="F76" s="3">
-        <v>565400</v>
+        <v>457100</v>
       </c>
       <c r="G76" s="3">
-        <v>480600</v>
+        <v>544600</v>
       </c>
       <c r="H76" s="3">
-        <v>515800</v>
+        <v>462900</v>
       </c>
       <c r="I76" s="3">
-        <v>939300</v>
+        <v>496900</v>
       </c>
       <c r="J76" s="3">
+        <v>904700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1049700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1091000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1319400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1554600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1609400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1574200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1627400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1520200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1489600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1564000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1615400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1772100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1828500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1774200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1824100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1885800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1993600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1973600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1894500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1907500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>45800</v>
+        <v>-117900</v>
       </c>
       <c r="E81" s="3">
-        <v>-60100</v>
+        <v>44100</v>
       </c>
       <c r="F81" s="3">
-        <v>139700</v>
+        <v>-57900</v>
       </c>
       <c r="G81" s="3">
-        <v>-58600</v>
+        <v>134500</v>
       </c>
       <c r="H81" s="3">
-        <v>-373900</v>
+        <v>-56400</v>
       </c>
       <c r="I81" s="3">
-        <v>-9000</v>
+        <v>-360200</v>
       </c>
       <c r="J81" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-22500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-129200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-104300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-47100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>21200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>51500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>42300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-50000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-92900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-62500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-79000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>48900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-107900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-20100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-13400</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>46900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-9200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>134400</v>
+        <v>136000</v>
       </c>
       <c r="E83" s="3">
-        <v>86300</v>
+        <v>129500</v>
       </c>
       <c r="F83" s="3">
-        <v>87900</v>
+        <v>83200</v>
       </c>
       <c r="G83" s="3">
-        <v>108900</v>
+        <v>84600</v>
       </c>
       <c r="H83" s="3">
-        <v>431000</v>
+        <v>104900</v>
       </c>
       <c r="I83" s="3">
-        <v>129900</v>
+        <v>415100</v>
       </c>
       <c r="J83" s="3">
+        <v>125100</v>
+      </c>
+      <c r="K83" s="3">
         <v>153200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>178700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>149500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>147500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>144400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>144200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>146700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>137200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>133900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>142300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>130800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>137000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>121200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>148100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>131000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>128700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>122900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>158300</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>123700</v>
       </c>
       <c r="AC83" s="3">
         <v>123700</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>123700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>153200</v>
+        <v>253900</v>
       </c>
       <c r="E89" s="3">
-        <v>-96900</v>
+        <v>147500</v>
       </c>
       <c r="F89" s="3">
-        <v>338600</v>
+        <v>-93300</v>
       </c>
       <c r="G89" s="3">
-        <v>40500</v>
+        <v>326200</v>
       </c>
       <c r="H89" s="3">
-        <v>711100</v>
+        <v>39100</v>
       </c>
       <c r="I89" s="3">
-        <v>60100</v>
+        <v>684900</v>
       </c>
       <c r="J89" s="3">
+        <v>57900</v>
+      </c>
+      <c r="K89" s="3">
         <v>193000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>85100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>197000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>95000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>168000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>141100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>271900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>204600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>63100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>100500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>115500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>78300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>319900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>60300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>149600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>46900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>215900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>93700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>175200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>91400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-210200</v>
+        <v>-316000</v>
       </c>
       <c r="E91" s="3">
-        <v>-96900</v>
+        <v>-202500</v>
       </c>
       <c r="F91" s="3">
-        <v>-54100</v>
+        <v>-93300</v>
       </c>
       <c r="G91" s="3">
-        <v>-102100</v>
+        <v>-52100</v>
       </c>
       <c r="H91" s="3">
-        <v>-258300</v>
+        <v>-98400</v>
       </c>
       <c r="I91" s="3">
-        <v>-89400</v>
+        <v>-248800</v>
       </c>
       <c r="J91" s="3">
+        <v>-86100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-73600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-162500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-98900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-58900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-56500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-138000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-79600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-87200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-26200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-76900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-67600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-45200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-53600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-81100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-72200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-49200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-83700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-76800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-62200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-131400</v>
+        <v>-289300</v>
       </c>
       <c r="E94" s="3">
-        <v>-70600</v>
+        <v>-126600</v>
       </c>
       <c r="F94" s="3">
-        <v>-54100</v>
+        <v>-68000</v>
       </c>
       <c r="G94" s="3">
-        <v>-202700</v>
+        <v>-52100</v>
       </c>
       <c r="H94" s="3">
-        <v>-151700</v>
+        <v>-195300</v>
       </c>
       <c r="I94" s="3">
-        <v>-7500</v>
+        <v>-146100</v>
       </c>
       <c r="J94" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-83300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-246800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-125700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-85500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-74600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-148900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-75400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-140400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-40800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-76100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-98100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-79800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-39900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>224000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-107900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-55100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>3800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-65300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-76100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-58400</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,91 +7419,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-10500</v>
+        <v>-9400</v>
       </c>
       <c r="E96" s="3">
-        <v>-9800</v>
+        <v>-10100</v>
       </c>
       <c r="F96" s="3">
-        <v>-10500</v>
+        <v>-9400</v>
       </c>
       <c r="G96" s="3">
-        <v>-8300</v>
+        <v>-10100</v>
       </c>
       <c r="H96" s="3">
-        <v>-27800</v>
+        <v>-8000</v>
       </c>
       <c r="I96" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-9000</v>
       </c>
-      <c r="J96" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-9300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-9200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-9400</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-8600</v>
       </c>
       <c r="O96" s="3">
         <v>-8600</v>
       </c>
       <c r="P96" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-9500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-8500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-9100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-8000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-8300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-9000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-8200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-8900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-9200</v>
       </c>
       <c r="AA96" s="3">
         <v>-9200</v>
       </c>
       <c r="AB96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-8500</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-85600</v>
+        <v>260400</v>
       </c>
       <c r="E100" s="3">
-        <v>-71300</v>
+        <v>-82400</v>
       </c>
       <c r="F100" s="3">
-        <v>-79600</v>
+        <v>-68700</v>
       </c>
       <c r="G100" s="3">
-        <v>61600</v>
+        <v>-76700</v>
       </c>
       <c r="H100" s="3">
-        <v>-273300</v>
+        <v>59300</v>
       </c>
       <c r="I100" s="3">
-        <v>-54800</v>
+        <v>-263300</v>
       </c>
       <c r="J100" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-150200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>496000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-60600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-73800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-153900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>74100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-98700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>15100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-28900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-37100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-154300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-268700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-115400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-13400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-328900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-67600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>86000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-49900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2300</v>
+        <v>5100</v>
       </c>
       <c r="E101" s="3">
-        <v>-3800</v>
+        <v>2200</v>
       </c>
       <c r="F101" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="G101" s="3">
+        <v>700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>700</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="M101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K101" s="3">
-        <v>800</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M101" s="3">
-        <v>800</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>800</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
       <c r="X101" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="Y101" s="3">
         <v>-700</v>
       </c>
       <c r="Z101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA101" s="3">
         <v>800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-800</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-61600</v>
+        <v>230000</v>
       </c>
       <c r="E102" s="3">
-        <v>-242500</v>
+        <v>-59300</v>
       </c>
       <c r="F102" s="3">
-        <v>205700</v>
+        <v>-233600</v>
       </c>
       <c r="G102" s="3">
-        <v>-99900</v>
+        <v>198200</v>
       </c>
       <c r="H102" s="3">
-        <v>283100</v>
+        <v>-96200</v>
       </c>
       <c r="I102" s="3">
-        <v>-4500</v>
+        <v>272700</v>
       </c>
       <c r="J102" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-41300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>335000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-63600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-57300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>66300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>97800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>78500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>15400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-20300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-155100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>11300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>168900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>27500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-337900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>152900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>113700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>49200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>48400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>TAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>617600</v>
+        <v>806700</v>
       </c>
       <c r="E8" s="3">
-        <v>671900</v>
+        <v>632600</v>
       </c>
       <c r="F8" s="3">
-        <v>331200</v>
+        <v>688100</v>
       </c>
       <c r="G8" s="3">
-        <v>531600</v>
+        <v>339300</v>
       </c>
       <c r="H8" s="3">
-        <v>441200</v>
+        <v>544400</v>
       </c>
       <c r="I8" s="3">
-        <v>1526700</v>
+        <v>451900</v>
       </c>
       <c r="J8" s="3">
+        <v>1563700</v>
+      </c>
+      <c r="K8" s="3">
         <v>447700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>482100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>420900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>394100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>342900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>475700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>474800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>491600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>394100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>498800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>473400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>430900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>335700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>442600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>474800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>437600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>374300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>444000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>550800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>476300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>342100</v>
+        <v>264400</v>
       </c>
       <c r="E9" s="3">
-        <v>268300</v>
+        <v>350400</v>
       </c>
       <c r="F9" s="3">
-        <v>173600</v>
+        <v>274800</v>
       </c>
       <c r="G9" s="3">
-        <v>185900</v>
+        <v>177800</v>
       </c>
       <c r="H9" s="3">
-        <v>224900</v>
+        <v>190400</v>
       </c>
       <c r="I9" s="3">
-        <v>670400</v>
+        <v>230400</v>
       </c>
       <c r="J9" s="3">
+        <v>686700</v>
+      </c>
+      <c r="K9" s="3">
         <v>183700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>220000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>253000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>193200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>118500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>186800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>322000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>307600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>243500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>361800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>361500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>311000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>227300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>308600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>326000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>307400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>228500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>288100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>311100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>322700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>275500</v>
+        <v>542200</v>
       </c>
       <c r="E10" s="3">
-        <v>403600</v>
+        <v>282200</v>
       </c>
       <c r="F10" s="3">
-        <v>157700</v>
+        <v>413300</v>
       </c>
       <c r="G10" s="3">
-        <v>345700</v>
+        <v>161500</v>
       </c>
       <c r="H10" s="3">
-        <v>216200</v>
+        <v>354100</v>
       </c>
       <c r="I10" s="3">
-        <v>856300</v>
+        <v>221500</v>
       </c>
       <c r="J10" s="3">
+        <v>877000</v>
+      </c>
+      <c r="K10" s="3">
         <v>264000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>262100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>167900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>224400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>288900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>152800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>184000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>150700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>137000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>111900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>119900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>108400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>134000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>148800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>130200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>145900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>156000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>239700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>153600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>150600</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,180 +1262,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3600</v>
+        <v>-2200</v>
       </c>
       <c r="E14" s="3">
-        <v>50600</v>
+        <v>3700</v>
       </c>
       <c r="F14" s="3">
-        <v>-17400</v>
+        <v>51900</v>
       </c>
       <c r="G14" s="3">
-        <v>-30400</v>
+        <v>-17800</v>
       </c>
       <c r="H14" s="3">
-        <v>20300</v>
+        <v>-31100</v>
       </c>
       <c r="I14" s="3">
-        <v>864200</v>
+        <v>20700</v>
       </c>
       <c r="J14" s="3">
+        <v>885200</v>
+      </c>
+      <c r="K14" s="3">
         <v>11600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>21800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>13200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>58300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>25100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-32200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>36600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-18200</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>17500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>41400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>9000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3800</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>4500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>14900</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>21500</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>800</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>136000</v>
+        <v>130400</v>
       </c>
       <c r="E15" s="3">
-        <v>129500</v>
+        <v>139300</v>
       </c>
       <c r="F15" s="3">
-        <v>83200</v>
+        <v>132600</v>
       </c>
       <c r="G15" s="3">
-        <v>84600</v>
+        <v>85200</v>
       </c>
       <c r="H15" s="3">
-        <v>96900</v>
+        <v>86700</v>
       </c>
       <c r="I15" s="3">
-        <v>285700</v>
+        <v>99300</v>
       </c>
       <c r="J15" s="3">
+        <v>292600</v>
+      </c>
+      <c r="K15" s="3">
         <v>89000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>111900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>133900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>124200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>127900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>122500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>120100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>122700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>113400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>111600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>115700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>106100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>109900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>97900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>134000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>117600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>114600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>109900</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>143700</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>111400</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>112900</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>593800</v>
+        <v>481500</v>
       </c>
       <c r="E17" s="3">
-        <v>543900</v>
+        <v>608100</v>
       </c>
       <c r="F17" s="3">
-        <v>316000</v>
+        <v>557000</v>
       </c>
       <c r="G17" s="3">
-        <v>314600</v>
+        <v>323700</v>
       </c>
       <c r="H17" s="3">
-        <v>423100</v>
+        <v>322200</v>
       </c>
       <c r="I17" s="3">
-        <v>1717600</v>
+        <v>433300</v>
       </c>
       <c r="J17" s="3">
+        <v>1759300</v>
+      </c>
+      <c r="K17" s="3">
         <v>391300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>431700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>512200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>461500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>357800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>376800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>402300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>363100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>353700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>471100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>493200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>452000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>344800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>289800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>451000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>427200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>356500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>396400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>333400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>440200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>23900</v>
+        <v>325200</v>
       </c>
       <c r="E18" s="3">
-        <v>128000</v>
+        <v>24400</v>
       </c>
       <c r="F18" s="3">
-        <v>15200</v>
+        <v>131100</v>
       </c>
       <c r="G18" s="3">
-        <v>217000</v>
+        <v>15600</v>
       </c>
       <c r="H18" s="3">
-        <v>18100</v>
+        <v>222200</v>
       </c>
       <c r="I18" s="3">
-        <v>-190900</v>
+        <v>18500</v>
       </c>
       <c r="J18" s="3">
+        <v>-195600</v>
+      </c>
+      <c r="K18" s="3">
         <v>56400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>50300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-91300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-67500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-14900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>98900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>72500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>128500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>40400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>27700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-19800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-21100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-9000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>152800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>23800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>10400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>17900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>47600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>217400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>36100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,438 +1683,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>12300</v>
+        <v>-7400</v>
       </c>
       <c r="E20" s="3">
-        <v>-3600</v>
+        <v>12600</v>
       </c>
       <c r="F20" s="3">
-        <v>8000</v>
+        <v>-3700</v>
       </c>
       <c r="G20" s="3">
-        <v>-7200</v>
+        <v>8100</v>
       </c>
       <c r="H20" s="3">
-        <v>-5100</v>
+        <v>-7400</v>
       </c>
       <c r="I20" s="3">
-        <v>52100</v>
+        <v>-5200</v>
       </c>
       <c r="J20" s="3">
+        <v>53300</v>
+      </c>
+      <c r="K20" s="3">
         <v>28900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-22800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>74100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-18200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-22200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-9400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-6000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>8200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>9700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>4600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>18400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>15400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>172100</v>
+        <v>448100</v>
       </c>
       <c r="E21" s="3">
-        <v>253900</v>
+        <v>176300</v>
       </c>
       <c r="F21" s="3">
-        <v>106300</v>
+        <v>260000</v>
       </c>
       <c r="G21" s="3">
-        <v>294400</v>
+        <v>108900</v>
       </c>
       <c r="H21" s="3">
-        <v>117900</v>
+        <v>301500</v>
       </c>
       <c r="I21" s="3">
-        <v>276300</v>
+        <v>120700</v>
       </c>
       <c r="J21" s="3">
+        <v>283000</v>
+      </c>
+      <c r="K21" s="3">
         <v>210500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>207200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>89000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>85900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>144400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>220600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>290800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>257000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>155400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>155500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>117200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>100300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>122000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>269500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>180100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>137700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>156300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>175200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>394100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>175200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>31100</v>
+        <v>34100</v>
       </c>
       <c r="E22" s="3">
+        <v>31900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>34100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>35600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>115600</v>
+      </c>
+      <c r="K22" s="3">
         <v>33300</v>
       </c>
-      <c r="F22" s="3">
-        <v>39100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>34700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>36200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>112800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>33300</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>38300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>40200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>35300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>37700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>40000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>35100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>38100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>37300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>31600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>32000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>33400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>39900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>42900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>40200</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>38700</v>
       </c>
       <c r="Z22" s="3">
         <v>38700</v>
       </c>
       <c r="AA22" s="3">
+        <v>38700</v>
+      </c>
+      <c r="AB22" s="3">
         <v>40700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>41500</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>42300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5100</v>
+        <v>283700</v>
       </c>
       <c r="E23" s="3">
-        <v>91100</v>
+        <v>5200</v>
       </c>
       <c r="F23" s="3">
-        <v>-15900</v>
+        <v>93300</v>
       </c>
       <c r="G23" s="3">
-        <v>175000</v>
+        <v>-16300</v>
       </c>
       <c r="H23" s="3">
-        <v>-23100</v>
+        <v>179300</v>
       </c>
       <c r="I23" s="3">
-        <v>-251700</v>
+        <v>-23700</v>
       </c>
       <c r="J23" s="3">
+        <v>-257800</v>
+      </c>
+      <c r="K23" s="3">
         <v>52100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-130000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-98900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-40800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>36100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>111500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>72100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-19000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-10000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-57100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-63900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-55000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>105400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-32000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-11200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>11500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>194400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>9200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>64400</v>
+        <v>36300</v>
       </c>
       <c r="E24" s="3">
-        <v>21700</v>
+        <v>65900</v>
       </c>
       <c r="F24" s="3">
-        <v>26800</v>
+        <v>22200</v>
       </c>
       <c r="G24" s="3">
-        <v>26000</v>
+        <v>27400</v>
       </c>
       <c r="H24" s="3">
+        <v>26700</v>
+      </c>
+      <c r="I24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3">
-        <v>30400</v>
-      </c>
       <c r="J24" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K24" s="3">
         <v>31800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-19300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-7700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-13300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>31200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-39700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-12200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-15300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-4500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>27900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>78100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-14100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-13100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>63000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-59300</v>
+        <v>247400</v>
       </c>
       <c r="E26" s="3">
-        <v>69400</v>
+        <v>-60700</v>
       </c>
       <c r="F26" s="3">
-        <v>-42700</v>
+        <v>71100</v>
       </c>
       <c r="G26" s="3">
-        <v>149000</v>
+        <v>-43700</v>
       </c>
       <c r="H26" s="3">
-        <v>-25300</v>
+        <v>152600</v>
       </c>
       <c r="I26" s="3">
-        <v>-282100</v>
+        <v>-25900</v>
       </c>
       <c r="J26" s="3">
+        <v>-288900</v>
+      </c>
+      <c r="K26" s="3">
         <v>20300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-110600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-91200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-27500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>34500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>80300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>63800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>20600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-23100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-44900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-48700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-50400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>77500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-86300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-28300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>24600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>131400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>10800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-117900</v>
+        <v>217800</v>
       </c>
       <c r="E27" s="3">
-        <v>44100</v>
+        <v>-120700</v>
       </c>
       <c r="F27" s="3">
-        <v>-57900</v>
+        <v>45200</v>
       </c>
       <c r="G27" s="3">
-        <v>134500</v>
+        <v>-59300</v>
       </c>
       <c r="H27" s="3">
-        <v>-56400</v>
+        <v>137800</v>
       </c>
       <c r="I27" s="3">
-        <v>-360200</v>
+        <v>-57800</v>
       </c>
       <c r="J27" s="3">
+        <v>-368900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-8700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-22500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-129200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-104300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-47100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>21200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>51500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>42300</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-50000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-92900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-62500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-79000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>48900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-107900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-20100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-13400</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
       <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <v>46900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-9200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-12300</v>
+        <v>7400</v>
       </c>
       <c r="E32" s="3">
-        <v>3600</v>
+        <v>-12600</v>
       </c>
       <c r="F32" s="3">
-        <v>-8000</v>
+        <v>3700</v>
       </c>
       <c r="G32" s="3">
-        <v>7200</v>
+        <v>-8100</v>
       </c>
       <c r="H32" s="3">
-        <v>5100</v>
+        <v>7400</v>
       </c>
       <c r="I32" s="3">
-        <v>-52100</v>
+        <v>5200</v>
       </c>
       <c r="J32" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-28900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>22800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-74100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>18200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>22200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>9400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-9700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-4600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-18400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-15400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-117900</v>
+        <v>217800</v>
       </c>
       <c r="E33" s="3">
-        <v>44100</v>
+        <v>-120700</v>
       </c>
       <c r="F33" s="3">
-        <v>-57900</v>
+        <v>45200</v>
       </c>
       <c r="G33" s="3">
-        <v>134500</v>
+        <v>-59300</v>
       </c>
       <c r="H33" s="3">
-        <v>-56400</v>
+        <v>137800</v>
       </c>
       <c r="I33" s="3">
-        <v>-360200</v>
+        <v>-57800</v>
       </c>
       <c r="J33" s="3">
+        <v>-368900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-8700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-22500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-129200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-104300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-47100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>21200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>51500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>42300</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-50000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-92900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-62500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-79000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>48900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-107900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-20100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-13400</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
       <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
         <v>46900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-9200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-117900</v>
+        <v>217800</v>
       </c>
       <c r="E35" s="3">
-        <v>44100</v>
+        <v>-120700</v>
       </c>
       <c r="F35" s="3">
-        <v>-57900</v>
+        <v>45200</v>
       </c>
       <c r="G35" s="3">
-        <v>134500</v>
+        <v>-59300</v>
       </c>
       <c r="H35" s="3">
-        <v>-56400</v>
+        <v>137800</v>
       </c>
       <c r="I35" s="3">
-        <v>-360200</v>
+        <v>-57800</v>
       </c>
       <c r="J35" s="3">
+        <v>-368900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-8700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-22500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-129200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-104300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-47100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>21200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>51500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>42300</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-50000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-92900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-62500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-79000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>48900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-107900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-20100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-13400</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
       <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
         <v>46900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-9200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,151 +3267,155 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>820100</v>
+        <v>923700</v>
       </c>
       <c r="E41" s="3">
-        <v>590100</v>
+        <v>840000</v>
       </c>
       <c r="F41" s="3">
-        <v>649500</v>
+        <v>604400</v>
       </c>
       <c r="G41" s="3">
-        <v>883100</v>
+        <v>665200</v>
       </c>
       <c r="H41" s="3">
-        <v>684900</v>
+        <v>904400</v>
       </c>
       <c r="I41" s="3">
-        <v>781100</v>
+        <v>701500</v>
       </c>
       <c r="J41" s="3">
+        <v>800000</v>
+      </c>
+      <c r="K41" s="3">
         <v>464300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>486600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>543900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>207000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>201700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>265300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>320400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>270300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>164900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>83900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>67700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>69000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>92600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>247700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>233700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>64700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>37200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>387200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>234300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>120600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>512800</v>
+        <v>253300</v>
       </c>
       <c r="E42" s="3">
-        <v>546000</v>
+        <v>525200</v>
       </c>
       <c r="F42" s="3">
-        <v>436100</v>
+        <v>559300</v>
       </c>
       <c r="G42" s="3">
-        <v>371700</v>
+        <v>446700</v>
       </c>
       <c r="H42" s="3">
-        <v>222800</v>
+        <v>380700</v>
       </c>
       <c r="I42" s="3">
-        <v>296500</v>
+        <v>228100</v>
       </c>
       <c r="J42" s="3">
+        <v>303700</v>
+      </c>
+      <c r="K42" s="3">
         <v>162700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>123100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>132300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>147200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>215800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>208000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>129400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>132600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>130800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>107000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>111100</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
       <c r="V42" s="3">
         <v>0</v>
       </c>
@@ -3353,610 +3443,634 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1149200</v>
+        <v>687400</v>
       </c>
       <c r="E43" s="3">
-        <v>959700</v>
+        <v>1177000</v>
       </c>
       <c r="F43" s="3">
-        <v>742700</v>
+        <v>983000</v>
       </c>
       <c r="G43" s="3">
-        <v>392000</v>
+        <v>760700</v>
       </c>
       <c r="H43" s="3">
-        <v>470800</v>
+        <v>401500</v>
       </c>
       <c r="I43" s="3">
-        <v>373200</v>
+        <v>482200</v>
       </c>
       <c r="J43" s="3">
+        <v>382200</v>
+      </c>
+      <c r="K43" s="3">
         <v>502600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>426500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>451100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>371800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>335900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>338400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>360200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>374700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>399700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>562700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>575400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>472300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>423100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>505100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>694300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>829000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>499400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>504700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>480900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>383300</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>347200</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>113500</v>
+        <v>106700</v>
       </c>
       <c r="E44" s="3">
+        <v>116300</v>
+      </c>
+      <c r="F44" s="3">
+        <v>126700</v>
+      </c>
+      <c r="G44" s="3">
+        <v>115600</v>
+      </c>
+      <c r="H44" s="3">
+        <v>114100</v>
+      </c>
+      <c r="I44" s="3">
         <v>123700</v>
       </c>
-      <c r="F44" s="3">
-        <v>112800</v>
-      </c>
-      <c r="G44" s="3">
-        <v>111400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>120800</v>
-      </c>
-      <c r="I44" s="3">
-        <v>134500</v>
-      </c>
       <c r="J44" s="3">
+        <v>137800</v>
+      </c>
+      <c r="K44" s="3">
         <v>150400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>162200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>184200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>197800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>233100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>206500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>195700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>202300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>212500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>174000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>184200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>191800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>211500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>168600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>163000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>173400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>183800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>152100</v>
-      </c>
-      <c r="AB44" s="3">
-        <v>163600</v>
       </c>
       <c r="AC44" s="3">
         <v>163600</v>
       </c>
       <c r="AD44" s="3">
+        <v>163600</v>
+      </c>
+      <c r="AE44" s="3">
         <v>182800</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>90400</v>
+        <v>76300</v>
       </c>
       <c r="E45" s="3">
-        <v>106300</v>
+        <v>92600</v>
       </c>
       <c r="F45" s="3">
-        <v>94700</v>
+        <v>108900</v>
       </c>
       <c r="G45" s="3">
-        <v>90400</v>
+        <v>97000</v>
       </c>
       <c r="H45" s="3">
-        <v>89700</v>
+        <v>92600</v>
       </c>
       <c r="I45" s="3">
-        <v>86100</v>
+        <v>91900</v>
       </c>
       <c r="J45" s="3">
+        <v>88100</v>
+      </c>
+      <c r="K45" s="3">
         <v>86800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>159900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>160200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>143400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>50200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>54200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>39800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>252900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>55500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>43100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>60100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>199100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>173100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>170900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>180800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>173400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>206900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>255800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>315000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>227400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2686000</v>
+        <v>2047400</v>
       </c>
       <c r="E46" s="3">
-        <v>2325900</v>
+        <v>2751100</v>
       </c>
       <c r="F46" s="3">
-        <v>2035900</v>
+        <v>2382200</v>
       </c>
       <c r="G46" s="3">
-        <v>1848600</v>
+        <v>2085200</v>
       </c>
       <c r="H46" s="3">
-        <v>1588900</v>
+        <v>1893300</v>
       </c>
       <c r="I46" s="3">
-        <v>1671400</v>
+        <v>1627400</v>
       </c>
       <c r="J46" s="3">
+        <v>1711900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1366900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1358300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1471700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1067200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1036600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1072400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1045500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1232800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>963500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>970700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>998600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>932300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>900300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1092300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1271900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1240600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>927300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1299800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1193800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>895000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>828200</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>186600</v>
+        <v>188900</v>
       </c>
       <c r="E47" s="3">
-        <v>193800</v>
+        <v>191100</v>
       </c>
       <c r="F47" s="3">
-        <v>198900</v>
+        <v>198500</v>
       </c>
       <c r="G47" s="3">
-        <v>201100</v>
+        <v>203700</v>
       </c>
       <c r="H47" s="3">
-        <v>209700</v>
+        <v>205900</v>
       </c>
       <c r="I47" s="3">
-        <v>212600</v>
+        <v>214800</v>
       </c>
       <c r="J47" s="3">
+        <v>217800</v>
+      </c>
+      <c r="K47" s="3">
         <v>216200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>238000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>253800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>125700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>131800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>135000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>137200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>148400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>145100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>144000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>145400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>142400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>152100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>157300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>160000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>171200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>500100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>535500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>552400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>554700</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4109300</v>
+        <v>4305200</v>
       </c>
       <c r="E48" s="3">
-        <v>3898200</v>
+        <v>4208900</v>
       </c>
       <c r="F48" s="3">
-        <v>3790400</v>
+        <v>3992600</v>
       </c>
       <c r="G48" s="3">
-        <v>3821500</v>
+        <v>3882200</v>
       </c>
       <c r="H48" s="3">
-        <v>3916200</v>
+        <v>3914100</v>
       </c>
       <c r="I48" s="3">
-        <v>3825800</v>
+        <v>4011100</v>
       </c>
       <c r="J48" s="3">
+        <v>3918500</v>
+      </c>
+      <c r="K48" s="3">
         <v>4133900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4347500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4613900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4627400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4776700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4883000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4953200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4956900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4850900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4703600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4691400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4506200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4787000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4869800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4895400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4952000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4989200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5232400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>5242400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>5354600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>5337700</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>517800</v>
+        <v>524400</v>
       </c>
       <c r="E49" s="3">
-        <v>522200</v>
+        <v>530400</v>
       </c>
       <c r="F49" s="3">
-        <v>522900</v>
+        <v>534800</v>
       </c>
       <c r="G49" s="3">
-        <v>526500</v>
+        <v>535600</v>
       </c>
       <c r="H49" s="3">
-        <v>520000</v>
+        <v>539300</v>
       </c>
       <c r="I49" s="3">
-        <v>522200</v>
+        <v>532600</v>
       </c>
       <c r="J49" s="3">
+        <v>534800</v>
+      </c>
+      <c r="K49" s="3">
         <v>530800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>562400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>600400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>607200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>632500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>610800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>609700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>654100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>654200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>643600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>637000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>585000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>612000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>618800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>615500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>617700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>600600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>623000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>629200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>630700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>268300</v>
+        <v>235600</v>
       </c>
       <c r="E52" s="3">
-        <v>324700</v>
+        <v>274800</v>
       </c>
       <c r="F52" s="3">
-        <v>384800</v>
+        <v>332600</v>
       </c>
       <c r="G52" s="3">
-        <v>418700</v>
+        <v>394100</v>
       </c>
       <c r="H52" s="3">
-        <v>437500</v>
+        <v>428900</v>
       </c>
       <c r="I52" s="3">
-        <v>508400</v>
+        <v>448100</v>
       </c>
       <c r="J52" s="3">
+        <v>520700</v>
+      </c>
+      <c r="K52" s="3">
         <v>525800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>566100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>602000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>648600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>775300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>711300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>667400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>685600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>681200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>719000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>703200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>680200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>770100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>761800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>725600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>729300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>736800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>797400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>829700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>745200</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>739800</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7768100</v>
+        <v>7301500</v>
       </c>
       <c r="E54" s="3">
-        <v>7264700</v>
+        <v>7956300</v>
       </c>
       <c r="F54" s="3">
-        <v>6932800</v>
+        <v>7440700</v>
       </c>
       <c r="G54" s="3">
-        <v>6816300</v>
+        <v>7100700</v>
       </c>
       <c r="H54" s="3">
-        <v>6672400</v>
+        <v>6981500</v>
       </c>
       <c r="I54" s="3">
-        <v>6740400</v>
+        <v>6834100</v>
       </c>
       <c r="J54" s="3">
+        <v>6903700</v>
+      </c>
+      <c r="K54" s="3">
         <v>6773700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7072400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7541700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7076100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7353000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7412400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7413100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7677800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7295000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7180900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7175600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6846100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7221500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7500000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7668300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7710800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>7753900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8488200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>8447500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>8180100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>8100200</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>973500</v>
+        <v>622200</v>
       </c>
       <c r="E57" s="3">
-        <v>925000</v>
+        <v>997000</v>
       </c>
       <c r="F57" s="3">
-        <v>828800</v>
+        <v>947400</v>
       </c>
       <c r="G57" s="3">
-        <v>608200</v>
+        <v>848900</v>
       </c>
       <c r="H57" s="3">
-        <v>498300</v>
+        <v>623000</v>
       </c>
       <c r="I57" s="3">
-        <v>559800</v>
+        <v>510400</v>
       </c>
       <c r="J57" s="3">
+        <v>573300</v>
+      </c>
+      <c r="K57" s="3">
         <v>420900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>469300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>463500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>390200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>314700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>324200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>322000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>296000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>288700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>352600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>378300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>346600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>319900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>373400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>442800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>380300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>313300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>351100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>317300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>283500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>229700</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>140300</v>
+        <v>132600</v>
       </c>
       <c r="E58" s="3">
-        <v>522200</v>
+        <v>143700</v>
       </c>
       <c r="F58" s="3">
-        <v>499000</v>
+        <v>534800</v>
       </c>
       <c r="G58" s="3">
-        <v>601700</v>
+        <v>511100</v>
       </c>
       <c r="H58" s="3">
-        <v>610400</v>
+        <v>616300</v>
       </c>
       <c r="I58" s="3">
-        <v>86100</v>
+        <v>625200</v>
       </c>
       <c r="J58" s="3">
+        <v>88100</v>
+      </c>
+      <c r="K58" s="3">
         <v>83200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>83300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>81200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>393300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>402600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>403500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>400000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>85400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>83300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>80800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>112600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>95900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>77500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>105400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>555900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>686900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>701800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>484000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>490900</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>452500</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>974900</v>
+        <v>601500</v>
       </c>
       <c r="E59" s="3">
-        <v>693600</v>
+        <v>998500</v>
       </c>
       <c r="F59" s="3">
-        <v>491800</v>
+        <v>710400</v>
       </c>
       <c r="G59" s="3">
-        <v>413700</v>
+        <v>503700</v>
       </c>
       <c r="H59" s="3">
-        <v>287800</v>
+        <v>423700</v>
       </c>
       <c r="I59" s="3">
-        <v>419500</v>
+        <v>294800</v>
       </c>
       <c r="J59" s="3">
+        <v>429600</v>
+      </c>
+      <c r="K59" s="3">
         <v>267600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>150200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>178700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>164800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>185200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>167200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>148900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>228000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>181600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>162400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>173500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>133000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>159600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>203300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>198000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>94500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>105700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>117500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>126800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>218900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>553100</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2088700</v>
+        <v>1356300</v>
       </c>
       <c r="E60" s="3">
-        <v>2140700</v>
+        <v>2139300</v>
       </c>
       <c r="F60" s="3">
-        <v>1819600</v>
+        <v>2192600</v>
       </c>
       <c r="G60" s="3">
-        <v>1623600</v>
+        <v>1863700</v>
       </c>
       <c r="H60" s="3">
-        <v>1396500</v>
+        <v>1663000</v>
       </c>
       <c r="I60" s="3">
-        <v>1065300</v>
+        <v>1430400</v>
       </c>
       <c r="J60" s="3">
+        <v>1091100</v>
+      </c>
+      <c r="K60" s="3">
         <v>771700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>702800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>723500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>948300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>902500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>895000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>870900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>609400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>553500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>595800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>664400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>575500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>557100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>682000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1196700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1161700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1120800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>952600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>934900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>954900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>904200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3047600</v>
+        <v>3106700</v>
       </c>
       <c r="E61" s="3">
-        <v>2332400</v>
+        <v>3121500</v>
       </c>
       <c r="F61" s="3">
-        <v>2333100</v>
+        <v>2388900</v>
       </c>
       <c r="G61" s="3">
-        <v>2261500</v>
+        <v>2389600</v>
       </c>
       <c r="H61" s="3">
-        <v>2283900</v>
+        <v>2316300</v>
       </c>
       <c r="I61" s="3">
-        <v>2678800</v>
+        <v>2339300</v>
       </c>
       <c r="J61" s="3">
+        <v>2743700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2681700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2872800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3084200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2207200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2297700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2348900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2358500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2667100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2590000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2465700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2373800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2217100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2291500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2462400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2202900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2126200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2128400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2822500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2859400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2714200</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>2710300</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1193300</v>
+        <v>1184400</v>
       </c>
       <c r="E62" s="3">
-        <v>1043600</v>
+        <v>1222200</v>
       </c>
       <c r="F62" s="3">
-        <v>990800</v>
+        <v>1068900</v>
       </c>
       <c r="G62" s="3">
-        <v>1021900</v>
+        <v>1014800</v>
       </c>
       <c r="H62" s="3">
-        <v>1116700</v>
+        <v>1046700</v>
       </c>
       <c r="I62" s="3">
-        <v>1077600</v>
+        <v>1143700</v>
       </c>
       <c r="J62" s="3">
+        <v>1103700</v>
+      </c>
+      <c r="K62" s="3">
         <v>982100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>961100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1075500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1030400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1020900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>952300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1016700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1080300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1015900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1026900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>990900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>940300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1021500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1029100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1005400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1091800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1081300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1118500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1070900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1025600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>990200</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6965300</v>
+        <v>6274800</v>
       </c>
       <c r="E66" s="3">
-        <v>6152400</v>
+        <v>7134100</v>
       </c>
       <c r="F66" s="3">
-        <v>5794400</v>
+        <v>6301500</v>
       </c>
       <c r="G66" s="3">
-        <v>5590500</v>
+        <v>5934800</v>
       </c>
       <c r="H66" s="3">
-        <v>5528300</v>
+        <v>5725900</v>
       </c>
       <c r="I66" s="3">
-        <v>5562300</v>
+        <v>5662200</v>
       </c>
       <c r="J66" s="3">
+        <v>5697000</v>
+      </c>
+      <c r="K66" s="3">
         <v>5187700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5315300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5721900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5034500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5059200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5063600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5104500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5269400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5027700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4966100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4894600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4546200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4740300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4962400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5193100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5185700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5167100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5770900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5750200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>5562000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>5469000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,73 +5678,76 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>697800</v>
+      </c>
+      <c r="E70" s="3">
+        <v>697800</v>
+      </c>
+      <c r="F70" s="3">
+        <v>697800</v>
+      </c>
+      <c r="G70" s="3">
+        <v>697800</v>
+      </c>
+      <c r="H70" s="3">
+        <v>697800</v>
+      </c>
+      <c r="I70" s="3">
+        <v>697800</v>
+      </c>
+      <c r="J70" s="3">
+        <v>697800</v>
+      </c>
+      <c r="K70" s="3">
         <v>681300</v>
       </c>
-      <c r="E70" s="3">
-        <v>681300</v>
-      </c>
-      <c r="F70" s="3">
-        <v>681300</v>
-      </c>
-      <c r="G70" s="3">
-        <v>681300</v>
-      </c>
-      <c r="H70" s="3">
-        <v>681300</v>
-      </c>
-      <c r="I70" s="3">
-        <v>681300</v>
-      </c>
-      <c r="J70" s="3">
-        <v>681300</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>707300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>728900</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>722200</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>739200</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>739500</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>734400</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>781000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>747000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>725200</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>716900</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>684500</v>
-      </c>
-      <c r="V70" s="3">
-        <v>709100</v>
       </c>
       <c r="W70" s="3">
         <v>709100</v>
       </c>
       <c r="X70" s="3">
-        <v>701000</v>
+        <v>709100</v>
       </c>
       <c r="Y70" s="3">
         <v>701000</v>
@@ -5588,7 +5756,7 @@
         <v>701000</v>
       </c>
       <c r="AA70" s="3">
-        <v>723700</v>
+        <v>701000</v>
       </c>
       <c r="AB70" s="3">
         <v>723700</v>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>723700</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>723700</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1818200</v>
+        <v>-1645900</v>
       </c>
       <c r="E72" s="3">
-        <v>-1676400</v>
+        <v>-1862200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1709000</v>
+        <v>-1717000</v>
       </c>
       <c r="G72" s="3">
-        <v>-1641700</v>
+        <v>-1750400</v>
       </c>
       <c r="H72" s="3">
-        <v>-1774100</v>
+        <v>-1681500</v>
       </c>
       <c r="I72" s="3">
-        <v>-1707500</v>
+        <v>-1817000</v>
       </c>
       <c r="J72" s="3">
+        <v>-1748900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1359700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1393600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1412900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1261100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1176300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1125000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1134400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1260200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1238700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1199400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1138600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-986100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-952300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-879300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-899700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-785900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-716700</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>-716800</v>
       </c>
       <c r="AB72" s="3">
         <v>-716800</v>
       </c>
       <c r="AC72" s="3">
+        <v>-716800</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-775100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-756700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>121500</v>
+        <v>328900</v>
       </c>
       <c r="E76" s="3">
-        <v>431000</v>
+        <v>124400</v>
       </c>
       <c r="F76" s="3">
-        <v>457100</v>
+        <v>441500</v>
       </c>
       <c r="G76" s="3">
-        <v>544600</v>
+        <v>468100</v>
       </c>
       <c r="H76" s="3">
-        <v>462900</v>
+        <v>557800</v>
       </c>
       <c r="I76" s="3">
-        <v>496900</v>
+        <v>474100</v>
       </c>
       <c r="J76" s="3">
+        <v>508900</v>
+      </c>
+      <c r="K76" s="3">
         <v>904700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1049700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1091000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1319400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1554600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1609400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1574200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1627400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1520200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1489600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1564000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1615400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1772100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1828500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1774200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1824100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1885800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1993600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1973600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1894500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1907500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-117900</v>
+        <v>217800</v>
       </c>
       <c r="E81" s="3">
-        <v>44100</v>
+        <v>-120700</v>
       </c>
       <c r="F81" s="3">
-        <v>-57900</v>
+        <v>45200</v>
       </c>
       <c r="G81" s="3">
-        <v>134500</v>
+        <v>-59300</v>
       </c>
       <c r="H81" s="3">
-        <v>-56400</v>
+        <v>137800</v>
       </c>
       <c r="I81" s="3">
-        <v>-360200</v>
+        <v>-57800</v>
       </c>
       <c r="J81" s="3">
+        <v>-368900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-8700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-22500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-129200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-104300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-47100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>21200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>51500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>42300</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-50000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-92900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-62500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-79000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>48900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-107900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-20100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-13400</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
       <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
         <v>46900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-9200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>136000</v>
+        <v>130400</v>
       </c>
       <c r="E83" s="3">
-        <v>129500</v>
+        <v>139300</v>
       </c>
       <c r="F83" s="3">
-        <v>83200</v>
+        <v>132600</v>
       </c>
       <c r="G83" s="3">
-        <v>84600</v>
+        <v>85200</v>
       </c>
       <c r="H83" s="3">
-        <v>104900</v>
+        <v>86700</v>
       </c>
       <c r="I83" s="3">
-        <v>415100</v>
+        <v>107400</v>
       </c>
       <c r="J83" s="3">
+        <v>425200</v>
+      </c>
+      <c r="K83" s="3">
         <v>125100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>153200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>178700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>149500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>147500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>144400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>144200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>146700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>137200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>133900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>142300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>130800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>137000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>121200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>148100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>131000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>128700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>122900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>158300</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>123700</v>
       </c>
       <c r="AD83" s="3">
         <v>123700</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>123700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>253900</v>
+        <v>342200</v>
       </c>
       <c r="E89" s="3">
-        <v>147500</v>
+        <v>260000</v>
       </c>
       <c r="F89" s="3">
-        <v>-93300</v>
+        <v>151100</v>
       </c>
       <c r="G89" s="3">
-        <v>326200</v>
+        <v>-95600</v>
       </c>
       <c r="H89" s="3">
-        <v>39100</v>
+        <v>334100</v>
       </c>
       <c r="I89" s="3">
-        <v>684900</v>
+        <v>40000</v>
       </c>
       <c r="J89" s="3">
+        <v>701500</v>
+      </c>
+      <c r="K89" s="3">
         <v>57900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>193000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>85100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>197000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>95000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>168000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>141100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>271900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>204600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>63100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>100500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>115500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>78300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>319900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>60300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>149600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>46900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>215900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>93700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>175200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>91400</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-316000</v>
+        <v>-287000</v>
       </c>
       <c r="E91" s="3">
-        <v>-202500</v>
+        <v>-441000</v>
       </c>
       <c r="F91" s="3">
-        <v>-93300</v>
+        <v>-284000</v>
       </c>
       <c r="G91" s="3">
-        <v>-52100</v>
+        <v>-131000</v>
       </c>
       <c r="H91" s="3">
-        <v>-98400</v>
+        <v>-93000</v>
       </c>
       <c r="I91" s="3">
-        <v>-248800</v>
+        <v>-141000</v>
       </c>
       <c r="J91" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-86100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-73600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-162500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-98900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-58900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-56500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-138000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-79600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-87200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-26200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-76900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-67600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-45200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-53600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-81100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-72200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-49200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-83700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-76800</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-62200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-289300</v>
+        <v>-134800</v>
       </c>
       <c r="E94" s="3">
-        <v>-126600</v>
+        <v>-296300</v>
       </c>
       <c r="F94" s="3">
-        <v>-68000</v>
+        <v>-129600</v>
       </c>
       <c r="G94" s="3">
-        <v>-52100</v>
+        <v>-69600</v>
       </c>
       <c r="H94" s="3">
-        <v>-195300</v>
+        <v>-53300</v>
       </c>
       <c r="I94" s="3">
-        <v>-146100</v>
+        <v>-200000</v>
       </c>
       <c r="J94" s="3">
+        <v>-149600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-83300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-246800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-125700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-85500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-74600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-148900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-75400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-140400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-40800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-76100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-98100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-79800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-39900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>224000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-107900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-55100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>3800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-65300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-76100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-58400</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,94 +7653,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="O96" s="3">
         <v>-9400</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-26800</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-9300</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-8600</v>
       </c>
       <c r="P96" s="3">
         <v>-8600</v>
       </c>
       <c r="Q96" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="R96" s="3">
         <v>-9100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-9500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-8500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-9100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-8000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-8300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-9000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-8900</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-9200</v>
       </c>
       <c r="AB96" s="3">
         <v>-9200</v>
       </c>
       <c r="AC96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-8500</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>260400</v>
+        <v>-122200</v>
       </c>
       <c r="E100" s="3">
-        <v>-82400</v>
+        <v>266700</v>
       </c>
       <c r="F100" s="3">
-        <v>-68700</v>
+        <v>-84400</v>
       </c>
       <c r="G100" s="3">
-        <v>-76700</v>
+        <v>-70400</v>
       </c>
       <c r="H100" s="3">
-        <v>59300</v>
+        <v>-78500</v>
       </c>
       <c r="I100" s="3">
-        <v>-263300</v>
+        <v>60700</v>
       </c>
       <c r="J100" s="3">
+        <v>-269600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-52800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-150200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>496000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-60600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-73800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-153900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>74100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-98700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>15100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-28900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-37100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-154300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-268700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-115400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-13400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-328900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-67600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>86000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-49900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5100</v>
+        <v>-1500</v>
       </c>
       <c r="E101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F101" s="3">
         <v>2200</v>
       </c>
-      <c r="F101" s="3">
-        <v>-3600</v>
-      </c>
       <c r="G101" s="3">
-        <v>700</v>
+        <v>-3700</v>
       </c>
       <c r="H101" s="3">
         <v>700</v>
       </c>
       <c r="I101" s="3">
-        <v>-2900</v>
+        <v>700</v>
       </c>
       <c r="J101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
+      <c r="T101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>800</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
       <c r="Y101" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="Z101" s="3">
         <v>-700</v>
       </c>
       <c r="AA101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AB101" s="3">
         <v>800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-800</v>
       </c>
-      <c r="AC101" s="3">
-        <v>0</v>
-      </c>
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>230000</v>
+        <v>83700</v>
       </c>
       <c r="E102" s="3">
-        <v>-59300</v>
+        <v>235600</v>
       </c>
       <c r="F102" s="3">
-        <v>-233600</v>
+        <v>-60700</v>
       </c>
       <c r="G102" s="3">
-        <v>198200</v>
+        <v>-239300</v>
       </c>
       <c r="H102" s="3">
-        <v>-96200</v>
+        <v>203000</v>
       </c>
       <c r="I102" s="3">
-        <v>272700</v>
+        <v>-98500</v>
       </c>
       <c r="J102" s="3">
+        <v>279300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-41300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>335000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-63600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-57300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>66300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>97800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>78500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>15400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-20300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-155100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>11300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>168900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>27500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-337900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>152900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>113700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>49200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>48400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>TAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>806700</v>
+        <v>462700</v>
       </c>
       <c r="E8" s="3">
-        <v>632600</v>
+        <v>806300</v>
       </c>
       <c r="F8" s="3">
-        <v>688100</v>
+        <v>632300</v>
       </c>
       <c r="G8" s="3">
-        <v>339300</v>
+        <v>687800</v>
       </c>
       <c r="H8" s="3">
-        <v>544400</v>
+        <v>339100</v>
       </c>
       <c r="I8" s="3">
-        <v>451900</v>
+        <v>544200</v>
       </c>
       <c r="J8" s="3">
+        <v>451600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1563700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>447700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>482100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>420900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>394100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>342900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>475700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>474800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>491600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>394100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>498800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>473400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>430900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>335700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>442600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>474800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>437600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>374300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>444000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>550800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>476300</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>264400</v>
+        <v>157700</v>
       </c>
       <c r="E9" s="3">
-        <v>350400</v>
+        <v>264300</v>
       </c>
       <c r="F9" s="3">
-        <v>274800</v>
+        <v>350200</v>
       </c>
       <c r="G9" s="3">
-        <v>177800</v>
+        <v>274700</v>
       </c>
       <c r="H9" s="3">
-        <v>190400</v>
+        <v>177700</v>
       </c>
       <c r="I9" s="3">
-        <v>230400</v>
+        <v>190300</v>
       </c>
       <c r="J9" s="3">
+        <v>230300</v>
+      </c>
+      <c r="K9" s="3">
         <v>686700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>183700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>220000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>253000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>193200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>118500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>186800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>322000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>307600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>243500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>361800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>361500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>311000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>227300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>308600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>326000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>307400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>228500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>288100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>311100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>322700</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>542200</v>
+        <v>305000</v>
       </c>
       <c r="E10" s="3">
-        <v>282200</v>
+        <v>541900</v>
       </c>
       <c r="F10" s="3">
-        <v>413300</v>
+        <v>282100</v>
       </c>
       <c r="G10" s="3">
-        <v>161500</v>
+        <v>413100</v>
       </c>
       <c r="H10" s="3">
-        <v>354100</v>
+        <v>161400</v>
       </c>
       <c r="I10" s="3">
-        <v>221500</v>
+        <v>353900</v>
       </c>
       <c r="J10" s="3">
+        <v>221400</v>
+      </c>
+      <c r="K10" s="3">
         <v>877000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>264000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>262100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>167900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>200900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>224400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>288900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>152800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>184000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>150700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>137000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>111900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>119900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>108400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>134000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>148800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>130200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>145900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>156000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>239700</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>153600</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>150600</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,186 +1282,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3700</v>
       </c>
-      <c r="F14" s="3">
-        <v>51900</v>
-      </c>
       <c r="G14" s="3">
+        <v>51800</v>
+      </c>
+      <c r="H14" s="3">
         <v>-17800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-31100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>20700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>885200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>21800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>13200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>58300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>25100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-32200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>36600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-18200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>17500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>41400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>9000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3800</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>4500</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>14900</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>21500</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>800</v>
       </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>130400</v>
+        <v>128100</v>
       </c>
       <c r="E15" s="3">
-        <v>139300</v>
+        <v>130300</v>
       </c>
       <c r="F15" s="3">
-        <v>132600</v>
+        <v>139200</v>
       </c>
       <c r="G15" s="3">
-        <v>85200</v>
+        <v>132500</v>
       </c>
       <c r="H15" s="3">
-        <v>86700</v>
+        <v>85100</v>
       </c>
       <c r="I15" s="3">
-        <v>99300</v>
+        <v>86600</v>
       </c>
       <c r="J15" s="3">
+        <v>99200</v>
+      </c>
+      <c r="K15" s="3">
         <v>292600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>89000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>111900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>133900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>124200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>127900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>122500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>120100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>122700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>113400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>111600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>115700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>106100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>109900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>97900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>134000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>117600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>114600</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>109900</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>143700</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>111400</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>112900</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>481500</v>
+        <v>374600</v>
       </c>
       <c r="E17" s="3">
-        <v>608100</v>
+        <v>481200</v>
       </c>
       <c r="F17" s="3">
-        <v>557000</v>
+        <v>607800</v>
       </c>
       <c r="G17" s="3">
-        <v>323700</v>
+        <v>556800</v>
       </c>
       <c r="H17" s="3">
-        <v>322200</v>
+        <v>323500</v>
       </c>
       <c r="I17" s="3">
-        <v>433300</v>
+        <v>322100</v>
       </c>
       <c r="J17" s="3">
+        <v>433100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1759300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>391300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>431700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>512200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>461500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>357800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>376800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>402300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>363100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>353700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>471100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>493200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>452000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>344800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>289800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>451000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>427200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>356500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>396400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>333400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>440200</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>325200</v>
+        <v>88100</v>
       </c>
       <c r="E18" s="3">
+        <v>325000</v>
+      </c>
+      <c r="F18" s="3">
         <v>24400</v>
       </c>
-      <c r="F18" s="3">
-        <v>131100</v>
-      </c>
       <c r="G18" s="3">
-        <v>15600</v>
+        <v>131000</v>
       </c>
       <c r="H18" s="3">
-        <v>222200</v>
+        <v>15500</v>
       </c>
       <c r="I18" s="3">
+        <v>222100</v>
+      </c>
+      <c r="J18" s="3">
         <v>18500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-195600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>56400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>50300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-91300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-67500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-14900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>98900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>72500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>128500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>40400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>27700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-19800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-21100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-9000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>152800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>23800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>10400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>17900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>47600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>217400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>36100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>12600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>53300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>28900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>74100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-18200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-22200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-9400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-6000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-4500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>8200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>9700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>4600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>18400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>15400</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>448100</v>
+        <v>227300</v>
       </c>
       <c r="E21" s="3">
-        <v>176300</v>
+        <v>447900</v>
       </c>
       <c r="F21" s="3">
-        <v>260000</v>
+        <v>176200</v>
       </c>
       <c r="G21" s="3">
-        <v>108900</v>
+        <v>259900</v>
       </c>
       <c r="H21" s="3">
-        <v>301500</v>
+        <v>108800</v>
       </c>
       <c r="I21" s="3">
+        <v>301300</v>
+      </c>
+      <c r="J21" s="3">
         <v>120700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>283000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>210500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>207200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>89000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>85900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>144400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>220600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>290800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>257000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>155400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>155500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>117200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>100300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>122000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>269500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>180100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>137700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>156300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>175200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>394100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>175200</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E22" s="3">
         <v>34100</v>
       </c>
-      <c r="E22" s="3">
-        <v>31900</v>
-      </c>
       <c r="F22" s="3">
+        <v>31800</v>
+      </c>
+      <c r="G22" s="3">
         <v>34100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>40000</v>
       </c>
-      <c r="H22" s="3">
-        <v>35600</v>
-      </c>
       <c r="I22" s="3">
+        <v>35500</v>
+      </c>
+      <c r="J22" s="3">
         <v>37000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>115600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>38300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>40200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>35300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>37700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>40000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>35100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>38100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>37300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>31600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>32000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>33400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>39900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>42900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>40200</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>38700</v>
       </c>
       <c r="AA22" s="3">
         <v>38700</v>
       </c>
       <c r="AB22" s="3">
+        <v>38700</v>
+      </c>
+      <c r="AC22" s="3">
         <v>40700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>41500</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>42300</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>283700</v>
+        <v>58500</v>
       </c>
       <c r="E23" s="3">
+        <v>283600</v>
+      </c>
+      <c r="F23" s="3">
         <v>5200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>93300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16300</v>
       </c>
-      <c r="H23" s="3">
-        <v>179300</v>
-      </c>
       <c r="I23" s="3">
+        <v>179200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-23700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-257800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>52100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-130000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-98900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-40800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>36100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>111500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>72100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-19000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-10000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-57100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-63900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-55000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>105400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-32000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-11200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>11500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>194400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>9200</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E24" s="3">
         <v>36300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>65900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>22200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>27400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>26700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>31100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-19300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-7700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-13300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>31200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-39700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-12200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-15300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-4500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>27900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>78100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-14100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-13100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>63000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-1500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>247400</v>
+        <v>71800</v>
       </c>
       <c r="E26" s="3">
+        <v>247300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-60700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>71100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-43700</v>
       </c>
-      <c r="H26" s="3">
-        <v>152600</v>
-      </c>
       <c r="I26" s="3">
+        <v>152500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-25900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-288900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-110600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-91200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-27500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>34500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>80300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>63800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>20600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-23100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-44900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-48700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-50400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>77500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-86300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-28300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>24600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>131400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>10800</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>217800</v>
+        <v>45900</v>
       </c>
       <c r="E27" s="3">
+        <v>217700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-120700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>45200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-59300</v>
-      </c>
       <c r="H27" s="3">
-        <v>137800</v>
+        <v>-59200</v>
       </c>
       <c r="I27" s="3">
-        <v>-57800</v>
+        <v>137700</v>
       </c>
       <c r="J27" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-368900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-22500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-129200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-104300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-47100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>21200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>51500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>42300</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-50000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-92900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-62500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-79000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>48900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-107900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-20100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-13400</v>
       </c>
-      <c r="AB27" s="3">
-        <v>0</v>
-      </c>
       <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
         <v>46900</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-9200</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E32" s="3">
         <v>7400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-12600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-53300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-28900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>22800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-74100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>18200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>22200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>9400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>6000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>4500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-9700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-4600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-18400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-15400</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>217800</v>
+        <v>45900</v>
       </c>
       <c r="E33" s="3">
+        <v>217700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-120700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>45200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-59300</v>
-      </c>
       <c r="H33" s="3">
-        <v>137800</v>
+        <v>-59200</v>
       </c>
       <c r="I33" s="3">
-        <v>-57800</v>
+        <v>137700</v>
       </c>
       <c r="J33" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-368900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-22500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-129200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-104300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-47100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>21200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>51500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>42300</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-50000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-92900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-62500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-79000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>48900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-107900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-20100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-13400</v>
       </c>
-      <c r="AB33" s="3">
-        <v>0</v>
-      </c>
       <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
         <v>46900</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-9200</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>217800</v>
+        <v>45900</v>
       </c>
       <c r="E35" s="3">
+        <v>217700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-120700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>45200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-59300</v>
-      </c>
       <c r="H35" s="3">
-        <v>137800</v>
+        <v>-59200</v>
       </c>
       <c r="I35" s="3">
-        <v>-57800</v>
+        <v>137700</v>
       </c>
       <c r="J35" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-368900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-22500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-129200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-104300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-47100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>21200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>51500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>42300</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-50000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-92900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-62500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-79000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>48900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-107900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-20100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-13400</v>
       </c>
-      <c r="AB35" s="3">
-        <v>0</v>
-      </c>
       <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
         <v>46900</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-9200</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,157 +3354,161 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>923700</v>
+        <v>704800</v>
       </c>
       <c r="E41" s="3">
-        <v>840000</v>
+        <v>923200</v>
       </c>
       <c r="F41" s="3">
-        <v>604400</v>
+        <v>839600</v>
       </c>
       <c r="G41" s="3">
-        <v>665200</v>
+        <v>604100</v>
       </c>
       <c r="H41" s="3">
-        <v>904400</v>
+        <v>664800</v>
       </c>
       <c r="I41" s="3">
-        <v>701500</v>
+        <v>904000</v>
       </c>
       <c r="J41" s="3">
+        <v>701100</v>
+      </c>
+      <c r="K41" s="3">
         <v>800000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>464300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>486600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>543900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>207000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>201700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>265300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>320400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>270300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>164900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>83900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>67700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>69000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>92600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>247700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>233700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>64700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>37200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>387200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>234300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>120600</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>253300</v>
+        <v>166600</v>
       </c>
       <c r="E42" s="3">
-        <v>525200</v>
+        <v>253200</v>
       </c>
       <c r="F42" s="3">
-        <v>559300</v>
+        <v>524900</v>
       </c>
       <c r="G42" s="3">
-        <v>446700</v>
+        <v>559000</v>
       </c>
       <c r="H42" s="3">
-        <v>380700</v>
+        <v>446400</v>
       </c>
       <c r="I42" s="3">
-        <v>228100</v>
+        <v>380500</v>
       </c>
       <c r="J42" s="3">
+        <v>228000</v>
+      </c>
+      <c r="K42" s="3">
         <v>303700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>162700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>123100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>132300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>147200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>215800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>208000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>129400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>132600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>130800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>107000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>111100</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
       <c r="W42" s="3">
         <v>0</v>
       </c>
@@ -3446,631 +3536,655 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>687400</v>
+        <v>812900</v>
       </c>
       <c r="E43" s="3">
-        <v>1177000</v>
+        <v>687100</v>
       </c>
       <c r="F43" s="3">
-        <v>983000</v>
+        <v>1176400</v>
       </c>
       <c r="G43" s="3">
-        <v>760700</v>
+        <v>982500</v>
       </c>
       <c r="H43" s="3">
-        <v>401500</v>
+        <v>760300</v>
       </c>
       <c r="I43" s="3">
-        <v>482200</v>
+        <v>401300</v>
       </c>
       <c r="J43" s="3">
+        <v>482000</v>
+      </c>
+      <c r="K43" s="3">
         <v>382200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>502600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>426500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>451100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>371800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>335900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>338400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>360200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>374700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>399700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>562700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>575400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>472300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>423100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>505100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>694300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>829000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>499400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>504700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>480900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>383300</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>347200</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>106700</v>
+        <v>148100</v>
       </c>
       <c r="E44" s="3">
-        <v>116300</v>
+        <v>106600</v>
       </c>
       <c r="F44" s="3">
-        <v>126700</v>
+        <v>116200</v>
       </c>
       <c r="G44" s="3">
-        <v>115600</v>
+        <v>126600</v>
       </c>
       <c r="H44" s="3">
-        <v>114100</v>
+        <v>115500</v>
       </c>
       <c r="I44" s="3">
-        <v>123700</v>
+        <v>114000</v>
       </c>
       <c r="J44" s="3">
+        <v>123600</v>
+      </c>
+      <c r="K44" s="3">
         <v>137800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>150400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>162200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>184200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>197800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>233100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>206500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>195700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>202300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>212500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>174000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>184200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>191800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>211500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>168600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>163000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>173400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>183800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>152100</v>
-      </c>
-      <c r="AC44" s="3">
-        <v>163600</v>
       </c>
       <c r="AD44" s="3">
         <v>163600</v>
       </c>
       <c r="AE44" s="3">
+        <v>163600</v>
+      </c>
+      <c r="AF44" s="3">
         <v>182800</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E45" s="3">
         <v>76300</v>
       </c>
-      <c r="E45" s="3">
-        <v>92600</v>
-      </c>
       <c r="F45" s="3">
-        <v>108900</v>
+        <v>92500</v>
       </c>
       <c r="G45" s="3">
+        <v>108800</v>
+      </c>
+      <c r="H45" s="3">
         <v>97000</v>
       </c>
-      <c r="H45" s="3">
-        <v>92600</v>
-      </c>
       <c r="I45" s="3">
-        <v>91900</v>
+        <v>92500</v>
       </c>
       <c r="J45" s="3">
+        <v>91800</v>
+      </c>
+      <c r="K45" s="3">
         <v>88100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>86800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>159900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>160200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>143400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>50200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>54200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>39800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>252900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>55500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>43100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>60100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>199100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>173100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>170900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>180800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>173400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>206900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>255800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>315000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>227400</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2047400</v>
+        <v>1907900</v>
       </c>
       <c r="E46" s="3">
-        <v>2751100</v>
+        <v>2046400</v>
       </c>
       <c r="F46" s="3">
-        <v>2382200</v>
+        <v>2749700</v>
       </c>
       <c r="G46" s="3">
-        <v>2085200</v>
+        <v>2381000</v>
       </c>
       <c r="H46" s="3">
-        <v>1893300</v>
+        <v>2084100</v>
       </c>
       <c r="I46" s="3">
-        <v>1627400</v>
+        <v>1892400</v>
       </c>
       <c r="J46" s="3">
+        <v>1626600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1711900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1366900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1358300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1471700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1067200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1036600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1072400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1045500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1232800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>963500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>970700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>998600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>932300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>900300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1092300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1271900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1240600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>927300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1299800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1193800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>895000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>828200</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>188900</v>
+        <v>191000</v>
       </c>
       <c r="E47" s="3">
-        <v>191100</v>
+        <v>188800</v>
       </c>
       <c r="F47" s="3">
-        <v>198500</v>
+        <v>191000</v>
       </c>
       <c r="G47" s="3">
-        <v>203700</v>
+        <v>198400</v>
       </c>
       <c r="H47" s="3">
-        <v>205900</v>
+        <v>203600</v>
       </c>
       <c r="I47" s="3">
-        <v>214800</v>
+        <v>205800</v>
       </c>
       <c r="J47" s="3">
+        <v>214700</v>
+      </c>
+      <c r="K47" s="3">
         <v>217800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>216200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>238000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>253800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>125700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>131800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>135000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>137200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>148400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>145100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>144000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>145400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>142400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>152100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>157300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>160000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>171200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>500100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>535500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>552400</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>554700</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4305200</v>
+        <v>4287400</v>
       </c>
       <c r="E48" s="3">
-        <v>4208900</v>
+        <v>4303000</v>
       </c>
       <c r="F48" s="3">
-        <v>3992600</v>
+        <v>4206700</v>
       </c>
       <c r="G48" s="3">
-        <v>3882200</v>
+        <v>3990500</v>
       </c>
       <c r="H48" s="3">
-        <v>3914100</v>
+        <v>3880200</v>
       </c>
       <c r="I48" s="3">
-        <v>4011100</v>
+        <v>3912100</v>
       </c>
       <c r="J48" s="3">
+        <v>4009000</v>
+      </c>
+      <c r="K48" s="3">
         <v>3918500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4133900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4347500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4613900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4627400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4776700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4883000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4953200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4956900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4850900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4703600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4691400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4506200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4787000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4869800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4895400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4952000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4989200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>5232400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>5242400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>5354600</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>5337700</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>524400</v>
+        <v>517500</v>
       </c>
       <c r="E49" s="3">
-        <v>530400</v>
+        <v>524200</v>
       </c>
       <c r="F49" s="3">
+        <v>530100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>534500</v>
+      </c>
+      <c r="H49" s="3">
+        <v>535300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>539000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>532300</v>
+      </c>
+      <c r="K49" s="3">
         <v>534800</v>
       </c>
-      <c r="G49" s="3">
-        <v>535600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>539300</v>
-      </c>
-      <c r="I49" s="3">
-        <v>532600</v>
-      </c>
-      <c r="J49" s="3">
-        <v>534800</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>530800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>562400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>600400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>607200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>632500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>610800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>609700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>654100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>654200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>643600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>637000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>585000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>612000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>618800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>615500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>617700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>600600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>623000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>629200</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>630700</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>235600</v>
+        <v>190300</v>
       </c>
       <c r="E52" s="3">
-        <v>274800</v>
+        <v>235400</v>
       </c>
       <c r="F52" s="3">
-        <v>332600</v>
+        <v>274700</v>
       </c>
       <c r="G52" s="3">
-        <v>394100</v>
+        <v>332400</v>
       </c>
       <c r="H52" s="3">
-        <v>428900</v>
+        <v>393900</v>
       </c>
       <c r="I52" s="3">
-        <v>448100</v>
+        <v>428700</v>
       </c>
       <c r="J52" s="3">
+        <v>447900</v>
+      </c>
+      <c r="K52" s="3">
         <v>520700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>525800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>566100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>602000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>648600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>775300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>711300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>667400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>685600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>681200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>719000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>703200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>680200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>770100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>761800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>725600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>729300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>736800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>797400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>829700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>745200</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>739800</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7301500</v>
+        <v>7094100</v>
       </c>
       <c r="E54" s="3">
-        <v>7956300</v>
+        <v>7297700</v>
       </c>
       <c r="F54" s="3">
-        <v>7440700</v>
+        <v>7952200</v>
       </c>
       <c r="G54" s="3">
-        <v>7100700</v>
+        <v>7436900</v>
       </c>
       <c r="H54" s="3">
-        <v>6981500</v>
+        <v>7097100</v>
       </c>
       <c r="I54" s="3">
-        <v>6834100</v>
+        <v>6977900</v>
       </c>
       <c r="J54" s="3">
+        <v>6830600</v>
+      </c>
+      <c r="K54" s="3">
         <v>6903700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6773700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7072400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7541700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7076100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7353000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7412400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7413100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7677800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7295000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7180900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7175600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6846100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7221500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7500000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7668300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>7710800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>7753900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>8488200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>8447500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>8180100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>8100200</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>622200</v>
+        <v>489400</v>
       </c>
       <c r="E57" s="3">
-        <v>997000</v>
+        <v>621900</v>
       </c>
       <c r="F57" s="3">
-        <v>947400</v>
+        <v>996500</v>
       </c>
       <c r="G57" s="3">
-        <v>848900</v>
+        <v>946900</v>
       </c>
       <c r="H57" s="3">
-        <v>623000</v>
+        <v>848500</v>
       </c>
       <c r="I57" s="3">
-        <v>510400</v>
+        <v>622600</v>
       </c>
       <c r="J57" s="3">
+        <v>510100</v>
+      </c>
+      <c r="K57" s="3">
         <v>573300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>420900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>469300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>463500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>390200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>314700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>324200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>322000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>296000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>288700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>352600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>378300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>346600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>319900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>373400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>442800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>380300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>313300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>351100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>317300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>283500</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>229700</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>132600</v>
+        <v>101400</v>
       </c>
       <c r="E58" s="3">
-        <v>143700</v>
+        <v>132500</v>
       </c>
       <c r="F58" s="3">
-        <v>534800</v>
+        <v>143600</v>
       </c>
       <c r="G58" s="3">
-        <v>511100</v>
+        <v>534500</v>
       </c>
       <c r="H58" s="3">
-        <v>616300</v>
+        <v>510800</v>
       </c>
       <c r="I58" s="3">
-        <v>625200</v>
+        <v>616000</v>
       </c>
       <c r="J58" s="3">
+        <v>624900</v>
+      </c>
+      <c r="K58" s="3">
         <v>88100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>83200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>83300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>81200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>393300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>402600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>403500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>400000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>85400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>83300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>80800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>112600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>95900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>77500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>105400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>555900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>686900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>701800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>484000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>490900</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>452500</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>601500</v>
+        <v>556800</v>
       </c>
       <c r="E59" s="3">
-        <v>998500</v>
+        <v>601200</v>
       </c>
       <c r="F59" s="3">
-        <v>710400</v>
+        <v>998000</v>
       </c>
       <c r="G59" s="3">
-        <v>503700</v>
+        <v>710000</v>
       </c>
       <c r="H59" s="3">
-        <v>423700</v>
+        <v>503400</v>
       </c>
       <c r="I59" s="3">
-        <v>294800</v>
+        <v>423500</v>
       </c>
       <c r="J59" s="3">
+        <v>294700</v>
+      </c>
+      <c r="K59" s="3">
         <v>429600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>267600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>150200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>178700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>164800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>185200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>167200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>148900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>228000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>181600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>162400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>173500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>133000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>159600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>203300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>198000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>94500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>105700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>117500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>126800</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>218900</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>553100</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1356300</v>
+        <v>1147600</v>
       </c>
       <c r="E60" s="3">
-        <v>2139300</v>
+        <v>1355600</v>
       </c>
       <c r="F60" s="3">
-        <v>2192600</v>
+        <v>2138200</v>
       </c>
       <c r="G60" s="3">
-        <v>1863700</v>
+        <v>2191500</v>
       </c>
       <c r="H60" s="3">
-        <v>1663000</v>
+        <v>1862700</v>
       </c>
       <c r="I60" s="3">
-        <v>1430400</v>
+        <v>1662100</v>
       </c>
       <c r="J60" s="3">
+        <v>1429600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1091100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>771700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>702800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>723500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>948300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>902500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>895000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>870900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>609400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>553500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>595800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>664400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>575500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>557100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>682000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1196700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1161700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1120800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>952600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>934900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>954900</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>904200</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3106700</v>
+        <v>3106600</v>
       </c>
       <c r="E61" s="3">
-        <v>3121500</v>
+        <v>3105100</v>
       </c>
       <c r="F61" s="3">
-        <v>2388900</v>
+        <v>3119900</v>
       </c>
       <c r="G61" s="3">
-        <v>2389600</v>
+        <v>2387700</v>
       </c>
       <c r="H61" s="3">
-        <v>2316300</v>
+        <v>2388400</v>
       </c>
       <c r="I61" s="3">
-        <v>2339300</v>
+        <v>2315100</v>
       </c>
       <c r="J61" s="3">
+        <v>2338100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2743700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2681700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2872800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3084200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2207200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2297700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2348900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2358500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2667100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2590000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2465700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2373800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2217100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2291500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2462400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2202900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2126200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2128400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2822500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2859400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>2714200</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>2710300</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1184400</v>
+        <v>1157200</v>
       </c>
       <c r="E62" s="3">
-        <v>1222200</v>
+        <v>1183800</v>
       </c>
       <c r="F62" s="3">
-        <v>1068900</v>
+        <v>1221600</v>
       </c>
       <c r="G62" s="3">
-        <v>1014800</v>
+        <v>1068300</v>
       </c>
       <c r="H62" s="3">
-        <v>1046700</v>
+        <v>1014300</v>
       </c>
       <c r="I62" s="3">
-        <v>1143700</v>
+        <v>1046100</v>
       </c>
       <c r="J62" s="3">
+        <v>1143100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1103700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>982100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>961100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1075500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1030400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1020900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>952300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1016700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1080300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1015900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1026900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>990900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>940300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1021500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1029100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1005400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1091800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1081300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1118500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1070900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1025600</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>990200</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6274800</v>
+        <v>6002100</v>
       </c>
       <c r="E66" s="3">
-        <v>7134100</v>
+        <v>6271600</v>
       </c>
       <c r="F66" s="3">
-        <v>6301500</v>
+        <v>7130400</v>
       </c>
       <c r="G66" s="3">
-        <v>5934800</v>
+        <v>6298200</v>
       </c>
       <c r="H66" s="3">
-        <v>5725900</v>
+        <v>5931800</v>
       </c>
       <c r="I66" s="3">
-        <v>5662200</v>
+        <v>5723000</v>
       </c>
       <c r="J66" s="3">
+        <v>5659300</v>
+      </c>
+      <c r="K66" s="3">
         <v>5697000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5187700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5315300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5721900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5034500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5059200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5063600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5104500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5269400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5027700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4966100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4894600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4546200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4740300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4962400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5193100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5185700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5167100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5770900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>5750200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>5562000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>5469000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,76 +5846,79 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>697400</v>
+      </c>
+      <c r="E70" s="3">
+        <v>697400</v>
+      </c>
+      <c r="F70" s="3">
+        <v>697400</v>
+      </c>
+      <c r="G70" s="3">
+        <v>697400</v>
+      </c>
+      <c r="H70" s="3">
+        <v>697400</v>
+      </c>
+      <c r="I70" s="3">
+        <v>697400</v>
+      </c>
+      <c r="J70" s="3">
+        <v>697400</v>
+      </c>
+      <c r="K70" s="3">
         <v>697800</v>
       </c>
-      <c r="E70" s="3">
-        <v>697800</v>
-      </c>
-      <c r="F70" s="3">
-        <v>697800</v>
-      </c>
-      <c r="G70" s="3">
-        <v>697800</v>
-      </c>
-      <c r="H70" s="3">
-        <v>697800</v>
-      </c>
-      <c r="I70" s="3">
-        <v>697800</v>
-      </c>
-      <c r="J70" s="3">
-        <v>697800</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>681300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>707300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>728900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>722200</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>739200</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>739500</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>734400</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>781000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>747000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>725200</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>716900</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>684500</v>
-      </c>
-      <c r="W70" s="3">
-        <v>709100</v>
       </c>
       <c r="X70" s="3">
         <v>709100</v>
       </c>
       <c r="Y70" s="3">
-        <v>701000</v>
+        <v>709100</v>
       </c>
       <c r="Z70" s="3">
         <v>701000</v>
@@ -5759,7 +5927,7 @@
         <v>701000</v>
       </c>
       <c r="AB70" s="3">
-        <v>723700</v>
+        <v>701000</v>
       </c>
       <c r="AC70" s="3">
         <v>723700</v>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>723700</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>723700</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1645900</v>
+        <v>-1613200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1862200</v>
+        <v>-1645100</v>
       </c>
       <c r="F72" s="3">
-        <v>-1717000</v>
+        <v>-1861300</v>
       </c>
       <c r="G72" s="3">
-        <v>-1750400</v>
+        <v>-1716200</v>
       </c>
       <c r="H72" s="3">
-        <v>-1681500</v>
+        <v>-1749500</v>
       </c>
       <c r="I72" s="3">
-        <v>-1817000</v>
+        <v>-1680600</v>
       </c>
       <c r="J72" s="3">
+        <v>-1816100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1748900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1359700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1393600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1412900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1261100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1176300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1125000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1134400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1260200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1238700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1199400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1138600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-986100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-952300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-879300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-899700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-785900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-716700</v>
-      </c>
-      <c r="AB72" s="3">
-        <v>-716800</v>
       </c>
       <c r="AC72" s="3">
         <v>-716800</v>
       </c>
       <c r="AD72" s="3">
+        <v>-716800</v>
+      </c>
+      <c r="AE72" s="3">
         <v>-775100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-756700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>328900</v>
+        <v>394600</v>
       </c>
       <c r="E76" s="3">
+        <v>328700</v>
+      </c>
+      <c r="F76" s="3">
         <v>124400</v>
       </c>
-      <c r="F76" s="3">
-        <v>441500</v>
-      </c>
       <c r="G76" s="3">
-        <v>468100</v>
+        <v>441300</v>
       </c>
       <c r="H76" s="3">
-        <v>557800</v>
+        <v>467900</v>
       </c>
       <c r="I76" s="3">
-        <v>474100</v>
+        <v>557500</v>
       </c>
       <c r="J76" s="3">
+        <v>473800</v>
+      </c>
+      <c r="K76" s="3">
         <v>508900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>904700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1049700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1091000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1319400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1554600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1609400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1574200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1627400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1520200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1489600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1564000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1615400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1772100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1828500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1774200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1824100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1885800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1993600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1973600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1894500</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>1907500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>217800</v>
+        <v>45900</v>
       </c>
       <c r="E81" s="3">
+        <v>217700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-120700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>45200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-59300</v>
-      </c>
       <c r="H81" s="3">
-        <v>137800</v>
+        <v>-59200</v>
       </c>
       <c r="I81" s="3">
-        <v>-57800</v>
+        <v>137700</v>
       </c>
       <c r="J81" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-368900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-22500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-129200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-104300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-47100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>21200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>51500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>42300</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-50000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-92900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-62500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-79000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>48900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-107900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-20100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-13400</v>
       </c>
-      <c r="AB81" s="3">
-        <v>0</v>
-      </c>
       <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
         <v>46900</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-9200</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>130400</v>
+        <v>128100</v>
       </c>
       <c r="E83" s="3">
-        <v>139300</v>
+        <v>130300</v>
       </c>
       <c r="F83" s="3">
-        <v>132600</v>
+        <v>139200</v>
       </c>
       <c r="G83" s="3">
-        <v>85200</v>
+        <v>132500</v>
       </c>
       <c r="H83" s="3">
-        <v>86700</v>
+        <v>85100</v>
       </c>
       <c r="I83" s="3">
+        <v>86600</v>
+      </c>
+      <c r="J83" s="3">
         <v>107400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>425200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>125100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>153200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>178700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>149500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>147500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>144400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>144200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>146700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>137200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>133900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>142300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>130800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>137000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>121200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>148100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>131000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>128700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>122900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>158300</v>
-      </c>
-      <c r="AD83" s="3">
-        <v>123700</v>
       </c>
       <c r="AE83" s="3">
         <v>123700</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>123700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>342200</v>
+        <v>8100</v>
       </c>
       <c r="E89" s="3">
-        <v>260000</v>
+        <v>342000</v>
       </c>
       <c r="F89" s="3">
-        <v>151100</v>
+        <v>259900</v>
       </c>
       <c r="G89" s="3">
-        <v>-95600</v>
+        <v>151000</v>
       </c>
       <c r="H89" s="3">
-        <v>334100</v>
+        <v>-95500</v>
       </c>
       <c r="I89" s="3">
+        <v>333900</v>
+      </c>
+      <c r="J89" s="3">
         <v>40000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>701500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>57900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>193000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>85100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>197000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>95000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>168000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>141100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>271900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>204600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>63100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>100500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>115500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>78300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>319900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>60300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>149600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>46900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>215900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>93700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>175200</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>91400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-195000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-287000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-441000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-284000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-131000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-93000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-141000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-128000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-86100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-73600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-162500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-98900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-58900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-56500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-138000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-79600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-87200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-26200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-76900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-67600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-45200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-53600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-81100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-72200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-49200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-83700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-76800</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-62200</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-134800</v>
+        <v>-137000</v>
       </c>
       <c r="E94" s="3">
-        <v>-296300</v>
+        <v>-134700</v>
       </c>
       <c r="F94" s="3">
+        <v>-296100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-129600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-69600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-53300</v>
       </c>
-      <c r="I94" s="3">
-        <v>-200000</v>
-      </c>
       <c r="J94" s="3">
+        <v>-199900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-149600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-83300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-246800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-125700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-85500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-74600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-148900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-75400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-140400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-40800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-76100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-98100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-79800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-39900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>224000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-107900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-55100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>3800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-65300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-76100</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-58400</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7663,88 +7897,91 @@
         <v>-11100</v>
       </c>
       <c r="E96" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-9600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-10400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-9600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-10400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-8100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-27400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-9000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-9300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-9200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-9400</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-8600</v>
       </c>
       <c r="Q96" s="3">
         <v>-8600</v>
       </c>
       <c r="R96" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="S96" s="3">
         <v>-9100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-9500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-8500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-9100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-8000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-8300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-8900</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>-9200</v>
       </c>
       <c r="AC96" s="3">
         <v>-9200</v>
       </c>
       <c r="AD96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-8500</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-85100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-122200</v>
       </c>
-      <c r="E100" s="3">
-        <v>266700</v>
-      </c>
       <c r="F100" s="3">
+        <v>266500</v>
+      </c>
+      <c r="G100" s="3">
         <v>-84400</v>
       </c>
-      <c r="G100" s="3">
-        <v>-70400</v>
-      </c>
       <c r="H100" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="I100" s="3">
         <v>-78500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>60700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-269600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-52800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-150200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>496000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-60600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-73800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-153900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>74100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-98700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>15100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-28900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-37100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-154300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-268700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-115400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-13400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-328900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-67600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>86000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-49900</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3700</v>
-      </c>
-      <c r="H101" s="3">
-        <v>700</v>
       </c>
       <c r="I101" s="3">
         <v>700</v>
       </c>
       <c r="J101" s="3">
+        <v>700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>8</v>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="U101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>800</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
         <v>0</v>
       </c>
       <c r="Z101" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="AA101" s="3">
         <v>-700</v>
       </c>
       <c r="AB101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AC101" s="3">
         <v>800</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-800</v>
       </c>
-      <c r="AD101" s="3">
-        <v>0</v>
-      </c>
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-218400</v>
+      </c>
+      <c r="E102" s="3">
         <v>83700</v>
       </c>
-      <c r="E102" s="3">
-        <v>235600</v>
-      </c>
       <c r="F102" s="3">
+        <v>235400</v>
+      </c>
+      <c r="G102" s="3">
         <v>-60700</v>
       </c>
-      <c r="G102" s="3">
-        <v>-239300</v>
-      </c>
       <c r="H102" s="3">
-        <v>203000</v>
+        <v>-239100</v>
       </c>
       <c r="I102" s="3">
+        <v>202900</v>
+      </c>
+      <c r="J102" s="3">
         <v>-98500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>279300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-41300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>335000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-63600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-57300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>66300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>97800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>78500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>15400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-20300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-155100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>11300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>168900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>27500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-337900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>152900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>113700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>49200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>48400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>TAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AF102"/>
+  <dimension ref="A5:AG102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,410 +665,423 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AG7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>462700</v>
+        <v>739400</v>
       </c>
       <c r="E8" s="3">
-        <v>806300</v>
+        <v>454400</v>
       </c>
       <c r="F8" s="3">
-        <v>632300</v>
+        <v>791700</v>
       </c>
       <c r="G8" s="3">
-        <v>687800</v>
+        <v>620900</v>
       </c>
       <c r="H8" s="3">
-        <v>339100</v>
+        <v>675400</v>
       </c>
       <c r="I8" s="3">
-        <v>544200</v>
+        <v>333000</v>
       </c>
       <c r="J8" s="3">
+        <v>534400</v>
+      </c>
+      <c r="K8" s="3">
         <v>451600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1563700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>447700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>482100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>420900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>394100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>342900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>475700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>474800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>491600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>394100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>498800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>473400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>430900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>335700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>442600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>474800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>437600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>374300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>444000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>550800</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>476300</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AG8" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>157700</v>
+        <v>215900</v>
       </c>
       <c r="E9" s="3">
-        <v>264300</v>
+        <v>154900</v>
       </c>
       <c r="F9" s="3">
-        <v>350200</v>
+        <v>259500</v>
       </c>
       <c r="G9" s="3">
-        <v>274700</v>
+        <v>343900</v>
       </c>
       <c r="H9" s="3">
-        <v>177700</v>
+        <v>269700</v>
       </c>
       <c r="I9" s="3">
-        <v>190300</v>
+        <v>174500</v>
       </c>
       <c r="J9" s="3">
+        <v>186800</v>
+      </c>
+      <c r="K9" s="3">
         <v>230300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>686700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>183700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>220000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>253000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>193200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>118500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>186800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>322000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>307600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>243500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>361800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>361500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>311000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>227300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>308600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>326000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>307400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>228500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>288100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>311100</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>322700</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AG9" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>305000</v>
+        <v>523400</v>
       </c>
       <c r="E10" s="3">
-        <v>541900</v>
+        <v>299500</v>
       </c>
       <c r="F10" s="3">
-        <v>282100</v>
+        <v>532200</v>
       </c>
       <c r="G10" s="3">
-        <v>413100</v>
+        <v>277000</v>
       </c>
       <c r="H10" s="3">
-        <v>161400</v>
+        <v>405700</v>
       </c>
       <c r="I10" s="3">
-        <v>353900</v>
+        <v>158500</v>
       </c>
       <c r="J10" s="3">
+        <v>347500</v>
+      </c>
+      <c r="K10" s="3">
         <v>221400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>877000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>264000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>262100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>167900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>224400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>288900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>152800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>184000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>150700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>137000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>111900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>119900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>108400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>134000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>148800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>130200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>145900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>156000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>239700</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>153600</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AG10" s="3">
         <v>150600</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1101,8 +1114,9 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1193,8 +1207,11 @@
       <c r="AF12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1285,192 +1302,201 @@
       <c r="AF13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-9600</v>
+        <v>-42200</v>
       </c>
       <c r="E14" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F14" s="3">
         <v>-2200</v>
       </c>
-      <c r="F14" s="3">
-        <v>3700</v>
-      </c>
       <c r="G14" s="3">
-        <v>51800</v>
+        <v>3600</v>
       </c>
       <c r="H14" s="3">
-        <v>-17800</v>
+        <v>50900</v>
       </c>
       <c r="I14" s="3">
-        <v>-31100</v>
+        <v>-17400</v>
       </c>
       <c r="J14" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="K14" s="3">
         <v>20700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>885200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>21800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>13200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>58300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>25100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-32200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>36600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-18200</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>17500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>41400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>9000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>3800</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>4500</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>14900</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>21500</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>800</v>
       </c>
-      <c r="AF14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>128100</v>
+        <v>101800</v>
       </c>
       <c r="E15" s="3">
-        <v>130300</v>
+        <v>125800</v>
       </c>
       <c r="F15" s="3">
-        <v>139200</v>
+        <v>128000</v>
       </c>
       <c r="G15" s="3">
-        <v>132500</v>
+        <v>136700</v>
       </c>
       <c r="H15" s="3">
+        <v>130100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>83600</v>
+      </c>
+      <c r="J15" s="3">
         <v>85100</v>
       </c>
-      <c r="I15" s="3">
-        <v>86600</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>99200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>292600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>89000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>111900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>133900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>124200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>127900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>122500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>120100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>122700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>113400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>111600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>115700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>106100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>109900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>97900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>134000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>117600</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>114600</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>109900</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>143700</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>111400</v>
       </c>
-      <c r="AF15" s="3">
+      <c r="AG15" s="3">
         <v>112900</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1500,192 +1526,199 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-    </row>
-    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>374600</v>
+        <v>368600</v>
       </c>
       <c r="E17" s="3">
-        <v>481200</v>
+        <v>367900</v>
       </c>
       <c r="F17" s="3">
-        <v>607800</v>
+        <v>472600</v>
       </c>
       <c r="G17" s="3">
-        <v>556800</v>
+        <v>596900</v>
       </c>
       <c r="H17" s="3">
-        <v>323500</v>
+        <v>546700</v>
       </c>
       <c r="I17" s="3">
-        <v>322100</v>
+        <v>317700</v>
       </c>
       <c r="J17" s="3">
+        <v>316200</v>
+      </c>
+      <c r="K17" s="3">
         <v>433100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1759300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>391300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>431700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>512200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>461500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>357800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>376800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>402300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>363100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>353700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>471100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>493200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>452000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>344800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>289800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>451000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>427200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>356500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>396400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>333400</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>440200</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AG17" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>88100</v>
+        <v>370800</v>
       </c>
       <c r="E18" s="3">
-        <v>325000</v>
+        <v>86500</v>
       </c>
       <c r="F18" s="3">
-        <v>24400</v>
+        <v>319200</v>
       </c>
       <c r="G18" s="3">
-        <v>131000</v>
+        <v>24000</v>
       </c>
       <c r="H18" s="3">
-        <v>15500</v>
+        <v>128700</v>
       </c>
       <c r="I18" s="3">
-        <v>222100</v>
+        <v>15300</v>
       </c>
       <c r="J18" s="3">
+        <v>218100</v>
+      </c>
+      <c r="K18" s="3">
         <v>18500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-195600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>56400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>50300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-91300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-67500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>98900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>72500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>128500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>40400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>27700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-19800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-21100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>152800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>23800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>10400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>17900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>47600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>217400</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>36100</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AG18" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1718,468 +1751,484 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-    </row>
-    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11100</v>
+        <v>-8000</v>
       </c>
       <c r="E20" s="3">
-        <v>-7400</v>
+        <v>10900</v>
       </c>
       <c r="F20" s="3">
-        <v>12600</v>
+        <v>-7300</v>
       </c>
       <c r="G20" s="3">
+        <v>12400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="L20" s="3">
+        <v>53300</v>
+      </c>
+      <c r="M20" s="3">
+        <v>28900</v>
+      </c>
+      <c r="N20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>11800</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="S20" s="3">
+        <v>74100</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="X20" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>8200</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-3700</v>
       </c>
-      <c r="H20" s="3">
-        <v>8100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>53300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>28900</v>
-      </c>
-      <c r="M20" s="3">
-        <v>3800</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="O20" s="3">
-        <v>3800</v>
-      </c>
-      <c r="P20" s="3">
-        <v>11800</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-22800</v>
-      </c>
-      <c r="R20" s="3">
-        <v>74100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-22200</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>8200</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>9700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>4600</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>18400</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>15400</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AG20" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>227300</v>
+        <v>464600</v>
       </c>
       <c r="E21" s="3">
-        <v>447900</v>
+        <v>223200</v>
       </c>
       <c r="F21" s="3">
-        <v>176200</v>
+        <v>439800</v>
       </c>
       <c r="G21" s="3">
-        <v>259900</v>
+        <v>173000</v>
       </c>
       <c r="H21" s="3">
-        <v>108800</v>
+        <v>255200</v>
       </c>
       <c r="I21" s="3">
-        <v>301300</v>
+        <v>106900</v>
       </c>
       <c r="J21" s="3">
+        <v>295900</v>
+      </c>
+      <c r="K21" s="3">
         <v>120700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>283000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>210500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>207200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>89000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>85900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>144400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>220600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>290800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>257000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>155400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>155500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>117200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>100300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>122000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>269500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>180100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>137700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>156300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>175200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>394100</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>175200</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AG21" s="3">
         <v>162100</v>
       </c>
     </row>
-    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40700</v>
+        <v>33400</v>
       </c>
       <c r="E22" s="3">
-        <v>34100</v>
+        <v>40000</v>
       </c>
       <c r="F22" s="3">
-        <v>31800</v>
+        <v>33400</v>
       </c>
       <c r="G22" s="3">
-        <v>34100</v>
+        <v>31300</v>
       </c>
       <c r="H22" s="3">
+        <v>33400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>39300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>115600</v>
+      </c>
+      <c r="M22" s="3">
+        <v>33300</v>
+      </c>
+      <c r="N22" s="3">
+        <v>38300</v>
+      </c>
+      <c r="O22" s="3">
+        <v>40200</v>
+      </c>
+      <c r="P22" s="3">
+        <v>35300</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>37700</v>
+      </c>
+      <c r="R22" s="3">
         <v>40000</v>
       </c>
-      <c r="I22" s="3">
-        <v>35500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>37000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>115600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>33300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>38300</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="S22" s="3">
+        <v>35100</v>
+      </c>
+      <c r="T22" s="3">
+        <v>38100</v>
+      </c>
+      <c r="U22" s="3">
+        <v>37300</v>
+      </c>
+      <c r="V22" s="3">
+        <v>31600</v>
+      </c>
+      <c r="W22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="X22" s="3">
+        <v>33400</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>39900</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>42900</v>
+      </c>
+      <c r="AA22" s="3">
         <v>40200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>35300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>37700</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>40000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>35100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>38100</v>
-      </c>
-      <c r="T22" s="3">
-        <v>37300</v>
-      </c>
-      <c r="U22" s="3">
-        <v>31600</v>
-      </c>
-      <c r="V22" s="3">
-        <v>32000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>33400</v>
-      </c>
-      <c r="X22" s="3">
-        <v>39900</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>42900</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>40200</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>38700</v>
       </c>
       <c r="AB22" s="3">
         <v>38700</v>
       </c>
       <c r="AC22" s="3">
+        <v>38700</v>
+      </c>
+      <c r="AD22" s="3">
         <v>40700</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>41500</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>42300</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AG22" s="3">
         <v>41500</v>
       </c>
     </row>
-    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>58500</v>
+        <v>329300</v>
       </c>
       <c r="E23" s="3">
-        <v>283600</v>
+        <v>57400</v>
       </c>
       <c r="F23" s="3">
-        <v>5200</v>
+        <v>278400</v>
       </c>
       <c r="G23" s="3">
-        <v>93300</v>
+        <v>5100</v>
       </c>
       <c r="H23" s="3">
-        <v>-16300</v>
+        <v>91600</v>
       </c>
       <c r="I23" s="3">
-        <v>179200</v>
+        <v>-16000</v>
       </c>
       <c r="J23" s="3">
+        <v>175900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-23700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-257800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>52100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-130000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-98900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-40800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>36100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>111500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>72100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-19000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-10000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-57100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-63900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-55000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>105400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-8200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-32000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-11200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>11500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>194400</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>9200</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AG23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>35600</v>
+      </c>
+      <c r="G24" s="3">
+        <v>64700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>21800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>26900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L24" s="3">
+        <v>31100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>31800</v>
+      </c>
+      <c r="N24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-13300</v>
       </c>
-      <c r="E24" s="3">
-        <v>36300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>65900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>22200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>27400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>26700</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>31100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>31800</v>
-      </c>
-      <c r="M24" s="3">
-        <v>15000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-19300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-13300</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>31200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-39700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-12200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-15300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-4500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>27900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>78100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-3700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-14100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-13100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>63000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-1500</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AG24" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2270,192 +2319,201 @@
       <c r="AF25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>71800</v>
+        <v>304600</v>
       </c>
       <c r="E26" s="3">
-        <v>247300</v>
+        <v>70500</v>
       </c>
       <c r="F26" s="3">
-        <v>-60700</v>
+        <v>242800</v>
       </c>
       <c r="G26" s="3">
-        <v>71100</v>
+        <v>-59600</v>
       </c>
       <c r="H26" s="3">
-        <v>-43700</v>
+        <v>69800</v>
       </c>
       <c r="I26" s="3">
-        <v>152500</v>
+        <v>-42900</v>
       </c>
       <c r="J26" s="3">
+        <v>149800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-25900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-288900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>20300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-110600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-91200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>34500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>80300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>63800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>20600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-23100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-44900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-48700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-50400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>77500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-86300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-28300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>24600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>131400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>10800</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AG26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>45900</v>
+        <v>270400</v>
       </c>
       <c r="E27" s="3">
-        <v>217700</v>
+        <v>45100</v>
       </c>
       <c r="F27" s="3">
-        <v>-120700</v>
+        <v>213700</v>
       </c>
       <c r="G27" s="3">
-        <v>45200</v>
+        <v>-118500</v>
       </c>
       <c r="H27" s="3">
-        <v>-59200</v>
+        <v>44300</v>
       </c>
       <c r="I27" s="3">
-        <v>137700</v>
+        <v>-58200</v>
       </c>
       <c r="J27" s="3">
+        <v>135200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-57700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-368900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-22500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-129200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-104300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-47100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>21200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>51500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>42300</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-50000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-92900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-62500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-79000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>48900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-107900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-20100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-13400</v>
       </c>
-      <c r="AC27" s="3">
-        <v>0</v>
-      </c>
       <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
         <v>46900</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-9200</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AG27" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2546,8 +2604,11 @@
       <c r="AF28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2638,8 +2699,11 @@
       <c r="AF29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2730,8 +2794,11 @@
       <c r="AF30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2822,192 +2889,201 @@
       <c r="AF31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11100</v>
+        <v>8000</v>
       </c>
       <c r="E32" s="3">
-        <v>7400</v>
+        <v>-10900</v>
       </c>
       <c r="F32" s="3">
-        <v>-12600</v>
+        <v>7300</v>
       </c>
       <c r="G32" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K32" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="R32" s="3">
+        <v>22800</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>18200</v>
+      </c>
+      <c r="U32" s="3">
+        <v>22200</v>
+      </c>
+      <c r="V32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="W32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="X32" s="3">
+        <v>9400</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="AB32" s="3">
         <v>3700</v>
       </c>
-      <c r="H32" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>7400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>5200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-53300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-28900</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>22800</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-74100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>18200</v>
-      </c>
-      <c r="T32" s="3">
-        <v>22200</v>
-      </c>
-      <c r="U32" s="3">
-        <v>6200</v>
-      </c>
-      <c r="V32" s="3">
-        <v>5300</v>
-      </c>
-      <c r="W32" s="3">
-        <v>9400</v>
-      </c>
-      <c r="X32" s="3">
-        <v>6000</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>4500</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>3700</v>
-      </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-9700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-4600</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-18400</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-15400</v>
       </c>
-      <c r="AF32" s="3">
+      <c r="AG32" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>45900</v>
+        <v>270400</v>
       </c>
       <c r="E33" s="3">
-        <v>217700</v>
+        <v>45100</v>
       </c>
       <c r="F33" s="3">
-        <v>-120700</v>
+        <v>213700</v>
       </c>
       <c r="G33" s="3">
-        <v>45200</v>
+        <v>-118500</v>
       </c>
       <c r="H33" s="3">
-        <v>-59200</v>
+        <v>44300</v>
       </c>
       <c r="I33" s="3">
-        <v>137700</v>
+        <v>-58200</v>
       </c>
       <c r="J33" s="3">
+        <v>135200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-57700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-368900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-22500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-129200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-104300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-47100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>21200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>51500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>42300</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-50000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-92900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-62500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-79000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>48900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-107900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-20100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-13400</v>
       </c>
-      <c r="AC33" s="3">
-        <v>0</v>
-      </c>
       <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
         <v>46900</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-9200</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AG33" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3098,197 +3174,206 @@
       <c r="AF34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>45900</v>
+        <v>270400</v>
       </c>
       <c r="E35" s="3">
-        <v>217700</v>
+        <v>45100</v>
       </c>
       <c r="F35" s="3">
-        <v>-120700</v>
+        <v>213700</v>
       </c>
       <c r="G35" s="3">
-        <v>45200</v>
+        <v>-118500</v>
       </c>
       <c r="H35" s="3">
-        <v>-59200</v>
+        <v>44300</v>
       </c>
       <c r="I35" s="3">
-        <v>137700</v>
+        <v>-58200</v>
       </c>
       <c r="J35" s="3">
+        <v>135200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-57700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-368900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-22500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-129200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-104300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-47100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>21200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>51500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>42300</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-50000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-92900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-62500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-79000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>48900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-107900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-20100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-13400</v>
       </c>
-      <c r="AC35" s="3">
-        <v>0</v>
-      </c>
       <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
         <v>46900</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-9200</v>
       </c>
-      <c r="AF35" s="3">
+      <c r="AG35" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
-      <c r="AF38" s="2">
+      <c r="AG38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3321,8 +3406,9 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
-    </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG39" s="3"/>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3355,163 +3441,167 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
-    </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>704800</v>
+        <v>894900</v>
       </c>
       <c r="E41" s="3">
-        <v>923200</v>
+        <v>692100</v>
       </c>
       <c r="F41" s="3">
-        <v>839600</v>
+        <v>906600</v>
       </c>
       <c r="G41" s="3">
-        <v>604100</v>
+        <v>824400</v>
       </c>
       <c r="H41" s="3">
-        <v>664800</v>
+        <v>593200</v>
       </c>
       <c r="I41" s="3">
-        <v>904000</v>
+        <v>652900</v>
       </c>
       <c r="J41" s="3">
+        <v>887700</v>
+      </c>
+      <c r="K41" s="3">
         <v>701100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>464300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>486600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>543900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>207000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>201700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>265300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>320400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>270300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>164900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>83900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>67700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>69000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>92600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>247700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>233700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>64700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>37200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>387200</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>234300</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>120600</v>
       </c>
-      <c r="AF41" s="3">
+      <c r="AG41" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>166600</v>
+        <v>104000</v>
       </c>
       <c r="E42" s="3">
-        <v>253200</v>
+        <v>163600</v>
       </c>
       <c r="F42" s="3">
-        <v>524900</v>
+        <v>248600</v>
       </c>
       <c r="G42" s="3">
-        <v>559000</v>
+        <v>515500</v>
       </c>
       <c r="H42" s="3">
-        <v>446400</v>
+        <v>548900</v>
       </c>
       <c r="I42" s="3">
-        <v>380500</v>
+        <v>438400</v>
       </c>
       <c r="J42" s="3">
+        <v>373700</v>
+      </c>
+      <c r="K42" s="3">
         <v>228000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>303700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>162700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>123100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>132300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>147200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>215800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>208000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>129400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>132600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>130800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>107000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>111100</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
       <c r="X42" s="3">
         <v>0</v>
       </c>
@@ -3539,652 +3629,676 @@
       <c r="AF42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>812900</v>
+        <v>606300</v>
       </c>
       <c r="E43" s="3">
-        <v>687100</v>
+        <v>798300</v>
       </c>
       <c r="F43" s="3">
-        <v>1176400</v>
+        <v>674700</v>
       </c>
       <c r="G43" s="3">
-        <v>982500</v>
+        <v>1155200</v>
       </c>
       <c r="H43" s="3">
-        <v>760300</v>
+        <v>964700</v>
       </c>
       <c r="I43" s="3">
-        <v>401300</v>
+        <v>746600</v>
       </c>
       <c r="J43" s="3">
+        <v>394000</v>
+      </c>
+      <c r="K43" s="3">
         <v>482000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>382200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>502600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>426500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>451100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>371800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>335900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>338400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>360200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>374700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>399700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>562700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>575400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>472300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>423100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>505100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>694300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>829000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>499400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>504700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>480900</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>383300</v>
       </c>
-      <c r="AF43" s="3">
+      <c r="AG43" s="3">
         <v>347200</v>
       </c>
     </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>148100</v>
+        <v>130900</v>
       </c>
       <c r="E44" s="3">
-        <v>106600</v>
+        <v>145400</v>
       </c>
       <c r="F44" s="3">
-        <v>116200</v>
+        <v>104700</v>
       </c>
       <c r="G44" s="3">
-        <v>126600</v>
+        <v>114100</v>
       </c>
       <c r="H44" s="3">
-        <v>115500</v>
+        <v>124300</v>
       </c>
       <c r="I44" s="3">
-        <v>114000</v>
+        <v>113400</v>
       </c>
       <c r="J44" s="3">
+        <v>112000</v>
+      </c>
+      <c r="K44" s="3">
         <v>123600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>137800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>150400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>162200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>184200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>197800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>233100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>206500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>195700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>202300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>212500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>174000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>184200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>191800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>211500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>168600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>163000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>173400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>183800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>152100</v>
-      </c>
-      <c r="AD44" s="3">
-        <v>163600</v>
       </c>
       <c r="AE44" s="3">
         <v>163600</v>
       </c>
       <c r="AF44" s="3">
+        <v>163600</v>
+      </c>
+      <c r="AG44" s="3">
         <v>182800</v>
       </c>
     </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>75500</v>
+        <v>88700</v>
       </c>
       <c r="E45" s="3">
-        <v>76300</v>
+        <v>74200</v>
       </c>
       <c r="F45" s="3">
-        <v>92500</v>
+        <v>74900</v>
       </c>
       <c r="G45" s="3">
-        <v>108800</v>
+        <v>90900</v>
       </c>
       <c r="H45" s="3">
-        <v>97000</v>
+        <v>106900</v>
       </c>
       <c r="I45" s="3">
-        <v>92500</v>
+        <v>95200</v>
       </c>
       <c r="J45" s="3">
+        <v>90900</v>
+      </c>
+      <c r="K45" s="3">
         <v>91800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>88100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>86800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>159900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>160200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>143400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>50200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>54200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>39800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>252900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>55500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>43100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>60100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>199100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>173100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>170900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>180800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>173400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>206900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>255800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>315000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>227400</v>
       </c>
-      <c r="AF45" s="3">
+      <c r="AG45" s="3">
         <v>226600</v>
       </c>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1907900</v>
+        <v>1824800</v>
       </c>
       <c r="E46" s="3">
-        <v>2046400</v>
+        <v>1873500</v>
       </c>
       <c r="F46" s="3">
-        <v>2749700</v>
+        <v>2009500</v>
       </c>
       <c r="G46" s="3">
-        <v>2381000</v>
+        <v>2700100</v>
       </c>
       <c r="H46" s="3">
-        <v>2084100</v>
+        <v>2338100</v>
       </c>
       <c r="I46" s="3">
-        <v>1892400</v>
+        <v>2046500</v>
       </c>
       <c r="J46" s="3">
+        <v>1858200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1626600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1711900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1366900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1358300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1471700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1067200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1036600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1072400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1045500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1232800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>963500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>970700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>998600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>932300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>900300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1092300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1271900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1240600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>927300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1299800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1193800</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>895000</v>
       </c>
-      <c r="AF46" s="3">
+      <c r="AG46" s="3">
         <v>828200</v>
       </c>
     </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>191000</v>
+        <v>183900</v>
       </c>
       <c r="E47" s="3">
-        <v>188800</v>
+        <v>187600</v>
       </c>
       <c r="F47" s="3">
-        <v>191000</v>
+        <v>185400</v>
       </c>
       <c r="G47" s="3">
-        <v>198400</v>
+        <v>187600</v>
       </c>
       <c r="H47" s="3">
-        <v>203600</v>
+        <v>194800</v>
       </c>
       <c r="I47" s="3">
-        <v>205800</v>
+        <v>199900</v>
       </c>
       <c r="J47" s="3">
+        <v>202100</v>
+      </c>
+      <c r="K47" s="3">
         <v>214700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>217800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>216200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>238000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>253800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>125700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>131800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>135000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>137200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>148400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>145100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>144000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>145400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>142400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>152100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>157300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>160000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>171200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>500100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>535500</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>552400</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>554700</v>
       </c>
-      <c r="AF47" s="3">
+      <c r="AG47" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4287400</v>
+        <v>4214500</v>
       </c>
       <c r="E48" s="3">
-        <v>4303000</v>
+        <v>4210100</v>
       </c>
       <c r="F48" s="3">
-        <v>4206700</v>
+        <v>4225400</v>
       </c>
       <c r="G48" s="3">
-        <v>3990500</v>
+        <v>4130900</v>
       </c>
       <c r="H48" s="3">
-        <v>3880200</v>
+        <v>3918600</v>
       </c>
       <c r="I48" s="3">
-        <v>3912100</v>
+        <v>3810300</v>
       </c>
       <c r="J48" s="3">
+        <v>3841500</v>
+      </c>
+      <c r="K48" s="3">
         <v>4009000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3918500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4133900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4347500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4613900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4627400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4776700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4883000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4953200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4956900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4850900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4703600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4691400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4506200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4787000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4869800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4895400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4952000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4989200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>5232400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>5242400</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>5354600</v>
       </c>
-      <c r="AF48" s="3">
+      <c r="AG48" s="3">
         <v>5337700</v>
       </c>
     </row>
-    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>517500</v>
+        <v>503100</v>
       </c>
       <c r="E49" s="3">
-        <v>524200</v>
+        <v>508200</v>
       </c>
       <c r="F49" s="3">
-        <v>530100</v>
+        <v>514700</v>
       </c>
       <c r="G49" s="3">
-        <v>534500</v>
+        <v>520500</v>
       </c>
       <c r="H49" s="3">
-        <v>535300</v>
+        <v>524900</v>
       </c>
       <c r="I49" s="3">
-        <v>539000</v>
+        <v>525600</v>
       </c>
       <c r="J49" s="3">
+        <v>529300</v>
+      </c>
+      <c r="K49" s="3">
         <v>532300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>534800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>530800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>562400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>600400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>607200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>632500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>610800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>609700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>654100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>654200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>643600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>637000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>585000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>612000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>618800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>615500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>617700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>600600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>623000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>629200</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>630700</v>
       </c>
-      <c r="AF49" s="3">
+      <c r="AG49" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4275,8 +4389,11 @@
       <c r="AF50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4367,100 +4484,106 @@
       <c r="AF51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>190300</v>
+        <v>194800</v>
       </c>
       <c r="E52" s="3">
-        <v>235400</v>
+        <v>186800</v>
       </c>
       <c r="F52" s="3">
-        <v>274700</v>
+        <v>231200</v>
       </c>
       <c r="G52" s="3">
-        <v>332400</v>
+        <v>269700</v>
       </c>
       <c r="H52" s="3">
-        <v>393900</v>
+        <v>326400</v>
       </c>
       <c r="I52" s="3">
-        <v>428700</v>
+        <v>386800</v>
       </c>
       <c r="J52" s="3">
+        <v>420900</v>
+      </c>
+      <c r="K52" s="3">
         <v>447900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>520700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>525800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>566100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>602000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>648600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>775300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>711300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>667400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>685600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>681200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>719000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>703200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>680200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>770100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>761800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>725600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>729300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>736800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>797400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>829700</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>745200</v>
       </c>
-      <c r="AF52" s="3">
+      <c r="AG52" s="3">
         <v>739800</v>
       </c>
     </row>
-    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4551,100 +4674,106 @@
       <c r="AF53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7094100</v>
+        <v>6921100</v>
       </c>
       <c r="E54" s="3">
-        <v>7297700</v>
+        <v>6966200</v>
       </c>
       <c r="F54" s="3">
-        <v>7952200</v>
+        <v>7166100</v>
       </c>
       <c r="G54" s="3">
-        <v>7436900</v>
+        <v>7808800</v>
       </c>
       <c r="H54" s="3">
-        <v>7097100</v>
+        <v>7302800</v>
       </c>
       <c r="I54" s="3">
-        <v>6977900</v>
+        <v>6969100</v>
       </c>
       <c r="J54" s="3">
+        <v>6852100</v>
+      </c>
+      <c r="K54" s="3">
         <v>6830600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6903700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6773700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7072400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7541700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7076100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7353000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7412400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7413100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7677800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7295000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7180900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7175600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6846100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7221500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7500000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>7668300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>7710800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>7753900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>8488200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>8447500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>8180100</v>
       </c>
-      <c r="AF54" s="3">
+      <c r="AG54" s="3">
         <v>8100200</v>
       </c>
     </row>
-    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4677,8 +4806,9 @@
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
-    </row>
-    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG55" s="3"/>
+    </row>
+    <row r="56" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4711,560 +4841,579 @@
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
-    </row>
-    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG56" s="3"/>
+    </row>
+    <row r="57" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>489400</v>
+        <v>499500</v>
       </c>
       <c r="E57" s="3">
-        <v>621900</v>
+        <v>480600</v>
       </c>
       <c r="F57" s="3">
-        <v>996500</v>
+        <v>610700</v>
       </c>
       <c r="G57" s="3">
-        <v>946900</v>
+        <v>978600</v>
       </c>
       <c r="H57" s="3">
-        <v>848500</v>
+        <v>929800</v>
       </c>
       <c r="I57" s="3">
-        <v>622600</v>
+        <v>833200</v>
       </c>
       <c r="J57" s="3">
+        <v>611400</v>
+      </c>
+      <c r="K57" s="3">
         <v>510100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>573300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>420900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>469300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>463500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>390200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>314700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>324200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>322000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>296000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>288700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>352600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>378300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>346600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>319900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>373400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>442800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>380300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>313300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>351100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>317300</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>283500</v>
       </c>
-      <c r="AF57" s="3">
+      <c r="AG57" s="3">
         <v>229700</v>
       </c>
     </row>
-    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>101400</v>
+        <v>384600</v>
       </c>
       <c r="E58" s="3">
-        <v>132500</v>
+        <v>99600</v>
       </c>
       <c r="F58" s="3">
-        <v>143600</v>
+        <v>130100</v>
       </c>
       <c r="G58" s="3">
-        <v>534500</v>
+        <v>141000</v>
       </c>
       <c r="H58" s="3">
-        <v>510800</v>
+        <v>524900</v>
       </c>
       <c r="I58" s="3">
-        <v>616000</v>
+        <v>501600</v>
       </c>
       <c r="J58" s="3">
+        <v>604900</v>
+      </c>
+      <c r="K58" s="3">
         <v>624900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>88100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>83200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>83300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>81200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>393300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>402600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>403500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>400000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>85400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>83300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>80800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>112600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>95900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>77500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>105400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>555900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>686900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>701800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>484000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>490900</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>452500</v>
       </c>
-      <c r="AF58" s="3">
+      <c r="AG58" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>556800</v>
+        <v>298800</v>
       </c>
       <c r="E59" s="3">
-        <v>601200</v>
+        <v>546700</v>
       </c>
       <c r="F59" s="3">
-        <v>998000</v>
+        <v>590300</v>
       </c>
       <c r="G59" s="3">
-        <v>710000</v>
+        <v>980000</v>
       </c>
       <c r="H59" s="3">
-        <v>503400</v>
+        <v>697200</v>
       </c>
       <c r="I59" s="3">
-        <v>423500</v>
+        <v>494400</v>
       </c>
       <c r="J59" s="3">
+        <v>415800</v>
+      </c>
+      <c r="K59" s="3">
         <v>294700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>429600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>267600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>150200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>178700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>164800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>185200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>167200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>148900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>228000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>181600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>162400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>173500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>133000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>159600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>203300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>198000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>94500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>105700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>117500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>126800</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>218900</v>
       </c>
-      <c r="AF59" s="3">
+      <c r="AG59" s="3">
         <v>553100</v>
       </c>
     </row>
-    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1147600</v>
+        <v>1182800</v>
       </c>
       <c r="E60" s="3">
-        <v>1355600</v>
+        <v>1126900</v>
       </c>
       <c r="F60" s="3">
-        <v>2138200</v>
+        <v>1331200</v>
       </c>
       <c r="G60" s="3">
-        <v>2191500</v>
+        <v>2099600</v>
       </c>
       <c r="H60" s="3">
-        <v>1862700</v>
+        <v>2151900</v>
       </c>
       <c r="I60" s="3">
-        <v>1662100</v>
+        <v>1829200</v>
       </c>
       <c r="J60" s="3">
+        <v>1632100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1429600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1091100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>771700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>702800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>723500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>948300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>902500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>895000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>870900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>609400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>553500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>595800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>664400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>575500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>557100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>682000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1196700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1161700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1120800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>952600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>934900</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>954900</v>
       </c>
-      <c r="AF60" s="3">
+      <c r="AG60" s="3">
         <v>904200</v>
       </c>
     </row>
-    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3106600</v>
+        <v>2743000</v>
       </c>
       <c r="E61" s="3">
-        <v>3105100</v>
+        <v>3050500</v>
       </c>
       <c r="F61" s="3">
-        <v>3119900</v>
+        <v>3049100</v>
       </c>
       <c r="G61" s="3">
-        <v>2387700</v>
+        <v>3063600</v>
       </c>
       <c r="H61" s="3">
-        <v>2388400</v>
+        <v>2344600</v>
       </c>
       <c r="I61" s="3">
-        <v>2315100</v>
+        <v>2345300</v>
       </c>
       <c r="J61" s="3">
+        <v>2273400</v>
+      </c>
+      <c r="K61" s="3">
         <v>2338100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2743700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2681700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2872800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3084200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2207200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2297700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2348900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2358500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2667100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2590000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2465700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2373800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2217100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2291500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2462400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2202900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2126200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2128400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2822500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>2859400</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>2714200</v>
       </c>
-      <c r="AF61" s="3">
+      <c r="AG61" s="3">
         <v>2710300</v>
       </c>
     </row>
-    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1157200</v>
+        <v>1059300</v>
       </c>
       <c r="E62" s="3">
-        <v>1183800</v>
+        <v>1136300</v>
       </c>
       <c r="F62" s="3">
-        <v>1221600</v>
+        <v>1162500</v>
       </c>
       <c r="G62" s="3">
-        <v>1068300</v>
+        <v>1199600</v>
       </c>
       <c r="H62" s="3">
-        <v>1014300</v>
+        <v>1049100</v>
       </c>
       <c r="I62" s="3">
-        <v>1046100</v>
+        <v>996000</v>
       </c>
       <c r="J62" s="3">
+        <v>1027300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1143100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1103700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>982100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>961100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1075500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1030400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1020900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>952300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1016700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1080300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1015900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1026900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>990900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>940300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1021500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1029100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1005400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1091800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1081300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1118500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1070900</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>1025600</v>
       </c>
-      <c r="AF62" s="3">
+      <c r="AG62" s="3">
         <v>990200</v>
       </c>
     </row>
-    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5355,8 +5504,11 @@
       <c r="AF63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5447,8 +5599,11 @@
       <c r="AF64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5539,100 +5694,106 @@
       <c r="AF65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6002100</v>
+        <v>5545600</v>
       </c>
       <c r="E66" s="3">
-        <v>6271600</v>
+        <v>5893900</v>
       </c>
       <c r="F66" s="3">
-        <v>7130400</v>
+        <v>6158500</v>
       </c>
       <c r="G66" s="3">
-        <v>6298200</v>
+        <v>7001800</v>
       </c>
       <c r="H66" s="3">
-        <v>5931800</v>
+        <v>6184700</v>
       </c>
       <c r="I66" s="3">
-        <v>5723000</v>
+        <v>5824800</v>
       </c>
       <c r="J66" s="3">
+        <v>5619800</v>
+      </c>
+      <c r="K66" s="3">
         <v>5659300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5697000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5187700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5315300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5721900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5034500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5059200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5063600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5104500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5269400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5027700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4966100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4894600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4546200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4740300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4962400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5193100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5185700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5167100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>5770900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>5750200</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>5562000</v>
       </c>
-      <c r="AF66" s="3">
+      <c r="AG66" s="3">
         <v>5469000</v>
       </c>
     </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5665,8 +5826,9 @@
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
-    </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG67" s="3"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5757,8 +5919,11 @@
       <c r="AF68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5849,79 +6014,82 @@
       <c r="AF69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>684800</v>
+      </c>
+      <c r="E70" s="3">
+        <v>684800</v>
+      </c>
+      <c r="F70" s="3">
+        <v>684800</v>
+      </c>
+      <c r="G70" s="3">
+        <v>684800</v>
+      </c>
+      <c r="H70" s="3">
+        <v>684800</v>
+      </c>
+      <c r="I70" s="3">
+        <v>684800</v>
+      </c>
+      <c r="J70" s="3">
+        <v>684800</v>
+      </c>
+      <c r="K70" s="3">
         <v>697400</v>
       </c>
-      <c r="E70" s="3">
-        <v>697400</v>
-      </c>
-      <c r="F70" s="3">
-        <v>697400</v>
-      </c>
-      <c r="G70" s="3">
-        <v>697400</v>
-      </c>
-      <c r="H70" s="3">
-        <v>697400</v>
-      </c>
-      <c r="I70" s="3">
-        <v>697400</v>
-      </c>
-      <c r="J70" s="3">
-        <v>697400</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>697800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>681300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>707300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>728900</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>722200</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>739200</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>739500</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>734400</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>781000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>747000</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>725200</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>716900</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>684500</v>
-      </c>
-      <c r="X70" s="3">
-        <v>709100</v>
       </c>
       <c r="Y70" s="3">
         <v>709100</v>
       </c>
       <c r="Z70" s="3">
-        <v>701000</v>
+        <v>709100</v>
       </c>
       <c r="AA70" s="3">
         <v>701000</v>
@@ -5930,7 +6098,7 @@
         <v>701000</v>
       </c>
       <c r="AC70" s="3">
-        <v>723700</v>
+        <v>701000</v>
       </c>
       <c r="AD70" s="3">
         <v>723700</v>
@@ -5941,8 +6109,11 @@
       <c r="AF70" s="3">
         <v>723700</v>
       </c>
-    </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG70" s="3">
+        <v>723700</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -6033,100 +6204,106 @@
       <c r="AF71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1613200</v>
+        <v>-1324600</v>
       </c>
       <c r="E72" s="3">
-        <v>-1645100</v>
+        <v>-1584200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1861300</v>
+        <v>-1615400</v>
       </c>
       <c r="G72" s="3">
-        <v>-1716200</v>
+        <v>-1827700</v>
       </c>
       <c r="H72" s="3">
-        <v>-1749500</v>
+        <v>-1685200</v>
       </c>
       <c r="I72" s="3">
-        <v>-1680600</v>
+        <v>-1717900</v>
       </c>
       <c r="J72" s="3">
+        <v>-1650300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1816100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1748900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1359700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1393600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1412900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1261100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1176300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1125000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1134400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1260200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1238700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1199400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1138600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-986100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-952300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-879300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-899700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-785900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-716700</v>
-      </c>
-      <c r="AC72" s="3">
-        <v>-716800</v>
       </c>
       <c r="AD72" s="3">
         <v>-716800</v>
       </c>
       <c r="AE72" s="3">
+        <v>-716800</v>
+      </c>
+      <c r="AF72" s="3">
         <v>-775100</v>
       </c>
-      <c r="AF72" s="3">
+      <c r="AG72" s="3">
         <v>-756700</v>
       </c>
     </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6217,8 +6394,11 @@
       <c r="AF73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6309,8 +6489,11 @@
       <c r="AF74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6401,100 +6584,106 @@
       <c r="AF75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>394600</v>
+        <v>690700</v>
       </c>
       <c r="E76" s="3">
-        <v>328700</v>
+        <v>387500</v>
       </c>
       <c r="F76" s="3">
-        <v>124400</v>
+        <v>322800</v>
       </c>
       <c r="G76" s="3">
-        <v>441300</v>
+        <v>122100</v>
       </c>
       <c r="H76" s="3">
-        <v>467900</v>
+        <v>433300</v>
       </c>
       <c r="I76" s="3">
-        <v>557500</v>
+        <v>459500</v>
       </c>
       <c r="J76" s="3">
+        <v>547400</v>
+      </c>
+      <c r="K76" s="3">
         <v>473800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>508900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>904700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1049700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1091000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1319400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1554600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1609400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1574200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1627400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1520200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1489600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1564000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1615400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1772100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1828500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1774200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1824100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1885800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1993600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1973600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>1894500</v>
       </c>
-      <c r="AF76" s="3">
+      <c r="AG76" s="3">
         <v>1907500</v>
       </c>
     </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6585,197 +6774,206 @@
       <c r="AF77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
-      <c r="AF80" s="2">
+      <c r="AG80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>45900</v>
+        <v>270400</v>
       </c>
       <c r="E81" s="3">
-        <v>217700</v>
+        <v>45100</v>
       </c>
       <c r="F81" s="3">
-        <v>-120700</v>
+        <v>213700</v>
       </c>
       <c r="G81" s="3">
-        <v>45200</v>
+        <v>-118500</v>
       </c>
       <c r="H81" s="3">
-        <v>-59200</v>
+        <v>44300</v>
       </c>
       <c r="I81" s="3">
-        <v>137700</v>
+        <v>-58200</v>
       </c>
       <c r="J81" s="3">
+        <v>135200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-57700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-368900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-22500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-129200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-104300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-47100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>21200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>51500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>42300</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-50000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-92900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-62500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-79000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>48900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-107900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-20100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-13400</v>
       </c>
-      <c r="AC81" s="3">
-        <v>0</v>
-      </c>
       <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="3">
         <v>46900</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-9200</v>
       </c>
-      <c r="AF81" s="3">
+      <c r="AG81" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6808,100 +7006,104 @@
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
-    </row>
-    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG82" s="3"/>
+    </row>
+    <row r="83" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>128100</v>
+        <v>101800</v>
       </c>
       <c r="E83" s="3">
-        <v>130300</v>
+        <v>125800</v>
       </c>
       <c r="F83" s="3">
-        <v>139200</v>
+        <v>128000</v>
       </c>
       <c r="G83" s="3">
-        <v>132500</v>
+        <v>136700</v>
       </c>
       <c r="H83" s="3">
+        <v>130100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>83600</v>
+      </c>
+      <c r="J83" s="3">
         <v>85100</v>
       </c>
-      <c r="I83" s="3">
-        <v>86600</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>107400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>425200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>125100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>153200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>178700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>149500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>147500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>144400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>144200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>146700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>137200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>133900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>142300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>130800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>137000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>121200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>148100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>131000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>128700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>122900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>158300</v>
-      </c>
-      <c r="AE83" s="3">
-        <v>123700</v>
       </c>
       <c r="AF83" s="3">
         <v>123700</v>
       </c>
-    </row>
-    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG83" s="3">
+        <v>123700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6992,8 +7194,11 @@
       <c r="AF84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -7084,8 +7289,11 @@
       <c r="AF85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -7176,8 +7384,11 @@
       <c r="AF86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7268,8 +7479,11 @@
       <c r="AF87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7360,100 +7574,106 @@
       <c r="AF88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8100</v>
+        <v>495100</v>
       </c>
       <c r="E89" s="3">
-        <v>342000</v>
+        <v>8000</v>
       </c>
       <c r="F89" s="3">
-        <v>259900</v>
+        <v>335900</v>
       </c>
       <c r="G89" s="3">
-        <v>151000</v>
+        <v>255200</v>
       </c>
       <c r="H89" s="3">
-        <v>-95500</v>
+        <v>148300</v>
       </c>
       <c r="I89" s="3">
-        <v>333900</v>
+        <v>-93800</v>
       </c>
       <c r="J89" s="3">
+        <v>327900</v>
+      </c>
+      <c r="K89" s="3">
         <v>40000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>701500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>57900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>193000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>85100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>197000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>95000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>168000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>141100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>271900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>204600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>63100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>100500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>115500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>78300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>319900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>60300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>149600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>46900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>215900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>93700</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>175200</v>
       </c>
-      <c r="AF89" s="3">
+      <c r="AG89" s="3">
         <v>91400</v>
       </c>
     </row>
-    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7486,100 +7706,104 @@
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
-    </row>
-    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG90" s="3"/>
+    </row>
+    <row r="91" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-168000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-195000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-287000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-441000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-284000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-131000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-93000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-141000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-128000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-86100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-73600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-162500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-98900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-58900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-56500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-138000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-79600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-87200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-26200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-76900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-67600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-45200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-17300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-53600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-81100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-72200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-49200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-83700</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-76800</v>
       </c>
-      <c r="AF91" s="3">
+      <c r="AG91" s="3">
         <v>-62200</v>
       </c>
     </row>
-    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7670,8 +7894,11 @@
       <c r="AF92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7762,100 +7989,106 @@
       <c r="AF93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-137000</v>
+        <v>-162900</v>
       </c>
       <c r="E94" s="3">
-        <v>-134700</v>
+        <v>-134500</v>
       </c>
       <c r="F94" s="3">
-        <v>-296100</v>
+        <v>-132300</v>
       </c>
       <c r="G94" s="3">
-        <v>-129600</v>
+        <v>-290800</v>
       </c>
       <c r="H94" s="3">
-        <v>-69600</v>
+        <v>-127200</v>
       </c>
       <c r="I94" s="3">
-        <v>-53300</v>
+        <v>-68300</v>
       </c>
       <c r="J94" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-199900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-149600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-83300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-246800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-125700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-85500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-74600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-148900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-75400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-140400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-40800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-76100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-98100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-79800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-39900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>224000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-107900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-55100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>3800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-65300</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-76100</v>
       </c>
-      <c r="AF94" s="3">
+      <c r="AG94" s="3">
         <v>-58400</v>
       </c>
     </row>
-    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7888,100 +8121,104 @@
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
-    </row>
-    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG95" s="3"/>
+    </row>
+    <row r="96" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-11100</v>
+        <v>-10200</v>
       </c>
       <c r="E96" s="3">
-        <v>-11100</v>
+        <v>-10900</v>
       </c>
       <c r="F96" s="3">
-        <v>-9600</v>
+        <v>-10900</v>
       </c>
       <c r="G96" s="3">
-        <v>-10400</v>
+        <v>-9500</v>
       </c>
       <c r="H96" s="3">
-        <v>-9600</v>
+        <v>-10200</v>
       </c>
       <c r="I96" s="3">
-        <v>-10400</v>
+        <v>-9500</v>
       </c>
       <c r="J96" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-8100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-27400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-9000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-9300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-9200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-9400</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-8600</v>
       </c>
       <c r="R96" s="3">
         <v>-8600</v>
       </c>
       <c r="S96" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="T96" s="3">
         <v>-9100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-9500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-8500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-9100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-8000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-8300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-8200</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-8900</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-8200</v>
-      </c>
-      <c r="AC96" s="3">
-        <v>-9200</v>
       </c>
       <c r="AD96" s="3">
         <v>-9200</v>
       </c>
       <c r="AE96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-8500</v>
       </c>
-      <c r="AF96" s="3">
+      <c r="AG96" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -8072,8 +8309,11 @@
       <c r="AF97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -8164,8 +8404,11 @@
       <c r="AF98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8256,280 +8499,292 @@
       <c r="AF99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-85100</v>
+        <v>-127200</v>
       </c>
       <c r="E100" s="3">
-        <v>-122200</v>
+        <v>-83600</v>
       </c>
       <c r="F100" s="3">
-        <v>266500</v>
+        <v>-120000</v>
       </c>
       <c r="G100" s="3">
-        <v>-84400</v>
+        <v>261700</v>
       </c>
       <c r="H100" s="3">
-        <v>-70300</v>
+        <v>-82900</v>
       </c>
       <c r="I100" s="3">
-        <v>-78500</v>
+        <v>-69100</v>
       </c>
       <c r="J100" s="3">
+        <v>-77100</v>
+      </c>
+      <c r="K100" s="3">
         <v>60700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-269600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-52800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-150200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>496000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-60600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-73800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-153900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>74100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-98700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>15100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-28900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-37100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-154300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-268700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-115400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-13400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-328900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-67600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>86000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-49900</v>
       </c>
-      <c r="AF100" s="3">
+      <c r="AG100" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1500</v>
       </c>
-      <c r="F101" s="3">
-        <v>5200</v>
-      </c>
       <c r="G101" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H101" s="3">
         <v>2200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-3700</v>
-      </c>
       <c r="I101" s="3">
-        <v>700</v>
+        <v>-3600</v>
       </c>
       <c r="J101" s="3">
         <v>700</v>
       </c>
       <c r="K101" s="3">
+        <v>700</v>
+      </c>
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>8</v>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>800</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
         <v>0</v>
       </c>
       <c r="AA101" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="AB101" s="3">
         <v>-700</v>
       </c>
       <c r="AC101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AD101" s="3">
         <v>800</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-800</v>
       </c>
-      <c r="AE101" s="3">
-        <v>0</v>
-      </c>
       <c r="AF101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-218400</v>
+        <v>202800</v>
       </c>
       <c r="E102" s="3">
-        <v>83700</v>
+        <v>-214500</v>
       </c>
       <c r="F102" s="3">
-        <v>235400</v>
+        <v>82200</v>
       </c>
       <c r="G102" s="3">
-        <v>-60700</v>
+        <v>231200</v>
       </c>
       <c r="H102" s="3">
-        <v>-239100</v>
+        <v>-59600</v>
       </c>
       <c r="I102" s="3">
-        <v>202900</v>
+        <v>-234800</v>
       </c>
       <c r="J102" s="3">
+        <v>199200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-98500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>279300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-41300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>335000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>10000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-63600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-57300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>66300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>97800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>78500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>15400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-20300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-155100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>11300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>168900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>27500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-337900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>152900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>113700</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>49200</v>
       </c>
-      <c r="AF102" s="3">
+      <c r="AG102" s="3">
         <v>48400</v>
       </c>
     </row>
